--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>repeat</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>NON-STATIONARY CASES</t>
+  </si>
+  <si>
+    <t>POKER page-hinkley resetSingle</t>
+  </si>
+  <si>
+    <t>CP_thr=43</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -310,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,6 +333,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BG11"/>
+  <dimension ref="A2:BH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="V17:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,10 +671,12 @@
     <col min="14" max="16" width="11.5703125" style="4" customWidth="1"/>
     <col min="19" max="21" width="9.140625" style="2"/>
     <col min="22" max="22" width="13" style="1" customWidth="1"/>
-    <col min="23" max="32" width="9.140625" style="6"/>
+    <col min="23" max="24" width="9.140625" style="6"/>
+    <col min="25" max="26" width="9.140625" style="6" customWidth="1"/>
+    <col min="27" max="32" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="W2" s="6" t="s">
         <v>53</v>
       </c>
@@ -656,13 +684,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="R3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="e">
         <f>MATCH(MAX(S8:S29),S8:S11,0)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="T3">
         <f>MATCH(MIN(T8:T29),T8:T11,0)</f>
@@ -672,167 +700,167 @@
         <f>MATCH(MAX(U8:U29),U8:U11,0)</f>
         <v>1</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="e">
         <f t="shared" ref="V3:BG3" si="0">MATCH(MAX(V8:V29),V8:V11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W3" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X3" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y3" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB3" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AC3" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AD3" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AE3" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W3" s="6">
+      <c r="AF3" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="X3" s="6">
+      <c r="AH3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AN3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AQ3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AR3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AS3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BB3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BC3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BF3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="BG3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AB3" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AC3" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD3" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AE3" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AF3" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AQ3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AR3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AS3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AY3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="BA3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BB3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BC3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BD3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="BE3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="BF3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="BG3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="R4" s="3"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="I5" s="4" t="s">
         <v>69</v>
       </c>
@@ -961,7 +989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1128,12 +1156,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1149,7 +1177,7 @@
       </c>
       <c r="J8" s="4">
         <f>COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A8,"d")))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K8" s="7">
         <f>AVERAGE(W8:AF8)</f>
@@ -1173,7 +1201,7 @@
       </c>
       <c r="P8" s="4">
         <f>COUNTIF(AT$3:BG$3,CONCATENATE("=",TEXT($A8,"d")))+COUNTIF(AB$3:AF$3,CONCATENATE("=",TEXT($A8,"d")))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R8">
         <v>1000</v>
@@ -1302,7 +1330,7 @@
         <v>36.49</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1326,27 +1354,27 @@
         <v>47.98</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" ref="J9:J11" si="1">COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))</f>
-        <v>9</v>
+        <f t="shared" ref="J9:J12" si="1">COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <v>6</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" ref="K9:M11" si="2">AVERAGE(W9:AF9)</f>
+        <f t="shared" ref="K9:K12" si="2">AVERAGE(W9:AF9)</f>
         <v>53.259</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" ref="L9:N11" si="3">COUNTIF(W$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
-        <v>4</v>
+        <f t="shared" ref="L9:L12" si="3">COUNTIF(W$3:AF$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <v>3</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" ref="M9:O11" si="4">(SUM(W9:AA9)+SUM(AG9:AS9))/(COUNT(W9:AA9)+COUNT(AG9:AS9))</f>
+        <f t="shared" ref="M9:M12" si="4">(SUM(W9:AA9)+SUM(AG9:AS9))/(COUNT(W9:AA9)+COUNT(AG9:AS9))</f>
         <v>49.606666666666662</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" ref="N9:N11" si="5">COUNTIF(AG$3:AS$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(W$3:AA$3,CONCATENATE("=",TEXT($A9,"d")))</f>
-        <v>6</v>
+        <f t="shared" ref="N9:N12" si="5">COUNTIF(AG$3:AS$3,CONCATENATE("=",TEXT($A9,"d")))+COUNTIF(W$3:AA$3,CONCATENATE("=",TEXT($A9,"d")))</f>
+        <v>3</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" ref="O9:O11" si="6">(SUM(AB9:AF9)+SUM(AT9:BG9))/(COUNT(AB9:AF9)+COUNT(AT9:BG9))</f>
+        <f t="shared" ref="O9:O12" si="6">(SUM(AB9:AF9)+SUM(AT9:BG9))/(COUNT(AB9:AF9)+COUNT(AT9:BG9))</f>
         <v>46.445263157894736</v>
       </c>
       <c r="P9" s="4">
@@ -1480,7 +1508,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1502,7 +1530,7 @@
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="2"/>
@@ -1518,7 +1546,7 @@
       </c>
       <c r="N10" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="6"/>
@@ -1655,7 +1683,7 @@
         <v>37.44</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1680,7 +1708,7 @@
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
@@ -1688,7 +1716,7 @@
       </c>
       <c r="L11" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="4"/>
@@ -1696,7 +1724,7 @@
       </c>
       <c r="N11" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O11" s="7">
         <f t="shared" si="6"/>
@@ -1832,6 +1860,184 @@
       <c r="BG11">
         <v>41.45</v>
       </c>
+    </row>
+    <row r="12" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="4">
+        <f>V12</f>
+        <v>49.33</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>42.266000000000005</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="4"/>
+        <v>58.010000000000005</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="6"/>
+        <v>39.95473684210527</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="13">
+        <v>52719.95</v>
+      </c>
+      <c r="T12" s="13">
+        <v>3032.55</v>
+      </c>
+      <c r="U12" s="13">
+        <v>89.62</v>
+      </c>
+      <c r="V12" s="14">
+        <v>49.33</v>
+      </c>
+      <c r="W12" s="15">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="X12" s="15">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>64.37</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>21.11</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>10.71</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>48.71</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>42.07</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>57.83</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>72.88</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>77.56</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>13.08</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>99.02</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>38.82</v>
+      </c>
+      <c r="AL12" s="12">
+        <v>73.19</v>
+      </c>
+      <c r="AM12" s="12">
+        <v>57.26</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>53.78</v>
+      </c>
+      <c r="AO12" s="12">
+        <v>52.88</v>
+      </c>
+      <c r="AP12" s="12">
+        <v>12.61</v>
+      </c>
+      <c r="AQ12" s="12">
+        <v>69.28</v>
+      </c>
+      <c r="AR12" s="12">
+        <v>97.21</v>
+      </c>
+      <c r="AS12" s="12">
+        <v>89.81</v>
+      </c>
+      <c r="AT12" s="12">
+        <v>7</v>
+      </c>
+      <c r="AU12" s="12">
+        <v>92.89</v>
+      </c>
+      <c r="AV12" s="12">
+        <v>29.53</v>
+      </c>
+      <c r="AW12" s="12">
+        <v>30.04</v>
+      </c>
+      <c r="AX12" s="12">
+        <v>33.49</v>
+      </c>
+      <c r="AY12" s="12">
+        <v>27.51</v>
+      </c>
+      <c r="AZ12" s="12">
+        <v>28.54</v>
+      </c>
+      <c r="BA12" s="12">
+        <v>56.71</v>
+      </c>
+      <c r="BB12" s="12">
+        <v>37.33</v>
+      </c>
+      <c r="BC12" s="12">
+        <v>37.29</v>
+      </c>
+      <c r="BD12" s="12">
+        <v>64.78</v>
+      </c>
+      <c r="BE12" s="12">
+        <v>62.24</v>
+      </c>
+      <c r="BF12" s="12">
+        <v>42.6</v>
+      </c>
+      <c r="BG12" s="12">
+        <v>23.33</v>
+      </c>
+      <c r="BH12" s="12">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="M13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="V17:AB19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,24 +688,24 @@
       <c r="R3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" t="e">
-        <f>MATCH(MAX(S8:S29),S8:S11,0)</f>
-        <v>#N/A</v>
+      <c r="S3">
+        <f>MATCH(MAX(S8:S29),S8:S110,0)</f>
+        <v>5</v>
       </c>
       <c r="T3">
-        <f>MATCH(MIN(T8:T29),T8:T11,0)</f>
+        <f>MATCH(MIN(T8:T29),T8:T110,0)</f>
         <v>1</v>
       </c>
       <c r="U3">
-        <f>MATCH(MAX(U8:U29),U8:U11,0)</f>
+        <f>MATCH(MAX(U8:U29),U8:U110,0)</f>
         <v>1</v>
       </c>
-      <c r="V3" t="e">
-        <f t="shared" ref="V3:BG3" si="0">MATCH(MAX(V8:V29),V8:V11,0)</f>
-        <v>#N/A</v>
+      <c r="V3">
+        <f>MATCH(MAX(V8:V29),V8:V29,0)</f>
+        <v>5</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W3:BG3" si="0">MATCH(MAX(W8:W29),W8:W29,0)</f>
         <v>3</v>
       </c>
       <c r="X3" s="6">
@@ -716,13 +716,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z3" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA3" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="Z3" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AA3" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AB3" s="6">
         <f t="shared" si="0"/>
@@ -760,21 +760,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AK3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AM3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AN3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AO3">
         <f t="shared" si="0"/>
@@ -784,17 +784,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AQ3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="AQ3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AT3">
         <f t="shared" si="0"/>
@@ -828,13 +828,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BB3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="BB3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="BD3">
         <f t="shared" si="0"/>
@@ -1862,6 +1862,9 @@
       </c>
     </row>
     <row r="12" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
       <c r="B12" s="10" t="s">
         <v>73</v>
       </c>
@@ -1879,8 +1882,8 @@
         <v>49.33</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF(W$3:BG$3,CONCATENATE("=",TEXT($A12,"d")))</f>
+        <v>10</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="2"/>
@@ -1888,7 +1891,7 @@
       </c>
       <c r="L12" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="4"/>
@@ -1896,7 +1899,7 @@
       </c>
       <c r="N12" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O12" s="7">
         <f t="shared" si="6"/>
@@ -1904,7 +1907,7 @@
       </c>
       <c r="P12" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>75</v>
@@ -2032,9 +2035,7 @@
       <c r="BG12" s="12">
         <v>23.33</v>
       </c>
-      <c r="BH12" s="12">
-        <v>71.23</v>
-      </c>
+      <c r="BH12" s="12"/>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="M13" s="11"/>

--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
   <si>
     <t>repeat</t>
   </si>
@@ -314,6 +314,9 @@
   <si>
     <t>copy from matlab here below</t>
   </si>
+  <si>
+    <t>POKER  PH reset to zero</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +401,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -419,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,11 +474,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1097,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL73"/>
+  <dimension ref="A1:BL74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,40 +1219,40 @@
         <v>52</v>
       </c>
       <c r="U3">
-        <f>MATCH(MAX(U8:U125),U8:U125,0)</f>
+        <f>MATCH(MAX(U8:U126),U8:U126,0)</f>
         <v>6</v>
       </c>
       <c r="V3">
-        <f>MATCH(MIN(V8:V125),V8:V125,0)</f>
-        <v>9</v>
+        <f>MATCH(MIN(V8:V126),V8:V126,0)</f>
+        <v>10</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:BI3" si="0">MATCH(MAX(W8:W125),W8:W125,0)</f>
-        <v>17</v>
+        <f t="shared" ref="W3:BI3" si="0">MATCH(MAX(W8:W126),W8:W126,0)</f>
+        <v>18</v>
       </c>
       <c r="X3" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
@@ -1185,7 +1260,7 @@
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
@@ -1193,11 +1268,11 @@
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
@@ -1205,11 +1280,11 @@
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL3">
         <f t="shared" si="0"/>
@@ -1217,7 +1292,7 @@
       </c>
       <c r="AM3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN3">
         <f t="shared" si="0"/>
@@ -1225,11 +1300,11 @@
       </c>
       <c r="AO3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ3">
         <f t="shared" si="0"/>
@@ -1237,7 +1312,7 @@
       </c>
       <c r="AR3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS3">
         <f t="shared" si="0"/>
@@ -1257,11 +1332,11 @@
       </c>
       <c r="AW3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY3">
         <f t="shared" si="0"/>
@@ -1269,19 +1344,19 @@
       </c>
       <c r="AZ3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD3">
         <f t="shared" si="0"/>
@@ -1293,7 +1368,7 @@
       </c>
       <c r="BF3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BG3">
         <f t="shared" si="0"/>
@@ -1301,11 +1376,11 @@
       </c>
       <c r="BH3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
@@ -1850,7 +1925,7 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A47" si="1">A9+1</f>
+        <f t="shared" ref="A10:A48" si="1">A9+1</f>
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1882,23 +1957,23 @@
         <v>56.414999999999999</v>
       </c>
       <c r="N10" s="19">
-        <f t="shared" ref="N10:N27" si="2">(SUM(Y10:AC10))/(COUNT(Y10:AC10))</f>
+        <f t="shared" ref="N10:N28" si="2">(SUM(Y10:AC10))/(COUNT(Y10:AC10))</f>
         <v>49.214000000000006</v>
       </c>
       <c r="O10" s="19">
-        <f t="shared" ref="O10:O27" si="3">(SUM(AD10:AH10))/(COUNT(AD10:AH10))</f>
+        <f t="shared" ref="O10:O28" si="3">(SUM(AD10:AH10))/(COUNT(AD10:AH10))</f>
         <v>63.616</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" ref="P10:P27" si="4">AVERAGE(AI10:BI10)</f>
+        <f t="shared" ref="P10:P28" si="4">AVERAGE(AI10:BI10)</f>
         <v>45.922592592592586</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" ref="Q10:Q27" si="5">(SUM(AI10:AU10))/(COUNT(AI10:AU10))</f>
+        <f t="shared" ref="Q10:Q28" si="5">(SUM(AI10:AU10))/(COUNT(AI10:AU10))</f>
         <v>49.058461538461529</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" ref="R10:R27" si="6">(SUM(AV10:BI10))/(COUNT(AV10:BI10))</f>
+        <f t="shared" ref="R10:R28" si="6">(SUM(AV10:BI10))/(COUNT(AV10:BI10))</f>
         <v>43.010714285714293</v>
       </c>
       <c r="T10">
@@ -2028,7 +2103,7 @@
         <v>37.44</v>
       </c>
       <c r="BL10" t="str">
-        <f t="shared" ref="BL10:BL27" si="7">B10</f>
+        <f t="shared" ref="BL10:BL28" si="7">B10</f>
         <v>UCBT page-hinkley resetSingle</v>
       </c>
     </row>
@@ -2481,7 +2556,7 @@
       <c r="H14" s="3"/>
       <c r="I14"/>
       <c r="J14" s="14">
-        <f t="shared" ref="J14" si="8">X14</f>
+        <f t="shared" ref="J14:J15" si="8">X14</f>
         <v>42.99</v>
       </c>
       <c r="K14" s="14">
@@ -2650,324 +2725,439 @@
       </c>
     </row>
     <row r="15" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="3"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="22"/>
-      <c r="AU15" s="22"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22"/>
-      <c r="AX15" s="22"/>
-      <c r="AY15" s="22"/>
-      <c r="AZ15" s="22"/>
-      <c r="BA15" s="22"/>
-      <c r="BB15" s="22"/>
-      <c r="BC15" s="22"/>
-      <c r="BD15" s="22"/>
-      <c r="BE15" s="22"/>
-      <c r="BF15" s="22"/>
-      <c r="BG15" s="22"/>
-      <c r="BH15" s="22"/>
-      <c r="BI15" s="22"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="29">
+        <f t="shared" si="8"/>
+        <v>51.24</v>
+      </c>
+      <c r="K15" s="14">
+        <f>(SUM(Y15:AC15)+SUM(AI15:AU15))/(COUNT(Y15:AC15)+COUNT(AI15:AU15))</f>
+        <v>58.95055555555556</v>
+      </c>
+      <c r="L15" s="14">
+        <f>(SUM(AD15:AH15)+SUM(AV15:BI15))/(COUNT(AD15:AH15)+COUNT(AV15:BI15))</f>
+        <v>43.931052631578943</v>
+      </c>
+      <c r="M15" s="19">
+        <f>AVERAGE(Y15:AH15)</f>
+        <v>47.472999999999999</v>
+      </c>
+      <c r="N15" s="19">
+        <f t="shared" si="2"/>
+        <v>50.238</v>
+      </c>
+      <c r="O15" s="19">
+        <f t="shared" si="3"/>
+        <v>44.707999999999998</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="4"/>
+        <v>52.632222222222225</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" si="5"/>
+        <v>62.30153846153847</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="6"/>
+        <v>43.653571428571425</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25">
+        <v>1000</v>
+      </c>
+      <c r="U15" s="27">
+        <v>52161.77</v>
+      </c>
+      <c r="V15" s="27">
+        <v>2690.73</v>
+      </c>
+      <c r="W15" s="27">
+        <v>90.44</v>
+      </c>
+      <c r="X15" s="26">
+        <v>51.24</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>75.84</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>63.15</v>
+      </c>
+      <c r="AB15" s="28">
+        <v>17.87</v>
+      </c>
+      <c r="AC15" s="28">
+        <v>16.48</v>
+      </c>
+      <c r="AD15" s="28">
+        <v>57.99</v>
+      </c>
+      <c r="AE15" s="28">
+        <v>33.64</v>
+      </c>
+      <c r="AF15" s="28">
+        <v>39.33</v>
+      </c>
+      <c r="AG15" s="28">
+        <v>58.67</v>
+      </c>
+      <c r="AH15" s="28">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="AI15" s="25">
+        <v>72.91</v>
+      </c>
+      <c r="AJ15" s="25">
+        <v>77.59</v>
+      </c>
+      <c r="AK15" s="25">
+        <v>17.5</v>
+      </c>
+      <c r="AL15" s="25">
+        <v>99</v>
+      </c>
+      <c r="AM15" s="25">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AN15" s="25">
+        <v>62.85</v>
+      </c>
+      <c r="AO15" s="25">
+        <v>60</v>
+      </c>
+      <c r="AP15" s="25">
+        <v>55.44</v>
+      </c>
+      <c r="AQ15" s="25">
+        <v>58.07</v>
+      </c>
+      <c r="AR15" s="25">
+        <v>16.03</v>
+      </c>
+      <c r="AS15" s="25">
+        <v>65.22</v>
+      </c>
+      <c r="AT15" s="25">
+        <v>97.08</v>
+      </c>
+      <c r="AU15" s="25">
+        <v>88.53</v>
+      </c>
+      <c r="AV15" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="AW15" s="25">
+        <v>93.19</v>
+      </c>
+      <c r="AX15" s="25">
+        <v>30.87</v>
+      </c>
+      <c r="AY15" s="25">
+        <v>26.79</v>
+      </c>
+      <c r="AZ15" s="25">
+        <v>32.97</v>
+      </c>
+      <c r="BA15" s="25">
+        <v>29.07</v>
+      </c>
+      <c r="BB15" s="25">
+        <v>24.13</v>
+      </c>
+      <c r="BC15" s="25">
+        <v>58.95</v>
+      </c>
+      <c r="BD15" s="25">
+        <v>38.17</v>
+      </c>
+      <c r="BE15" s="25">
+        <v>36.24</v>
+      </c>
+      <c r="BF15" s="25">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="BG15" s="25">
+        <v>60.27</v>
+      </c>
+      <c r="BH15" s="25">
+        <v>59.98</v>
+      </c>
+      <c r="BI15" s="25">
+        <v>47.35</v>
+      </c>
       <c r="BJ15" s="8"/>
-      <c r="BL15"/>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL15" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v>POKER  PH reset to zero</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f>A14+1</f>
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="22"/>
+      <c r="BF16" s="22"/>
+      <c r="BG16" s="22"/>
+      <c r="BH16" s="22"/>
+      <c r="BI16" s="22"/>
+      <c r="BJ16" s="8"/>
+      <c r="BL16"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="14">
-        <f t="shared" ref="J16" si="9">X16</f>
+      <c r="J17" s="14">
+        <f t="shared" ref="J17" si="9">X17</f>
         <v>52.01</v>
       </c>
-      <c r="K16" s="14">
-        <f>(SUM(Y16:AC16)+SUM(AI16:AU16))/(COUNT(Y16:AC16)+COUNT(AI16:AU16))</f>
+      <c r="K17" s="14">
+        <f>(SUM(Y17:AC17)+SUM(AI17:AU17))/(COUNT(Y17:AC17)+COUNT(AI17:AU17))</f>
         <v>55.12222222222222</v>
       </c>
-      <c r="L16" s="14">
-        <f>(SUM(AD16:AH16)+SUM(AV16:BI16))/(COUNT(AD16:AH16)+COUNT(AV16:BI16))</f>
+      <c r="L17" s="14">
+        <f>(SUM(AD17:AH17)+SUM(AV17:BI17))/(COUNT(AD17:AH17)+COUNT(AV17:BI17))</f>
         <v>49.054210526315785</v>
       </c>
-      <c r="M16" s="19">
-        <f>AVERAGE(Y16:AH16)</f>
+      <c r="M17" s="19">
+        <f>AVERAGE(Y17:AH17)</f>
         <v>52.346000000000004</v>
       </c>
-      <c r="N16" s="19">
-        <f t="shared" ref="N16" si="10">(SUM(Y16:AC16))/(COUNT(Y16:AC16))</f>
+      <c r="N17" s="19">
+        <f t="shared" ref="N17" si="10">(SUM(Y17:AC17))/(COUNT(Y17:AC17))</f>
         <v>53.179999999999993</v>
       </c>
-      <c r="O16" s="19">
-        <f t="shared" ref="O16" si="11">(SUM(AD16:AH16))/(COUNT(AD16:AH16))</f>
+      <c r="O17" s="19">
+        <f t="shared" ref="O17" si="11">(SUM(AD17:AH17))/(COUNT(AD17:AH17))</f>
         <v>51.512</v>
       </c>
-      <c r="P16" s="14">
-        <f t="shared" ref="P16" si="12">AVERAGE(AI16:BI16)</f>
+      <c r="P17" s="14">
+        <f t="shared" ref="P17" si="12">AVERAGE(AI17:BI17)</f>
         <v>51.880370370370379</v>
       </c>
-      <c r="Q16" s="14">
-        <f t="shared" ref="Q16" si="13">(SUM(AI16:AU16))/(COUNT(AI16:AU16))</f>
+      <c r="Q17" s="14">
+        <f t="shared" ref="Q17" si="13">(SUM(AI17:AU17))/(COUNT(AI17:AU17))</f>
         <v>55.869230769230768</v>
       </c>
-      <c r="R16" s="14">
-        <f t="shared" ref="R16" si="14">(SUM(AV16:BI16))/(COUNT(AV16:BI16))</f>
+      <c r="R17" s="14">
+        <f t="shared" ref="R17" si="14">(SUM(AV17:BI17))/(COUNT(AV17:BI17))</f>
         <v>48.176428571428566</v>
       </c>
-      <c r="T16" s="25">
+      <c r="T17" s="25">
         <v>1000</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U17" s="27">
         <v>52605.64</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V17" s="27">
         <v>2246.86</v>
       </c>
-      <c r="W16" s="27">
+      <c r="W17" s="27">
         <v>91.2</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X17" s="26">
         <v>52.01</v>
       </c>
-      <c r="Y16" s="28">
+      <c r="Y17" s="28">
         <v>85.98</v>
       </c>
-      <c r="Z16" s="28">
+      <c r="Z17" s="28">
         <v>72.42</v>
       </c>
-      <c r="AA16" s="28">
+      <c r="AA17" s="28">
         <v>70.099999999999994</v>
       </c>
-      <c r="AB16" s="28">
+      <c r="AB17" s="28">
         <v>29.75</v>
       </c>
-      <c r="AC16" s="28">
+      <c r="AC17" s="28">
         <v>7.65</v>
       </c>
-      <c r="AD16" s="28">
+      <c r="AD17" s="28">
         <v>33.92</v>
       </c>
-      <c r="AE16" s="28">
+      <c r="AE17" s="28">
         <v>52.24</v>
       </c>
-      <c r="AF16" s="28">
+      <c r="AF17" s="28">
         <v>54.68</v>
       </c>
-      <c r="AG16" s="28">
+      <c r="AG17" s="28">
         <v>82.36</v>
       </c>
-      <c r="AH16" s="28">
+      <c r="AH17" s="28">
         <v>34.36</v>
       </c>
-      <c r="AI16" s="25">
+      <c r="AI17" s="25">
         <v>97.31</v>
       </c>
-      <c r="AJ16" s="25">
+      <c r="AJ17" s="25">
         <v>90.85</v>
       </c>
-      <c r="AK16" s="25">
+      <c r="AK17" s="25">
         <v>27.66</v>
       </c>
-      <c r="AL16" s="25">
+      <c r="AL17" s="25">
         <v>99.15</v>
       </c>
-      <c r="AM16" s="25">
+      <c r="AM17" s="25">
         <v>15.06</v>
       </c>
-      <c r="AN16" s="25">
+      <c r="AN17" s="25">
         <v>12.44</v>
       </c>
-      <c r="AO16" s="25">
+      <c r="AO17" s="25">
         <v>66.569999999999993</v>
       </c>
-      <c r="AP16" s="25">
+      <c r="AP17" s="25">
         <v>22.26</v>
       </c>
-      <c r="AQ16" s="25">
+      <c r="AQ17" s="25">
         <v>65.209999999999994</v>
       </c>
-      <c r="AR16" s="25">
+      <c r="AR17" s="25">
         <v>17.829999999999998</v>
       </c>
-      <c r="AS16" s="25">
+      <c r="AS17" s="25">
         <v>47.44</v>
       </c>
-      <c r="AT16" s="25">
+      <c r="AT17" s="25">
         <v>75.569999999999993</v>
       </c>
-      <c r="AU16" s="25">
+      <c r="AU17" s="25">
         <v>88.95</v>
       </c>
-      <c r="AV16" s="25">
+      <c r="AV17" s="25">
         <v>23.49</v>
       </c>
-      <c r="AW16" s="25">
+      <c r="AW17" s="25">
         <v>93.93</v>
       </c>
-      <c r="AX16" s="25">
+      <c r="AX17" s="25">
         <v>40.56</v>
       </c>
-      <c r="AY16" s="25">
+      <c r="AY17" s="25">
         <v>21.17</v>
       </c>
-      <c r="AZ16" s="25">
+      <c r="AZ17" s="25">
         <v>46.82</v>
       </c>
-      <c r="BA16" s="25">
+      <c r="BA17" s="25">
         <v>40.659999999999997</v>
       </c>
-      <c r="BB16" s="25">
+      <c r="BB17" s="25">
         <v>58.03</v>
       </c>
-      <c r="BC16" s="25">
+      <c r="BC17" s="25">
         <v>84.68</v>
       </c>
-      <c r="BD16" s="25">
+      <c r="BD17" s="25">
         <v>13.18</v>
       </c>
-      <c r="BE16" s="25">
+      <c r="BE17" s="25">
         <v>24.77</v>
       </c>
-      <c r="BF16" s="25">
+      <c r="BF17" s="25">
         <v>76.55</v>
       </c>
-      <c r="BG16" s="25">
+      <c r="BG17" s="25">
         <v>69.42</v>
       </c>
-      <c r="BH16" s="25">
+      <c r="BH17" s="25">
         <v>41.58</v>
       </c>
-      <c r="BI16" s="25">
+      <c r="BI17" s="25">
         <v>39.630000000000003</v>
       </c>
-      <c r="BL16" t="str">
-        <f t="shared" ref="BL16" si="15">B16</f>
+      <c r="BL17" t="str">
+        <f t="shared" ref="BL17" si="15">B17</f>
         <v>VoterUCBT (plain UCBT : plain POKER)</v>
       </c>
-    </row>
-    <row r="17" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="22"/>
-      <c r="AP17" s="22"/>
-      <c r="AQ17" s="22"/>
-      <c r="AR17" s="22"/>
-      <c r="AS17" s="22"/>
-      <c r="AT17" s="22"/>
-      <c r="AU17" s="22"/>
-      <c r="AV17" s="22"/>
-      <c r="AW17" s="22"/>
-      <c r="AX17" s="22"/>
-      <c r="AY17" s="22"/>
-      <c r="AZ17" s="22"/>
-      <c r="BA17" s="22"/>
-      <c r="BB17" s="22"/>
-      <c r="BC17" s="22"/>
-      <c r="BD17" s="22"/>
-      <c r="BE17" s="22"/>
-      <c r="BF17" s="22"/>
-      <c r="BG17" s="22"/>
-      <c r="BH17" s="22"/>
-      <c r="BI17" s="22"/>
-      <c r="BJ17" s="8"/>
-      <c r="BL17"/>
     </row>
     <row r="18" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3034,7 +3224,7 @@
     <row r="19" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3101,7 +3291,7 @@
     <row r="20" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3168,7 +3358,7 @@
     <row r="21" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3235,7 +3425,7 @@
     <row r="22" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3299,390 +3489,264 @@
       <c r="BJ22" s="8"/>
       <c r="BL22"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.45229999999999998</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-0.44390000000000002</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.1721</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.24909999999999999</v>
-      </c>
-      <c r="J23" s="14">
-        <f>X23</f>
-        <v>47.98</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" ref="K23:K28" si="16">(SUM(Y23:AC23)+SUM(AI23:AU23))/(COUNT(Y23:AC23)+COUNT(AI23:AU23))</f>
-        <v>49.606666666666662</v>
-      </c>
-      <c r="L23" s="14">
-        <f t="shared" ref="L23:L28" si="17">(SUM(AD23:AH23)+SUM(AV23:BI23))/(COUNT(AD23:AH23)+COUNT(AV23:BI23))</f>
-        <v>46.445263157894736</v>
-      </c>
-      <c r="M23" s="19">
-        <f t="shared" ref="M23:M28" si="18">AVERAGE(Y23:AH23)</f>
-        <v>53.259</v>
-      </c>
-      <c r="N23" s="19">
-        <f t="shared" si="2"/>
-        <v>51.033999999999999</v>
-      </c>
-      <c r="O23" s="19">
-        <f t="shared" si="3"/>
-        <v>55.484000000000002</v>
-      </c>
-      <c r="P23" s="14">
-        <f t="shared" si="4"/>
-        <v>46.02925925925927</v>
-      </c>
-      <c r="Q23" s="14">
-        <f t="shared" si="5"/>
-        <v>49.057692307692307</v>
-      </c>
-      <c r="R23" s="14">
-        <f t="shared" si="6"/>
-        <v>43.217142857142861</v>
-      </c>
-      <c r="T23">
-        <v>1000</v>
-      </c>
-      <c r="U23" s="2">
-        <v>52335.78</v>
-      </c>
-      <c r="V23" s="2">
-        <v>2516.7199999999998</v>
-      </c>
-      <c r="W23" s="2">
-        <v>91.02</v>
-      </c>
-      <c r="X23" s="23">
-        <v>47.98</v>
-      </c>
-      <c r="Y23" s="24">
-        <v>82.68</v>
-      </c>
-      <c r="Z23" s="24">
-        <v>77.02</v>
-      </c>
-      <c r="AA23" s="24">
-        <v>73.59</v>
-      </c>
-      <c r="AB23" s="24">
-        <v>18.03</v>
-      </c>
-      <c r="AC23" s="24">
-        <v>3.85</v>
-      </c>
-      <c r="AD23" s="24">
-        <v>29.7</v>
-      </c>
-      <c r="AE23" s="24">
-        <v>46.68</v>
-      </c>
-      <c r="AF23" s="24">
-        <v>52.09</v>
-      </c>
-      <c r="AG23" s="24">
-        <v>87.6</v>
-      </c>
-      <c r="AH23" s="24">
-        <v>61.35</v>
-      </c>
-      <c r="AI23" s="22">
-        <v>99.46</v>
-      </c>
-      <c r="AJ23" s="22">
-        <v>97.49</v>
-      </c>
-      <c r="AK23" s="22">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AL23" s="22">
-        <v>99.6</v>
-      </c>
-      <c r="AM23" s="22">
-        <v>20.02</v>
-      </c>
-      <c r="AN23" s="22">
         <v>15</v>
       </c>
-      <c r="AO23" s="22">
-        <v>59.35</v>
-      </c>
-      <c r="AP23" s="22">
-        <v>11.8</v>
-      </c>
-      <c r="AQ23" s="22">
-        <v>65.61</v>
-      </c>
-      <c r="AR23" s="22">
-        <v>10.9</v>
-      </c>
-      <c r="AS23" s="22">
-        <v>34.5</v>
-      </c>
-      <c r="AT23" s="22">
-        <v>28.37</v>
-      </c>
-      <c r="AU23" s="22">
-        <v>85.85</v>
-      </c>
-      <c r="AV23" s="22">
-        <v>17.54</v>
-      </c>
-      <c r="AW23" s="22">
-        <v>63</v>
-      </c>
-      <c r="AX23" s="22">
-        <v>31.75</v>
-      </c>
-      <c r="AY23" s="22">
-        <v>12.71</v>
-      </c>
-      <c r="AZ23" s="22">
-        <v>28.09</v>
-      </c>
-      <c r="BA23" s="22">
-        <v>25.39</v>
-      </c>
-      <c r="BB23" s="22">
-        <v>52.12</v>
-      </c>
-      <c r="BC23" s="22">
-        <v>82.48</v>
-      </c>
-      <c r="BD23" s="22">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="BE23" s="22">
-        <v>23.7</v>
-      </c>
-      <c r="BF23" s="22">
-        <v>71.64</v>
-      </c>
-      <c r="BG23" s="22">
-        <v>61.55</v>
-      </c>
-      <c r="BH23" s="22">
-        <v>60.63</v>
-      </c>
-      <c r="BI23" s="22">
-        <v>54.45</v>
-      </c>
-      <c r="BL23" t="str">
-        <f t="shared" ref="BL23" si="19">B23</f>
-        <v>UCBT no change point C linear 3 inputs</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="22"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="22"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="22"/>
+      <c r="BF23" s="22"/>
+      <c r="BG23" s="22"/>
+      <c r="BH23" s="22"/>
+      <c r="BI23" s="22"/>
+      <c r="BJ23" s="8"/>
+      <c r="BL23"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="D24" s="11">
-        <v>-0.2</v>
-      </c>
-      <c r="E24" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G24" s="11">
-        <v>-0.3</v>
-      </c>
-      <c r="H24" s="11">
-        <v>-0.1</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-0.44390000000000002</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.1721</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.24909999999999999</v>
       </c>
       <c r="J24" s="14">
         <f>X24</f>
-        <v>49.91</v>
+        <v>47.98</v>
       </c>
       <c r="K24" s="14">
-        <f t="shared" si="16"/>
-        <v>49.151111111111113</v>
+        <f t="shared" ref="K24:K29" si="16">(SUM(Y24:AC24)+SUM(AI24:AU24))/(COUNT(Y24:AC24)+COUNT(AI24:AU24))</f>
+        <v>49.606666666666662</v>
       </c>
       <c r="L24" s="14">
-        <f t="shared" si="17"/>
-        <v>50.631052631578953</v>
+        <f t="shared" ref="L24:L29" si="17">(SUM(AD24:AH24)+SUM(AV24:BI24))/(COUNT(AD24:AH24)+COUNT(AV24:BI24))</f>
+        <v>46.445263157894736</v>
       </c>
       <c r="M24" s="19">
-        <f t="shared" si="18"/>
-        <v>54.746000000000002</v>
+        <f t="shared" ref="M24:M29" si="18">AVERAGE(Y24:AH24)</f>
+        <v>53.259</v>
       </c>
       <c r="N24" s="19">
         <f t="shared" si="2"/>
-        <v>49.374000000000002</v>
+        <v>51.033999999999999</v>
       </c>
       <c r="O24" s="19">
         <f t="shared" si="3"/>
-        <v>60.118000000000009</v>
+        <v>55.484000000000002</v>
       </c>
       <c r="P24" s="14">
         <f t="shared" si="4"/>
-        <v>48.12037037037036</v>
+        <v>46.02925925925927</v>
       </c>
       <c r="Q24" s="14">
         <f t="shared" si="5"/>
-        <v>49.065384615384616</v>
+        <v>49.057692307692307</v>
       </c>
       <c r="R24" s="14">
         <f t="shared" si="6"/>
-        <v>47.242857142857147</v>
+        <v>43.217142857142861</v>
       </c>
       <c r="T24">
         <v>1000</v>
       </c>
       <c r="U24" s="2">
-        <v>52515.39</v>
+        <v>52335.78</v>
       </c>
       <c r="V24" s="2">
-        <v>2337.11</v>
+        <v>2516.7199999999998</v>
       </c>
       <c r="W24" s="2">
-        <v>91.24</v>
+        <v>91.02</v>
       </c>
       <c r="X24" s="23">
-        <v>49.91</v>
+        <v>47.98</v>
       </c>
       <c r="Y24" s="24">
-        <v>88.4</v>
+        <v>82.68</v>
       </c>
       <c r="Z24" s="24">
-        <v>68.59</v>
+        <v>77.02</v>
       </c>
       <c r="AA24" s="24">
-        <v>70.02</v>
+        <v>73.59</v>
       </c>
       <c r="AB24" s="24">
-        <v>14.52</v>
+        <v>18.03</v>
       </c>
       <c r="AC24" s="24">
-        <v>5.34</v>
+        <v>3.85</v>
       </c>
       <c r="AD24" s="24">
-        <v>47.07</v>
+        <v>29.7</v>
       </c>
       <c r="AE24" s="24">
-        <v>53.68</v>
+        <v>46.68</v>
       </c>
       <c r="AF24" s="24">
-        <v>58.11</v>
+        <v>52.09</v>
       </c>
       <c r="AG24" s="24">
-        <v>88.38</v>
+        <v>87.6</v>
       </c>
       <c r="AH24" s="24">
-        <v>53.35</v>
+        <v>61.35</v>
       </c>
       <c r="AI24" s="22">
-        <v>99.18</v>
+        <v>99.46</v>
       </c>
       <c r="AJ24" s="22">
-        <v>97</v>
+        <v>97.49</v>
       </c>
       <c r="AK24" s="22">
-        <v>20.12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AL24" s="22">
-        <v>99.2</v>
+        <v>99.6</v>
       </c>
       <c r="AM24" s="22">
-        <v>11.62</v>
+        <v>20.02</v>
       </c>
       <c r="AN24" s="22">
-        <v>15.08</v>
+        <v>15</v>
       </c>
       <c r="AO24" s="22">
-        <v>66.08</v>
+        <v>59.35</v>
       </c>
       <c r="AP24" s="22">
-        <v>11.24</v>
+        <v>11.8</v>
       </c>
       <c r="AQ24" s="22">
-        <v>64.44</v>
+        <v>65.61</v>
       </c>
       <c r="AR24" s="22">
-        <v>6.36</v>
+        <v>10.9</v>
       </c>
       <c r="AS24" s="22">
-        <v>31.46</v>
+        <v>34.5</v>
       </c>
       <c r="AT24" s="22">
-        <v>29.85</v>
+        <v>28.37</v>
       </c>
       <c r="AU24" s="22">
-        <v>86.22</v>
+        <v>85.85</v>
       </c>
       <c r="AV24" s="22">
-        <v>22.54</v>
+        <v>17.54</v>
       </c>
       <c r="AW24" s="22">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AX24" s="22">
-        <v>39.840000000000003</v>
+        <v>31.75</v>
       </c>
       <c r="AY24" s="22">
-        <v>17.55</v>
+        <v>12.71</v>
       </c>
       <c r="AZ24" s="22">
-        <v>46.29</v>
+        <v>28.09</v>
       </c>
       <c r="BA24" s="22">
-        <v>41.66</v>
+        <v>25.39</v>
       </c>
       <c r="BB24" s="22">
-        <v>58.12</v>
+        <v>52.12</v>
       </c>
       <c r="BC24" s="22">
-        <v>82.62</v>
+        <v>82.48</v>
       </c>
       <c r="BD24" s="22">
-        <v>21.25</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="BE24" s="22">
-        <v>20.48</v>
+        <v>23.7</v>
       </c>
       <c r="BF24" s="22">
-        <v>78.86</v>
+        <v>71.64</v>
       </c>
       <c r="BG24" s="22">
-        <v>72.2</v>
+        <v>61.55</v>
       </c>
       <c r="BH24" s="22">
-        <v>54.25</v>
+        <v>60.63</v>
       </c>
       <c r="BI24" s="22">
-        <v>49.74</v>
+        <v>54.45</v>
       </c>
       <c r="BL24" t="str">
-        <f t="shared" si="7"/>
-        <v>UCBT linear C1 to C2, with linear approx 2 inputs</v>
+        <f t="shared" ref="BL24" si="19">B24</f>
+        <v>UCBT no change point C linear 3 inputs</v>
       </c>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>70</v>
@@ -3691,181 +3755,181 @@
         <v>0.9</v>
       </c>
       <c r="D25" s="11">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="E25" s="11">
         <v>-0.4</v>
       </c>
       <c r="F25" s="11">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G25" s="11">
+        <v>-0.3</v>
+      </c>
+      <c r="H25" s="11">
         <v>-0.1</v>
       </c>
-      <c r="H25" s="11">
-        <v>-0.4</v>
-      </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25" si="20">X25</f>
-        <v>49.36</v>
+        <f>X25</f>
+        <v>49.91</v>
       </c>
       <c r="K25" s="14">
         <f t="shared" si="16"/>
-        <v>46.18888888888889</v>
+        <v>49.151111111111113</v>
       </c>
       <c r="L25" s="14">
         <f t="shared" si="17"/>
-        <v>52.368947368421061</v>
+        <v>50.631052631578953</v>
       </c>
       <c r="M25" s="19">
         <f t="shared" si="18"/>
-        <v>53.970000000000006</v>
+        <v>54.746000000000002</v>
       </c>
       <c r="N25" s="19">
         <f t="shared" si="2"/>
-        <v>45.275999999999996</v>
+        <v>49.374000000000002</v>
       </c>
       <c r="O25" s="19">
         <f t="shared" si="3"/>
-        <v>62.664000000000009</v>
+        <v>60.118000000000009</v>
       </c>
       <c r="P25" s="14">
         <f t="shared" si="4"/>
-        <v>47.655925925925921</v>
+        <v>48.12037037037036</v>
       </c>
       <c r="Q25" s="14">
         <f t="shared" si="5"/>
-        <v>46.54</v>
+        <v>49.065384615384616</v>
       </c>
       <c r="R25" s="14">
         <f t="shared" si="6"/>
-        <v>48.692142857142862</v>
+        <v>47.242857142857147</v>
       </c>
       <c r="T25">
         <v>1000</v>
       </c>
       <c r="U25" s="2">
-        <v>52549.85</v>
+        <v>52515.39</v>
       </c>
       <c r="V25" s="2">
-        <v>2302.65</v>
+        <v>2337.11</v>
       </c>
       <c r="W25" s="2">
-        <v>91.22</v>
+        <v>91.24</v>
       </c>
       <c r="X25" s="23">
-        <v>49.36</v>
+        <v>49.91</v>
       </c>
       <c r="Y25" s="24">
-        <v>86.74</v>
+        <v>88.4</v>
       </c>
       <c r="Z25" s="24">
-        <v>61.96</v>
+        <v>68.59</v>
       </c>
       <c r="AA25" s="24">
-        <v>64.06</v>
+        <v>70.02</v>
       </c>
       <c r="AB25" s="24">
-        <v>8.93</v>
+        <v>14.52</v>
       </c>
       <c r="AC25" s="24">
-        <v>4.6900000000000004</v>
+        <v>5.34</v>
       </c>
       <c r="AD25" s="24">
-        <v>60.43</v>
+        <v>47.07</v>
       </c>
       <c r="AE25" s="24">
-        <v>58.43</v>
+        <v>53.68</v>
       </c>
       <c r="AF25" s="24">
-        <v>59.68</v>
+        <v>58.11</v>
       </c>
       <c r="AG25" s="24">
-        <v>88.56</v>
+        <v>88.38</v>
       </c>
       <c r="AH25" s="24">
-        <v>46.22</v>
+        <v>53.35</v>
       </c>
       <c r="AI25" s="22">
-        <v>98.7</v>
+        <v>99.18</v>
       </c>
       <c r="AJ25" s="22">
-        <v>94.88</v>
+        <v>97</v>
       </c>
       <c r="AK25" s="22">
-        <v>22.9</v>
+        <v>20.12</v>
       </c>
       <c r="AL25" s="22">
         <v>99.2</v>
       </c>
       <c r="AM25" s="22">
-        <v>9.36</v>
+        <v>11.62</v>
       </c>
       <c r="AN25" s="22">
-        <v>7.29</v>
+        <v>15.08</v>
       </c>
       <c r="AO25" s="22">
-        <v>61.2</v>
+        <v>66.08</v>
       </c>
       <c r="AP25" s="22">
-        <v>7.4</v>
+        <v>11.24</v>
       </c>
       <c r="AQ25" s="22">
-        <v>57.84</v>
+        <v>64.44</v>
       </c>
       <c r="AR25" s="22">
-        <v>8.2100000000000009</v>
+        <v>6.36</v>
       </c>
       <c r="AS25" s="22">
-        <v>26.61</v>
+        <v>31.46</v>
       </c>
       <c r="AT25" s="22">
-        <v>26.73</v>
+        <v>29.85</v>
       </c>
       <c r="AU25" s="22">
-        <v>84.7</v>
+        <v>86.22</v>
       </c>
       <c r="AV25" s="22">
-        <v>18.149999999999999</v>
+        <v>22.54</v>
       </c>
       <c r="AW25" s="22">
-        <v>72.400000000000006</v>
+        <v>56</v>
       </c>
       <c r="AX25" s="22">
-        <v>40</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="AY25" s="22">
-        <v>20.04</v>
+        <v>17.55</v>
       </c>
       <c r="AZ25" s="22">
-        <v>50.86</v>
+        <v>46.29</v>
       </c>
       <c r="BA25" s="22">
-        <v>40.909999999999997</v>
+        <v>41.66</v>
       </c>
       <c r="BB25" s="22">
-        <v>62.27</v>
+        <v>58.12</v>
       </c>
       <c r="BC25" s="22">
-        <v>82.97</v>
+        <v>82.62</v>
       </c>
       <c r="BD25" s="22">
-        <v>21.81</v>
+        <v>21.25</v>
       </c>
       <c r="BE25" s="22">
-        <v>21.29</v>
+        <v>20.48</v>
       </c>
       <c r="BF25" s="22">
-        <v>76.77</v>
+        <v>78.86</v>
       </c>
       <c r="BG25" s="22">
-        <v>70.849999999999994</v>
+        <v>72.2</v>
       </c>
       <c r="BH25" s="22">
-        <v>52.72</v>
+        <v>54.25</v>
       </c>
       <c r="BI25" s="22">
-        <v>50.65</v>
+        <v>49.74</v>
       </c>
       <c r="BL25" t="str">
         <f t="shared" si="7"/>
@@ -3875,190 +3939,190 @@
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="11">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D26" s="11">
         <v>-0.3</v>
       </c>
       <c r="E26" s="11">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="F26" s="11">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G26" s="11">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H26" s="11">
         <v>-0.4</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" ref="J26:J27" si="21">X26</f>
-        <v>47.64</v>
+        <f t="shared" ref="J26" si="20">X26</f>
+        <v>49.36</v>
       </c>
       <c r="K26" s="14">
         <f t="shared" si="16"/>
-        <v>47.951666666666668</v>
+        <v>46.18888888888889</v>
       </c>
       <c r="L26" s="14">
         <f t="shared" si="17"/>
-        <v>47.342105263157897</v>
+        <v>52.368947368421061</v>
       </c>
       <c r="M26" s="19">
         <f t="shared" si="18"/>
-        <v>50.963000000000001</v>
+        <v>53.970000000000006</v>
       </c>
       <c r="N26" s="19">
         <f t="shared" si="2"/>
-        <v>47.72</v>
+        <v>45.275999999999996</v>
       </c>
       <c r="O26" s="19">
         <f t="shared" si="3"/>
-        <v>54.205999999999996</v>
+        <v>62.664000000000009</v>
       </c>
       <c r="P26" s="14">
         <f t="shared" si="4"/>
-        <v>46.407407407407405</v>
+        <v>47.655925925925921</v>
       </c>
       <c r="Q26" s="14">
         <f t="shared" si="5"/>
-        <v>48.040769230769229</v>
+        <v>46.54</v>
       </c>
       <c r="R26" s="14">
         <f t="shared" si="6"/>
-        <v>44.890714285714289</v>
+        <v>48.692142857142862</v>
       </c>
       <c r="T26">
-        <v>494</v>
+        <v>1000</v>
       </c>
       <c r="U26" s="2">
-        <v>52256.25</v>
+        <v>52549.85</v>
       </c>
       <c r="V26" s="2">
-        <v>2596.25</v>
+        <v>2302.65</v>
       </c>
       <c r="W26" s="2">
-        <v>90.35</v>
+        <v>91.22</v>
       </c>
       <c r="X26" s="23">
-        <v>47.64</v>
+        <v>49.36</v>
       </c>
       <c r="Y26" s="24">
-        <v>90.22</v>
+        <v>86.74</v>
       </c>
       <c r="Z26" s="24">
-        <v>65.959999999999994</v>
+        <v>61.96</v>
       </c>
       <c r="AA26" s="24">
-        <v>62.32</v>
+        <v>64.06</v>
       </c>
       <c r="AB26" s="24">
-        <v>12.6</v>
+        <v>8.93</v>
       </c>
       <c r="AC26" s="24">
-        <v>7.5</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AD26" s="24">
-        <v>46.09</v>
+        <v>60.43</v>
       </c>
       <c r="AE26" s="24">
-        <v>50.91</v>
+        <v>58.43</v>
       </c>
       <c r="AF26" s="24">
-        <v>59.56</v>
+        <v>59.68</v>
       </c>
       <c r="AG26" s="24">
-        <v>89.14</v>
+        <v>88.56</v>
       </c>
       <c r="AH26" s="24">
-        <v>25.33</v>
+        <v>46.22</v>
       </c>
       <c r="AI26" s="22">
-        <v>98.64</v>
+        <v>98.7</v>
       </c>
       <c r="AJ26" s="22">
-        <v>95.67</v>
+        <v>94.88</v>
       </c>
       <c r="AK26" s="22">
-        <v>14.37</v>
+        <v>22.9</v>
       </c>
       <c r="AL26" s="22">
         <v>99.2</v>
       </c>
       <c r="AM26" s="22">
-        <v>11.21</v>
+        <v>9.36</v>
       </c>
       <c r="AN26" s="22">
-        <v>17.79</v>
+        <v>7.29</v>
       </c>
       <c r="AO26" s="22">
-        <v>65.040000000000006</v>
+        <v>61.2</v>
       </c>
       <c r="AP26" s="22">
-        <v>9.51</v>
+        <v>7.4</v>
       </c>
       <c r="AQ26" s="22">
-        <v>60.47</v>
+        <v>57.84</v>
       </c>
       <c r="AR26" s="22">
-        <v>10.31</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="AS26" s="22">
-        <v>24.16</v>
+        <v>26.61</v>
       </c>
       <c r="AT26" s="22">
-        <v>35.28</v>
+        <v>26.73</v>
       </c>
       <c r="AU26" s="22">
-        <v>82.88</v>
+        <v>84.7</v>
       </c>
       <c r="AV26" s="22">
-        <v>24.88</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="AW26" s="22">
-        <v>63.6</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AX26" s="22">
-        <v>41.6</v>
+        <v>40</v>
       </c>
       <c r="AY26" s="22">
-        <v>21.4</v>
+        <v>20.04</v>
       </c>
       <c r="AZ26" s="22">
-        <v>53.49</v>
+        <v>50.86</v>
       </c>
       <c r="BA26" s="22">
-        <v>43.14</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="BB26" s="22">
-        <v>53.17</v>
+        <v>62.27</v>
       </c>
       <c r="BC26" s="22">
-        <v>82.61</v>
+        <v>82.97</v>
       </c>
       <c r="BD26" s="22">
-        <v>26.01</v>
+        <v>21.81</v>
       </c>
       <c r="BE26" s="22">
-        <v>18.86</v>
+        <v>21.29</v>
       </c>
       <c r="BF26" s="22">
-        <v>76.349999999999994</v>
+        <v>76.77</v>
       </c>
       <c r="BG26" s="22">
-        <v>70.989999999999995</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="BH26" s="22">
-        <v>27.99</v>
+        <v>52.72</v>
       </c>
       <c r="BI26" s="22">
-        <v>24.38</v>
+        <v>50.65</v>
       </c>
       <c r="BL26" t="str">
         <f t="shared" si="7"/>
@@ -4068,190 +4132,190 @@
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="11">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="D27" s="11">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E27" s="11">
         <v>0.3</v>
       </c>
       <c r="F27" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G27" s="11">
         <v>-0.2</v>
       </c>
       <c r="H27" s="11">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="21"/>
-        <v>46.87</v>
+        <f t="shared" ref="J27:J28" si="21">X27</f>
+        <v>47.64</v>
       </c>
       <c r="K27" s="14">
         <f t="shared" si="16"/>
-        <v>46.836111111111123</v>
+        <v>47.951666666666668</v>
       </c>
       <c r="L27" s="14">
         <f t="shared" si="17"/>
-        <v>46.901578947368421</v>
+        <v>47.342105263157897</v>
       </c>
       <c r="M27" s="19">
         <f t="shared" si="18"/>
-        <v>50.274000000000008</v>
+        <v>50.963000000000001</v>
       </c>
       <c r="N27" s="19">
         <f t="shared" si="2"/>
-        <v>46.43</v>
+        <v>47.72</v>
       </c>
       <c r="O27" s="19">
         <f t="shared" si="3"/>
-        <v>54.118000000000009</v>
+        <v>54.205999999999996</v>
       </c>
       <c r="P27" s="14">
         <f t="shared" si="4"/>
-        <v>45.608888888888899</v>
+        <v>46.407407407407405</v>
       </c>
       <c r="Q27" s="14">
         <f t="shared" si="5"/>
-        <v>46.992307692307705</v>
+        <v>48.040769230769229</v>
       </c>
       <c r="R27" s="14">
         <f t="shared" si="6"/>
-        <v>44.324285714285715</v>
+        <v>44.890714285714289</v>
       </c>
       <c r="T27">
-        <v>372</v>
+        <v>494</v>
       </c>
       <c r="U27" s="2">
-        <v>52185.41</v>
+        <v>52256.25</v>
       </c>
       <c r="V27" s="2">
-        <v>2667.09</v>
+        <v>2596.25</v>
       </c>
       <c r="W27" s="2">
-        <v>90.21</v>
+        <v>90.35</v>
       </c>
       <c r="X27" s="23">
-        <v>46.87</v>
+        <v>47.64</v>
       </c>
       <c r="Y27" s="24">
-        <v>82.04</v>
+        <v>90.22</v>
       </c>
       <c r="Z27" s="24">
-        <v>65.400000000000006</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="AA27" s="24">
-        <v>68.62</v>
+        <v>62.32</v>
       </c>
       <c r="AB27" s="24">
-        <v>15.27</v>
+        <v>12.6</v>
       </c>
       <c r="AC27" s="24">
-        <v>0.82</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" s="24">
-        <v>48.33</v>
+        <v>46.09</v>
       </c>
       <c r="AE27" s="24">
-        <v>51.98</v>
+        <v>50.91</v>
       </c>
       <c r="AF27" s="24">
-        <v>58.24</v>
+        <v>59.56</v>
       </c>
       <c r="AG27" s="24">
-        <v>88.61</v>
+        <v>89.14</v>
       </c>
       <c r="AH27" s="24">
-        <v>23.43</v>
+        <v>25.33</v>
       </c>
       <c r="AI27" s="22">
-        <v>99.15</v>
+        <v>98.64</v>
       </c>
       <c r="AJ27" s="22">
-        <v>96.06</v>
+        <v>95.67</v>
       </c>
       <c r="AK27" s="22">
-        <v>24.3</v>
+        <v>14.37</v>
       </c>
       <c r="AL27" s="22">
         <v>99.2</v>
       </c>
       <c r="AM27" s="22">
-        <v>14.25</v>
+        <v>11.21</v>
       </c>
       <c r="AN27" s="22">
-        <v>15.05</v>
+        <v>17.79</v>
       </c>
       <c r="AO27" s="22">
-        <v>64.69</v>
+        <v>65.040000000000006</v>
       </c>
       <c r="AP27" s="22">
-        <v>6.99</v>
+        <v>9.51</v>
       </c>
       <c r="AQ27" s="22">
-        <v>59.1</v>
+        <v>60.47</v>
       </c>
       <c r="AR27" s="22">
-        <v>8.2200000000000006</v>
+        <v>10.31</v>
       </c>
       <c r="AS27" s="22">
-        <v>22.67</v>
+        <v>24.16</v>
       </c>
       <c r="AT27" s="22">
-        <v>20.27</v>
+        <v>35.28</v>
       </c>
       <c r="AU27" s="22">
-        <v>80.95</v>
+        <v>82.88</v>
       </c>
       <c r="AV27" s="22">
-        <v>24.95</v>
+        <v>24.88</v>
       </c>
       <c r="AW27" s="22">
-        <v>57.8</v>
+        <v>63.6</v>
       </c>
       <c r="AX27" s="22">
-        <v>41.08</v>
+        <v>41.6</v>
       </c>
       <c r="AY27" s="22">
-        <v>24.44</v>
+        <v>21.4</v>
       </c>
       <c r="AZ27" s="22">
-        <v>40.840000000000003</v>
+        <v>53.49</v>
       </c>
       <c r="BA27" s="22">
-        <v>44.32</v>
+        <v>43.14</v>
       </c>
       <c r="BB27" s="22">
-        <v>57.63</v>
+        <v>53.17</v>
       </c>
       <c r="BC27" s="22">
-        <v>82.68</v>
+        <v>82.61</v>
       </c>
       <c r="BD27" s="22">
-        <v>24.23</v>
+        <v>26.01</v>
       </c>
       <c r="BE27" s="22">
-        <v>19.559999999999999</v>
+        <v>18.86</v>
       </c>
       <c r="BF27" s="22">
-        <v>75.739999999999995</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="BG27" s="22">
-        <v>69.56</v>
+        <v>70.989999999999995</v>
       </c>
       <c r="BH27" s="22">
-        <v>27.66</v>
+        <v>27.99</v>
       </c>
       <c r="BI27" s="22">
-        <v>30.05</v>
+        <v>24.38</v>
       </c>
       <c r="BL27" t="str">
         <f t="shared" si="7"/>
@@ -4261,1005 +4325,1145 @@
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="11">
         <v>0.9</v>
       </c>
-      <c r="D28" s="3">
+      <c r="G28" s="11">
         <v>-0.2</v>
       </c>
-      <c r="E28" s="3">
-        <v>-0.18</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G28" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="H28" s="3">
-        <v>-0.25</v>
+      <c r="H28" s="11">
+        <v>0.1</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" ref="J28" si="22">X28</f>
-        <v>50.02</v>
+        <f t="shared" si="21"/>
+        <v>46.87</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" si="16"/>
-        <v>49.720555555555556</v>
+        <v>46.836111111111123</v>
       </c>
       <c r="L28" s="14">
         <f t="shared" si="17"/>
-        <v>50.298421052631582</v>
+        <v>46.901578947368421</v>
       </c>
       <c r="M28" s="19">
         <f t="shared" si="18"/>
-        <v>53.647000000000006</v>
+        <v>50.274000000000008</v>
       </c>
       <c r="N28" s="19">
-        <f t="shared" ref="N28" si="23">(SUM(Y28:AC28))/(COUNT(Y28:AC28))</f>
-        <v>48.843999999999994</v>
+        <f t="shared" si="2"/>
+        <v>46.43</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" ref="O28" si="24">(SUM(AD28:AH28))/(COUNT(AD28:AH28))</f>
-        <v>58.45</v>
+        <f t="shared" si="3"/>
+        <v>54.118000000000009</v>
       </c>
       <c r="P28" s="14">
-        <f t="shared" ref="P28" si="25">AVERAGE(AI28:BI28)</f>
-        <v>48.672962962962956</v>
+        <f t="shared" si="4"/>
+        <v>45.608888888888899</v>
       </c>
       <c r="Q28" s="14">
-        <f t="shared" ref="Q28" si="26">(SUM(AI28:AU28))/(COUNT(AI28:AU28))</f>
-        <v>50.057692307692307</v>
+        <f t="shared" si="5"/>
+        <v>46.992307692307705</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28" si="27">(SUM(AV28:BI28))/(COUNT(AV28:BI28))</f>
-        <v>47.387142857142862</v>
+        <f t="shared" si="6"/>
+        <v>44.324285714285715</v>
       </c>
       <c r="T28">
-        <v>1000</v>
+        <v>372</v>
       </c>
       <c r="U28" s="2">
-        <v>52475.39</v>
+        <v>52185.41</v>
       </c>
       <c r="V28" s="2">
-        <v>2377.11</v>
+        <v>2667.09</v>
       </c>
       <c r="W28" s="2">
-        <v>91</v>
+        <v>90.21</v>
       </c>
       <c r="X28" s="23">
-        <v>50.02</v>
+        <v>46.87</v>
       </c>
       <c r="Y28" s="24">
-        <v>90.02</v>
+        <v>82.04</v>
       </c>
       <c r="Z28" s="24">
-        <v>68.69</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="AA28" s="24">
-        <v>69.81</v>
+        <v>68.62</v>
       </c>
       <c r="AB28" s="24">
-        <v>12.19</v>
+        <v>15.27</v>
       </c>
       <c r="AC28" s="24">
-        <v>3.51</v>
+        <v>0.82</v>
       </c>
       <c r="AD28" s="24">
-        <v>45.73</v>
+        <v>48.33</v>
       </c>
       <c r="AE28" s="24">
-        <v>54.13</v>
+        <v>51.98</v>
       </c>
       <c r="AF28" s="24">
-        <v>58.51</v>
+        <v>58.24</v>
       </c>
       <c r="AG28" s="24">
-        <v>88.03</v>
+        <v>88.61</v>
       </c>
       <c r="AH28" s="24">
-        <v>45.85</v>
+        <v>23.43</v>
       </c>
       <c r="AI28" s="22">
-        <v>98.92</v>
+        <v>99.15</v>
       </c>
       <c r="AJ28" s="22">
-        <v>97.22</v>
+        <v>96.06</v>
       </c>
       <c r="AK28" s="22">
-        <v>24.62</v>
+        <v>24.3</v>
       </c>
       <c r="AL28" s="22">
         <v>99.2</v>
       </c>
       <c r="AM28" s="22">
-        <v>15.14</v>
+        <v>14.25</v>
       </c>
       <c r="AN28" s="22">
-        <v>9.11</v>
+        <v>15.05</v>
       </c>
       <c r="AO28" s="22">
-        <v>66.48</v>
+        <v>64.69</v>
       </c>
       <c r="AP28" s="22">
-        <v>8.82</v>
+        <v>6.99</v>
       </c>
       <c r="AQ28" s="22">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AR28" s="22">
-        <v>13.23</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="AS28" s="22">
-        <v>31.37</v>
+        <v>22.67</v>
       </c>
       <c r="AT28" s="22">
-        <v>38.479999999999997</v>
+        <v>20.27</v>
       </c>
       <c r="AU28" s="22">
-        <v>89.16</v>
+        <v>80.95</v>
       </c>
       <c r="AV28" s="22">
-        <v>26.98</v>
+        <v>24.95</v>
       </c>
       <c r="AW28" s="22">
-        <v>55.4</v>
+        <v>57.8</v>
       </c>
       <c r="AX28" s="22">
-        <v>41.55</v>
+        <v>41.08</v>
       </c>
       <c r="AY28" s="22">
-        <v>19.77</v>
+        <v>24.44</v>
       </c>
       <c r="AZ28" s="22">
-        <v>49.52</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="BA28" s="22">
-        <v>43.62</v>
+        <v>44.32</v>
       </c>
       <c r="BB28" s="22">
-        <v>59.45</v>
+        <v>57.63</v>
       </c>
       <c r="BC28" s="22">
-        <v>82.77</v>
+        <v>82.68</v>
       </c>
       <c r="BD28" s="22">
-        <v>22.18</v>
+        <v>24.23</v>
       </c>
       <c r="BE28" s="22">
-        <v>22.41</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="BF28" s="22">
-        <v>78.55</v>
+        <v>75.739999999999995</v>
       </c>
       <c r="BG28" s="22">
-        <v>72.08</v>
+        <v>69.56</v>
       </c>
       <c r="BH28" s="22">
-        <v>47.58</v>
+        <v>27.66</v>
       </c>
       <c r="BI28" s="22">
-        <v>41.56</v>
+        <v>30.05</v>
+      </c>
+      <c r="BL28" t="str">
+        <f t="shared" si="7"/>
+        <v>UCBT linear C1 to C2, with linear approx 2 inputs</v>
       </c>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="11">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D29" s="11">
-        <v>-0.06</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1.06</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0.1</v>
+      <c r="C29" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-0.25</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" ref="J29:J32" si="28">X29</f>
-        <v>46.14</v>
+        <f t="shared" ref="J29" si="22">X29</f>
+        <v>50.02</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" ref="K29:K32" si="29">(SUM(Y29:AC29)+SUM(AI29:AU29))/(COUNT(Y29:AC29)+COUNT(AI29:AU29))</f>
-        <v>43.094999999999999</v>
+        <f t="shared" si="16"/>
+        <v>49.720555555555556</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" ref="L29:L32" si="30">(SUM(AD29:AH29)+SUM(AV29:BI29))/(COUNT(AD29:AH29)+COUNT(AV29:BI29))</f>
-        <v>49.026315789473685</v>
+        <f t="shared" si="17"/>
+        <v>50.298421052631582</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" ref="M29:M32" si="31">AVERAGE(Y29:AH29)</f>
-        <v>50.387</v>
+        <f t="shared" si="18"/>
+        <v>53.647000000000006</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" ref="N29:N32" si="32">(SUM(Y29:AC29))/(COUNT(Y29:AC29))</f>
-        <v>44.15</v>
+        <f t="shared" ref="N29" si="23">(SUM(Y29:AC29))/(COUNT(Y29:AC29))</f>
+        <v>48.843999999999994</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" ref="O29:O32" si="33">(SUM(AD29:AH29))/(COUNT(AD29:AH29))</f>
-        <v>56.624000000000002</v>
+        <f t="shared" ref="O29" si="24">(SUM(AD29:AH29))/(COUNT(AD29:AH29))</f>
+        <v>58.45</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" ref="P29:P32" si="34">AVERAGE(AI29:BI29)</f>
-        <v>44.568148148148154</v>
+        <f t="shared" ref="P29" si="25">AVERAGE(AI29:BI29)</f>
+        <v>48.672962962962956</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" ref="Q29:Q32" si="35">(SUM(AI29:AU29))/(COUNT(AI29:AU29))</f>
-        <v>42.689230769230775</v>
+        <f t="shared" ref="Q29" si="26">(SUM(AI29:AU29))/(COUNT(AI29:AU29))</f>
+        <v>50.057692307692307</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" ref="R29:R32" si="36">(SUM(AV29:BI29))/(COUNT(AV29:BI29))</f>
-        <v>46.312857142857141</v>
+        <f t="shared" ref="R29" si="27">(SUM(AV29:BI29))/(COUNT(AV29:BI29))</f>
+        <v>47.387142857142862</v>
       </c>
       <c r="T29">
-        <v>774</v>
+        <v>1000</v>
       </c>
       <c r="U29" s="2">
-        <v>52294.84</v>
+        <v>52475.39</v>
       </c>
       <c r="V29" s="2">
-        <v>2557.66</v>
+        <v>2377.11</v>
       </c>
       <c r="W29" s="2">
-        <v>90.4</v>
+        <v>91</v>
       </c>
       <c r="X29" s="23">
-        <v>46.14</v>
+        <v>50.02</v>
       </c>
       <c r="Y29" s="24">
-        <v>88.74</v>
+        <v>90.02</v>
       </c>
       <c r="Z29" s="24">
-        <v>60.25</v>
+        <v>68.69</v>
       </c>
       <c r="AA29" s="24">
-        <v>59.47</v>
+        <v>69.81</v>
       </c>
       <c r="AB29" s="24">
-        <v>9.7200000000000006</v>
+        <v>12.19</v>
       </c>
       <c r="AC29" s="24">
-        <v>2.57</v>
+        <v>3.51</v>
       </c>
       <c r="AD29" s="24">
-        <v>61.71</v>
+        <v>45.73</v>
       </c>
       <c r="AE29" s="24">
-        <v>54.21</v>
+        <v>54.13</v>
       </c>
       <c r="AF29" s="24">
-        <v>59.99</v>
+        <v>58.51</v>
       </c>
       <c r="AG29" s="24">
-        <v>87.86</v>
+        <v>88.03</v>
       </c>
       <c r="AH29" s="24">
-        <v>19.350000000000001</v>
+        <v>45.85</v>
       </c>
       <c r="AI29" s="22">
-        <v>99.26</v>
+        <v>98.92</v>
       </c>
       <c r="AJ29" s="22">
-        <v>95.1</v>
+        <v>97.22</v>
       </c>
       <c r="AK29" s="22">
-        <v>10.31</v>
+        <v>24.62</v>
       </c>
       <c r="AL29" s="22">
         <v>99.2</v>
       </c>
       <c r="AM29" s="22">
-        <v>11.06</v>
+        <v>15.14</v>
       </c>
       <c r="AN29" s="22">
-        <v>6.68</v>
+        <v>9.11</v>
       </c>
       <c r="AO29" s="22">
-        <v>61.56</v>
+        <v>66.48</v>
       </c>
       <c r="AP29" s="22">
-        <v>4.29</v>
+        <v>8.82</v>
       </c>
       <c r="AQ29" s="22">
-        <v>51.23</v>
+        <v>59</v>
       </c>
       <c r="AR29" s="22">
-        <v>11.25</v>
+        <v>13.23</v>
       </c>
       <c r="AS29" s="22">
-        <v>14.09</v>
+        <v>31.37</v>
       </c>
       <c r="AT29" s="22">
-        <v>15.57</v>
+        <v>38.479999999999997</v>
       </c>
       <c r="AU29" s="22">
-        <v>75.36</v>
+        <v>89.16</v>
       </c>
       <c r="AV29" s="22">
-        <v>22.54</v>
+        <v>26.98</v>
       </c>
       <c r="AW29" s="22">
-        <v>89.2</v>
+        <v>55.4</v>
       </c>
       <c r="AX29" s="22">
-        <v>40.9</v>
+        <v>41.55</v>
       </c>
       <c r="AY29" s="22">
-        <v>18.97</v>
+        <v>19.77</v>
       </c>
       <c r="AZ29" s="22">
-        <v>52.82</v>
+        <v>49.52</v>
       </c>
       <c r="BA29" s="22">
-        <v>39.64</v>
+        <v>43.62</v>
       </c>
       <c r="BB29" s="22">
-        <v>57.18</v>
+        <v>59.45</v>
       </c>
       <c r="BC29" s="22">
-        <v>82.64</v>
+        <v>82.77</v>
       </c>
       <c r="BD29" s="22">
-        <v>26.29</v>
+        <v>22.18</v>
       </c>
       <c r="BE29" s="22">
-        <v>18.34</v>
+        <v>22.41</v>
       </c>
       <c r="BF29" s="22">
-        <v>75.400000000000006</v>
+        <v>78.55</v>
       </c>
       <c r="BG29" s="22">
-        <v>69.36</v>
+        <v>72.08</v>
       </c>
       <c r="BH29" s="22">
-        <v>24.91</v>
+        <v>47.58</v>
       </c>
       <c r="BI29" s="22">
-        <v>30.19</v>
+        <v>41.56</v>
       </c>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="11">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D30" s="11">
-        <v>-0.13</v>
+        <v>-0.06</v>
       </c>
       <c r="E30" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="H30" s="11">
         <v>0.1</v>
       </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11">
-        <v>-0.1</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
       <c r="J30" s="14">
-        <f t="shared" si="28"/>
-        <v>47.64</v>
+        <f t="shared" ref="J30:J33" si="28">X30</f>
+        <v>46.14</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" si="29"/>
-        <v>46.140555555555565</v>
+        <f t="shared" ref="K30:K33" si="29">(SUM(Y30:AC30)+SUM(AI30:AU30))/(COUNT(Y30:AC30)+COUNT(AI30:AU30))</f>
+        <v>43.094999999999999</v>
       </c>
       <c r="L30" s="14">
-        <f t="shared" si="30"/>
-        <v>49.059473684210523</v>
+        <f t="shared" ref="L30:L33" si="30">(SUM(AD30:AH30)+SUM(AV30:BI30))/(COUNT(AD30:AH30)+COUNT(AV30:BI30))</f>
+        <v>49.026315789473685</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" si="31"/>
-        <v>51.637</v>
+        <f t="shared" ref="M30:M33" si="31">AVERAGE(Y30:AH30)</f>
+        <v>50.387</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" si="32"/>
-        <v>46.21</v>
+        <f t="shared" ref="N30:N33" si="32">(SUM(Y30:AC30))/(COUNT(Y30:AC30))</f>
+        <v>44.15</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="33"/>
-        <v>57.064</v>
+        <f t="shared" ref="O30:O33" si="33">(SUM(AD30:AH30))/(COUNT(AD30:AH30))</f>
+        <v>56.624000000000002</v>
       </c>
       <c r="P30" s="14">
-        <f t="shared" si="34"/>
-        <v>46.158888888888889</v>
+        <f t="shared" ref="P30:P33" si="34">AVERAGE(AI30:BI30)</f>
+        <v>44.568148148148154</v>
       </c>
       <c r="Q30" s="14">
-        <f t="shared" si="35"/>
-        <v>46.113846153846161</v>
+        <f t="shared" ref="Q30:Q33" si="35">(SUM(AI30:AU30))/(COUNT(AI30:AU30))</f>
+        <v>42.689230769230775</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="36"/>
-        <v>46.200714285714284</v>
+        <f t="shared" ref="R30:R33" si="36">(SUM(AV30:BI30))/(COUNT(AV30:BI30))</f>
+        <v>46.312857142857141</v>
       </c>
       <c r="T30">
-        <v>888</v>
+        <v>774</v>
       </c>
       <c r="U30" s="2">
-        <v>52333.39</v>
+        <v>52294.84</v>
       </c>
       <c r="V30" s="2">
-        <v>2519.11</v>
+        <v>2557.66</v>
       </c>
       <c r="W30" s="2">
-        <v>90.63</v>
+        <v>90.4</v>
       </c>
       <c r="X30" s="23">
-        <v>47.64</v>
+        <v>46.14</v>
       </c>
       <c r="Y30" s="24">
-        <v>89.78</v>
+        <v>88.74</v>
       </c>
       <c r="Z30" s="24">
-        <v>64.569999999999993</v>
+        <v>60.25</v>
       </c>
       <c r="AA30" s="24">
-        <v>63.66</v>
+        <v>59.47</v>
       </c>
       <c r="AB30" s="24">
-        <v>10.8</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="AC30" s="24">
-        <v>2.2400000000000002</v>
+        <v>2.57</v>
       </c>
       <c r="AD30" s="24">
-        <v>56.62</v>
+        <v>61.71</v>
       </c>
       <c r="AE30" s="24">
-        <v>54.94</v>
+        <v>54.21</v>
       </c>
       <c r="AF30" s="24">
-        <v>60.18</v>
+        <v>59.99</v>
       </c>
       <c r="AG30" s="24">
-        <v>89.26</v>
+        <v>87.86</v>
       </c>
       <c r="AH30" s="24">
-        <v>24.32</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="AI30" s="22">
-        <v>99.1</v>
+        <v>99.26</v>
       </c>
       <c r="AJ30" s="22">
-        <v>95.39</v>
+        <v>95.1</v>
       </c>
       <c r="AK30" s="22">
-        <v>20.41</v>
+        <v>10.31</v>
       </c>
       <c r="AL30" s="22">
         <v>99.2</v>
       </c>
       <c r="AM30" s="22">
-        <v>8.31</v>
+        <v>11.06</v>
       </c>
       <c r="AN30" s="22">
-        <v>10.35</v>
+        <v>6.68</v>
       </c>
       <c r="AO30" s="22">
-        <v>62.31</v>
+        <v>61.56</v>
       </c>
       <c r="AP30" s="22">
-        <v>10.43</v>
+        <v>4.29</v>
       </c>
       <c r="AQ30" s="22">
-        <v>59.15</v>
+        <v>51.23</v>
       </c>
       <c r="AR30" s="22">
-        <v>8.69</v>
+        <v>11.25</v>
       </c>
       <c r="AS30" s="22">
-        <v>26.79</v>
+        <v>14.09</v>
       </c>
       <c r="AT30" s="22">
-        <v>19.63</v>
+        <v>15.57</v>
       </c>
       <c r="AU30" s="22">
-        <v>79.72</v>
+        <v>75.36</v>
       </c>
       <c r="AV30" s="22">
-        <v>21.29</v>
+        <v>22.54</v>
       </c>
       <c r="AW30" s="22">
-        <v>78.2</v>
+        <v>89.2</v>
       </c>
       <c r="AX30" s="22">
-        <v>42.39</v>
+        <v>40.9</v>
       </c>
       <c r="AY30" s="22">
-        <v>20.28</v>
+        <v>18.97</v>
       </c>
       <c r="AZ30" s="22">
-        <v>52.8</v>
+        <v>52.82</v>
       </c>
       <c r="BA30" s="22">
-        <v>40.049999999999997</v>
+        <v>39.64</v>
       </c>
       <c r="BB30" s="22">
-        <v>57.51</v>
+        <v>57.18</v>
       </c>
       <c r="BC30" s="22">
-        <v>82.75</v>
+        <v>82.64</v>
       </c>
       <c r="BD30" s="22">
-        <v>23.2</v>
+        <v>26.29</v>
       </c>
       <c r="BE30" s="22">
-        <v>17.86</v>
+        <v>18.34</v>
       </c>
       <c r="BF30" s="22">
-        <v>76.78</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="BG30" s="22">
-        <v>69.72</v>
+        <v>69.36</v>
       </c>
       <c r="BH30" s="22">
-        <v>31.3</v>
+        <v>24.91</v>
       </c>
       <c r="BI30" s="22">
-        <v>32.68</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="11">
-        <v>0.59</v>
+        <v>1.08</v>
       </c>
       <c r="D31" s="11">
-        <v>-0.4</v>
+        <v>-0.13</v>
       </c>
       <c r="E31" s="11">
-        <v>-0.44</v>
+        <v>0.1</v>
       </c>
       <c r="F31" s="11">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G31" s="11">
-        <v>-0.27</v>
+        <v>-0.1</v>
       </c>
       <c r="H31" s="11">
-        <v>-0.47</v>
+        <v>0</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="28"/>
-        <v>45.73</v>
+        <v>47.64</v>
       </c>
       <c r="K31" s="14">
         <f t="shared" si="29"/>
-        <v>56.609999999999992</v>
+        <v>46.140555555555565</v>
       </c>
       <c r="L31" s="14">
         <f t="shared" si="30"/>
-        <v>35.430000000000007</v>
+        <v>49.059473684210523</v>
       </c>
       <c r="M31" s="19">
         <f t="shared" si="31"/>
-        <v>46.840999999999994</v>
+        <v>51.637</v>
       </c>
       <c r="N31" s="19">
         <f t="shared" si="32"/>
-        <v>54.837999999999987</v>
+        <v>46.21</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="33"/>
-        <v>38.844000000000008</v>
+        <v>57.064</v>
       </c>
       <c r="P31" s="14">
         <f t="shared" si="34"/>
-        <v>45.323703703703707</v>
+        <v>46.158888888888889</v>
       </c>
       <c r="Q31" s="14">
         <f t="shared" si="35"/>
-        <v>57.291538461538458</v>
+        <v>46.113846153846161</v>
       </c>
       <c r="R31" s="14">
         <f t="shared" si="36"/>
-        <v>34.210714285714289</v>
+        <v>46.200714285714284</v>
       </c>
       <c r="T31">
-        <v>825</v>
+        <v>888</v>
       </c>
       <c r="U31" s="2">
-        <v>51970.39</v>
+        <v>52333.39</v>
       </c>
       <c r="V31" s="2">
-        <v>2882.11</v>
+        <v>2519.11</v>
       </c>
       <c r="W31" s="2">
-        <v>89.31</v>
+        <v>90.63</v>
       </c>
       <c r="X31" s="23">
-        <v>45.73</v>
+        <v>47.64</v>
       </c>
       <c r="Y31" s="24">
-        <v>73.849999999999994</v>
+        <v>89.78</v>
       </c>
       <c r="Z31" s="24">
-        <v>85.67</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="AA31" s="24">
-        <v>76.709999999999994</v>
+        <v>63.66</v>
       </c>
       <c r="AB31" s="24">
-        <v>32.96</v>
+        <v>10.8</v>
       </c>
       <c r="AC31" s="24">
-        <v>5</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="AD31" s="24">
-        <v>15.23</v>
+        <v>56.62</v>
       </c>
       <c r="AE31" s="24">
-        <v>37.86</v>
+        <v>54.94</v>
       </c>
       <c r="AF31" s="24">
-        <v>39.44</v>
+        <v>60.18</v>
       </c>
       <c r="AG31" s="24">
-        <v>88.39</v>
+        <v>89.26</v>
       </c>
       <c r="AH31" s="24">
-        <v>13.3</v>
+        <v>24.32</v>
       </c>
       <c r="AI31" s="22">
-        <v>99.54</v>
+        <v>99.1</v>
       </c>
       <c r="AJ31" s="22">
-        <v>97.3</v>
+        <v>95.39</v>
       </c>
       <c r="AK31" s="22">
-        <v>7.85</v>
+        <v>20.41</v>
       </c>
       <c r="AL31" s="22">
-        <v>99.6</v>
+        <v>99.2</v>
       </c>
       <c r="AM31" s="22">
-        <v>29.62</v>
+        <v>8.31</v>
       </c>
       <c r="AN31" s="22">
-        <v>26.45</v>
+        <v>10.35</v>
       </c>
       <c r="AO31" s="22">
-        <v>57.09</v>
+        <v>62.31</v>
       </c>
       <c r="AP31" s="22">
-        <v>18.809999999999999</v>
+        <v>10.43</v>
       </c>
       <c r="AQ31" s="22">
-        <v>59.64</v>
+        <v>59.15</v>
       </c>
       <c r="AR31" s="22">
-        <v>17.64</v>
+        <v>8.69</v>
       </c>
       <c r="AS31" s="22">
-        <v>58.84</v>
+        <v>26.79</v>
       </c>
       <c r="AT31" s="22">
-        <v>95.5</v>
+        <v>19.63</v>
       </c>
       <c r="AU31" s="22">
-        <v>76.91</v>
+        <v>79.72</v>
       </c>
       <c r="AV31" s="22">
-        <v>22.91</v>
+        <v>21.29</v>
       </c>
       <c r="AW31" s="22">
-        <v>49.8</v>
+        <v>78.2</v>
       </c>
       <c r="AX31" s="22">
-        <v>29.51</v>
+        <v>42.39</v>
       </c>
       <c r="AY31" s="22">
-        <v>9.61</v>
+        <v>20.28</v>
       </c>
       <c r="AZ31" s="22">
-        <v>22.37</v>
+        <v>52.8</v>
       </c>
       <c r="BA31" s="22">
-        <v>20.239999999999998</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="BB31" s="22">
-        <v>44.21</v>
+        <v>57.51</v>
       </c>
       <c r="BC31" s="22">
-        <v>82.66</v>
+        <v>82.75</v>
       </c>
       <c r="BD31" s="22">
-        <v>19.809999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="BE31" s="22">
-        <v>24.85</v>
+        <v>17.86</v>
       </c>
       <c r="BF31" s="22">
-        <v>80.72</v>
+        <v>76.78</v>
       </c>
       <c r="BG31" s="22">
-        <v>73.239999999999995</v>
+        <v>69.72</v>
       </c>
       <c r="BH31" s="22">
-        <v>-1.37</v>
+        <v>31.3</v>
       </c>
       <c r="BI31" s="22">
-        <v>0.39</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="11">
-        <v>1.5</v>
+        <v>0.59</v>
       </c>
       <c r="D32" s="11">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="E32" s="11">
-        <v>0.41</v>
+        <v>-0.44</v>
       </c>
       <c r="F32" s="11">
-        <v>1.29</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G32" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H32">
-        <v>0.21</v>
+        <v>-0.27</v>
+      </c>
+      <c r="H32" s="11">
+        <v>-0.47</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="28"/>
-        <v>43.38</v>
+        <v>45.73</v>
       </c>
       <c r="K32" s="14">
         <f t="shared" si="29"/>
-        <v>39.777777777777779</v>
+        <v>56.609999999999992</v>
       </c>
       <c r="L32" s="14">
         <f t="shared" si="30"/>
-        <v>46.797368421052639</v>
+        <v>35.430000000000007</v>
       </c>
       <c r="M32" s="19">
         <f t="shared" si="31"/>
-        <v>47.493000000000002</v>
+        <v>46.840999999999994</v>
       </c>
       <c r="N32" s="19">
         <f t="shared" si="32"/>
-        <v>40.051999999999992</v>
+        <v>54.837999999999987</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="33"/>
-        <v>54.934000000000005</v>
+        <v>38.844000000000008</v>
       </c>
       <c r="P32" s="14">
         <f t="shared" si="34"/>
-        <v>41.860000000000007</v>
+        <v>45.323703703703707</v>
       </c>
       <c r="Q32" s="14">
         <f t="shared" si="35"/>
-        <v>39.67230769230769</v>
+        <v>57.291538461538458</v>
       </c>
       <c r="R32" s="14">
         <f t="shared" si="36"/>
-        <v>43.89142857142857</v>
+        <v>34.210714285714289</v>
       </c>
       <c r="T32">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="U32" s="2">
-        <v>52099.18</v>
+        <v>51970.39</v>
       </c>
       <c r="V32" s="2">
-        <v>2753.32</v>
+        <v>2882.11</v>
       </c>
       <c r="W32" s="2">
-        <v>89.84</v>
+        <v>89.31</v>
       </c>
       <c r="X32" s="23">
-        <v>43.38</v>
+        <v>45.73</v>
       </c>
       <c r="Y32" s="24">
-        <v>83.43</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="Z32" s="24">
-        <v>52.51</v>
+        <v>85.67</v>
       </c>
       <c r="AA32" s="24">
-        <v>53.08</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="AB32" s="24">
-        <v>6.51</v>
+        <v>32.96</v>
       </c>
       <c r="AC32" s="24">
-        <v>4.7300000000000004</v>
+        <v>5</v>
       </c>
       <c r="AD32" s="24">
-        <v>65.25</v>
+        <v>15.23</v>
       </c>
       <c r="AE32" s="24">
-        <v>45.35</v>
+        <v>37.86</v>
       </c>
       <c r="AF32" s="24">
-        <v>60.48</v>
+        <v>39.44</v>
       </c>
       <c r="AG32" s="24">
-        <v>91.15</v>
+        <v>88.39</v>
       </c>
       <c r="AH32" s="24">
-        <v>12.44</v>
+        <v>13.3</v>
       </c>
       <c r="AI32" s="22">
-        <v>98.38</v>
+        <v>99.54</v>
       </c>
       <c r="AJ32" s="22">
-        <v>94.83</v>
+        <v>97.3</v>
       </c>
       <c r="AK32" s="22">
-        <v>-7.66</v>
+        <v>7.85</v>
       </c>
       <c r="AL32" s="22">
-        <v>98.8</v>
+        <v>99.6</v>
       </c>
       <c r="AM32" s="22">
-        <v>5.35</v>
+        <v>29.62</v>
       </c>
       <c r="AN32" s="22">
-        <v>4.24</v>
+        <v>26.45</v>
       </c>
       <c r="AO32" s="22">
-        <v>55.33</v>
+        <v>57.09</v>
       </c>
       <c r="AP32" s="22">
-        <v>6.12</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="AQ32" s="22">
-        <v>51.55</v>
+        <v>59.64</v>
       </c>
       <c r="AR32" s="22">
-        <v>9.7200000000000006</v>
+        <v>17.64</v>
       </c>
       <c r="AS32" s="22">
-        <v>22.96</v>
+        <v>58.84</v>
       </c>
       <c r="AT32" s="22">
-        <v>10.46</v>
+        <v>95.5</v>
       </c>
       <c r="AU32" s="22">
-        <v>65.66</v>
+        <v>76.91</v>
       </c>
       <c r="AV32" s="22">
-        <v>15.39</v>
+        <v>22.91</v>
       </c>
       <c r="AW32" s="22">
-        <v>95.4</v>
+        <v>49.8</v>
       </c>
       <c r="AX32" s="22">
-        <v>40.119999999999997</v>
+        <v>29.51</v>
       </c>
       <c r="AY32" s="22">
-        <v>17.420000000000002</v>
+        <v>9.61</v>
       </c>
       <c r="AZ32" s="22">
-        <v>59.58</v>
+        <v>22.37</v>
       </c>
       <c r="BA32" s="22">
-        <v>34.01</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="BB32" s="22">
-        <v>47.6</v>
+        <v>44.21</v>
       </c>
       <c r="BC32" s="22">
-        <v>82.47</v>
+        <v>82.66</v>
       </c>
       <c r="BD32" s="22">
-        <v>31.11</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="BE32" s="22">
-        <v>13.73</v>
+        <v>24.85</v>
       </c>
       <c r="BF32" s="22">
-        <v>70.73</v>
+        <v>80.72</v>
       </c>
       <c r="BG32" s="22">
-        <v>67.09</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="BH32" s="22">
-        <v>16.16</v>
+        <v>-1.37</v>
       </c>
       <c r="BI32" s="22">
-        <v>23.67</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
-      <c r="AL33" s="22"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="22"/>
-      <c r="AP33" s="22"/>
-      <c r="AQ33" s="22"/>
-      <c r="AR33" s="22"/>
-      <c r="AS33" s="22"/>
-      <c r="AT33" s="22"/>
-      <c r="AU33" s="22"/>
-      <c r="AV33" s="22"/>
-      <c r="AW33" s="22"/>
-      <c r="AX33" s="22"/>
-      <c r="AY33" s="22"/>
-      <c r="AZ33" s="22"/>
-      <c r="BA33" s="22"/>
-      <c r="BB33" s="22"/>
-      <c r="BC33" s="22"/>
-      <c r="BD33" s="22"/>
-      <c r="BE33" s="22"/>
-      <c r="BF33" s="22"/>
-      <c r="BG33" s="22"/>
-      <c r="BH33" s="22"/>
-      <c r="BI33" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H33">
+        <v>0.21</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="28"/>
+        <v>43.38</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="29"/>
+        <v>39.777777777777779</v>
+      </c>
+      <c r="L33" s="14">
+        <f t="shared" si="30"/>
+        <v>46.797368421052639</v>
+      </c>
+      <c r="M33" s="19">
+        <f t="shared" si="31"/>
+        <v>47.493000000000002</v>
+      </c>
+      <c r="N33" s="19">
+        <f t="shared" si="32"/>
+        <v>40.051999999999992</v>
+      </c>
+      <c r="O33" s="19">
+        <f t="shared" si="33"/>
+        <v>54.934000000000005</v>
+      </c>
+      <c r="P33" s="14">
+        <f t="shared" si="34"/>
+        <v>41.860000000000007</v>
+      </c>
+      <c r="Q33" s="14">
+        <f t="shared" si="35"/>
+        <v>39.67230769230769</v>
+      </c>
+      <c r="R33" s="14">
+        <f t="shared" si="36"/>
+        <v>43.89142857142857</v>
+      </c>
+      <c r="T33">
+        <v>830</v>
+      </c>
+      <c r="U33" s="2">
+        <v>52099.18</v>
+      </c>
+      <c r="V33" s="2">
+        <v>2753.32</v>
+      </c>
+      <c r="W33" s="2">
+        <v>89.84</v>
+      </c>
+      <c r="X33" s="23">
+        <v>43.38</v>
+      </c>
+      <c r="Y33" s="24">
+        <v>83.43</v>
+      </c>
+      <c r="Z33" s="24">
+        <v>52.51</v>
+      </c>
+      <c r="AA33" s="24">
+        <v>53.08</v>
+      </c>
+      <c r="AB33" s="24">
+        <v>6.51</v>
+      </c>
+      <c r="AC33" s="24">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AD33" s="24">
+        <v>65.25</v>
+      </c>
+      <c r="AE33" s="24">
+        <v>45.35</v>
+      </c>
+      <c r="AF33" s="24">
+        <v>60.48</v>
+      </c>
+      <c r="AG33" s="24">
+        <v>91.15</v>
+      </c>
+      <c r="AH33" s="24">
+        <v>12.44</v>
+      </c>
+      <c r="AI33" s="22">
+        <v>98.38</v>
+      </c>
+      <c r="AJ33" s="22">
+        <v>94.83</v>
+      </c>
+      <c r="AK33" s="22">
+        <v>-7.66</v>
+      </c>
+      <c r="AL33" s="22">
+        <v>98.8</v>
+      </c>
+      <c r="AM33" s="22">
+        <v>5.35</v>
+      </c>
+      <c r="AN33" s="22">
+        <v>4.24</v>
+      </c>
+      <c r="AO33" s="22">
+        <v>55.33</v>
+      </c>
+      <c r="AP33" s="22">
+        <v>6.12</v>
+      </c>
+      <c r="AQ33" s="22">
+        <v>51.55</v>
+      </c>
+      <c r="AR33" s="22">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="AS33" s="22">
+        <v>22.96</v>
+      </c>
+      <c r="AT33" s="22">
+        <v>10.46</v>
+      </c>
+      <c r="AU33" s="22">
+        <v>65.66</v>
+      </c>
+      <c r="AV33" s="22">
+        <v>15.39</v>
+      </c>
+      <c r="AW33" s="22">
+        <v>95.4</v>
+      </c>
+      <c r="AX33" s="22">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="AY33" s="22">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="AZ33" s="22">
+        <v>59.58</v>
+      </c>
+      <c r="BA33" s="22">
+        <v>34.01</v>
+      </c>
+      <c r="BB33" s="22">
+        <v>47.6</v>
+      </c>
+      <c r="BC33" s="22">
+        <v>82.47</v>
+      </c>
+      <c r="BD33" s="22">
+        <v>31.11</v>
+      </c>
+      <c r="BE33" s="22">
+        <v>13.73</v>
+      </c>
+      <c r="BF33" s="22">
+        <v>70.73</v>
+      </c>
+      <c r="BG33" s="22">
+        <v>67.09</v>
+      </c>
+      <c r="BH33" s="22">
+        <v>16.16</v>
+      </c>
+      <c r="BI33" s="22">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -5312,7 +5516,7 @@
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -5365,7 +5569,7 @@
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -5418,7 +5622,7 @@
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -5471,7 +5675,7 @@
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -5524,7 +5728,7 @@
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -5577,7 +5781,7 @@
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
@@ -5630,7 +5834,7 @@
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
@@ -5683,7 +5887,7 @@
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
@@ -5736,7 +5940,7 @@
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
@@ -5789,7 +5993,7 @@
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
@@ -5842,7 +6046,7 @@
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
@@ -5895,7 +6099,7 @@
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
@@ -5948,37 +6152,61 @@
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22"/>
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22"/>
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22"/>
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22"/>
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22"/>
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22"/>
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-      <c r="AR47" s="5"/>
-      <c r="AS47" s="5"/>
-      <c r="AT47" s="5"/>
-      <c r="AU47" s="5"/>
-      <c r="AV47" s="5"/>
-      <c r="AW47" s="5"/>
-      <c r="AX47" s="5"/>
-      <c r="AY47" s="5"/>
-      <c r="AZ47" s="5"/>
-      <c r="BA47" s="5"/>
-      <c r="BB47" s="5"/>
-      <c r="BC47" s="5"/>
-      <c r="BD47" s="5"/>
-      <c r="BE47" s="5"/>
-      <c r="BF47" s="5"/>
-      <c r="BG47" s="5"/>
-      <c r="BH47" s="5"/>
-      <c r="BI47" s="5"/>
-    </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
       <c r="AK48" s="5"/>
@@ -6732,150 +6960,179 @@
       <c r="BH73" s="5"/>
       <c r="BI73" s="5"/>
     </row>
+    <row r="74" spans="35:61" x14ac:dyDescent="0.25">
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="5"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="5"/>
+      <c r="BE74" s="5"/>
+      <c r="BF74" s="5"/>
+      <c r="BG74" s="5"/>
+      <c r="BH74" s="5"/>
+      <c r="BI74" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="Y82:Y91">
+  <conditionalFormatting sqref="Y83:Y92">
     <cfRule type="top10" priority="139" rank="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J81">
-    <cfRule type="top10" dxfId="46" priority="47" rank="2"/>
+  <conditionalFormatting sqref="J8:J82">
+    <cfRule type="top10" dxfId="55" priority="47" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K81">
-    <cfRule type="top10" dxfId="45" priority="46" rank="2"/>
+  <conditionalFormatting sqref="K8:K82">
+    <cfRule type="top10" dxfId="54" priority="46" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L81">
-    <cfRule type="top10" dxfId="44" priority="45" rank="2"/>
+  <conditionalFormatting sqref="L8:L82">
+    <cfRule type="top10" dxfId="53" priority="45" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M81">
-    <cfRule type="top10" dxfId="43" priority="44" rank="2"/>
+  <conditionalFormatting sqref="M8:M82">
+    <cfRule type="top10" dxfId="52" priority="44" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N81">
-    <cfRule type="top10" dxfId="42" priority="43" rank="2"/>
+  <conditionalFormatting sqref="N8:N82">
+    <cfRule type="top10" dxfId="51" priority="43" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O81">
-    <cfRule type="top10" dxfId="41" priority="42" rank="2"/>
+  <conditionalFormatting sqref="O8:O82">
+    <cfRule type="top10" dxfId="50" priority="42" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P81">
-    <cfRule type="top10" dxfId="40" priority="41" rank="2"/>
+  <conditionalFormatting sqref="P8:P82">
+    <cfRule type="top10" dxfId="49" priority="41" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q81">
-    <cfRule type="top10" dxfId="39" priority="40" rank="2"/>
+  <conditionalFormatting sqref="Q8:Q82">
+    <cfRule type="top10" dxfId="48" priority="40" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R81">
-    <cfRule type="top10" dxfId="38" priority="39" rank="2"/>
+  <conditionalFormatting sqref="R8:R82">
+    <cfRule type="top10" dxfId="47" priority="39" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y81">
-    <cfRule type="top10" dxfId="37" priority="38" rank="2"/>
+  <conditionalFormatting sqref="Y8:Y82">
+    <cfRule type="top10" dxfId="46" priority="38" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X8:X81">
-    <cfRule type="top10" dxfId="36" priority="37" rank="2"/>
+  <conditionalFormatting sqref="X8:X82">
+    <cfRule type="top10" dxfId="45" priority="37" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:Z73">
-    <cfRule type="top10" dxfId="35" priority="36" rank="2"/>
+  <conditionalFormatting sqref="Z8:Z74">
+    <cfRule type="top10" dxfId="44" priority="36" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA8:AA73">
-    <cfRule type="top10" dxfId="34" priority="35" rank="2"/>
+  <conditionalFormatting sqref="AA8:AA74">
+    <cfRule type="top10" dxfId="43" priority="35" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8:AB73">
-    <cfRule type="top10" dxfId="33" priority="34" rank="2"/>
+  <conditionalFormatting sqref="AB8:AB74">
+    <cfRule type="top10" dxfId="42" priority="34" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC8:AC73">
-    <cfRule type="top10" dxfId="32" priority="33" rank="2"/>
+  <conditionalFormatting sqref="AC8:AC74">
+    <cfRule type="top10" dxfId="41" priority="33" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD8:AD73">
-    <cfRule type="top10" dxfId="31" priority="32" rank="2"/>
+  <conditionalFormatting sqref="AD8:AD74">
+    <cfRule type="top10" dxfId="40" priority="32" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8:AE73">
-    <cfRule type="top10" dxfId="30" priority="31" rank="2"/>
+  <conditionalFormatting sqref="AE8:AE74">
+    <cfRule type="top10" dxfId="39" priority="31" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF8:AF73">
-    <cfRule type="top10" dxfId="29" priority="30" rank="2"/>
+  <conditionalFormatting sqref="AF8:AF74">
+    <cfRule type="top10" dxfId="38" priority="30" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AG73">
-    <cfRule type="top10" dxfId="28" priority="29" rank="2"/>
+  <conditionalFormatting sqref="AG8:AG74">
+    <cfRule type="top10" dxfId="37" priority="29" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH8:AH73">
-    <cfRule type="top10" dxfId="27" priority="28" rank="2"/>
+  <conditionalFormatting sqref="AH8:AH74">
+    <cfRule type="top10" dxfId="36" priority="28" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI8:AI73">
-    <cfRule type="top10" dxfId="26" priority="27" rank="2"/>
+  <conditionalFormatting sqref="AI8:AI74">
+    <cfRule type="top10" dxfId="35" priority="27" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8:AJ73">
-    <cfRule type="top10" dxfId="25" priority="26" rank="2"/>
+  <conditionalFormatting sqref="AJ8:AJ74">
+    <cfRule type="top10" dxfId="34" priority="26" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK8:AK73">
-    <cfRule type="top10" dxfId="24" priority="25" rank="2"/>
+  <conditionalFormatting sqref="AK8:AK74">
+    <cfRule type="top10" dxfId="33" priority="25" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL8:AL73">
-    <cfRule type="top10" dxfId="23" priority="24" rank="2"/>
+  <conditionalFormatting sqref="AL8:AL74">
+    <cfRule type="top10" dxfId="32" priority="24" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM8:AM73">
-    <cfRule type="top10" dxfId="22" priority="23" rank="2"/>
+  <conditionalFormatting sqref="AM8:AM74">
+    <cfRule type="top10" dxfId="31" priority="23" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN8:AN73">
-    <cfRule type="top10" dxfId="21" priority="22" rank="2"/>
+  <conditionalFormatting sqref="AN8:AN74">
+    <cfRule type="top10" dxfId="30" priority="22" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO8:AO73">
-    <cfRule type="top10" dxfId="20" priority="21" rank="2"/>
+  <conditionalFormatting sqref="AO8:AO74">
+    <cfRule type="top10" dxfId="29" priority="21" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP8:AP73">
-    <cfRule type="top10" dxfId="19" priority="20" rank="2"/>
+  <conditionalFormatting sqref="AP8:AP74">
+    <cfRule type="top10" dxfId="28" priority="20" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ8:AQ73">
-    <cfRule type="top10" dxfId="18" priority="19" rank="2"/>
+  <conditionalFormatting sqref="AQ8:AQ74">
+    <cfRule type="top10" dxfId="27" priority="19" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR8:AR73">
-    <cfRule type="top10" dxfId="17" priority="18" rank="2"/>
+  <conditionalFormatting sqref="AR8:AR74">
+    <cfRule type="top10" dxfId="26" priority="18" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS8:AS73">
-    <cfRule type="top10" dxfId="16" priority="17" rank="2"/>
+  <conditionalFormatting sqref="AS8:AS74">
+    <cfRule type="top10" dxfId="25" priority="17" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT8:AT73">
-    <cfRule type="top10" dxfId="15" priority="16" rank="2"/>
+  <conditionalFormatting sqref="AT8:AT74">
+    <cfRule type="top10" dxfId="24" priority="16" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU8:AU73">
-    <cfRule type="top10" dxfId="14" priority="15" rank="2"/>
+  <conditionalFormatting sqref="AU8:AU74">
+    <cfRule type="top10" dxfId="23" priority="15" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV8:AV73">
-    <cfRule type="top10" dxfId="13" priority="14" rank="2"/>
+  <conditionalFormatting sqref="AV8:AV74">
+    <cfRule type="top10" dxfId="22" priority="14" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW8:AW73">
-    <cfRule type="top10" dxfId="12" priority="13" rank="2"/>
+  <conditionalFormatting sqref="AW8:AW74">
+    <cfRule type="top10" dxfId="21" priority="13" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX8:AX73">
-    <cfRule type="top10" dxfId="11" priority="12" rank="2"/>
+  <conditionalFormatting sqref="AX8:AX74">
+    <cfRule type="top10" dxfId="20" priority="12" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY8:AY73">
-    <cfRule type="top10" dxfId="10" priority="11" rank="2"/>
+  <conditionalFormatting sqref="AY8:AY74">
+    <cfRule type="top10" dxfId="19" priority="11" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ8:AZ73">
-    <cfRule type="top10" dxfId="9" priority="10" rank="2"/>
+  <conditionalFormatting sqref="AZ8:AZ74">
+    <cfRule type="top10" dxfId="18" priority="10" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA8:BA73">
-    <cfRule type="top10" dxfId="8" priority="9" rank="2"/>
+  <conditionalFormatting sqref="BA8:BA74">
+    <cfRule type="top10" dxfId="17" priority="9" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB8:BB73">
-    <cfRule type="top10" dxfId="7" priority="8" rank="2"/>
+  <conditionalFormatting sqref="BB8:BB74">
+    <cfRule type="top10" dxfId="16" priority="8" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC8:BC73">
-    <cfRule type="top10" dxfId="6" priority="7" rank="2"/>
+  <conditionalFormatting sqref="BC8:BC74">
+    <cfRule type="top10" dxfId="15" priority="7" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD8:BD73">
-    <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
+  <conditionalFormatting sqref="BD8:BD74">
+    <cfRule type="top10" dxfId="14" priority="6" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE8:BE73">
-    <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
+  <conditionalFormatting sqref="BE8:BE74">
+    <cfRule type="top10" dxfId="13" priority="5" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF8:BF73">
-    <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
+  <conditionalFormatting sqref="BF8:BF74">
+    <cfRule type="top10" dxfId="12" priority="4" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG8:BG73">
-    <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
+  <conditionalFormatting sqref="BG8:BG74">
+    <cfRule type="top10" dxfId="11" priority="3" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH8:BH73">
-    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
+  <conditionalFormatting sqref="BH8:BH74">
+    <cfRule type="top10" dxfId="10" priority="2" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI8:BI73">
-    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
+  <conditionalFormatting sqref="BI8:BI74">
+    <cfRule type="top10" dxfId="9" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9835,7 +10092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AR5"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:AR5"/>
     </sheetView>
   </sheetViews>

--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,15 +1224,15 @@
       </c>
       <c r="V3">
         <f>MATCH(MIN(V8:V126),V8:V126,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:BI3" si="0">MATCH(MAX(W8:W126),W8:W126,0)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="X3" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="AO3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="AY3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AZ3">
         <f t="shared" si="0"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="BB3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BC3">
         <f t="shared" si="0"/>
@@ -2988,7 +2988,7 @@
         <v>74</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" ref="J17" si="9">X17</f>
+        <f t="shared" ref="J17:J18" si="9">X17</f>
         <v>52.01</v>
       </c>
       <c r="K17" s="14">
@@ -3004,23 +3004,23 @@
         <v>52.346000000000004</v>
       </c>
       <c r="N17" s="19">
-        <f t="shared" ref="N17" si="10">(SUM(Y17:AC17))/(COUNT(Y17:AC17))</f>
+        <f t="shared" ref="N17:N18" si="10">(SUM(Y17:AC17))/(COUNT(Y17:AC17))</f>
         <v>53.179999999999993</v>
       </c>
       <c r="O17" s="19">
-        <f t="shared" ref="O17" si="11">(SUM(AD17:AH17))/(COUNT(AD17:AH17))</f>
+        <f t="shared" ref="O17:O18" si="11">(SUM(AD17:AH17))/(COUNT(AD17:AH17))</f>
         <v>51.512</v>
       </c>
       <c r="P17" s="14">
-        <f t="shared" ref="P17" si="12">AVERAGE(AI17:BI17)</f>
+        <f t="shared" ref="P17:P18" si="12">AVERAGE(AI17:BI17)</f>
         <v>51.880370370370379</v>
       </c>
       <c r="Q17" s="14">
-        <f t="shared" ref="Q17" si="13">(SUM(AI17:AU17))/(COUNT(AI17:AU17))</f>
+        <f t="shared" ref="Q17:Q18" si="13">(SUM(AI17:AU17))/(COUNT(AI17:AU17))</f>
         <v>55.869230769230768</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" ref="R17" si="14">(SUM(AV17:BI17))/(COUNT(AV17:BI17))</f>
+        <f t="shared" ref="R17:R18" si="14">(SUM(AV17:BI17))/(COUNT(AV17:BI17))</f>
         <v>48.176428571428566</v>
       </c>
       <c r="T17" s="25">
@@ -3166,58 +3166,169 @@
       <c r="F18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+      <c r="J18" s="14">
+        <f t="shared" si="9"/>
+        <v>54.01</v>
+      </c>
+      <c r="K18" s="14">
+        <f>(SUM(Y18:AC18)+SUM(AI18:AU18))/(COUNT(Y18:AC18)+COUNT(AI18:AU18))</f>
+        <v>53.37722222222223</v>
+      </c>
+      <c r="L18" s="14">
+        <f>(SUM(AD18:AH18)+SUM(AV18:BI18))/(COUNT(AD18:AH18)+COUNT(AV18:BI18))</f>
+        <v>54.608947368421049</v>
+      </c>
+      <c r="M18" s="19">
+        <f>AVERAGE(Y18:AH18)</f>
+        <v>59.613999999999997</v>
+      </c>
+      <c r="N18" s="19">
+        <f t="shared" si="10"/>
+        <v>52.057999999999993</v>
+      </c>
+      <c r="O18" s="19">
+        <f t="shared" si="11"/>
+        <v>67.169999999999987</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="12"/>
+        <v>51.934074074074076</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="13"/>
+        <v>53.884615384615394</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="14"/>
+        <v>50.122857142857143</v>
+      </c>
       <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22"/>
-      <c r="AP18" s="22"/>
-      <c r="AQ18" s="22"/>
-      <c r="AR18" s="22"/>
-      <c r="AS18" s="22"/>
-      <c r="AT18" s="22"/>
-      <c r="AU18" s="22"/>
-      <c r="AV18" s="22"/>
-      <c r="AW18" s="22"/>
-      <c r="AX18" s="22"/>
-      <c r="AY18" s="22"/>
-      <c r="AZ18" s="22"/>
-      <c r="BA18" s="22"/>
-      <c r="BB18" s="22"/>
-      <c r="BC18" s="22"/>
-      <c r="BD18" s="22"/>
-      <c r="BE18" s="22"/>
-      <c r="BF18" s="22"/>
-      <c r="BG18" s="22"/>
-      <c r="BH18" s="22"/>
-      <c r="BI18" s="22"/>
+      <c r="T18">
+        <v>1000</v>
+      </c>
+      <c r="U18" s="2">
+        <v>52678.43</v>
+      </c>
+      <c r="V18" s="2">
+        <v>2174.0700000000002</v>
+      </c>
+      <c r="W18" s="2">
+        <v>91.84</v>
+      </c>
+      <c r="X18" s="23">
+        <v>54.01</v>
+      </c>
+      <c r="Y18" s="24">
+        <v>85.45</v>
+      </c>
+      <c r="Z18" s="24">
+        <v>68.62</v>
+      </c>
+      <c r="AA18" s="24">
+        <v>71.34</v>
+      </c>
+      <c r="AB18" s="24">
+        <v>25.51</v>
+      </c>
+      <c r="AC18" s="24">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="AD18" s="24">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="AE18" s="24">
+        <v>59.37</v>
+      </c>
+      <c r="AF18" s="24">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="AG18" s="24">
+        <v>82.34</v>
+      </c>
+      <c r="AH18" s="24">
+        <v>48.58</v>
+      </c>
+      <c r="AI18" s="22">
+        <v>97.31</v>
+      </c>
+      <c r="AJ18" s="22">
+        <v>91.32</v>
+      </c>
+      <c r="AK18" s="22">
+        <v>23.3</v>
+      </c>
+      <c r="AL18" s="22">
+        <v>99.15</v>
+      </c>
+      <c r="AM18" s="22">
+        <v>19.12</v>
+      </c>
+      <c r="AN18" s="22">
+        <v>13.17</v>
+      </c>
+      <c r="AO18" s="22">
+        <v>67.16</v>
+      </c>
+      <c r="AP18" s="22">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AQ18" s="22">
+        <v>60.64</v>
+      </c>
+      <c r="AR18" s="22">
+        <v>15.5</v>
+      </c>
+      <c r="AS18" s="22">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="AT18" s="22">
+        <v>75.52</v>
+      </c>
+      <c r="AU18" s="22">
+        <v>84.62</v>
+      </c>
+      <c r="AV18" s="22">
+        <v>13.39</v>
+      </c>
+      <c r="AW18" s="22">
+        <v>93.87</v>
+      </c>
+      <c r="AX18" s="22">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="AY18" s="22">
+        <v>37.32</v>
+      </c>
+      <c r="AZ18" s="22">
+        <v>56.26</v>
+      </c>
+      <c r="BA18" s="22">
+        <v>41.42</v>
+      </c>
+      <c r="BB18" s="22">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="BC18" s="22">
+        <v>63.27</v>
+      </c>
+      <c r="BD18" s="22">
+        <v>11.02</v>
+      </c>
+      <c r="BE18" s="22">
+        <v>25.26</v>
+      </c>
+      <c r="BF18" s="22">
+        <v>75.16</v>
+      </c>
+      <c r="BG18" s="22">
+        <v>71.48</v>
+      </c>
+      <c r="BH18" s="22">
+        <v>58.48</v>
+      </c>
+      <c r="BI18" s="22">
+        <v>51.09</v>
+      </c>
       <c r="BJ18" s="8"/>
       <c r="BL18"/>
     </row>

--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -619,70 +619,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="221">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="212">
     <dxf>
       <fill>
         <patternFill>
@@ -2470,7 +2407,7 @@
   <dimension ref="A1:BL74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9668,289 +9605,289 @@
     <cfRule type="top10" priority="252" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64:J82">
-    <cfRule type="top10" dxfId="220" priority="160" rank="2"/>
+    <cfRule type="top10" dxfId="211" priority="160" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64:K82">
-    <cfRule type="top10" dxfId="219" priority="159" rank="2"/>
+    <cfRule type="top10" dxfId="210" priority="159" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64:L82">
-    <cfRule type="top10" dxfId="218" priority="158" rank="2"/>
+    <cfRule type="top10" dxfId="209" priority="158" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:M82">
-    <cfRule type="top10" dxfId="217" priority="157" rank="2"/>
+    <cfRule type="top10" dxfId="208" priority="157" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64:N82">
-    <cfRule type="top10" dxfId="216" priority="156" rank="2"/>
+    <cfRule type="top10" dxfId="207" priority="156" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64:O82">
-    <cfRule type="top10" dxfId="215" priority="155" rank="2"/>
+    <cfRule type="top10" dxfId="206" priority="155" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64:P82">
-    <cfRule type="top10" dxfId="214" priority="154" rank="2"/>
+    <cfRule type="top10" dxfId="205" priority="154" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q64:Q82">
-    <cfRule type="top10" dxfId="213" priority="153" rank="2"/>
+    <cfRule type="top10" dxfId="204" priority="153" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R64:R82">
-    <cfRule type="top10" dxfId="212" priority="152" rank="2"/>
+    <cfRule type="top10" dxfId="203" priority="152" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y64:Y82">
-    <cfRule type="top10" dxfId="211" priority="151" rank="2"/>
+    <cfRule type="top10" dxfId="202" priority="151" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X58:X82">
-    <cfRule type="top10" dxfId="210" priority="150" rank="2"/>
+    <cfRule type="top10" dxfId="201" priority="150" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z64:Z74">
-    <cfRule type="top10" dxfId="209" priority="149" rank="2"/>
+    <cfRule type="top10" dxfId="200" priority="149" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA64:AA74">
-    <cfRule type="top10" dxfId="208" priority="148" rank="2"/>
+    <cfRule type="top10" dxfId="199" priority="148" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB64:AB74">
-    <cfRule type="top10" dxfId="207" priority="147" rank="2"/>
+    <cfRule type="top10" dxfId="198" priority="147" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC64:AC74">
-    <cfRule type="top10" dxfId="206" priority="146" rank="2"/>
+    <cfRule type="top10" dxfId="197" priority="146" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD64:AD74">
-    <cfRule type="top10" dxfId="205" priority="145" rank="2"/>
+    <cfRule type="top10" dxfId="196" priority="145" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE64:AE74">
-    <cfRule type="top10" dxfId="204" priority="144" rank="2"/>
+    <cfRule type="top10" dxfId="195" priority="144" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF64:AF74">
-    <cfRule type="top10" dxfId="203" priority="143" rank="2"/>
+    <cfRule type="top10" dxfId="194" priority="143" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG64:AG74">
-    <cfRule type="top10" dxfId="202" priority="142" rank="2"/>
+    <cfRule type="top10" dxfId="193" priority="142" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH64:AH74">
-    <cfRule type="top10" dxfId="201" priority="141" rank="2"/>
+    <cfRule type="top10" dxfId="192" priority="141" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI64:AI74">
-    <cfRule type="top10" dxfId="200" priority="140" rank="2"/>
+    <cfRule type="top10" dxfId="191" priority="140" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ64:AJ74">
-    <cfRule type="top10" dxfId="199" priority="139" rank="2"/>
+    <cfRule type="top10" dxfId="190" priority="139" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK64:AK74">
-    <cfRule type="top10" dxfId="198" priority="138" rank="2"/>
+    <cfRule type="top10" dxfId="189" priority="138" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL64:AL74">
-    <cfRule type="top10" dxfId="197" priority="137" rank="2"/>
+    <cfRule type="top10" dxfId="188" priority="137" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM64:AM74">
-    <cfRule type="top10" dxfId="196" priority="136" rank="2"/>
+    <cfRule type="top10" dxfId="187" priority="136" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN64:AN74">
-    <cfRule type="top10" dxfId="195" priority="135" rank="2"/>
+    <cfRule type="top10" dxfId="186" priority="135" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO64:AO74">
-    <cfRule type="top10" dxfId="194" priority="134" rank="2"/>
+    <cfRule type="top10" dxfId="185" priority="134" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP64:AP74">
-    <cfRule type="top10" dxfId="193" priority="133" rank="2"/>
+    <cfRule type="top10" dxfId="184" priority="133" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ64:AQ74">
-    <cfRule type="top10" dxfId="192" priority="132" rank="2"/>
+    <cfRule type="top10" dxfId="183" priority="132" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR64:AR74">
-    <cfRule type="top10" dxfId="191" priority="131" rank="2"/>
+    <cfRule type="top10" dxfId="182" priority="131" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS64:AS74">
-    <cfRule type="top10" dxfId="190" priority="130" rank="2"/>
+    <cfRule type="top10" dxfId="181" priority="130" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT64:AT74">
-    <cfRule type="top10" dxfId="189" priority="129" rank="2"/>
+    <cfRule type="top10" dxfId="180" priority="129" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU64:AU74">
-    <cfRule type="top10" dxfId="188" priority="128" rank="2"/>
+    <cfRule type="top10" dxfId="179" priority="128" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV64:AV74">
-    <cfRule type="top10" dxfId="187" priority="127" rank="2"/>
+    <cfRule type="top10" dxfId="178" priority="127" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW64:AW74">
-    <cfRule type="top10" dxfId="186" priority="126" rank="2"/>
+    <cfRule type="top10" dxfId="177" priority="126" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX64:AX74">
-    <cfRule type="top10" dxfId="185" priority="125" rank="2"/>
+    <cfRule type="top10" dxfId="176" priority="125" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY64:AY74">
-    <cfRule type="top10" dxfId="184" priority="124" rank="2"/>
+    <cfRule type="top10" dxfId="175" priority="124" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ64:AZ74">
-    <cfRule type="top10" dxfId="183" priority="123" rank="2"/>
+    <cfRule type="top10" dxfId="174" priority="123" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA64:BA74">
-    <cfRule type="top10" dxfId="182" priority="122" rank="2"/>
+    <cfRule type="top10" dxfId="173" priority="122" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB64:BB74">
-    <cfRule type="top10" dxfId="181" priority="121" rank="2"/>
+    <cfRule type="top10" dxfId="172" priority="121" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC64:BC74">
-    <cfRule type="top10" dxfId="180" priority="120" rank="2"/>
+    <cfRule type="top10" dxfId="171" priority="120" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD64:BD74">
-    <cfRule type="top10" dxfId="179" priority="119" rank="2"/>
+    <cfRule type="top10" dxfId="170" priority="119" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE64:BE74">
-    <cfRule type="top10" dxfId="178" priority="118" rank="2"/>
+    <cfRule type="top10" dxfId="169" priority="118" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF64:BF74">
-    <cfRule type="top10" dxfId="177" priority="117" rank="2"/>
+    <cfRule type="top10" dxfId="168" priority="117" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG64:BG74">
-    <cfRule type="top10" dxfId="176" priority="116" rank="2"/>
+    <cfRule type="top10" dxfId="167" priority="116" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH64:BH74">
-    <cfRule type="top10" dxfId="175" priority="115" rank="2"/>
+    <cfRule type="top10" dxfId="166" priority="115" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI64:BI74">
-    <cfRule type="top10" dxfId="174" priority="114" rank="2"/>
+    <cfRule type="top10" dxfId="165" priority="114" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64:U67">
-    <cfRule type="top10" dxfId="173" priority="113" rank="2"/>
+    <cfRule type="top10" dxfId="164" priority="113" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J63">
-    <cfRule type="top10" dxfId="172" priority="47" rank="2"/>
+    <cfRule type="top10" dxfId="163" priority="47" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K63">
-    <cfRule type="top10" dxfId="171" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="162" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L63">
-    <cfRule type="top10" dxfId="170" priority="45" rank="2"/>
+    <cfRule type="top10" dxfId="161" priority="45" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P63">
-    <cfRule type="top10" dxfId="169" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="160" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q63">
-    <cfRule type="top10" dxfId="168" priority="43" rank="2"/>
+    <cfRule type="top10" dxfId="159" priority="43" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R63">
-    <cfRule type="top10" dxfId="167" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="158" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U63">
-    <cfRule type="top10" dxfId="166" priority="41" rank="2"/>
+    <cfRule type="top10" dxfId="157" priority="41" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M63">
-    <cfRule type="top10" dxfId="165" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="156" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N63">
-    <cfRule type="top10" dxfId="164" priority="39" rank="2"/>
+    <cfRule type="top10" dxfId="155" priority="39" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O63">
-    <cfRule type="top10" dxfId="163" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="154" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y63">
-    <cfRule type="top10" dxfId="162" priority="37" rank="2"/>
+    <cfRule type="top10" dxfId="153" priority="37" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z63">
-    <cfRule type="top10" dxfId="161" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="152" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA63">
-    <cfRule type="top10" dxfId="160" priority="35" rank="2"/>
+    <cfRule type="top10" dxfId="151" priority="35" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB63">
-    <cfRule type="top10" dxfId="159" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="150" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC63">
-    <cfRule type="top10" dxfId="158" priority="33" rank="2"/>
+    <cfRule type="top10" dxfId="149" priority="33" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD63">
-    <cfRule type="top10" dxfId="157" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="148" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE63">
-    <cfRule type="top10" dxfId="156" priority="31" rank="2"/>
+    <cfRule type="top10" dxfId="147" priority="31" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF63">
-    <cfRule type="top10" dxfId="155" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="146" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG63">
-    <cfRule type="top10" dxfId="154" priority="29" rank="2"/>
+    <cfRule type="top10" dxfId="145" priority="29" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AH63">
-    <cfRule type="top10" dxfId="153" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="144" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI63">
-    <cfRule type="top10" dxfId="152" priority="27" rank="2"/>
+    <cfRule type="top10" dxfId="143" priority="27" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ63">
-    <cfRule type="top10" dxfId="151" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="142" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK63">
-    <cfRule type="top10" dxfId="150" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="141" priority="25" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AL63">
-    <cfRule type="top10" dxfId="149" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="140" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM63">
-    <cfRule type="top10" dxfId="148" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="139" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN63">
-    <cfRule type="top10" dxfId="147" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="138" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO63">
-    <cfRule type="top10" dxfId="146" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="137" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP63">
-    <cfRule type="top10" dxfId="145" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="136" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ63">
-    <cfRule type="top10" dxfId="144" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="135" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR63">
-    <cfRule type="top10" dxfId="143" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="134" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS63">
-    <cfRule type="top10" dxfId="142" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="133" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT63">
-    <cfRule type="top10" dxfId="141" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="132" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU63">
-    <cfRule type="top10" dxfId="140" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="131" priority="15" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV63">
-    <cfRule type="top10" dxfId="139" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="130" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW63">
-    <cfRule type="top10" dxfId="138" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="129" priority="13" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX63">
-    <cfRule type="top10" dxfId="137" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="128" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY63">
-    <cfRule type="top10" dxfId="136" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="127" priority="11" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ63">
-    <cfRule type="top10" dxfId="135" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="126" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA63">
-    <cfRule type="top10" dxfId="134" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="125" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB63">
-    <cfRule type="top10" dxfId="133" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="124" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC63">
-    <cfRule type="top10" dxfId="132" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="123" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD63">
-    <cfRule type="top10" dxfId="131" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="122" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE63">
-    <cfRule type="top10" dxfId="130" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="121" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF63">
-    <cfRule type="top10" dxfId="129" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="120" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG63">
-    <cfRule type="top10" dxfId="128" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="119" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH63">
-    <cfRule type="top10" dxfId="127" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="118" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI63">
-    <cfRule type="top10" dxfId="126" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="117" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -22311,211 +22248,211 @@
     <cfRule type="top10" priority="143" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:M79">
-    <cfRule type="top10" dxfId="125" priority="142" rank="2"/>
+    <cfRule type="top10" dxfId="116" priority="142" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72:P79">
-    <cfRule type="top10" dxfId="124" priority="141" rank="2"/>
+    <cfRule type="top10" dxfId="115" priority="141" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:S79">
-    <cfRule type="top10" dxfId="123" priority="140" rank="2"/>
+    <cfRule type="top10" dxfId="114" priority="140" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T72:V79">
-    <cfRule type="top10" dxfId="122" priority="139" rank="2"/>
+    <cfRule type="top10" dxfId="113" priority="139" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W72:X79">
-    <cfRule type="top10" dxfId="121" priority="138" rank="2"/>
+    <cfRule type="top10" dxfId="112" priority="138" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y72:Z79">
-    <cfRule type="top10" dxfId="120" priority="137" rank="2"/>
+    <cfRule type="top10" dxfId="111" priority="137" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA72:AC79">
-    <cfRule type="top10" dxfId="119" priority="136" rank="2"/>
+    <cfRule type="top10" dxfId="110" priority="136" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD72:AE79">
-    <cfRule type="top10" dxfId="118" priority="135" rank="2"/>
+    <cfRule type="top10" dxfId="109" priority="135" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF72:AG79">
-    <cfRule type="top10" dxfId="117" priority="134" rank="2"/>
+    <cfRule type="top10" dxfId="108" priority="134" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN72:AN79">
-    <cfRule type="top10" dxfId="116" priority="133" rank="2"/>
+    <cfRule type="top10" dxfId="107" priority="133" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM72:AM79">
-    <cfRule type="top10" dxfId="115" priority="132" rank="2"/>
+    <cfRule type="top10" dxfId="106" priority="132" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:M40 J43:M43">
-    <cfRule type="top10" dxfId="114" priority="393" rank="2"/>
+    <cfRule type="top10" dxfId="105" priority="393" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:P40 N43:P43">
-    <cfRule type="top10" dxfId="113" priority="395" rank="2"/>
+    <cfRule type="top10" dxfId="104" priority="395" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:S40 Q43:S43">
-    <cfRule type="top10" dxfId="112" priority="397" rank="2"/>
+    <cfRule type="top10" dxfId="103" priority="397" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AC40 AA43:AC43">
-    <cfRule type="top10" dxfId="111" priority="399" rank="2"/>
+    <cfRule type="top10" dxfId="102" priority="399" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AE40 AD43:AE43">
-    <cfRule type="top10" dxfId="110" priority="401" rank="2"/>
+    <cfRule type="top10" dxfId="101" priority="401" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AG40 AF43:AG43">
-    <cfRule type="top10" dxfId="109" priority="403" rank="2"/>
+    <cfRule type="top10" dxfId="100" priority="403" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ43">
-    <cfRule type="top10" dxfId="108" priority="405" rank="2"/>
+    <cfRule type="top10" dxfId="99" priority="405" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:V40 T43:V43">
-    <cfRule type="top10" dxfId="107" priority="407" rank="2"/>
+    <cfRule type="top10" dxfId="98" priority="407" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:X40 W43:X43">
-    <cfRule type="top10" dxfId="106" priority="409" rank="2"/>
+    <cfRule type="top10" dxfId="97" priority="409" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Z40 Y43:Z43">
-    <cfRule type="top10" dxfId="105" priority="411" rank="2"/>
+    <cfRule type="top10" dxfId="96" priority="411" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN43 AO40:BX40">
-    <cfRule type="top10" dxfId="104" priority="413" rank="2"/>
+    <cfRule type="top10" dxfId="95" priority="413" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO39 AO41:AO43">
-    <cfRule type="top10" dxfId="103" priority="415" rank="2"/>
+    <cfRule type="top10" dxfId="94" priority="415" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP39 AP41:AP43">
-    <cfRule type="top10" dxfId="102" priority="417" rank="2"/>
+    <cfRule type="top10" dxfId="93" priority="417" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ39 AQ41:AQ43">
-    <cfRule type="top10" dxfId="101" priority="419" rank="2"/>
+    <cfRule type="top10" dxfId="92" priority="419" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR39 AR41:AR43">
-    <cfRule type="top10" dxfId="100" priority="421" rank="2"/>
+    <cfRule type="top10" dxfId="91" priority="421" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS39 AS41:AS43">
-    <cfRule type="top10" dxfId="99" priority="423" rank="2"/>
+    <cfRule type="top10" dxfId="90" priority="423" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT39 AT41:AT43">
-    <cfRule type="top10" dxfId="98" priority="425" rank="2"/>
+    <cfRule type="top10" dxfId="89" priority="425" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU39 AU41:AU43">
-    <cfRule type="top10" dxfId="97" priority="427" rank="2"/>
+    <cfRule type="top10" dxfId="88" priority="427" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV39 AV41:AV43">
-    <cfRule type="top10" dxfId="96" priority="429" rank="2"/>
+    <cfRule type="top10" dxfId="87" priority="429" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW39 AW41:AW43">
-    <cfRule type="top10" dxfId="95" priority="431" rank="2"/>
+    <cfRule type="top10" dxfId="86" priority="431" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX39 AX41:AX43">
-    <cfRule type="top10" dxfId="94" priority="433" rank="2"/>
+    <cfRule type="top10" dxfId="85" priority="433" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY39 AY41:AY43">
-    <cfRule type="top10" dxfId="93" priority="435" rank="2"/>
+    <cfRule type="top10" dxfId="84" priority="435" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ39 AZ41:AZ43">
-    <cfRule type="top10" dxfId="92" priority="437" rank="2"/>
+    <cfRule type="top10" dxfId="83" priority="437" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA39 BA41:BA43">
-    <cfRule type="top10" dxfId="91" priority="439" rank="2"/>
+    <cfRule type="top10" dxfId="82" priority="439" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB39 BB41:BB43">
-    <cfRule type="top10" dxfId="90" priority="441" rank="2"/>
+    <cfRule type="top10" dxfId="81" priority="441" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC39 BC41:BC43">
-    <cfRule type="top10" dxfId="89" priority="443" rank="2"/>
+    <cfRule type="top10" dxfId="80" priority="443" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD39 BD41:BD43">
-    <cfRule type="top10" dxfId="88" priority="445" rank="2"/>
+    <cfRule type="top10" dxfId="79" priority="445" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE39 BE41:BE43">
-    <cfRule type="top10" dxfId="87" priority="447" rank="2"/>
+    <cfRule type="top10" dxfId="78" priority="447" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF39 BF41:BF43">
-    <cfRule type="top10" dxfId="86" priority="449" rank="2"/>
+    <cfRule type="top10" dxfId="77" priority="449" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG39 BG41:BG43">
-    <cfRule type="top10" dxfId="85" priority="451" rank="2"/>
+    <cfRule type="top10" dxfId="76" priority="451" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH39 BH41:BH43">
-    <cfRule type="top10" dxfId="84" priority="453" rank="2"/>
+    <cfRule type="top10" dxfId="75" priority="453" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI39 BI41:BI43">
-    <cfRule type="top10" dxfId="83" priority="455" rank="2"/>
+    <cfRule type="top10" dxfId="74" priority="455" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ8:BJ39 BJ41:BJ43">
-    <cfRule type="top10" dxfId="82" priority="457" rank="2"/>
+    <cfRule type="top10" dxfId="73" priority="457" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK8:BK39 BK41:BK43">
-    <cfRule type="top10" dxfId="81" priority="459" rank="2"/>
+    <cfRule type="top10" dxfId="72" priority="459" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL8:BL39 BL41:BL43">
-    <cfRule type="top10" dxfId="80" priority="461" rank="2"/>
+    <cfRule type="top10" dxfId="71" priority="461" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM8:BM39 BM41:BM43">
-    <cfRule type="top10" dxfId="79" priority="463" rank="2"/>
+    <cfRule type="top10" dxfId="70" priority="463" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN8:BN39 BN41:BN43">
-    <cfRule type="top10" dxfId="78" priority="465" rank="2"/>
+    <cfRule type="top10" dxfId="69" priority="465" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO8:BO39 BO41:BO43">
-    <cfRule type="top10" dxfId="77" priority="467" rank="2"/>
+    <cfRule type="top10" dxfId="68" priority="467" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP8:BP39 BP41:BP43">
-    <cfRule type="top10" dxfId="76" priority="469" rank="2"/>
+    <cfRule type="top10" dxfId="67" priority="469" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ8:BQ39 BQ41:BQ43">
-    <cfRule type="top10" dxfId="75" priority="471" rank="2"/>
+    <cfRule type="top10" dxfId="66" priority="471" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR8:BR39 BR41:BR43">
-    <cfRule type="top10" dxfId="74" priority="473" rank="2"/>
+    <cfRule type="top10" dxfId="65" priority="473" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS8:BS39 BS41:BS43">
-    <cfRule type="top10" dxfId="73" priority="475" rank="2"/>
+    <cfRule type="top10" dxfId="64" priority="475" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT8:BT39 BT41:BT43">
-    <cfRule type="top10" dxfId="72" priority="477" rank="2"/>
+    <cfRule type="top10" dxfId="63" priority="477" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU8:BU39 BU41:BU43">
-    <cfRule type="top10" dxfId="71" priority="479" rank="2"/>
+    <cfRule type="top10" dxfId="62" priority="479" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV8:BV39 BV41:BV43">
-    <cfRule type="top10" dxfId="70" priority="481" rank="2"/>
+    <cfRule type="top10" dxfId="61" priority="481" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW8:BW39 BW41:BW43">
-    <cfRule type="top10" dxfId="69" priority="483" rank="2"/>
+    <cfRule type="top10" dxfId="60" priority="483" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX8:BX39 BX41:BX43">
-    <cfRule type="top10" dxfId="68" priority="485" rank="2"/>
+    <cfRule type="top10" dxfId="59" priority="485" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:M71">
-    <cfRule type="top10" dxfId="67" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="58" priority="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:P71">
-    <cfRule type="top10" dxfId="66" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="57" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:S71">
-    <cfRule type="top10" dxfId="65" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="56" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AC71">
-    <cfRule type="top10" dxfId="64" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="55" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD44:AE71">
-    <cfRule type="top10" dxfId="63" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="54" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF44:AG71">
-    <cfRule type="top10" dxfId="62" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="53" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ44:AJ71">
-    <cfRule type="top10" dxfId="61" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="52" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:V71">
-    <cfRule type="top10" dxfId="60" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="51" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:X71">
-    <cfRule type="top10" dxfId="59" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="50" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y44:Z71">
-    <cfRule type="top10" dxfId="58" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="49" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN44:BX71">
-    <cfRule type="top10" dxfId="57" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="48" priority="11" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29531,148 +29468,148 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J8:J41">
-    <cfRule type="top10" dxfId="56" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="47" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K41">
-    <cfRule type="top10" dxfId="55" priority="47" rank="2"/>
+    <cfRule type="top10" dxfId="46" priority="47" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L41">
-    <cfRule type="top10" dxfId="54" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="45" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M41">
-    <cfRule type="top10" dxfId="53" priority="45" rank="2"/>
+    <cfRule type="top10" dxfId="44" priority="45" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C33 N8:N41">
-    <cfRule type="top10" dxfId="52" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="43" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D33 O8:O41">
-    <cfRule type="top10" dxfId="51" priority="43" rank="2"/>
+    <cfRule type="top10" dxfId="42" priority="43" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E33 P8:P41">
-    <cfRule type="top10" dxfId="50" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="41" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F33 Q8:Q41">
-    <cfRule type="top10" dxfId="49" priority="41" rank="2"/>
+    <cfRule type="top10" dxfId="40" priority="41" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G33 R8:R41">
-    <cfRule type="top10" dxfId="48" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="39" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y41">
-    <cfRule type="top10" dxfId="47" priority="39" rank="2"/>
+    <cfRule type="top10" dxfId="38" priority="39" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X41">
-    <cfRule type="top10" dxfId="46" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="37" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z41">
-    <cfRule type="top10" dxfId="45" priority="37" rank="2"/>
+    <cfRule type="top10" dxfId="36" priority="37" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA41">
-    <cfRule type="top10" dxfId="44" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="35" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB41">
-    <cfRule type="top10" dxfId="43" priority="35" rank="2"/>
+    <cfRule type="top10" dxfId="34" priority="35" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC41">
-    <cfRule type="top10" dxfId="42" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="33" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD41">
-    <cfRule type="top10" dxfId="41" priority="33" rank="2"/>
+    <cfRule type="top10" dxfId="32" priority="33" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE41">
-    <cfRule type="top10" dxfId="40" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="31" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF41">
-    <cfRule type="top10" dxfId="39" priority="31" rank="2"/>
+    <cfRule type="top10" dxfId="30" priority="31" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG41">
-    <cfRule type="top10" dxfId="38" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="29" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AH41">
-    <cfRule type="top10" dxfId="37" priority="29" rank="2"/>
+    <cfRule type="top10" dxfId="28" priority="29" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI41">
-    <cfRule type="top10" dxfId="36" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="27" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ41">
-    <cfRule type="top10" dxfId="35" priority="27" rank="2"/>
+    <cfRule type="top10" dxfId="26" priority="27" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK41">
-    <cfRule type="top10" dxfId="34" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="25" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AL41">
-    <cfRule type="top10" dxfId="33" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="24" priority="25" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM41">
-    <cfRule type="top10" dxfId="32" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="23" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN41">
-    <cfRule type="top10" dxfId="31" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="22" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO41">
-    <cfRule type="top10" dxfId="30" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="21" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP41">
-    <cfRule type="top10" dxfId="29" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="20" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ41">
-    <cfRule type="top10" dxfId="28" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="19" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR41">
-    <cfRule type="top10" dxfId="27" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="18" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS41">
-    <cfRule type="top10" dxfId="26" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="17" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT41">
-    <cfRule type="top10" dxfId="25" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="16" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU41">
-    <cfRule type="top10" dxfId="24" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="15" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV41">
-    <cfRule type="top10" dxfId="23" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="15" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW41">
-    <cfRule type="top10" dxfId="22" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX41">
-    <cfRule type="top10" dxfId="21" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="13" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY41">
-    <cfRule type="top10" dxfId="20" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="11" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ41">
-    <cfRule type="top10" dxfId="19" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="11" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA41">
-    <cfRule type="top10" dxfId="18" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="9" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB41">
-    <cfRule type="top10" dxfId="17" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC41">
-    <cfRule type="top10" dxfId="16" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="7" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD41">
-    <cfRule type="top10" dxfId="15" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE41">
-    <cfRule type="top10" dxfId="14" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF41">
-    <cfRule type="top10" dxfId="13" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG41">
-    <cfRule type="top10" dxfId="12" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH41">
-    <cfRule type="top10" dxfId="11" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI41">
-    <cfRule type="top10" dxfId="10" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U41">
-    <cfRule type="top10" dxfId="9" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="114">
   <si>
     <t>repeat</t>
   </si>
@@ -354,6 +354,12 @@
   <si>
     <t>VoterUCBT (plain UCBT : POKER ; HP reset POKER all to zero)</t>
   </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>non stat</t>
+  </si>
 </sst>
 </file>
 
@@ -619,7 +625,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="212">
+  <dxfs count="221">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2406,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,159 +2528,159 @@
         <v>12</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:BI3" si="0">MATCH(MAX(W8:W126),W8:W126,0)</f>
+        <f>MATCH(MAX(W8:W126),W8:W126,0)</f>
+        <v>13</v>
+      </c>
+      <c r="X3" s="1">
+        <f>MATCH(MAX(X8:X126),X8:X126,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>MATCH(MAX(Y8:Y126),Y8:Y126,0)</f>
+        <v>28</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>MATCH(MAX(Z8:Z126),Z8:Z126,0)</f>
+        <v>25</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>MATCH(MAX(AA8:AA126),AA8:AA126,0)</f>
+        <v>25</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>MATCH(MAX(AB8:AB126),AB8:AB126,0)</f>
+        <v>25</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>MATCH(MAX(AC8:AC126),AC8:AC126,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>MATCH(MAX(AD8:AD126),AD8:AD126,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>MATCH(MAX(AE8:AE126),AE8:AE126,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>MATCH(MAX(AF8:AF126),AF8:AF126,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>MATCH(MAX(AG8:AG126),AG8:AG126,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AH3" s="4">
+        <f>MATCH(MAX(AH8:AH126),AH8:AH126,0)</f>
+        <v>17</v>
+      </c>
+      <c r="AI3">
+        <f>MATCH(MAX(AI8:AI126),AI8:AI126,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ3">
+        <f>MATCH(MAX(AJ8:AJ126),AJ8:AJ126,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AK3">
+        <f>MATCH(MAX(AK8:AK126),AK8:AK126,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AL3">
+        <f>MATCH(MAX(AL8:AL126),AL8:AL126,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <f>MATCH(MAX(AM8:AM126),AM8:AM126,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AN3">
+        <f>MATCH(MAX(AN8:AN126),AN8:AN126,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AO3">
+        <f>MATCH(MAX(AO8:AO126),AO8:AO126,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AP3">
+        <f>MATCH(MAX(AP8:AP126),AP8:AP126,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AQ3">
+        <f>MATCH(MAX(AQ8:AQ126),AQ8:AQ126,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AR3">
+        <f>MATCH(MAX(AR8:AR126),AR8:AR126,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AS3">
+        <f>MATCH(MAX(AS8:AS126),AS8:AS126,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AT3">
+        <f>MATCH(MAX(AT8:AT126),AT8:AT126,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AU3">
+        <f>MATCH(MAX(AU8:AU126),AU8:AU126,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AV3">
+        <f>MATCH(MAX(AV8:AV126),AV8:AV126,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AW3">
+        <f>MATCH(MAX(AW8:AW126),AW8:AW126,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AX3">
+        <f>MATCH(MAX(AX8:AX126),AX8:AX126,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AY3">
+        <f>MATCH(MAX(AY8:AY126),AY8:AY126,0)</f>
         <v>11</v>
       </c>
-      <c r="X3" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="Y3" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="Z3" s="4">
-        <f t="shared" si="0"/>
+      <c r="AZ3">
+        <f>MATCH(MAX(AZ8:AZ126),AZ8:AZ126,0)</f>
+        <v>26</v>
+      </c>
+      <c r="BA3">
+        <f>MATCH(MAX(BA8:BA126),BA8:BA126,0)</f>
+        <v>21</v>
+      </c>
+      <c r="BB3">
+        <f>MATCH(MAX(BB8:BB126),BB8:BB126,0)</f>
+        <v>13</v>
+      </c>
+      <c r="BC3">
+        <f>MATCH(MAX(BC8:BC126),BC8:BC126,0)</f>
+        <v>12</v>
+      </c>
+      <c r="BD3">
+        <f>MATCH(MAX(BD8:BD126),BD8:BD126,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BE3">
+        <f>MATCH(MAX(BE8:BE126),BE8:BE126,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BF3">
+        <f>MATCH(MAX(BF8:BF126),BF8:BF126,0)</f>
         <v>25</v>
       </c>
-      <c r="AA3" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AB3" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AC3" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AD3" s="4">
-        <f t="shared" si="0"/>
+      <c r="BG3">
+        <f>MATCH(MAX(BG8:BG126),BG8:BG126,0)</f>
         <v>4</v>
       </c>
-      <c r="AE3" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AF3" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG3" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AH3" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AQ3">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="AR3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AS3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AU3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AW3">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AY3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AZ3">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="BA3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="BB3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="BC3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="BD3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BE3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BF3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="BG3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="BH3">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>MATCH(MAX(BH8:BH126),BH8:BH126,0)</f>
+        <v>14</v>
       </c>
       <c r="BI3">
-        <f t="shared" si="0"/>
+        <f>MATCH(MAX(BI8:BI126),BI8:BI126,0)</f>
         <v>17</v>
       </c>
     </row>
@@ -3158,7 +3227,7 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A48" si="1">A9+1</f>
+        <f t="shared" ref="A10:A48" si="0">A9+1</f>
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3174,7 +3243,7 @@
         <v>61</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" ref="J10:J41" si="2">SUM(Y10:BI10)/COUNT(Y10:BI10)</f>
+        <f t="shared" ref="J10:J41" si="1">SUM(Y10:BI10)/COUNT(Y10:BI10)</f>
         <v>48.758378378378374</v>
       </c>
       <c r="K10" s="14">
@@ -3190,23 +3259,23 @@
         <v>56.414999999999999</v>
       </c>
       <c r="N10" s="19">
-        <f t="shared" ref="N10:N28" si="3">(SUM(Y10:AC10))/(COUNT(Y10:AC10))</f>
+        <f t="shared" ref="N10:N28" si="2">(SUM(Y10:AC10))/(COUNT(Y10:AC10))</f>
         <v>49.214000000000006</v>
       </c>
       <c r="O10" s="19">
-        <f t="shared" ref="O10:O28" si="4">(SUM(AD10:AH10))/(COUNT(AD10:AH10))</f>
+        <f t="shared" ref="O10:O28" si="3">(SUM(AD10:AH10))/(COUNT(AD10:AH10))</f>
         <v>63.616</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" ref="P10:P28" si="5">AVERAGE(AI10:BI10)</f>
+        <f t="shared" ref="P10:P28" si="4">AVERAGE(AI10:BI10)</f>
         <v>45.922592592592586</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" ref="Q10:Q28" si="6">(SUM(AI10:AU10))/(COUNT(AI10:AU10))</f>
+        <f t="shared" ref="Q10:Q28" si="5">(SUM(AI10:AU10))/(COUNT(AI10:AU10))</f>
         <v>49.058461538461529</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" ref="R10:R28" si="7">(SUM(AV10:BI10))/(COUNT(AV10:BI10))</f>
+        <f t="shared" ref="R10:R28" si="6">(SUM(AV10:BI10))/(COUNT(AV10:BI10))</f>
         <v>43.010714285714293</v>
       </c>
       <c r="T10">
@@ -3336,13 +3405,13 @@
         <v>37.44</v>
       </c>
       <c r="BL10" t="str">
-        <f t="shared" ref="BL10:BL28" si="8">B10</f>
+        <f t="shared" ref="BL10:BL28" si="7">B10</f>
         <v>UCBT page-hinkley resetSingle</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3361,7 +3430,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46.34486486486486</v>
       </c>
       <c r="K11" s="14">
@@ -3377,23 +3446,23 @@
         <v>56.641999999999996</v>
       </c>
       <c r="N11" s="19">
+        <f t="shared" si="2"/>
+        <v>48.286000000000001</v>
+      </c>
+      <c r="O11" s="19">
         <f t="shared" si="3"/>
-        <v>48.286000000000001</v>
-      </c>
-      <c r="O11" s="19">
+        <v>64.998000000000005</v>
+      </c>
+      <c r="P11" s="14">
         <f t="shared" si="4"/>
-        <v>64.998000000000005</v>
-      </c>
-      <c r="P11" s="14">
+        <v>42.531111111111109</v>
+      </c>
+      <c r="Q11" s="14">
         <f t="shared" si="5"/>
-        <v>42.531111111111109</v>
-      </c>
-      <c r="Q11" s="14">
+        <v>46.142307692307682</v>
+      </c>
+      <c r="R11" s="14">
         <f t="shared" si="6"/>
-        <v>46.142307692307682</v>
-      </c>
-      <c r="R11" s="14">
-        <f t="shared" si="7"/>
         <v>39.177857142857142</v>
       </c>
       <c r="T11">
@@ -3523,13 +3592,13 @@
         <v>41.45</v>
       </c>
       <c r="BL11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>UCBT davorTomCP resetSingle</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J12" s="14"/>
@@ -3583,7 +3652,7 @@
     </row>
     <row r="13" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -3600,7 +3669,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="J13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48.738378378378371</v>
       </c>
       <c r="K13" s="14">
@@ -3616,23 +3685,23 @@
         <v>42.266000000000005</v>
       </c>
       <c r="N13" s="19">
+        <f t="shared" si="2"/>
+        <v>47.360000000000007</v>
+      </c>
+      <c r="O13" s="19">
         <f t="shared" si="3"/>
-        <v>47.360000000000007</v>
-      </c>
-      <c r="O13" s="19">
+        <v>37.17199999999999</v>
+      </c>
+      <c r="P13" s="14">
         <f t="shared" si="4"/>
-        <v>37.17199999999999</v>
-      </c>
-      <c r="P13" s="14">
+        <v>51.135555555555548</v>
+      </c>
+      <c r="Q13" s="14">
         <f t="shared" si="5"/>
-        <v>51.135555555555548</v>
-      </c>
-      <c r="Q13" s="14">
+        <v>62.106153846153852</v>
+      </c>
+      <c r="R13" s="14">
         <f t="shared" si="6"/>
-        <v>62.106153846153852</v>
-      </c>
-      <c r="R13" s="14">
-        <f t="shared" si="7"/>
         <v>40.948571428571434</v>
       </c>
       <c r="T13" s="8" t="s">
@@ -3763,13 +3832,13 @@
       </c>
       <c r="BJ13" s="8"/>
       <c r="BL13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>POKER page-hinkley resetSingle</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3790,7 +3859,7 @@
       <c r="H14" s="3"/>
       <c r="I14"/>
       <c r="J14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42.99243243243243</v>
       </c>
       <c r="K14" s="14">
@@ -3806,23 +3875,23 @@
         <v>31.172999999999995</v>
       </c>
       <c r="N14" s="19">
+        <f t="shared" si="2"/>
+        <v>52.297999999999988</v>
+      </c>
+      <c r="O14" s="19">
         <f t="shared" si="3"/>
-        <v>52.297999999999988</v>
-      </c>
-      <c r="O14" s="19">
+        <v>10.047999999999998</v>
+      </c>
+      <c r="P14" s="14">
         <f t="shared" si="4"/>
-        <v>10.047999999999998</v>
-      </c>
-      <c r="P14" s="14">
+        <v>47.37</v>
+      </c>
+      <c r="Q14" s="14">
         <f t="shared" si="5"/>
-        <v>47.37</v>
-      </c>
-      <c r="Q14" s="14">
+        <v>61.599999999999987</v>
+      </c>
+      <c r="R14" s="14">
         <f t="shared" si="6"/>
-        <v>61.599999999999987</v>
-      </c>
-      <c r="R14" s="14">
-        <f t="shared" si="7"/>
         <v>34.15642857142857</v>
       </c>
       <c r="S14"/>
@@ -3954,13 +4023,13 @@
       </c>
       <c r="BJ14" s="8"/>
       <c r="BL14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>POKER no change point detection</v>
       </c>
     </row>
     <row r="15" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3975,7 +4044,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="25"/>
       <c r="J15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51.237837837837837</v>
       </c>
       <c r="K15" s="29">
@@ -3991,23 +4060,23 @@
         <v>47.472999999999999</v>
       </c>
       <c r="N15" s="30">
+        <f t="shared" si="2"/>
+        <v>50.238</v>
+      </c>
+      <c r="O15" s="30">
         <f t="shared" si="3"/>
-        <v>50.238</v>
-      </c>
-      <c r="O15" s="30">
+        <v>44.707999999999998</v>
+      </c>
+      <c r="P15" s="29">
         <f t="shared" si="4"/>
-        <v>44.707999999999998</v>
-      </c>
-      <c r="P15" s="29">
+        <v>52.632222222222225</v>
+      </c>
+      <c r="Q15" s="29">
         <f t="shared" si="5"/>
-        <v>52.632222222222225</v>
-      </c>
-      <c r="Q15" s="29">
+        <v>62.30153846153847</v>
+      </c>
+      <c r="R15" s="29">
         <f t="shared" si="6"/>
-        <v>62.30153846153847</v>
-      </c>
-      <c r="R15" s="29">
-        <f t="shared" si="7"/>
         <v>43.653571428571425</v>
       </c>
       <c r="S15" s="25"/>
@@ -4139,13 +4208,13 @@
       </c>
       <c r="BJ15" s="8"/>
       <c r="BL15" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>POKER  PH reset to zero</v>
       </c>
     </row>
     <row r="16" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B16" s="3"/>
@@ -4212,7 +4281,7 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4225,7 +4294,7 @@
         <v>74</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52.006216216216224</v>
       </c>
       <c r="K17" s="14">
@@ -4241,23 +4310,23 @@
         <v>52.346000000000004</v>
       </c>
       <c r="N17" s="19">
-        <f t="shared" ref="N17" si="9">(SUM(Y17:AC17))/(COUNT(Y17:AC17))</f>
+        <f t="shared" ref="N17" si="8">(SUM(Y17:AC17))/(COUNT(Y17:AC17))</f>
         <v>53.179999999999993</v>
       </c>
       <c r="O17" s="19">
-        <f t="shared" ref="O17" si="10">(SUM(AD17:AH17))/(COUNT(AD17:AH17))</f>
+        <f t="shared" ref="O17" si="9">(SUM(AD17:AH17))/(COUNT(AD17:AH17))</f>
         <v>51.512</v>
       </c>
       <c r="P17" s="14">
-        <f t="shared" ref="P17" si="11">AVERAGE(AI17:BI17)</f>
+        <f t="shared" ref="P17" si="10">AVERAGE(AI17:BI17)</f>
         <v>51.880370370370379</v>
       </c>
       <c r="Q17" s="14">
-        <f t="shared" ref="Q17" si="12">(SUM(AI17:AU17))/(COUNT(AI17:AU17))</f>
+        <f t="shared" ref="Q17" si="11">(SUM(AI17:AU17))/(COUNT(AI17:AU17))</f>
         <v>55.869230769230768</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" ref="R17" si="13">(SUM(AV17:BI17))/(COUNT(AV17:BI17))</f>
+        <f t="shared" ref="R17" si="12">(SUM(AV17:BI17))/(COUNT(AV17:BI17))</f>
         <v>48.176428571428566</v>
       </c>
       <c r="T17" s="25">
@@ -4387,13 +4456,13 @@
         <v>39.630000000000003</v>
       </c>
       <c r="BL17" t="str">
-        <f t="shared" ref="BL17" si="14">B17</f>
+        <f t="shared" ref="BL17" si="13">B17</f>
         <v>VoterUCBT (plain UCBT : plain POKER)</v>
       </c>
     </row>
     <row r="18" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4412,7 +4481,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="25"/>
       <c r="J18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54.009729729729735</v>
       </c>
       <c r="K18" s="14">
@@ -4428,23 +4497,23 @@
         <v>59.613999999999997</v>
       </c>
       <c r="N18" s="19">
-        <f t="shared" ref="N18:N19" si="15">(SUM(Y18:AC18))/(COUNT(Y18:AC18))</f>
+        <f t="shared" ref="N18:N21" si="14">(SUM(Y18:AC18))/(COUNT(Y18:AC18))</f>
         <v>52.057999999999993</v>
       </c>
       <c r="O18" s="19">
-        <f t="shared" ref="O18:O19" si="16">(SUM(AD18:AH18))/(COUNT(AD18:AH18))</f>
+        <f t="shared" ref="O18:O21" si="15">(SUM(AD18:AH18))/(COUNT(AD18:AH18))</f>
         <v>67.169999999999987</v>
       </c>
       <c r="P18" s="14">
-        <f t="shared" ref="P18:P19" si="17">AVERAGE(AI18:BI18)</f>
+        <f t="shared" ref="P18:P21" si="16">AVERAGE(AI18:BI18)</f>
         <v>51.934074074074076</v>
       </c>
       <c r="Q18" s="14">
-        <f t="shared" ref="Q18:Q19" si="18">(SUM(AI18:AU18))/(COUNT(AI18:AU18))</f>
+        <f t="shared" ref="Q18:Q21" si="17">(SUM(AI18:AU18))/(COUNT(AI18:AU18))</f>
         <v>53.884615384615394</v>
       </c>
       <c r="R18" s="14">
-        <f t="shared" ref="R18:R19" si="19">(SUM(AV18:BI18))/(COUNT(AV18:BI18))</f>
+        <f t="shared" ref="R18:R21" si="18">(SUM(AV18:BI18))/(COUNT(AV18:BI18))</f>
         <v>50.122857142857143</v>
       </c>
       <c r="S18" s="25"/>
@@ -4579,7 +4648,7 @@
     </row>
     <row r="19" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4592,7 +4661,7 @@
       <c r="H19" s="3"/>
       <c r="I19"/>
       <c r="J19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53.251081081081082</v>
       </c>
       <c r="K19" s="14">
@@ -4608,23 +4677,23 @@
         <v>55.991999999999997</v>
       </c>
       <c r="N19" s="19">
+        <f t="shared" si="14"/>
+        <v>51.353999999999999</v>
+      </c>
+      <c r="O19" s="19">
         <f t="shared" si="15"/>
-        <v>51.353999999999999</v>
-      </c>
-      <c r="O19" s="19">
+        <v>60.629999999999995</v>
+      </c>
+      <c r="P19" s="14">
         <f t="shared" si="16"/>
-        <v>60.629999999999995</v>
-      </c>
-      <c r="P19" s="14">
+        <v>52.23592592592594</v>
+      </c>
+      <c r="Q19" s="14">
         <f t="shared" si="17"/>
-        <v>52.23592592592594</v>
-      </c>
-      <c r="Q19" s="14">
+        <v>54.906153846153856</v>
+      </c>
+      <c r="R19" s="14">
         <f t="shared" si="18"/>
-        <v>54.906153846153856</v>
-      </c>
-      <c r="R19" s="14">
-        <f t="shared" si="19"/>
         <v>49.756428571428572</v>
       </c>
       <c r="S19"/>
@@ -4759,142 +4828,369 @@
     </row>
     <row r="20" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
+      <c r="J20" s="14">
+        <f t="shared" si="1"/>
+        <v>54.668648648648663</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" ref="K20:K21" si="19">(SUM(Y20:AC20)+SUM(AI20:AU20))/(COUNT(Y20:AC20)+COUNT(AI20:AU20))</f>
+        <v>54.05222222222222</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" ref="L20:L21" si="20">(SUM(AD20:AH20)+SUM(AV20:BI20))/(COUNT(AD20:AH20)+COUNT(AV20:BI20))</f>
+        <v>55.252631578947366</v>
+      </c>
+      <c r="M20" s="19">
+        <f t="shared" ref="M20:M21" si="21">AVERAGE(Y20:AH20)</f>
+        <v>60.033000000000001</v>
+      </c>
+      <c r="N20" s="19">
+        <f t="shared" si="14"/>
+        <v>52.220000000000006</v>
+      </c>
+      <c r="O20" s="19">
+        <f t="shared" si="15"/>
+        <v>67.845999999999989</v>
+      </c>
+      <c r="P20" s="14">
+        <f t="shared" si="16"/>
+        <v>52.681851851851853</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" si="17"/>
+        <v>54.756923076923073</v>
+      </c>
+      <c r="R20" s="14">
+        <f t="shared" si="18"/>
+        <v>50.755000000000003</v>
+      </c>
       <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="31"/>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="31"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="31"/>
-      <c r="BH20" s="31"/>
-      <c r="BI20" s="31"/>
+      <c r="T20">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="14">
+        <v>52743.24</v>
+      </c>
+      <c r="V20" s="2">
+        <v>2109.2600000000002</v>
+      </c>
+      <c r="W20" s="2">
+        <v>92.04</v>
+      </c>
+      <c r="X20" s="23">
+        <v>54.67</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>85.93</v>
+      </c>
+      <c r="Z20" s="19">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="AA20" s="19">
+        <v>68.47</v>
+      </c>
+      <c r="AB20" s="19">
+        <v>26.18</v>
+      </c>
+      <c r="AC20" s="19">
+        <v>12.28</v>
+      </c>
+      <c r="AD20" s="19">
+        <v>70.23</v>
+      </c>
+      <c r="AE20" s="19">
+        <v>60.16</v>
+      </c>
+      <c r="AF20" s="19">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AG20" s="19">
+        <v>83.04</v>
+      </c>
+      <c r="AH20" s="19">
+        <v>52.7</v>
+      </c>
+      <c r="AI20" s="31">
+        <v>98.99</v>
+      </c>
+      <c r="AJ20" s="31">
+        <v>95.05</v>
+      </c>
+      <c r="AK20" s="31">
+        <v>14.48</v>
+      </c>
+      <c r="AL20" s="31">
+        <v>99.15</v>
+      </c>
+      <c r="AM20" s="31">
+        <v>18.32</v>
+      </c>
+      <c r="AN20" s="31">
+        <v>14.64</v>
+      </c>
+      <c r="AO20" s="31">
+        <v>65.48</v>
+      </c>
+      <c r="AP20" s="31">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="AQ20" s="31">
+        <v>62.44</v>
+      </c>
+      <c r="AR20" s="31">
+        <v>15.62</v>
+      </c>
+      <c r="AS20" s="31">
+        <v>47.98</v>
+      </c>
+      <c r="AT20" s="31">
+        <v>74.5</v>
+      </c>
+      <c r="AU20" s="31">
+        <v>86.43</v>
+      </c>
+      <c r="AV20" s="31">
+        <v>14.34</v>
+      </c>
+      <c r="AW20" s="31">
+        <v>89.9</v>
+      </c>
+      <c r="AX20" s="31">
+        <v>38.49</v>
+      </c>
+      <c r="AY20" s="31">
+        <v>35.85</v>
+      </c>
+      <c r="AZ20" s="31">
+        <v>59.14</v>
+      </c>
+      <c r="BA20" s="31">
+        <v>40.39</v>
+      </c>
+      <c r="BB20" s="31">
+        <v>64.97</v>
+      </c>
+      <c r="BC20" s="31">
+        <v>70.31</v>
+      </c>
+      <c r="BD20" s="31">
+        <v>12.09</v>
+      </c>
+      <c r="BE20" s="31">
+        <v>24.9</v>
+      </c>
+      <c r="BF20" s="31">
+        <v>75.41</v>
+      </c>
+      <c r="BG20" s="31">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="BH20" s="31">
+        <v>60.96</v>
+      </c>
+      <c r="BI20" s="31">
+        <v>52.14</v>
+      </c>
       <c r="BJ20" s="8"/>
       <c r="BL20"/>
     </row>
     <row r="21" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="31"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="14">
+        <f t="shared" si="1"/>
+        <v>53.285675675675677</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="19"/>
+        <v>52.212222222222216</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="20"/>
+        <v>54.30263157894737</v>
+      </c>
+      <c r="M21" s="19">
+        <f t="shared" si="21"/>
+        <v>58.524999999999999</v>
+      </c>
+      <c r="N21" s="19">
+        <f t="shared" si="14"/>
+        <v>49.158000000000001</v>
+      </c>
+      <c r="O21" s="19">
+        <f t="shared" si="15"/>
+        <v>67.891999999999996</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="16"/>
+        <v>51.345185185185173</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="17"/>
+        <v>53.386923076923075</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" si="18"/>
+        <v>49.449285714285715</v>
+      </c>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25">
+        <v>1000</v>
+      </c>
+      <c r="U21" s="14">
+        <v>52668.21</v>
+      </c>
+      <c r="V21" s="27">
+        <v>2184.29</v>
+      </c>
+      <c r="W21" s="27">
+        <v>91.89</v>
+      </c>
+      <c r="X21" s="23">
+        <v>53.28</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="Z21" s="19">
+        <v>65.8</v>
+      </c>
+      <c r="AA21" s="19">
+        <v>67.42</v>
+      </c>
+      <c r="AB21" s="19">
+        <v>24.69</v>
+      </c>
+      <c r="AC21" s="19">
+        <v>6.59</v>
+      </c>
+      <c r="AD21" s="19">
+        <v>69.05</v>
+      </c>
+      <c r="AE21" s="19">
+        <v>58.55</v>
+      </c>
+      <c r="AF21" s="19">
+        <v>73.91</v>
+      </c>
+      <c r="AG21" s="19">
+        <v>82.76</v>
+      </c>
+      <c r="AH21" s="19">
+        <v>55.19</v>
+      </c>
+      <c r="AI21" s="31">
+        <v>98.97</v>
+      </c>
+      <c r="AJ21" s="31">
+        <v>95.18</v>
+      </c>
+      <c r="AK21" s="31">
+        <v>9.34</v>
+      </c>
+      <c r="AL21" s="31">
+        <v>99.16</v>
+      </c>
+      <c r="AM21" s="31">
+        <v>19.14</v>
+      </c>
+      <c r="AN21" s="31">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="AO21" s="31">
+        <v>63.98</v>
+      </c>
+      <c r="AP21" s="31">
+        <v>22.74</v>
+      </c>
+      <c r="AQ21" s="31">
+        <v>60.32</v>
+      </c>
+      <c r="AR21" s="31">
+        <v>15.27</v>
+      </c>
+      <c r="AS21" s="31">
+        <v>36.74</v>
+      </c>
+      <c r="AT21" s="31">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="AU21" s="31">
+        <v>87.74</v>
+      </c>
+      <c r="AV21" s="31">
+        <v>15.62</v>
+      </c>
+      <c r="AW21" s="31">
+        <v>91.94</v>
+      </c>
+      <c r="AX21" s="31">
+        <v>37.68</v>
+      </c>
+      <c r="AY21" s="31">
+        <v>31</v>
+      </c>
+      <c r="AZ21" s="31">
+        <v>54.29</v>
+      </c>
+      <c r="BA21" s="31">
+        <v>39.94</v>
+      </c>
+      <c r="BB21" s="31">
+        <v>61.78</v>
+      </c>
+      <c r="BC21" s="31">
+        <v>56.94</v>
+      </c>
+      <c r="BD21" s="31">
+        <v>11.37</v>
+      </c>
+      <c r="BE21" s="31">
+        <v>30.06</v>
+      </c>
+      <c r="BF21" s="31">
+        <v>75.489999999999995</v>
+      </c>
+      <c r="BG21" s="31">
+        <v>73.02</v>
+      </c>
+      <c r="BH21" s="31">
+        <v>60.99</v>
+      </c>
+      <c r="BI21" s="31">
+        <v>52.17</v>
+      </c>
       <c r="BJ21" s="8"/>
-      <c r="BL21"/>
+      <c r="BL21" s="25"/>
     </row>
     <row r="22" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="A22" s="25" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4959,9 +5255,9 @@
       <c r="BL22"/>
     </row>
     <row r="23" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <f t="shared" si="1"/>
-        <v>16</v>
+      <c r="A23" s="25" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>108</v>
@@ -5028,9 +5324,9 @@
       <c r="BL23"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
-        <f t="shared" si="1"/>
-        <v>17</v>
+      <c r="A24" s="25" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>48</v>
@@ -5048,39 +5344,39 @@
         <v>0.24909999999999999</v>
       </c>
       <c r="J24" s="14">
+        <f t="shared" si="1"/>
+        <v>47.983243243243237</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" ref="K24:K29" si="22">(SUM(Y24:AC24)+SUM(AI24:AU24))/(COUNT(Y24:AC24)+COUNT(AI24:AU24))</f>
+        <v>49.606666666666662</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" ref="L24:L29" si="23">(SUM(AD24:AH24)+SUM(AV24:BI24))/(COUNT(AD24:AH24)+COUNT(AV24:BI24))</f>
+        <v>46.445263157894736</v>
+      </c>
+      <c r="M24" s="19">
+        <f t="shared" ref="M24:M29" si="24">AVERAGE(Y24:AH24)</f>
+        <v>53.259</v>
+      </c>
+      <c r="N24" s="19">
         <f t="shared" si="2"/>
-        <v>47.983243243243237</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" ref="K24:K29" si="20">(SUM(Y24:AC24)+SUM(AI24:AU24))/(COUNT(Y24:AC24)+COUNT(AI24:AU24))</f>
-        <v>49.606666666666662</v>
-      </c>
-      <c r="L24" s="14">
-        <f t="shared" ref="L24:L29" si="21">(SUM(AD24:AH24)+SUM(AV24:BI24))/(COUNT(AD24:AH24)+COUNT(AV24:BI24))</f>
-        <v>46.445263157894736</v>
-      </c>
-      <c r="M24" s="19">
-        <f t="shared" ref="M24:M29" si="22">AVERAGE(Y24:AH24)</f>
-        <v>53.259</v>
-      </c>
-      <c r="N24" s="19">
+        <v>51.033999999999999</v>
+      </c>
+      <c r="O24" s="19">
         <f t="shared" si="3"/>
-        <v>51.033999999999999</v>
-      </c>
-      <c r="O24" s="19">
+        <v>55.484000000000002</v>
+      </c>
+      <c r="P24" s="14">
         <f t="shared" si="4"/>
-        <v>55.484000000000002</v>
-      </c>
-      <c r="P24" s="14">
+        <v>46.02925925925927</v>
+      </c>
+      <c r="Q24" s="14">
         <f t="shared" si="5"/>
-        <v>46.02925925925927</v>
-      </c>
-      <c r="Q24" s="14">
+        <v>49.057692307692307</v>
+      </c>
+      <c r="R24" s="14">
         <f t="shared" si="6"/>
-        <v>49.057692307692307</v>
-      </c>
-      <c r="R24" s="14">
-        <f t="shared" si="7"/>
         <v>43.217142857142861</v>
       </c>
       <c r="T24">
@@ -5210,14 +5506,14 @@
         <v>54.45</v>
       </c>
       <c r="BL24" t="str">
-        <f t="shared" ref="BL24" si="23">B24</f>
+        <f t="shared" ref="BL24" si="25">B24</f>
         <v>UCBT no change point C linear 3 inputs</v>
       </c>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
+      <c r="A25" s="25" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>70</v>
@@ -5241,39 +5537,39 @@
         <v>-0.1</v>
       </c>
       <c r="J25" s="14">
+        <f t="shared" si="1"/>
+        <v>49.911081081081079</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="22"/>
+        <v>49.151111111111113</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="23"/>
+        <v>50.631052631578953</v>
+      </c>
+      <c r="M25" s="19">
+        <f t="shared" si="24"/>
+        <v>54.746000000000002</v>
+      </c>
+      <c r="N25" s="19">
         <f t="shared" si="2"/>
-        <v>49.911081081081079</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="20"/>
-        <v>49.151111111111113</v>
-      </c>
-      <c r="L25" s="14">
-        <f t="shared" si="21"/>
-        <v>50.631052631578953</v>
-      </c>
-      <c r="M25" s="19">
-        <f t="shared" si="22"/>
-        <v>54.746000000000002</v>
-      </c>
-      <c r="N25" s="19">
+        <v>49.374000000000002</v>
+      </c>
+      <c r="O25" s="19">
         <f t="shared" si="3"/>
-        <v>49.374000000000002</v>
-      </c>
-      <c r="O25" s="19">
+        <v>60.118000000000009</v>
+      </c>
+      <c r="P25" s="14">
         <f t="shared" si="4"/>
-        <v>60.118000000000009</v>
-      </c>
-      <c r="P25" s="14">
+        <v>48.12037037037036</v>
+      </c>
+      <c r="Q25" s="14">
         <f t="shared" si="5"/>
-        <v>48.12037037037036</v>
-      </c>
-      <c r="Q25" s="14">
+        <v>49.065384615384616</v>
+      </c>
+      <c r="R25" s="14">
         <f t="shared" si="6"/>
-        <v>49.065384615384616</v>
-      </c>
-      <c r="R25" s="14">
-        <f t="shared" si="7"/>
         <v>47.242857142857147</v>
       </c>
       <c r="T25">
@@ -5403,14 +5699,14 @@
         <v>49.74</v>
       </c>
       <c r="BL25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>UCBT linear C1 to C2, with linear approx 2 inputs</v>
       </c>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="1"/>
-        <v>19</v>
+      <c r="A26" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>70</v>
@@ -5434,39 +5730,39 @@
         <v>-0.4</v>
       </c>
       <c r="J26" s="14">
+        <f t="shared" si="1"/>
+        <v>49.362432432432442</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="22"/>
+        <v>46.18888888888889</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="23"/>
+        <v>52.368947368421061</v>
+      </c>
+      <c r="M26" s="19">
+        <f t="shared" si="24"/>
+        <v>53.970000000000006</v>
+      </c>
+      <c r="N26" s="19">
         <f t="shared" si="2"/>
-        <v>49.362432432432442</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="20"/>
-        <v>46.18888888888889</v>
-      </c>
-      <c r="L26" s="14">
-        <f t="shared" si="21"/>
-        <v>52.368947368421061</v>
-      </c>
-      <c r="M26" s="19">
-        <f t="shared" si="22"/>
-        <v>53.970000000000006</v>
-      </c>
-      <c r="N26" s="19">
+        <v>45.275999999999996</v>
+      </c>
+      <c r="O26" s="19">
         <f t="shared" si="3"/>
-        <v>45.275999999999996</v>
-      </c>
-      <c r="O26" s="19">
+        <v>62.664000000000009</v>
+      </c>
+      <c r="P26" s="14">
         <f t="shared" si="4"/>
-        <v>62.664000000000009</v>
-      </c>
-      <c r="P26" s="14">
+        <v>47.655925925925921</v>
+      </c>
+      <c r="Q26" s="14">
         <f t="shared" si="5"/>
-        <v>47.655925925925921</v>
-      </c>
-      <c r="Q26" s="14">
+        <v>46.54</v>
+      </c>
+      <c r="R26" s="14">
         <f t="shared" si="6"/>
-        <v>46.54</v>
-      </c>
-      <c r="R26" s="14">
-        <f t="shared" si="7"/>
         <v>48.692142857142862</v>
       </c>
       <c r="T26">
@@ -5596,14 +5892,14 @@
         <v>50.65</v>
       </c>
       <c r="BL26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>UCBT linear C1 to C2, with linear approx 2 inputs</v>
       </c>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="A27" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>70</v>
@@ -5627,39 +5923,39 @@
         <v>-0.4</v>
       </c>
       <c r="J27" s="14">
+        <f t="shared" si="1"/>
+        <v>47.638648648648648</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="22"/>
+        <v>47.951666666666668</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="23"/>
+        <v>47.342105263157897</v>
+      </c>
+      <c r="M27" s="19">
+        <f t="shared" si="24"/>
+        <v>50.963000000000001</v>
+      </c>
+      <c r="N27" s="19">
         <f t="shared" si="2"/>
-        <v>47.638648648648648</v>
-      </c>
-      <c r="K27" s="14">
-        <f t="shared" si="20"/>
-        <v>47.951666666666668</v>
-      </c>
-      <c r="L27" s="14">
-        <f t="shared" si="21"/>
-        <v>47.342105263157897</v>
-      </c>
-      <c r="M27" s="19">
-        <f t="shared" si="22"/>
-        <v>50.963000000000001</v>
-      </c>
-      <c r="N27" s="19">
+        <v>47.72</v>
+      </c>
+      <c r="O27" s="19">
         <f t="shared" si="3"/>
-        <v>47.72</v>
-      </c>
-      <c r="O27" s="19">
+        <v>54.205999999999996</v>
+      </c>
+      <c r="P27" s="14">
         <f t="shared" si="4"/>
-        <v>54.205999999999996</v>
-      </c>
-      <c r="P27" s="14">
+        <v>46.407407407407405</v>
+      </c>
+      <c r="Q27" s="14">
         <f t="shared" si="5"/>
-        <v>46.407407407407405</v>
-      </c>
-      <c r="Q27" s="14">
+        <v>48.040769230769229</v>
+      </c>
+      <c r="R27" s="14">
         <f t="shared" si="6"/>
-        <v>48.040769230769229</v>
-      </c>
-      <c r="R27" s="14">
-        <f t="shared" si="7"/>
         <v>44.890714285714289</v>
       </c>
       <c r="T27">
@@ -5789,14 +6085,14 @@
         <v>24.38</v>
       </c>
       <c r="BL27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>UCBT linear C1 to C2, with linear approx 2 inputs</v>
       </c>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="1"/>
-        <v>21</v>
+      <c r="A28" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>70</v>
@@ -5820,39 +6116,39 @@
         <v>0.1</v>
       </c>
       <c r="J28" s="14">
+        <f t="shared" si="1"/>
+        <v>46.869729729729734</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="22"/>
+        <v>46.836111111111123</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="23"/>
+        <v>46.901578947368421</v>
+      </c>
+      <c r="M28" s="19">
+        <f t="shared" si="24"/>
+        <v>50.274000000000008</v>
+      </c>
+      <c r="N28" s="19">
         <f t="shared" si="2"/>
-        <v>46.869729729729734</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" si="20"/>
-        <v>46.836111111111123</v>
-      </c>
-      <c r="L28" s="14">
-        <f t="shared" si="21"/>
-        <v>46.901578947368421</v>
-      </c>
-      <c r="M28" s="19">
-        <f t="shared" si="22"/>
-        <v>50.274000000000008</v>
-      </c>
-      <c r="N28" s="19">
+        <v>46.43</v>
+      </c>
+      <c r="O28" s="19">
         <f t="shared" si="3"/>
-        <v>46.43</v>
-      </c>
-      <c r="O28" s="19">
+        <v>54.118000000000009</v>
+      </c>
+      <c r="P28" s="14">
         <f t="shared" si="4"/>
-        <v>54.118000000000009</v>
-      </c>
-      <c r="P28" s="14">
+        <v>45.608888888888899</v>
+      </c>
+      <c r="Q28" s="14">
         <f t="shared" si="5"/>
-        <v>45.608888888888899</v>
-      </c>
-      <c r="Q28" s="14">
+        <v>46.992307692307705</v>
+      </c>
+      <c r="R28" s="14">
         <f t="shared" si="6"/>
-        <v>46.992307692307705</v>
-      </c>
-      <c r="R28" s="14">
-        <f t="shared" si="7"/>
         <v>44.324285714285715</v>
       </c>
       <c r="T28">
@@ -5982,14 +6278,14 @@
         <v>30.05</v>
       </c>
       <c r="BL28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>UCBT linear C1 to C2, with linear approx 2 inputs</v>
       </c>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>22</v>
+      <c r="A29" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
@@ -6013,39 +6309,39 @@
         <v>-0.25</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50.017297297297297</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>49.720555555555556</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>50.298421052631582</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>53.647000000000006</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" ref="N29" si="24">(SUM(Y29:AC29))/(COUNT(Y29:AC29))</f>
+        <f t="shared" ref="N29" si="26">(SUM(Y29:AC29))/(COUNT(Y29:AC29))</f>
         <v>48.843999999999994</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" ref="O29" si="25">(SUM(AD29:AH29))/(COUNT(AD29:AH29))</f>
+        <f t="shared" ref="O29" si="27">(SUM(AD29:AH29))/(COUNT(AD29:AH29))</f>
         <v>58.45</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" ref="P29" si="26">AVERAGE(AI29:BI29)</f>
+        <f t="shared" ref="P29" si="28">AVERAGE(AI29:BI29)</f>
         <v>48.672962962962956</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" ref="Q29" si="27">(SUM(AI29:AU29))/(COUNT(AI29:AU29))</f>
+        <f t="shared" ref="Q29" si="29">(SUM(AI29:AU29))/(COUNT(AI29:AU29))</f>
         <v>50.057692307692307</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" ref="R29" si="28">(SUM(AV29:BI29))/(COUNT(AV29:BI29))</f>
+        <f t="shared" ref="R29" si="30">(SUM(AV29:BI29))/(COUNT(AV29:BI29))</f>
         <v>47.387142857142862</v>
       </c>
       <c r="T29">
@@ -6176,9 +6472,9 @@
       </c>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>23</v>
+      <c r="A30" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>70</v>
@@ -6202,39 +6498,39 @@
         <v>0.1</v>
       </c>
       <c r="J30" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46.140810810810819</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" ref="K30:K33" si="29">(SUM(Y30:AC30)+SUM(AI30:AU30))/(COUNT(Y30:AC30)+COUNT(AI30:AU30))</f>
+        <f t="shared" ref="K30:K33" si="31">(SUM(Y30:AC30)+SUM(AI30:AU30))/(COUNT(Y30:AC30)+COUNT(AI30:AU30))</f>
         <v>43.094999999999999</v>
       </c>
       <c r="L30" s="14">
-        <f t="shared" ref="L30:L33" si="30">(SUM(AD30:AH30)+SUM(AV30:BI30))/(COUNT(AD30:AH30)+COUNT(AV30:BI30))</f>
+        <f t="shared" ref="L30:L33" si="32">(SUM(AD30:AH30)+SUM(AV30:BI30))/(COUNT(AD30:AH30)+COUNT(AV30:BI30))</f>
         <v>49.026315789473685</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" ref="M30:M33" si="31">AVERAGE(Y30:AH30)</f>
+        <f t="shared" ref="M30:M33" si="33">AVERAGE(Y30:AH30)</f>
         <v>50.387</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:N33" si="32">(SUM(Y30:AC30))/(COUNT(Y30:AC30))</f>
+        <f t="shared" ref="N30:N33" si="34">(SUM(Y30:AC30))/(COUNT(Y30:AC30))</f>
         <v>44.15</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" ref="O30:O33" si="33">(SUM(AD30:AH30))/(COUNT(AD30:AH30))</f>
+        <f t="shared" ref="O30:O33" si="35">(SUM(AD30:AH30))/(COUNT(AD30:AH30))</f>
         <v>56.624000000000002</v>
       </c>
       <c r="P30" s="14">
-        <f t="shared" ref="P30:P33" si="34">AVERAGE(AI30:BI30)</f>
+        <f t="shared" ref="P30:P33" si="36">AVERAGE(AI30:BI30)</f>
         <v>44.568148148148154</v>
       </c>
       <c r="Q30" s="14">
-        <f t="shared" ref="Q30:Q33" si="35">(SUM(AI30:AU30))/(COUNT(AI30:AU30))</f>
+        <f t="shared" ref="Q30:Q33" si="37">(SUM(AI30:AU30))/(COUNT(AI30:AU30))</f>
         <v>42.689230769230775</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" ref="R30:R33" si="36">(SUM(AV30:BI30))/(COUNT(AV30:BI30))</f>
+        <f t="shared" ref="R30:R33" si="38">(SUM(AV30:BI30))/(COUNT(AV30:BI30))</f>
         <v>46.312857142857141</v>
       </c>
       <c r="T30">
@@ -6365,9 +6661,9 @@
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="A31" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>70</v>
@@ -6391,39 +6687,39 @@
         <v>0</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47.639459459459459</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>46.140555555555565</v>
       </c>
       <c r="L31" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>49.059473684210523</v>
       </c>
       <c r="M31" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>51.637</v>
       </c>
       <c r="N31" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>46.21</v>
       </c>
       <c r="O31" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>57.064</v>
       </c>
       <c r="P31" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>46.158888888888889</v>
       </c>
       <c r="Q31" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>46.113846153846161</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>46.200714285714284</v>
       </c>
       <c r="T31">
@@ -6554,9 +6850,9 @@
       </c>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>25</v>
+      <c r="A32" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>70</v>
@@ -6580,39 +6876,39 @@
         <v>-0.47</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45.733783783783785</v>
       </c>
       <c r="K32" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>56.609999999999992</v>
       </c>
       <c r="L32" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>35.430000000000007</v>
       </c>
       <c r="M32" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>46.840999999999994</v>
       </c>
       <c r="N32" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>54.837999999999987</v>
       </c>
       <c r="O32" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>38.844000000000008</v>
       </c>
       <c r="P32" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>45.323703703703707</v>
       </c>
       <c r="Q32" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>57.291538461538458</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>34.210714285714289</v>
       </c>
       <c r="T32">
@@ -6743,9 +7039,9 @@
       </c>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>26</v>
+      <c r="A33" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>70</v>
@@ -6773,35 +7069,35 @@
         <v>43.382432432432431</v>
       </c>
       <c r="K33" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>39.777777777777779</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>46.797368421052639</v>
       </c>
       <c r="M33" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>47.493000000000002</v>
       </c>
       <c r="N33" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>40.051999999999992</v>
       </c>
       <c r="O33" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>54.934000000000005</v>
       </c>
       <c r="P33" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>41.860000000000007</v>
       </c>
       <c r="Q33" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>39.67230769230769</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>43.89142857142857</v>
       </c>
       <c r="T33">
@@ -6932,9 +7228,9 @@
       </c>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>27</v>
+      <c r="A34" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B34" s="44"/>
       <c r="J34" s="14"/>
@@ -6987,9 +7283,9 @@
       <c r="BI34" s="31"/>
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>28</v>
+      <c r="A35" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>70</v>
@@ -7013,39 +7309,39 @@
         <v>-0.4</v>
       </c>
       <c r="J35" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48.559459459459454</v>
       </c>
       <c r="K35" s="14">
-        <f t="shared" ref="K35:K41" si="37">(SUM(Y35:AC35)+SUM(AI35:AU35))/(COUNT(Y35:AC35)+COUNT(AI35:AU35))</f>
+        <f t="shared" ref="K35:K41" si="39">(SUM(Y35:AC35)+SUM(AI35:AU35))/(COUNT(Y35:AC35)+COUNT(AI35:AU35))</f>
         <v>54.311666666666667</v>
       </c>
       <c r="L35" s="14">
-        <f t="shared" ref="L35:L41" si="38">(SUM(AD35:AH35)+SUM(AV35:BI35))/(COUNT(AD35:AH35)+COUNT(AV35:BI35))</f>
+        <f t="shared" ref="L35:L41" si="40">(SUM(AD35:AH35)+SUM(AV35:BI35))/(COUNT(AD35:AH35)+COUNT(AV35:BI35))</f>
         <v>43.11</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" ref="M35:M41" si="39">AVERAGE(Y35:AH35)</f>
+        <f t="shared" ref="M35:M41" si="41">AVERAGE(Y35:AH35)</f>
         <v>49.814000000000007</v>
       </c>
       <c r="N35" s="19">
-        <f t="shared" ref="N35:N41" si="40">(SUM(Y35:AC35))/(COUNT(Y35:AC35))</f>
+        <f t="shared" ref="N35:N41" si="42">(SUM(Y35:AC35))/(COUNT(Y35:AC35))</f>
         <v>55.114000000000011</v>
       </c>
       <c r="O35" s="19">
-        <f t="shared" ref="O35:O41" si="41">(SUM(AD35:AH35))/(COUNT(AD35:AH35))</f>
+        <f t="shared" ref="O35:O41" si="43">(SUM(AD35:AH35))/(COUNT(AD35:AH35))</f>
         <v>44.514000000000003</v>
       </c>
       <c r="P35" s="14">
-        <f t="shared" ref="P35:P41" si="42">AVERAGE(AI35:BI35)</f>
+        <f t="shared" ref="P35:P41" si="44">AVERAGE(AI35:BI35)</f>
         <v>48.094814814814804</v>
       </c>
       <c r="Q35" s="14">
-        <f t="shared" ref="Q35:Q41" si="43">(SUM(AI35:AU35))/(COUNT(AI35:AU35))</f>
+        <f t="shared" ref="Q35:Q41" si="45">(SUM(AI35:AU35))/(COUNT(AI35:AU35))</f>
         <v>54.003076923076918</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" ref="R35:R41" si="44">(SUM(AV35:BI35))/(COUNT(AV35:BI35))</f>
+        <f t="shared" ref="R35:R41" si="46">(SUM(AV35:BI35))/(COUNT(AV35:BI35))</f>
         <v>42.60857142857143</v>
       </c>
       <c r="T35">
@@ -7176,9 +7472,9 @@
       </c>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>29</v>
+      <c r="A36" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>70</v>
@@ -7202,39 +7498,39 @@
         <v>-0.5</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51.575945945945946</v>
       </c>
       <c r="K36" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>55.984999999999999</v>
       </c>
       <c r="L36" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>47.398947368421048</v>
       </c>
       <c r="M36" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>52.422000000000004</v>
       </c>
       <c r="N36" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>52.852000000000011</v>
       </c>
       <c r="O36" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>51.991999999999997</v>
       </c>
       <c r="P36" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>51.26259259259259</v>
       </c>
       <c r="Q36" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>57.190000000000005</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>45.758571428571422</v>
       </c>
       <c r="T36">
@@ -7365,9 +7661,9 @@
       </c>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="A37" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B37" s="44" t="s">
         <v>70</v>
@@ -7391,39 +7687,39 @@
         <v>0</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52.075135135135142</v>
       </c>
       <c r="K37" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>57.74166666666666</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>46.706842105263163</v>
       </c>
       <c r="M37" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>52.414000000000009</v>
       </c>
       <c r="N37" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>56.540000000000006</v>
       </c>
       <c r="O37" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>48.288000000000004</v>
       </c>
       <c r="P37" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>51.949629629629626</v>
       </c>
       <c r="Q37" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>58.203846153846143</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>46.142142857142858</v>
       </c>
       <c r="T37">
@@ -7554,9 +7850,9 @@
       </c>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="1"/>
-        <v>31</v>
+      <c r="A38" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B38" s="44" t="s">
         <v>70</v>
@@ -7580,39 +7876,39 @@
         <v>-0.3</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51.814594594594602</v>
       </c>
       <c r="K38" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>52.00555555555556</v>
       </c>
       <c r="L38" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>51.633684210526312</v>
       </c>
       <c r="M38" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>53.925000000000011</v>
       </c>
       <c r="N38" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>51.076000000000008</v>
       </c>
       <c r="O38" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>56.774000000000001</v>
       </c>
       <c r="P38" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>51.032962962962955</v>
       </c>
       <c r="Q38" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>52.363076923076925</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>49.79785714285714</v>
       </c>
       <c r="T38">
@@ -7743,9 +8039,9 @@
       </c>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="1"/>
-        <v>32</v>
+      <c r="A39" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B39" s="44" t="s">
         <v>70</v>
@@ -7769,39 +8065,39 @@
         <v>-0.4</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50.233513513513508</v>
       </c>
       <c r="K39" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>47.945555555555558</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>52.401052631578949</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>54.051000000000002</v>
       </c>
       <c r="N39" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>46.68</v>
       </c>
       <c r="O39" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>61.422000000000004</v>
       </c>
       <c r="P39" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>48.819629629629631</v>
       </c>
       <c r="Q39" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>48.432307692307695</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>49.179285714285712</v>
       </c>
       <c r="T39">
@@ -7932,9 +8228,9 @@
       </c>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>33</v>
+      <c r="A40" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>70</v>
@@ -7958,39 +8254,39 @@
         <v>-0.4</v>
       </c>
       <c r="J40" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50.147837837837841</v>
       </c>
       <c r="K40" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>48.682777777777773</v>
       </c>
       <c r="L40" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>51.535789473684211</v>
       </c>
       <c r="M40" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>54.616999999999997</v>
       </c>
       <c r="N40" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>47.97</v>
       </c>
       <c r="O40" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>61.26400000000001</v>
       </c>
       <c r="P40" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>48.492592592592608</v>
       </c>
       <c r="Q40" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>48.956923076923076</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>48.061428571428571</v>
       </c>
       <c r="T40">
@@ -8121,9 +8417,9 @@
       </c>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>34</v>
+      <c r="A41" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>70</v>
@@ -8147,39 +8443,39 @@
         <v>0.1</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49.116216216216216</v>
       </c>
       <c r="K41" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>49.754999999999995</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>48.511052631578949</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50.487000000000002</v>
       </c>
       <c r="N41" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>49.534000000000006</v>
       </c>
       <c r="O41" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>51.44</v>
       </c>
       <c r="P41" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>48.608518518518522</v>
       </c>
       <c r="Q41" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>49.839999999999996</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>47.465000000000011</v>
       </c>
       <c r="T41">
@@ -8310,9 +8606,9 @@
       </c>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>35</v>
+      <c r="A42" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
@@ -8364,9 +8660,9 @@
       <c r="BI42" s="31"/>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>36</v>
+      <c r="A43" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
@@ -8418,9 +8714,9 @@
       <c r="BI43" s="31"/>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>37</v>
+      <c r="A44" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
@@ -8472,9 +8768,9 @@
       <c r="BI44" s="31"/>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>38</v>
+      <c r="A45" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
@@ -8526,9 +8822,9 @@
       <c r="BI45" s="31"/>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="1"/>
-        <v>39</v>
+      <c r="A46" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
@@ -8580,9 +8876,9 @@
       <c r="BI46" s="31"/>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>40</v>
+      <c r="A47" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
@@ -8634,9 +8930,9 @@
       <c r="BI47" s="31"/>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="1"/>
-        <v>41</v>
+      <c r="A48" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="U48" s="12"/>
       <c r="Y48" s="17"/>
@@ -9749,145 +10045,145 @@
     <cfRule type="top10" dxfId="164" priority="113" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J63">
-    <cfRule type="top10" dxfId="163" priority="47" rank="2"/>
+    <cfRule type="top10" dxfId="46" priority="486" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K63">
-    <cfRule type="top10" dxfId="162" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="45" priority="488" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L63">
-    <cfRule type="top10" dxfId="161" priority="45" rank="2"/>
+    <cfRule type="top10" dxfId="44" priority="490" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P63">
-    <cfRule type="top10" dxfId="160" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="43" priority="492" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q63">
-    <cfRule type="top10" dxfId="159" priority="43" rank="2"/>
+    <cfRule type="top10" dxfId="42" priority="494" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R63">
-    <cfRule type="top10" dxfId="158" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="41" priority="496" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U63">
-    <cfRule type="top10" dxfId="157" priority="41" rank="2"/>
+    <cfRule type="top10" dxfId="40" priority="498" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M63">
-    <cfRule type="top10" dxfId="156" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="39" priority="500" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N63">
-    <cfRule type="top10" dxfId="155" priority="39" rank="2"/>
+    <cfRule type="top10" dxfId="38" priority="502" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O63">
-    <cfRule type="top10" dxfId="154" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="37" priority="504" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y63">
-    <cfRule type="top10" dxfId="153" priority="37" rank="2"/>
+    <cfRule type="top10" dxfId="36" priority="506" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z63">
-    <cfRule type="top10" dxfId="152" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="35" priority="508" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA63">
-    <cfRule type="top10" dxfId="151" priority="35" rank="2"/>
+    <cfRule type="top10" dxfId="34" priority="510" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB63">
-    <cfRule type="top10" dxfId="150" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="33" priority="512" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC63">
-    <cfRule type="top10" dxfId="149" priority="33" rank="2"/>
+    <cfRule type="top10" dxfId="32" priority="514" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD63">
-    <cfRule type="top10" dxfId="148" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="31" priority="516" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE63">
-    <cfRule type="top10" dxfId="147" priority="31" rank="2"/>
+    <cfRule type="top10" dxfId="30" priority="518" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF63">
-    <cfRule type="top10" dxfId="146" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="29" priority="520" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG63">
-    <cfRule type="top10" dxfId="145" priority="29" rank="2"/>
+    <cfRule type="top10" dxfId="28" priority="522" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AH63">
-    <cfRule type="top10" dxfId="144" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="27" priority="524" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI63">
-    <cfRule type="top10" dxfId="143" priority="27" rank="2"/>
+    <cfRule type="top10" dxfId="26" priority="526" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ63">
-    <cfRule type="top10" dxfId="142" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="25" priority="528" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK63">
-    <cfRule type="top10" dxfId="141" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="24" priority="530" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AL63">
-    <cfRule type="top10" dxfId="140" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="23" priority="532" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM63">
-    <cfRule type="top10" dxfId="139" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="22" priority="534" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN63">
-    <cfRule type="top10" dxfId="138" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="21" priority="536" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO63">
-    <cfRule type="top10" dxfId="137" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="20" priority="538" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP63">
-    <cfRule type="top10" dxfId="136" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="19" priority="540" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ63">
-    <cfRule type="top10" dxfId="135" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="18" priority="542" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR63">
-    <cfRule type="top10" dxfId="134" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="17" priority="544" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS63">
-    <cfRule type="top10" dxfId="133" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="16" priority="546" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT63">
-    <cfRule type="top10" dxfId="132" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="15" priority="548" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU63">
-    <cfRule type="top10" dxfId="131" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="550" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV63">
-    <cfRule type="top10" dxfId="130" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="552" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW63">
-    <cfRule type="top10" dxfId="129" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="554" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX63">
-    <cfRule type="top10" dxfId="128" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="11" priority="556" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY63">
-    <cfRule type="top10" dxfId="127" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="558" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ63">
-    <cfRule type="top10" dxfId="126" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="9" priority="560" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA63">
-    <cfRule type="top10" dxfId="125" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="562" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB63">
-    <cfRule type="top10" dxfId="124" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="7" priority="564" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC63">
-    <cfRule type="top10" dxfId="123" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="566" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD63">
-    <cfRule type="top10" dxfId="122" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="5" priority="568" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE63">
-    <cfRule type="top10" dxfId="121" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="4" priority="570" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF63">
-    <cfRule type="top10" dxfId="120" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="3" priority="572" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG63">
-    <cfRule type="top10" dxfId="119" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="574" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH63">
-    <cfRule type="top10" dxfId="118" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="1" priority="576" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI63">
-    <cfRule type="top10" dxfId="117" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="578" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -22248,211 +22544,211 @@
     <cfRule type="top10" priority="143" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:M79">
-    <cfRule type="top10" dxfId="116" priority="142" rank="2"/>
+    <cfRule type="top10" dxfId="163" priority="142" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72:P79">
-    <cfRule type="top10" dxfId="115" priority="141" rank="2"/>
+    <cfRule type="top10" dxfId="162" priority="141" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:S79">
-    <cfRule type="top10" dxfId="114" priority="140" rank="2"/>
+    <cfRule type="top10" dxfId="161" priority="140" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T72:V79">
-    <cfRule type="top10" dxfId="113" priority="139" rank="2"/>
+    <cfRule type="top10" dxfId="160" priority="139" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W72:X79">
-    <cfRule type="top10" dxfId="112" priority="138" rank="2"/>
+    <cfRule type="top10" dxfId="159" priority="138" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y72:Z79">
-    <cfRule type="top10" dxfId="111" priority="137" rank="2"/>
+    <cfRule type="top10" dxfId="158" priority="137" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA72:AC79">
-    <cfRule type="top10" dxfId="110" priority="136" rank="2"/>
+    <cfRule type="top10" dxfId="157" priority="136" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD72:AE79">
-    <cfRule type="top10" dxfId="109" priority="135" rank="2"/>
+    <cfRule type="top10" dxfId="156" priority="135" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF72:AG79">
-    <cfRule type="top10" dxfId="108" priority="134" rank="2"/>
+    <cfRule type="top10" dxfId="155" priority="134" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN72:AN79">
-    <cfRule type="top10" dxfId="107" priority="133" rank="2"/>
+    <cfRule type="top10" dxfId="154" priority="133" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM72:AM79">
-    <cfRule type="top10" dxfId="106" priority="132" rank="2"/>
+    <cfRule type="top10" dxfId="153" priority="132" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:M40 J43:M43">
-    <cfRule type="top10" dxfId="105" priority="393" rank="2"/>
+    <cfRule type="top10" dxfId="152" priority="393" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:P40 N43:P43">
-    <cfRule type="top10" dxfId="104" priority="395" rank="2"/>
+    <cfRule type="top10" dxfId="151" priority="395" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:S40 Q43:S43">
-    <cfRule type="top10" dxfId="103" priority="397" rank="2"/>
+    <cfRule type="top10" dxfId="150" priority="397" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AC40 AA43:AC43">
-    <cfRule type="top10" dxfId="102" priority="399" rank="2"/>
+    <cfRule type="top10" dxfId="149" priority="399" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AE40 AD43:AE43">
-    <cfRule type="top10" dxfId="101" priority="401" rank="2"/>
+    <cfRule type="top10" dxfId="148" priority="401" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AG40 AF43:AG43">
-    <cfRule type="top10" dxfId="100" priority="403" rank="2"/>
+    <cfRule type="top10" dxfId="147" priority="403" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ43">
-    <cfRule type="top10" dxfId="99" priority="405" rank="2"/>
+    <cfRule type="top10" dxfId="146" priority="405" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:V40 T43:V43">
-    <cfRule type="top10" dxfId="98" priority="407" rank="2"/>
+    <cfRule type="top10" dxfId="145" priority="407" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:X40 W43:X43">
-    <cfRule type="top10" dxfId="97" priority="409" rank="2"/>
+    <cfRule type="top10" dxfId="144" priority="409" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Z40 Y43:Z43">
-    <cfRule type="top10" dxfId="96" priority="411" rank="2"/>
+    <cfRule type="top10" dxfId="143" priority="411" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN43 AO40:BX40">
-    <cfRule type="top10" dxfId="95" priority="413" rank="2"/>
+    <cfRule type="top10" dxfId="142" priority="413" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO39 AO41:AO43">
-    <cfRule type="top10" dxfId="94" priority="415" rank="2"/>
+    <cfRule type="top10" dxfId="141" priority="415" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP39 AP41:AP43">
-    <cfRule type="top10" dxfId="93" priority="417" rank="2"/>
+    <cfRule type="top10" dxfId="140" priority="417" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ39 AQ41:AQ43">
-    <cfRule type="top10" dxfId="92" priority="419" rank="2"/>
+    <cfRule type="top10" dxfId="139" priority="419" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR39 AR41:AR43">
-    <cfRule type="top10" dxfId="91" priority="421" rank="2"/>
+    <cfRule type="top10" dxfId="138" priority="421" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS39 AS41:AS43">
-    <cfRule type="top10" dxfId="90" priority="423" rank="2"/>
+    <cfRule type="top10" dxfId="137" priority="423" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT39 AT41:AT43">
-    <cfRule type="top10" dxfId="89" priority="425" rank="2"/>
+    <cfRule type="top10" dxfId="136" priority="425" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU39 AU41:AU43">
-    <cfRule type="top10" dxfId="88" priority="427" rank="2"/>
+    <cfRule type="top10" dxfId="135" priority="427" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV39 AV41:AV43">
-    <cfRule type="top10" dxfId="87" priority="429" rank="2"/>
+    <cfRule type="top10" dxfId="134" priority="429" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW39 AW41:AW43">
-    <cfRule type="top10" dxfId="86" priority="431" rank="2"/>
+    <cfRule type="top10" dxfId="133" priority="431" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX39 AX41:AX43">
-    <cfRule type="top10" dxfId="85" priority="433" rank="2"/>
+    <cfRule type="top10" dxfId="132" priority="433" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY39 AY41:AY43">
-    <cfRule type="top10" dxfId="84" priority="435" rank="2"/>
+    <cfRule type="top10" dxfId="131" priority="435" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ39 AZ41:AZ43">
-    <cfRule type="top10" dxfId="83" priority="437" rank="2"/>
+    <cfRule type="top10" dxfId="130" priority="437" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA39 BA41:BA43">
-    <cfRule type="top10" dxfId="82" priority="439" rank="2"/>
+    <cfRule type="top10" dxfId="129" priority="439" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB39 BB41:BB43">
-    <cfRule type="top10" dxfId="81" priority="441" rank="2"/>
+    <cfRule type="top10" dxfId="128" priority="441" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC39 BC41:BC43">
-    <cfRule type="top10" dxfId="80" priority="443" rank="2"/>
+    <cfRule type="top10" dxfId="127" priority="443" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD39 BD41:BD43">
-    <cfRule type="top10" dxfId="79" priority="445" rank="2"/>
+    <cfRule type="top10" dxfId="126" priority="445" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE39 BE41:BE43">
-    <cfRule type="top10" dxfId="78" priority="447" rank="2"/>
+    <cfRule type="top10" dxfId="125" priority="447" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF39 BF41:BF43">
-    <cfRule type="top10" dxfId="77" priority="449" rank="2"/>
+    <cfRule type="top10" dxfId="124" priority="449" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG39 BG41:BG43">
-    <cfRule type="top10" dxfId="76" priority="451" rank="2"/>
+    <cfRule type="top10" dxfId="123" priority="451" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH39 BH41:BH43">
-    <cfRule type="top10" dxfId="75" priority="453" rank="2"/>
+    <cfRule type="top10" dxfId="122" priority="453" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI39 BI41:BI43">
-    <cfRule type="top10" dxfId="74" priority="455" rank="2"/>
+    <cfRule type="top10" dxfId="121" priority="455" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ8:BJ39 BJ41:BJ43">
-    <cfRule type="top10" dxfId="73" priority="457" rank="2"/>
+    <cfRule type="top10" dxfId="120" priority="457" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK8:BK39 BK41:BK43">
-    <cfRule type="top10" dxfId="72" priority="459" rank="2"/>
+    <cfRule type="top10" dxfId="119" priority="459" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL8:BL39 BL41:BL43">
-    <cfRule type="top10" dxfId="71" priority="461" rank="2"/>
+    <cfRule type="top10" dxfId="118" priority="461" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM8:BM39 BM41:BM43">
-    <cfRule type="top10" dxfId="70" priority="463" rank="2"/>
+    <cfRule type="top10" dxfId="117" priority="463" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN8:BN39 BN41:BN43">
-    <cfRule type="top10" dxfId="69" priority="465" rank="2"/>
+    <cfRule type="top10" dxfId="116" priority="465" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO8:BO39 BO41:BO43">
-    <cfRule type="top10" dxfId="68" priority="467" rank="2"/>
+    <cfRule type="top10" dxfId="115" priority="467" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP8:BP39 BP41:BP43">
-    <cfRule type="top10" dxfId="67" priority="469" rank="2"/>
+    <cfRule type="top10" dxfId="114" priority="469" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ8:BQ39 BQ41:BQ43">
-    <cfRule type="top10" dxfId="66" priority="471" rank="2"/>
+    <cfRule type="top10" dxfId="113" priority="471" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR8:BR39 BR41:BR43">
-    <cfRule type="top10" dxfId="65" priority="473" rank="2"/>
+    <cfRule type="top10" dxfId="112" priority="473" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS8:BS39 BS41:BS43">
-    <cfRule type="top10" dxfId="64" priority="475" rank="2"/>
+    <cfRule type="top10" dxfId="111" priority="475" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT8:BT39 BT41:BT43">
-    <cfRule type="top10" dxfId="63" priority="477" rank="2"/>
+    <cfRule type="top10" dxfId="110" priority="477" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU8:BU39 BU41:BU43">
-    <cfRule type="top10" dxfId="62" priority="479" rank="2"/>
+    <cfRule type="top10" dxfId="109" priority="479" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV8:BV39 BV41:BV43">
-    <cfRule type="top10" dxfId="61" priority="481" rank="2"/>
+    <cfRule type="top10" dxfId="108" priority="481" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW8:BW39 BW41:BW43">
-    <cfRule type="top10" dxfId="60" priority="483" rank="2"/>
+    <cfRule type="top10" dxfId="107" priority="483" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX8:BX39 BX41:BX43">
-    <cfRule type="top10" dxfId="59" priority="485" rank="2"/>
+    <cfRule type="top10" dxfId="106" priority="485" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:M71">
-    <cfRule type="top10" dxfId="58" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="105" priority="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:P71">
-    <cfRule type="top10" dxfId="57" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="104" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:S71">
-    <cfRule type="top10" dxfId="56" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="103" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AC71">
-    <cfRule type="top10" dxfId="55" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="102" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD44:AE71">
-    <cfRule type="top10" dxfId="54" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="101" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF44:AG71">
-    <cfRule type="top10" dxfId="53" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="100" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ44:AJ71">
-    <cfRule type="top10" dxfId="52" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="99" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:V71">
-    <cfRule type="top10" dxfId="51" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="98" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:X71">
-    <cfRule type="top10" dxfId="50" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="97" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y44:Z71">
-    <cfRule type="top10" dxfId="49" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="96" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN44:BX71">
-    <cfRule type="top10" dxfId="48" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="95" priority="11" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29468,148 +29764,148 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J8:J41">
-    <cfRule type="top10" dxfId="47" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="94" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K41">
-    <cfRule type="top10" dxfId="46" priority="47" rank="2"/>
+    <cfRule type="top10" dxfId="93" priority="47" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L41">
-    <cfRule type="top10" dxfId="45" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="92" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M41">
-    <cfRule type="top10" dxfId="44" priority="45" rank="2"/>
+    <cfRule type="top10" dxfId="91" priority="45" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C33 N8:N41">
-    <cfRule type="top10" dxfId="43" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="90" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D33 O8:O41">
-    <cfRule type="top10" dxfId="42" priority="43" rank="2"/>
+    <cfRule type="top10" dxfId="89" priority="43" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E33 P8:P41">
-    <cfRule type="top10" dxfId="41" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="88" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F33 Q8:Q41">
-    <cfRule type="top10" dxfId="40" priority="41" rank="2"/>
+    <cfRule type="top10" dxfId="87" priority="41" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G33 R8:R41">
-    <cfRule type="top10" dxfId="39" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="86" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y41">
-    <cfRule type="top10" dxfId="38" priority="39" rank="2"/>
+    <cfRule type="top10" dxfId="85" priority="39" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X41">
-    <cfRule type="top10" dxfId="37" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="84" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z41">
-    <cfRule type="top10" dxfId="36" priority="37" rank="2"/>
+    <cfRule type="top10" dxfId="83" priority="37" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA41">
-    <cfRule type="top10" dxfId="35" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="82" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB41">
-    <cfRule type="top10" dxfId="34" priority="35" rank="2"/>
+    <cfRule type="top10" dxfId="81" priority="35" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC41">
-    <cfRule type="top10" dxfId="33" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="80" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD41">
-    <cfRule type="top10" dxfId="32" priority="33" rank="2"/>
+    <cfRule type="top10" dxfId="79" priority="33" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE41">
-    <cfRule type="top10" dxfId="31" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="78" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF41">
-    <cfRule type="top10" dxfId="30" priority="31" rank="2"/>
+    <cfRule type="top10" dxfId="77" priority="31" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG41">
-    <cfRule type="top10" dxfId="29" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="76" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AH41">
-    <cfRule type="top10" dxfId="28" priority="29" rank="2"/>
+    <cfRule type="top10" dxfId="75" priority="29" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI41">
-    <cfRule type="top10" dxfId="27" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="74" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ41">
-    <cfRule type="top10" dxfId="26" priority="27" rank="2"/>
+    <cfRule type="top10" dxfId="73" priority="27" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK41">
-    <cfRule type="top10" dxfId="25" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="72" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AL41">
-    <cfRule type="top10" dxfId="24" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="71" priority="25" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM41">
-    <cfRule type="top10" dxfId="23" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="70" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN41">
-    <cfRule type="top10" dxfId="22" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="69" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO41">
-    <cfRule type="top10" dxfId="21" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="68" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP41">
-    <cfRule type="top10" dxfId="20" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="67" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ41">
-    <cfRule type="top10" dxfId="19" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="66" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR41">
-    <cfRule type="top10" dxfId="18" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="65" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS41">
-    <cfRule type="top10" dxfId="17" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="64" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT41">
-    <cfRule type="top10" dxfId="16" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="63" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU41">
-    <cfRule type="top10" dxfId="15" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="62" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV41">
-    <cfRule type="top10" dxfId="14" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="61" priority="15" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW41">
-    <cfRule type="top10" dxfId="13" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="60" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX41">
-    <cfRule type="top10" dxfId="12" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="59" priority="13" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY41">
-    <cfRule type="top10" dxfId="11" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="58" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ41">
-    <cfRule type="top10" dxfId="10" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="57" priority="11" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA41">
-    <cfRule type="top10" dxfId="9" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="56" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB41">
-    <cfRule type="top10" dxfId="8" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="55" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC41">
-    <cfRule type="top10" dxfId="7" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="54" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD41">
-    <cfRule type="top10" dxfId="6" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="53" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE41">
-    <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="52" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF41">
-    <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="51" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG41">
-    <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="50" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH41">
-    <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="49" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI41">
-    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="48" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U41">
-    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="47" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary (stddev)" sheetId="6" r:id="rId2"/>
-    <sheet name="UCBT_lin2C_6par" sheetId="3" r:id="rId3"/>
-    <sheet name="6par_calc" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Summary (stddev)" sheetId="6" r:id="rId3"/>
+    <sheet name="UCBT_lin2C_6par" sheetId="3" r:id="rId4"/>
+    <sheet name="6par_calc" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="114">
   <si>
     <t>repeat</t>
   </si>
@@ -625,14 +626,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="221">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="220">
     <dxf>
       <fill>
         <patternFill>
@@ -2473,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL74"/>
+  <dimension ref="A1:BL75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,168 +2514,168 @@
         <v>52</v>
       </c>
       <c r="U3">
-        <f>MATCH(MAX(U8:U126),U8:U126,0)</f>
+        <f>MATCH(MAX(U8:U127),U8:U127,0)</f>
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <f>MATCH(MIN(V8:V127),V8:V127,0)</f>
+        <v>15</v>
+      </c>
+      <c r="W3">
+        <f>MATCH(MAX(W8:W127),W8:W127,0)</f>
+        <v>13</v>
+      </c>
+      <c r="X3" s="1">
+        <f>MATCH(MAX(X8:X127),X8:X127,0)</f>
+        <v>13</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>MATCH(MAX(Y8:Y127),Y8:Y127,0)</f>
+        <v>29</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>MATCH(MAX(Z8:Z127),Z8:Z127,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>MATCH(MAX(AA8:AA127),AA8:AA127,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>MATCH(MAX(AB8:AB127),AB8:AB127,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>MATCH(MAX(AC8:AC127),AC8:AC127,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>MATCH(MAX(AD8:AD127),AD8:AD127,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>MATCH(MAX(AE8:AE127),AE8:AE127,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>MATCH(MAX(AF8:AF127),AF8:AF127,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>MATCH(MAX(AG8:AG127),AG8:AG127,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AH3" s="4">
+        <f>MATCH(MAX(AH8:AH127),AH8:AH127,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AI3">
+        <f>MATCH(MAX(AI8:AI127),AI8:AI127,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ3">
+        <f>MATCH(MAX(AJ8:AJ127),AJ8:AJ127,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AK3">
+        <f>MATCH(MAX(AK8:AK127),AK8:AK127,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AL3">
+        <f>MATCH(MAX(AL8:AL127),AL8:AL127,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <f>MATCH(MAX(AM8:AM127),AM8:AM127,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AN3">
+        <f>MATCH(MAX(AN8:AN127),AN8:AN127,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AO3">
+        <f>MATCH(MAX(AO8:AO127),AO8:AO127,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AP3">
+        <f>MATCH(MAX(AP8:AP127),AP8:AP127,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AQ3">
+        <f>MATCH(MAX(AQ8:AQ127),AQ8:AQ127,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AR3">
+        <f>MATCH(MAX(AR8:AR127),AR8:AR127,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AS3">
+        <f>MATCH(MAX(AS8:AS127),AS8:AS127,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AT3">
+        <f>MATCH(MAX(AT8:AT127),AT8:AT127,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AU3">
+        <f>MATCH(MAX(AU8:AU127),AU8:AU127,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AV3">
+        <f>MATCH(MAX(AV8:AV127),AV8:AV127,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AW3">
+        <f>MATCH(MAX(AW8:AW127),AW8:AW127,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AX3">
+        <f>MATCH(MAX(AX8:AX127),AX8:AX127,0)</f>
+        <v>25</v>
+      </c>
+      <c r="AY3">
+        <f>MATCH(MAX(AY8:AY127),AY8:AY127,0)</f>
+        <v>11</v>
+      </c>
+      <c r="AZ3">
+        <f>MATCH(MAX(AZ8:AZ127),AZ8:AZ127,0)</f>
+        <v>27</v>
+      </c>
+      <c r="BA3">
+        <f>MATCH(MAX(BA8:BA127),BA8:BA127,0)</f>
+        <v>22</v>
+      </c>
+      <c r="BB3">
+        <f>MATCH(MAX(BB8:BB127),BB8:BB127,0)</f>
+        <v>13</v>
+      </c>
+      <c r="BC3">
+        <f>MATCH(MAX(BC8:BC127),BC8:BC127,0)</f>
         <v>12</v>
       </c>
-      <c r="V3">
-        <f>MATCH(MIN(V8:V126),V8:V126,0)</f>
-        <v>12</v>
-      </c>
-      <c r="W3">
-        <f>MATCH(MAX(W8:W126),W8:W126,0)</f>
-        <v>13</v>
-      </c>
-      <c r="X3" s="1">
-        <f>MATCH(MAX(X8:X126),X8:X126,0)</f>
-        <v>13</v>
-      </c>
-      <c r="Y3" s="4">
-        <f>MATCH(MAX(Y8:Y126),Y8:Y126,0)</f>
-        <v>28</v>
-      </c>
-      <c r="Z3" s="4">
-        <f>MATCH(MAX(Z8:Z126),Z8:Z126,0)</f>
-        <v>25</v>
-      </c>
-      <c r="AA3" s="4">
-        <f>MATCH(MAX(AA8:AA126),AA8:AA126,0)</f>
-        <v>25</v>
-      </c>
-      <c r="AB3" s="4">
-        <f>MATCH(MAX(AB8:AB126),AB8:AB126,0)</f>
-        <v>25</v>
-      </c>
-      <c r="AC3" s="4">
-        <f>MATCH(MAX(AC8:AC126),AC8:AC126,0)</f>
-        <v>8</v>
-      </c>
-      <c r="AD3" s="4">
-        <f>MATCH(MAX(AD8:AD126),AD8:AD126,0)</f>
+      <c r="BD3">
+        <f>MATCH(MAX(BD8:BD127),BD8:BD127,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BE3">
+        <f>MATCH(MAX(BE8:BE127),BE8:BE127,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BF3">
+        <f>MATCH(MAX(BF8:BF127),BF8:BF127,0)</f>
+        <v>26</v>
+      </c>
+      <c r="BG3">
+        <f>MATCH(MAX(BG8:BG127),BG8:BG127,0)</f>
         <v>4</v>
       </c>
-      <c r="AE3" s="4">
-        <f>MATCH(MAX(AE8:AE126),AE8:AE126,0)</f>
-        <v>13</v>
-      </c>
-      <c r="AF3" s="4">
-        <f>MATCH(MAX(AF8:AF126),AF8:AF126,0)</f>
-        <v>4</v>
-      </c>
-      <c r="AG3" s="4">
-        <f>MATCH(MAX(AG8:AG126),AG8:AG126,0)</f>
-        <v>26</v>
-      </c>
-      <c r="AH3" s="4">
-        <f>MATCH(MAX(AH8:AH126),AH8:AH126,0)</f>
-        <v>17</v>
-      </c>
-      <c r="AI3">
-        <f>MATCH(MAX(AI8:AI126),AI8:AI126,0)</f>
-        <v>3</v>
-      </c>
-      <c r="AJ3">
-        <f>MATCH(MAX(AJ8:AJ126),AJ8:AJ126,0)</f>
-        <v>28</v>
-      </c>
-      <c r="AK3">
-        <f>MATCH(MAX(AK8:AK126),AK8:AK126,0)</f>
-        <v>29</v>
-      </c>
-      <c r="AL3">
-        <f>MATCH(MAX(AL8:AL126),AL8:AL126,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AM3">
-        <f>MATCH(MAX(AM8:AM126),AM8:AM126,0)</f>
-        <v>8</v>
-      </c>
-      <c r="AN3">
-        <f>MATCH(MAX(AN8:AN126),AN8:AN126,0)</f>
-        <v>6</v>
-      </c>
-      <c r="AO3">
-        <f>MATCH(MAX(AO8:AO126),AO8:AO126,0)</f>
-        <v>28</v>
-      </c>
-      <c r="AP3">
-        <f>MATCH(MAX(AP8:AP126),AP8:AP126,0)</f>
-        <v>8</v>
-      </c>
-      <c r="AQ3">
-        <f>MATCH(MAX(AQ8:AQ126),AQ8:AQ126,0)</f>
-        <v>34</v>
-      </c>
-      <c r="AR3">
-        <f>MATCH(MAX(AR8:AR126),AR8:AR126,0)</f>
-        <v>30</v>
-      </c>
-      <c r="AS3">
-        <f>MATCH(MAX(AS8:AS126),AS8:AS126,0)</f>
-        <v>7</v>
-      </c>
-      <c r="AT3">
-        <f>MATCH(MAX(AT8:AT126),AT8:AT126,0)</f>
-        <v>6</v>
-      </c>
-      <c r="AU3">
-        <f>MATCH(MAX(AU8:AU126),AU8:AU126,0)</f>
-        <v>7</v>
-      </c>
-      <c r="AV3">
-        <f>MATCH(MAX(AV8:AV126),AV8:AV126,0)</f>
-        <v>30</v>
-      </c>
-      <c r="AW3">
-        <f>MATCH(MAX(AW8:AW126),AW8:AW126,0)</f>
-        <v>31</v>
-      </c>
-      <c r="AX3">
-        <f>MATCH(MAX(AX8:AX126),AX8:AX126,0)</f>
-        <v>24</v>
-      </c>
-      <c r="AY3">
-        <f>MATCH(MAX(AY8:AY126),AY8:AY126,0)</f>
-        <v>11</v>
-      </c>
-      <c r="AZ3">
-        <f>MATCH(MAX(AZ8:AZ126),AZ8:AZ126,0)</f>
-        <v>26</v>
-      </c>
-      <c r="BA3">
-        <f>MATCH(MAX(BA8:BA126),BA8:BA126,0)</f>
-        <v>21</v>
-      </c>
-      <c r="BB3">
-        <f>MATCH(MAX(BB8:BB126),BB8:BB126,0)</f>
-        <v>13</v>
-      </c>
-      <c r="BC3">
-        <f>MATCH(MAX(BC8:BC126),BC8:BC126,0)</f>
-        <v>12</v>
-      </c>
-      <c r="BD3">
-        <f>MATCH(MAX(BD8:BD126),BD8:BD126,0)</f>
-        <v>7</v>
-      </c>
-      <c r="BE3">
-        <f>MATCH(MAX(BE8:BE126),BE8:BE126,0)</f>
-        <v>7</v>
-      </c>
-      <c r="BF3">
-        <f>MATCH(MAX(BF8:BF126),BF8:BF126,0)</f>
-        <v>25</v>
-      </c>
-      <c r="BG3">
-        <f>MATCH(MAX(BG8:BG126),BG8:BG126,0)</f>
-        <v>4</v>
-      </c>
       <c r="BH3">
-        <f>MATCH(MAX(BH8:BH126),BH8:BH126,0)</f>
+        <f>MATCH(MAX(BH8:BH127),BH8:BH127,0)</f>
         <v>14</v>
       </c>
       <c r="BI3">
-        <f>MATCH(MAX(BI8:BI126),BI8:BI126,0)</f>
-        <v>17</v>
+        <f>MATCH(MAX(BI8:BI127),BI8:BI127,0)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
@@ -3227,7 +3221,7 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A48" si="0">A9+1</f>
+        <f t="shared" ref="A10:A49" si="0">A9+1</f>
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3243,7 +3237,7 @@
         <v>61</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" ref="J10:J41" si="1">SUM(Y10:BI10)/COUNT(Y10:BI10)</f>
+        <f t="shared" ref="J10:J22" si="1">SUM(Y10:BI10)/COUNT(Y10:BI10)</f>
         <v>48.758378378378374</v>
       </c>
       <c r="K10" s="14">
@@ -3259,23 +3253,23 @@
         <v>56.414999999999999</v>
       </c>
       <c r="N10" s="19">
-        <f t="shared" ref="N10:N28" si="2">(SUM(Y10:AC10))/(COUNT(Y10:AC10))</f>
+        <f t="shared" ref="N10:N29" si="2">(SUM(Y10:AC10))/(COUNT(Y10:AC10))</f>
         <v>49.214000000000006</v>
       </c>
       <c r="O10" s="19">
-        <f t="shared" ref="O10:O28" si="3">(SUM(AD10:AH10))/(COUNT(AD10:AH10))</f>
+        <f t="shared" ref="O10:O29" si="3">(SUM(AD10:AH10))/(COUNT(AD10:AH10))</f>
         <v>63.616</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" ref="P10:P28" si="4">AVERAGE(AI10:BI10)</f>
+        <f t="shared" ref="P10:P15" si="4">AVERAGE(AI10:BI10)</f>
         <v>45.922592592592586</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" ref="Q10:Q28" si="5">(SUM(AI10:AU10))/(COUNT(AI10:AU10))</f>
+        <f t="shared" ref="Q10:Q29" si="5">(SUM(AI10:AU10))/(COUNT(AI10:AU10))</f>
         <v>49.058461538461529</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" ref="R10:R28" si="6">(SUM(AV10:BI10))/(COUNT(AV10:BI10))</f>
+        <f t="shared" ref="R10:R15" si="6">(SUM(AV10:BI10))/(COUNT(AV10:BI10))</f>
         <v>43.010714285714293</v>
       </c>
       <c r="T10">
@@ -3405,7 +3399,7 @@
         <v>37.44</v>
       </c>
       <c r="BL10" t="str">
-        <f t="shared" ref="BL10:BL28" si="7">B10</f>
+        <f t="shared" ref="BL10:BL29" si="7">B10</f>
         <v>UCBT page-hinkley resetSingle</v>
       </c>
     </row>
@@ -4497,23 +4491,23 @@
         <v>59.613999999999997</v>
       </c>
       <c r="N18" s="19">
-        <f t="shared" ref="N18:N21" si="14">(SUM(Y18:AC18))/(COUNT(Y18:AC18))</f>
+        <f t="shared" ref="N18:N22" si="14">(SUM(Y18:AC18))/(COUNT(Y18:AC18))</f>
         <v>52.057999999999993</v>
       </c>
       <c r="O18" s="19">
-        <f t="shared" ref="O18:O21" si="15">(SUM(AD18:AH18))/(COUNT(AD18:AH18))</f>
+        <f t="shared" ref="O18:O22" si="15">(SUM(AD18:AH18))/(COUNT(AD18:AH18))</f>
         <v>67.169999999999987</v>
       </c>
       <c r="P18" s="14">
-        <f t="shared" ref="P18:P21" si="16">AVERAGE(AI18:BI18)</f>
+        <f t="shared" ref="P18:P22" si="16">AVERAGE(AI18:BI18)</f>
         <v>51.934074074074076</v>
       </c>
       <c r="Q18" s="14">
-        <f t="shared" ref="Q18:Q21" si="17">(SUM(AI18:AU18))/(COUNT(AI18:AU18))</f>
+        <f t="shared" ref="Q18:Q22" si="17">(SUM(AI18:AU18))/(COUNT(AI18:AU18))</f>
         <v>53.884615384615394</v>
       </c>
       <c r="R18" s="14">
-        <f t="shared" ref="R18:R21" si="18">(SUM(AV18:BI18))/(COUNT(AV18:BI18))</f>
+        <f t="shared" ref="R18:R22" si="18">(SUM(AV18:BI18))/(COUNT(AV18:BI18))</f>
         <v>50.122857142857143</v>
       </c>
       <c r="S18" s="25"/>
@@ -4847,7 +4841,7 @@
         <v>54.668648648648663</v>
       </c>
       <c r="K20" s="14">
-        <f t="shared" ref="K20:K21" si="19">(SUM(Y20:AC20)+SUM(AI20:AU20))/(COUNT(Y20:AC20)+COUNT(AI20:AU20))</f>
+        <f t="shared" ref="K20:K22" si="19">(SUM(Y20:AC20)+SUM(AI20:AU20))/(COUNT(Y20:AC20)+COUNT(AI20:AU20))</f>
         <v>54.05222222222222</v>
       </c>
       <c r="L20" s="14">
@@ -4855,7 +4849,7 @@
         <v>55.252631578947366</v>
       </c>
       <c r="M20" s="19">
-        <f t="shared" ref="M20:M21" si="21">AVERAGE(Y20:AH20)</f>
+        <f t="shared" ref="M20:M22" si="21">AVERAGE(Y20:AH20)</f>
         <v>60.033000000000001</v>
       </c>
       <c r="N20" s="19">
@@ -5029,10 +5023,6 @@
         <f t="shared" si="19"/>
         <v>52.212222222222216</v>
       </c>
-      <c r="L21" s="14">
-        <f t="shared" si="20"/>
-        <v>54.30263157894737</v>
-      </c>
       <c r="M21" s="19">
         <f t="shared" si="21"/>
         <v>58.524999999999999</v>
@@ -5192,82 +5182,190 @@
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
+      <c r="J22" s="14">
+        <f t="shared" si="1"/>
+        <v>54.665315315315297</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="19"/>
+        <v>57.480740740740742</v>
+      </c>
+      <c r="L22" s="14">
+        <f>(SUM(AD21:AH21)+SUM(AV21:BI21))/(COUNT(AD21:AH21)+COUNT(AV21:BI21))</f>
+        <v>54.30263157894737</v>
+      </c>
+      <c r="M22" s="19">
+        <f t="shared" si="21"/>
+        <v>57.085000000000001</v>
+      </c>
+      <c r="N22" s="19">
+        <f t="shared" si="14"/>
+        <v>54.214666666666666</v>
+      </c>
+      <c r="O22" s="19">
+        <f t="shared" si="15"/>
+        <v>59.955333333333328</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="16"/>
+        <v>53.769135802469137</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="17"/>
+        <v>58.736923076923077</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="18"/>
+        <v>49.156190476190474</v>
+      </c>
       <c r="S22"/>
       <c r="T22"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="31"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="31"/>
+      <c r="U22" s="14">
+        <v>52798.829999999994</v>
+      </c>
+      <c r="V22" s="2">
+        <v>2053.67</v>
+      </c>
+      <c r="W22" s="2">
+        <v>92.033333333333346</v>
+      </c>
+      <c r="X22" s="23">
+        <v>54.663333333333334</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>85.62</v>
+      </c>
+      <c r="Z22" s="19">
+        <v>73.943333333333342</v>
+      </c>
+      <c r="AA22" s="19">
+        <v>72.893333333333331</v>
+      </c>
+      <c r="AB22" s="19">
+        <v>29.936666666666667</v>
+      </c>
+      <c r="AC22" s="19">
+        <v>8.68</v>
+      </c>
+      <c r="AD22" s="19">
+        <v>50.736666666666672</v>
+      </c>
+      <c r="AE22" s="19">
+        <v>45.053333333333335</v>
+      </c>
+      <c r="AF22" s="19">
+        <v>64.163333333333341</v>
+      </c>
+      <c r="AG22" s="19">
+        <v>82.606666666666669</v>
+      </c>
+      <c r="AH22" s="19">
+        <v>57.216666666666669</v>
+      </c>
+      <c r="AI22" s="31">
+        <v>99.116666666666674</v>
+      </c>
+      <c r="AJ22" s="31">
+        <v>95.7</v>
+      </c>
+      <c r="AK22" s="31">
+        <v>24.55</v>
+      </c>
+      <c r="AL22" s="31">
+        <v>99.15333333333335</v>
+      </c>
+      <c r="AM22" s="31">
+        <v>32.043333333333329</v>
+      </c>
+      <c r="AN22" s="31">
+        <v>27.886666666666667</v>
+      </c>
+      <c r="AO22" s="31">
+        <v>67.56</v>
+      </c>
+      <c r="AP22" s="31">
+        <v>22.396666666666665</v>
+      </c>
+      <c r="AQ22" s="31">
+        <v>60.6</v>
+      </c>
+      <c r="AR22" s="31">
+        <v>16.883333333333336</v>
+      </c>
+      <c r="AS22" s="31">
+        <v>52.363333333333337</v>
+      </c>
+      <c r="AT22" s="31">
+        <v>75.206666666666663</v>
+      </c>
+      <c r="AU22" s="31">
+        <v>90.12</v>
+      </c>
+      <c r="AV22" s="31">
+        <v>20.540000000000003</v>
+      </c>
+      <c r="AW22" s="31">
+        <v>91.086666666666659</v>
+      </c>
+      <c r="AX22" s="31">
+        <v>38.49</v>
+      </c>
+      <c r="AY22" s="31">
+        <v>18.84</v>
+      </c>
+      <c r="AZ22" s="31">
+        <v>43.093333333333334</v>
+      </c>
+      <c r="BA22" s="31">
+        <v>40.493333333333332</v>
+      </c>
+      <c r="BB22" s="31">
+        <v>49.640000000000008</v>
+      </c>
+      <c r="BC22" s="31">
+        <v>84.47</v>
+      </c>
+      <c r="BD22" s="31">
+        <v>14.286666666666667</v>
+      </c>
+      <c r="BE22" s="31">
+        <v>30.076666666666664</v>
+      </c>
+      <c r="BF22" s="31">
+        <v>77.273333333333326</v>
+      </c>
+      <c r="BG22" s="31">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="BH22" s="31">
+        <v>59.583333333333336</v>
+      </c>
+      <c r="BI22" s="31">
+        <v>49.523333333333333</v>
+      </c>
       <c r="BJ22" s="8"/>
       <c r="BL22"/>
     </row>
     <row r="23" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>108</v>
-      </c>
+      <c r="A23" s="25"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -5277,11 +5375,11 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
@@ -5321,194 +5419,76 @@
       <c r="BH23" s="31"/>
       <c r="BI23" s="31"/>
       <c r="BJ23" s="8"/>
-      <c r="BL23"/>
+      <c r="BL23" s="25"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="e">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.45229999999999998</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-0.44390000000000002</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.1721</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.24909999999999999</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="1"/>
-        <v>47.983243243243237</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" ref="K24:K29" si="22">(SUM(Y24:AC24)+SUM(AI24:AU24))/(COUNT(Y24:AC24)+COUNT(AI24:AU24))</f>
-        <v>49.606666666666662</v>
-      </c>
-      <c r="L24" s="14">
-        <f t="shared" ref="L24:L29" si="23">(SUM(AD24:AH24)+SUM(AV24:BI24))/(COUNT(AD24:AH24)+COUNT(AV24:BI24))</f>
-        <v>46.445263157894736</v>
-      </c>
-      <c r="M24" s="19">
-        <f t="shared" ref="M24:M29" si="24">AVERAGE(Y24:AH24)</f>
-        <v>53.259</v>
-      </c>
-      <c r="N24" s="19">
-        <f t="shared" si="2"/>
-        <v>51.033999999999999</v>
-      </c>
-      <c r="O24" s="19">
-        <f t="shared" si="3"/>
-        <v>55.484000000000002</v>
-      </c>
-      <c r="P24" s="14">
-        <f t="shared" si="4"/>
-        <v>46.02925925925927</v>
-      </c>
-      <c r="Q24" s="14">
-        <f t="shared" si="5"/>
-        <v>49.057692307692307</v>
-      </c>
-      <c r="R24" s="14">
-        <f t="shared" si="6"/>
-        <v>43.217142857142861</v>
-      </c>
-      <c r="T24">
-        <v>1000</v>
-      </c>
-      <c r="U24" s="14">
-        <v>52335.78</v>
-      </c>
-      <c r="V24" s="2">
-        <v>2516.7199999999998</v>
-      </c>
-      <c r="W24" s="2">
-        <v>91.02</v>
-      </c>
-      <c r="X24" s="23">
-        <v>47.98</v>
-      </c>
-      <c r="Y24" s="19">
-        <v>82.68</v>
-      </c>
-      <c r="Z24" s="19">
-        <v>77.02</v>
-      </c>
-      <c r="AA24" s="19">
-        <v>73.59</v>
-      </c>
-      <c r="AB24" s="19">
-        <v>18.03</v>
-      </c>
-      <c r="AC24" s="19">
-        <v>3.85</v>
-      </c>
-      <c r="AD24" s="19">
-        <v>29.7</v>
-      </c>
-      <c r="AE24" s="19">
-        <v>46.68</v>
-      </c>
-      <c r="AF24" s="19">
-        <v>52.09</v>
-      </c>
-      <c r="AG24" s="19">
-        <v>87.6</v>
-      </c>
-      <c r="AH24" s="19">
-        <v>61.35</v>
-      </c>
-      <c r="AI24" s="31">
-        <v>99.46</v>
-      </c>
-      <c r="AJ24" s="31">
-        <v>97.49</v>
-      </c>
-      <c r="AK24" s="31">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AL24" s="31">
-        <v>99.6</v>
-      </c>
-      <c r="AM24" s="31">
-        <v>20.02</v>
-      </c>
-      <c r="AN24" s="31">
-        <v>15</v>
-      </c>
-      <c r="AO24" s="31">
-        <v>59.35</v>
-      </c>
-      <c r="AP24" s="31">
-        <v>11.8</v>
-      </c>
-      <c r="AQ24" s="31">
-        <v>65.61</v>
-      </c>
-      <c r="AR24" s="31">
-        <v>10.9</v>
-      </c>
-      <c r="AS24" s="31">
-        <v>34.5</v>
-      </c>
-      <c r="AT24" s="31">
-        <v>28.37</v>
-      </c>
-      <c r="AU24" s="31">
-        <v>85.85</v>
-      </c>
-      <c r="AV24" s="31">
-        <v>17.54</v>
-      </c>
-      <c r="AW24" s="31">
-        <v>63</v>
-      </c>
-      <c r="AX24" s="31">
-        <v>31.75</v>
-      </c>
-      <c r="AY24" s="31">
-        <v>12.71</v>
-      </c>
-      <c r="AZ24" s="31">
-        <v>28.09</v>
-      </c>
-      <c r="BA24" s="31">
-        <v>25.39</v>
-      </c>
-      <c r="BB24" s="31">
-        <v>52.12</v>
-      </c>
-      <c r="BC24" s="31">
-        <v>82.48</v>
-      </c>
-      <c r="BD24" s="31">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="BE24" s="31">
-        <v>23.7</v>
-      </c>
-      <c r="BF24" s="31">
-        <v>71.64</v>
-      </c>
-      <c r="BG24" s="31">
-        <v>61.55</v>
-      </c>
-      <c r="BH24" s="31">
-        <v>60.63</v>
-      </c>
-      <c r="BI24" s="31">
-        <v>54.45</v>
-      </c>
-      <c r="BL24" t="str">
-        <f t="shared" ref="BL24" si="25">B24</f>
-        <v>UCBT no change point C linear 3 inputs</v>
-      </c>
+      <c r="B24" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="31"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
+      <c r="AW24" s="31"/>
+      <c r="AX24" s="31"/>
+      <c r="AY24" s="31"/>
+      <c r="AZ24" s="31"/>
+      <c r="BA24" s="31"/>
+      <c r="BB24" s="31"/>
+      <c r="BC24" s="31"/>
+      <c r="BD24" s="31"/>
+      <c r="BE24" s="31"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="31"/>
+      <c r="BI24" s="31"/>
+      <c r="BJ24" s="8"/>
+      <c r="BL24"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="e">
@@ -5516,380 +5496,374 @@
         <v>#REF!</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-0.44390000000000002</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.1721</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="J25" s="14">
+        <f>SUM(Y25:BI25)/COUNT(Y25:BI25)</f>
+        <v>47.983243243243237</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" ref="K25:K30" si="22">(SUM(Y25:AC25)+SUM(AI25:AU25))/(COUNT(Y25:AC25)+COUNT(AI25:AU25))</f>
+        <v>49.606666666666662</v>
+      </c>
+      <c r="L25" s="14">
+        <f>(SUM(AD25:AH25)+SUM(AV25:BI25))/(COUNT(AD25:AH25)+COUNT(AV25:BI25))</f>
+        <v>46.445263157894736</v>
+      </c>
+      <c r="M25" s="19">
+        <f t="shared" ref="M25:M30" si="23">AVERAGE(Y25:AH25)</f>
+        <v>53.259</v>
+      </c>
+      <c r="N25" s="19">
+        <f t="shared" si="2"/>
+        <v>51.033999999999999</v>
+      </c>
+      <c r="O25" s="19">
+        <f t="shared" si="3"/>
+        <v>55.484000000000002</v>
+      </c>
+      <c r="P25" s="14">
+        <f>AVERAGE(AI25:BI25)</f>
+        <v>46.02925925925927</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="5"/>
+        <v>49.057692307692307</v>
+      </c>
+      <c r="R25" s="14">
+        <f>(SUM(AV25:BI25))/(COUNT(AV25:BI25))</f>
+        <v>43.217142857142861</v>
+      </c>
+      <c r="T25">
+        <v>1000</v>
+      </c>
+      <c r="U25" s="14">
+        <v>52335.78</v>
+      </c>
+      <c r="V25" s="2">
+        <v>2516.7199999999998</v>
+      </c>
+      <c r="W25" s="2">
+        <v>91.02</v>
+      </c>
+      <c r="X25" s="23">
+        <v>47.98</v>
+      </c>
+      <c r="Y25" s="19">
+        <v>82.68</v>
+      </c>
+      <c r="Z25" s="19">
+        <v>77.02</v>
+      </c>
+      <c r="AA25" s="19">
+        <v>73.59</v>
+      </c>
+      <c r="AB25" s="19">
+        <v>18.03</v>
+      </c>
+      <c r="AC25" s="19">
+        <v>3.85</v>
+      </c>
+      <c r="AD25" s="19">
+        <v>29.7</v>
+      </c>
+      <c r="AE25" s="19">
+        <v>46.68</v>
+      </c>
+      <c r="AF25" s="19">
+        <v>52.09</v>
+      </c>
+      <c r="AG25" s="19">
+        <v>87.6</v>
+      </c>
+      <c r="AH25" s="19">
+        <v>61.35</v>
+      </c>
+      <c r="AI25" s="31">
+        <v>99.46</v>
+      </c>
+      <c r="AJ25" s="31">
+        <v>97.49</v>
+      </c>
+      <c r="AK25" s="31">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AL25" s="31">
+        <v>99.6</v>
+      </c>
+      <c r="AM25" s="31">
+        <v>20.02</v>
+      </c>
+      <c r="AN25" s="31">
+        <v>15</v>
+      </c>
+      <c r="AO25" s="31">
+        <v>59.35</v>
+      </c>
+      <c r="AP25" s="31">
+        <v>11.8</v>
+      </c>
+      <c r="AQ25" s="31">
+        <v>65.61</v>
+      </c>
+      <c r="AR25" s="31">
+        <v>10.9</v>
+      </c>
+      <c r="AS25" s="31">
+        <v>34.5</v>
+      </c>
+      <c r="AT25" s="31">
+        <v>28.37</v>
+      </c>
+      <c r="AU25" s="31">
+        <v>85.85</v>
+      </c>
+      <c r="AV25" s="31">
+        <v>17.54</v>
+      </c>
+      <c r="AW25" s="31">
+        <v>63</v>
+      </c>
+      <c r="AX25" s="31">
+        <v>31.75</v>
+      </c>
+      <c r="AY25" s="31">
+        <v>12.71</v>
+      </c>
+      <c r="AZ25" s="31">
+        <v>28.09</v>
+      </c>
+      <c r="BA25" s="31">
+        <v>25.39</v>
+      </c>
+      <c r="BB25" s="31">
+        <v>52.12</v>
+      </c>
+      <c r="BC25" s="31">
+        <v>82.48</v>
+      </c>
+      <c r="BD25" s="31">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="BE25" s="31">
+        <v>23.7</v>
+      </c>
+      <c r="BF25" s="31">
+        <v>71.64</v>
+      </c>
+      <c r="BG25" s="31">
+        <v>61.55</v>
+      </c>
+      <c r="BH25" s="31">
+        <v>60.63</v>
+      </c>
+      <c r="BI25" s="31">
+        <v>54.45</v>
+      </c>
+      <c r="BL25" t="str">
+        <f t="shared" ref="BL25" si="24">B25</f>
+        <v>UCBT no change point C linear 3 inputs</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C26" s="11">
         <v>0.9</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>-0.2</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>-0.4</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>0.9</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>-0.3</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H26" s="11">
         <v>-0.1</v>
       </c>
-      <c r="J25" s="14">
-        <f t="shared" si="1"/>
+      <c r="J26" s="14">
+        <f>SUM(Y26:BI26)/COUNT(Y26:BI26)</f>
         <v>49.911081081081079</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K26" s="14">
         <f t="shared" si="22"/>
         <v>49.151111111111113</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L26" s="14">
+        <f>(SUM(AD26:AH26)+SUM(AV26:BI26))/(COUNT(AD26:AH26)+COUNT(AV26:BI26))</f>
+        <v>50.631052631578953</v>
+      </c>
+      <c r="M26" s="19">
         <f t="shared" si="23"/>
-        <v>50.631052631578953</v>
-      </c>
-      <c r="M25" s="19">
-        <f t="shared" si="24"/>
         <v>54.746000000000002</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N26" s="19">
         <f t="shared" si="2"/>
         <v>49.374000000000002</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O26" s="19">
         <f t="shared" si="3"/>
         <v>60.118000000000009</v>
       </c>
-      <c r="P25" s="14">
-        <f t="shared" si="4"/>
+      <c r="P26" s="14">
+        <f>AVERAGE(AI26:BI26)</f>
         <v>48.12037037037036</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q26" s="14">
         <f t="shared" si="5"/>
         <v>49.065384615384616</v>
       </c>
-      <c r="R25" s="14">
-        <f t="shared" si="6"/>
+      <c r="R26" s="14">
+        <f>(SUM(AV26:BI26))/(COUNT(AV26:BI26))</f>
         <v>47.242857142857147</v>
-      </c>
-      <c r="T25">
-        <v>1000</v>
-      </c>
-      <c r="U25" s="14">
-        <v>52515.39</v>
-      </c>
-      <c r="V25" s="2">
-        <v>2337.11</v>
-      </c>
-      <c r="W25" s="2">
-        <v>91.24</v>
-      </c>
-      <c r="X25" s="23">
-        <v>49.91</v>
-      </c>
-      <c r="Y25" s="19">
-        <v>88.4</v>
-      </c>
-      <c r="Z25" s="19">
-        <v>68.59</v>
-      </c>
-      <c r="AA25" s="19">
-        <v>70.02</v>
-      </c>
-      <c r="AB25" s="19">
-        <v>14.52</v>
-      </c>
-      <c r="AC25" s="19">
-        <v>5.34</v>
-      </c>
-      <c r="AD25" s="19">
-        <v>47.07</v>
-      </c>
-      <c r="AE25" s="19">
-        <v>53.68</v>
-      </c>
-      <c r="AF25" s="19">
-        <v>58.11</v>
-      </c>
-      <c r="AG25" s="19">
-        <v>88.38</v>
-      </c>
-      <c r="AH25" s="19">
-        <v>53.35</v>
-      </c>
-      <c r="AI25" s="31">
-        <v>99.18</v>
-      </c>
-      <c r="AJ25" s="31">
-        <v>97</v>
-      </c>
-      <c r="AK25" s="31">
-        <v>20.12</v>
-      </c>
-      <c r="AL25" s="31">
-        <v>99.2</v>
-      </c>
-      <c r="AM25" s="31">
-        <v>11.62</v>
-      </c>
-      <c r="AN25" s="31">
-        <v>15.08</v>
-      </c>
-      <c r="AO25" s="31">
-        <v>66.08</v>
-      </c>
-      <c r="AP25" s="31">
-        <v>11.24</v>
-      </c>
-      <c r="AQ25" s="31">
-        <v>64.44</v>
-      </c>
-      <c r="AR25" s="31">
-        <v>6.36</v>
-      </c>
-      <c r="AS25" s="31">
-        <v>31.46</v>
-      </c>
-      <c r="AT25" s="31">
-        <v>29.85</v>
-      </c>
-      <c r="AU25" s="31">
-        <v>86.22</v>
-      </c>
-      <c r="AV25" s="31">
-        <v>22.54</v>
-      </c>
-      <c r="AW25" s="31">
-        <v>56</v>
-      </c>
-      <c r="AX25" s="31">
-        <v>39.840000000000003</v>
-      </c>
-      <c r="AY25" s="31">
-        <v>17.55</v>
-      </c>
-      <c r="AZ25" s="31">
-        <v>46.29</v>
-      </c>
-      <c r="BA25" s="31">
-        <v>41.66</v>
-      </c>
-      <c r="BB25" s="31">
-        <v>58.12</v>
-      </c>
-      <c r="BC25" s="31">
-        <v>82.62</v>
-      </c>
-      <c r="BD25" s="31">
-        <v>21.25</v>
-      </c>
-      <c r="BE25" s="31">
-        <v>20.48</v>
-      </c>
-      <c r="BF25" s="31">
-        <v>78.86</v>
-      </c>
-      <c r="BG25" s="31">
-        <v>72.2</v>
-      </c>
-      <c r="BH25" s="31">
-        <v>54.25</v>
-      </c>
-      <c r="BI25" s="31">
-        <v>49.74</v>
-      </c>
-      <c r="BL25" t="str">
-        <f t="shared" si="7"/>
-        <v>UCBT linear C1 to C2, with linear approx 2 inputs</v>
-      </c>
-    </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A26" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="D26" s="11">
-        <v>-0.3</v>
-      </c>
-      <c r="E26" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="G26" s="11">
-        <v>-0.1</v>
-      </c>
-      <c r="H26" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="1"/>
-        <v>49.362432432432442</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="22"/>
-        <v>46.18888888888889</v>
-      </c>
-      <c r="L26" s="14">
-        <f t="shared" si="23"/>
-        <v>52.368947368421061</v>
-      </c>
-      <c r="M26" s="19">
-        <f t="shared" si="24"/>
-        <v>53.970000000000006</v>
-      </c>
-      <c r="N26" s="19">
-        <f t="shared" si="2"/>
-        <v>45.275999999999996</v>
-      </c>
-      <c r="O26" s="19">
-        <f t="shared" si="3"/>
-        <v>62.664000000000009</v>
-      </c>
-      <c r="P26" s="14">
-        <f t="shared" si="4"/>
-        <v>47.655925925925921</v>
-      </c>
-      <c r="Q26" s="14">
-        <f t="shared" si="5"/>
-        <v>46.54</v>
-      </c>
-      <c r="R26" s="14">
-        <f t="shared" si="6"/>
-        <v>48.692142857142862</v>
       </c>
       <c r="T26">
         <v>1000</v>
       </c>
       <c r="U26" s="14">
-        <v>52549.85</v>
+        <v>52515.39</v>
       </c>
       <c r="V26" s="2">
-        <v>2302.65</v>
+        <v>2337.11</v>
       </c>
       <c r="W26" s="2">
-        <v>91.22</v>
+        <v>91.24</v>
       </c>
       <c r="X26" s="23">
-        <v>49.36</v>
+        <v>49.91</v>
       </c>
       <c r="Y26" s="19">
-        <v>86.74</v>
+        <v>88.4</v>
       </c>
       <c r="Z26" s="19">
-        <v>61.96</v>
+        <v>68.59</v>
       </c>
       <c r="AA26" s="19">
-        <v>64.06</v>
+        <v>70.02</v>
       </c>
       <c r="AB26" s="19">
-        <v>8.93</v>
+        <v>14.52</v>
       </c>
       <c r="AC26" s="19">
-        <v>4.6900000000000004</v>
+        <v>5.34</v>
       </c>
       <c r="AD26" s="19">
-        <v>60.43</v>
+        <v>47.07</v>
       </c>
       <c r="AE26" s="19">
-        <v>58.43</v>
+        <v>53.68</v>
       </c>
       <c r="AF26" s="19">
-        <v>59.68</v>
+        <v>58.11</v>
       </c>
       <c r="AG26" s="19">
-        <v>88.56</v>
+        <v>88.38</v>
       </c>
       <c r="AH26" s="19">
-        <v>46.22</v>
+        <v>53.35</v>
       </c>
       <c r="AI26" s="31">
-        <v>98.7</v>
+        <v>99.18</v>
       </c>
       <c r="AJ26" s="31">
-        <v>94.88</v>
+        <v>97</v>
       </c>
       <c r="AK26" s="31">
-        <v>22.9</v>
+        <v>20.12</v>
       </c>
       <c r="AL26" s="31">
         <v>99.2</v>
       </c>
       <c r="AM26" s="31">
-        <v>9.36</v>
+        <v>11.62</v>
       </c>
       <c r="AN26" s="31">
-        <v>7.29</v>
+        <v>15.08</v>
       </c>
       <c r="AO26" s="31">
-        <v>61.2</v>
+        <v>66.08</v>
       </c>
       <c r="AP26" s="31">
-        <v>7.4</v>
+        <v>11.24</v>
       </c>
       <c r="AQ26" s="31">
-        <v>57.84</v>
+        <v>64.44</v>
       </c>
       <c r="AR26" s="31">
-        <v>8.2100000000000009</v>
+        <v>6.36</v>
       </c>
       <c r="AS26" s="31">
-        <v>26.61</v>
+        <v>31.46</v>
       </c>
       <c r="AT26" s="31">
-        <v>26.73</v>
+        <v>29.85</v>
       </c>
       <c r="AU26" s="31">
-        <v>84.7</v>
+        <v>86.22</v>
       </c>
       <c r="AV26" s="31">
-        <v>18.149999999999999</v>
+        <v>22.54</v>
       </c>
       <c r="AW26" s="31">
-        <v>72.400000000000006</v>
+        <v>56</v>
       </c>
       <c r="AX26" s="31">
-        <v>40</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="AY26" s="31">
-        <v>20.04</v>
+        <v>17.55</v>
       </c>
       <c r="AZ26" s="31">
-        <v>50.86</v>
+        <v>46.29</v>
       </c>
       <c r="BA26" s="31">
-        <v>40.909999999999997</v>
+        <v>41.66</v>
       </c>
       <c r="BB26" s="31">
-        <v>62.27</v>
+        <v>58.12</v>
       </c>
       <c r="BC26" s="31">
-        <v>82.97</v>
+        <v>82.62</v>
       </c>
       <c r="BD26" s="31">
-        <v>21.81</v>
+        <v>21.25</v>
       </c>
       <c r="BE26" s="31">
-        <v>21.29</v>
+        <v>20.48</v>
       </c>
       <c r="BF26" s="31">
-        <v>76.77</v>
+        <v>78.86</v>
       </c>
       <c r="BG26" s="31">
-        <v>70.849999999999994</v>
+        <v>72.2</v>
       </c>
       <c r="BH26" s="31">
-        <v>52.72</v>
+        <v>54.25</v>
       </c>
       <c r="BI26" s="31">
-        <v>50.65</v>
+        <v>49.74</v>
       </c>
       <c r="BL26" t="str">
         <f t="shared" si="7"/>
@@ -5905,184 +5879,184 @@
         <v>70</v>
       </c>
       <c r="C27" s="11">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D27" s="11">
         <v>-0.3</v>
       </c>
       <c r="E27" s="11">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="F27" s="11">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G27" s="11">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H27" s="11">
         <v>-0.4</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="1"/>
-        <v>47.638648648648648</v>
+        <f>SUM(Y27:BI27)/COUNT(Y27:BI27)</f>
+        <v>49.362432432432442</v>
       </c>
       <c r="K27" s="14">
         <f t="shared" si="22"/>
-        <v>47.951666666666668</v>
+        <v>46.18888888888889</v>
       </c>
       <c r="L27" s="14">
+        <f>(SUM(AD27:AH27)+SUM(AV27:BI27))/(COUNT(AD27:AH27)+COUNT(AV27:BI27))</f>
+        <v>52.368947368421061</v>
+      </c>
+      <c r="M27" s="19">
         <f t="shared" si="23"/>
-        <v>47.342105263157897</v>
-      </c>
-      <c r="M27" s="19">
-        <f t="shared" si="24"/>
-        <v>50.963000000000001</v>
+        <v>53.970000000000006</v>
       </c>
       <c r="N27" s="19">
         <f t="shared" si="2"/>
-        <v>47.72</v>
+        <v>45.275999999999996</v>
       </c>
       <c r="O27" s="19">
         <f t="shared" si="3"/>
-        <v>54.205999999999996</v>
+        <v>62.664000000000009</v>
       </c>
       <c r="P27" s="14">
-        <f t="shared" si="4"/>
-        <v>46.407407407407405</v>
+        <f>AVERAGE(AI27:BI27)</f>
+        <v>47.655925925925921</v>
       </c>
       <c r="Q27" s="14">
         <f t="shared" si="5"/>
-        <v>48.040769230769229</v>
+        <v>46.54</v>
       </c>
       <c r="R27" s="14">
-        <f t="shared" si="6"/>
-        <v>44.890714285714289</v>
+        <f>(SUM(AV27:BI27))/(COUNT(AV27:BI27))</f>
+        <v>48.692142857142862</v>
       </c>
       <c r="T27">
-        <v>494</v>
+        <v>1000</v>
       </c>
       <c r="U27" s="14">
-        <v>52256.25</v>
+        <v>52549.85</v>
       </c>
       <c r="V27" s="2">
-        <v>2596.25</v>
+        <v>2302.65</v>
       </c>
       <c r="W27" s="2">
-        <v>90.35</v>
+        <v>91.22</v>
       </c>
       <c r="X27" s="23">
-        <v>47.64</v>
+        <v>49.36</v>
       </c>
       <c r="Y27" s="19">
-        <v>90.22</v>
+        <v>86.74</v>
       </c>
       <c r="Z27" s="19">
-        <v>65.959999999999994</v>
+        <v>61.96</v>
       </c>
       <c r="AA27" s="19">
-        <v>62.32</v>
+        <v>64.06</v>
       </c>
       <c r="AB27" s="19">
-        <v>12.6</v>
+        <v>8.93</v>
       </c>
       <c r="AC27" s="19">
-        <v>7.5</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AD27" s="19">
-        <v>46.09</v>
+        <v>60.43</v>
       </c>
       <c r="AE27" s="19">
-        <v>50.91</v>
+        <v>58.43</v>
       </c>
       <c r="AF27" s="19">
-        <v>59.56</v>
+        <v>59.68</v>
       </c>
       <c r="AG27" s="19">
-        <v>89.14</v>
+        <v>88.56</v>
       </c>
       <c r="AH27" s="19">
-        <v>25.33</v>
+        <v>46.22</v>
       </c>
       <c r="AI27" s="31">
-        <v>98.64</v>
+        <v>98.7</v>
       </c>
       <c r="AJ27" s="31">
-        <v>95.67</v>
+        <v>94.88</v>
       </c>
       <c r="AK27" s="31">
-        <v>14.37</v>
+        <v>22.9</v>
       </c>
       <c r="AL27" s="31">
         <v>99.2</v>
       </c>
       <c r="AM27" s="31">
-        <v>11.21</v>
+        <v>9.36</v>
       </c>
       <c r="AN27" s="31">
-        <v>17.79</v>
+        <v>7.29</v>
       </c>
       <c r="AO27" s="31">
-        <v>65.040000000000006</v>
+        <v>61.2</v>
       </c>
       <c r="AP27" s="31">
-        <v>9.51</v>
+        <v>7.4</v>
       </c>
       <c r="AQ27" s="31">
-        <v>60.47</v>
+        <v>57.84</v>
       </c>
       <c r="AR27" s="31">
-        <v>10.31</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="AS27" s="31">
-        <v>24.16</v>
+        <v>26.61</v>
       </c>
       <c r="AT27" s="31">
-        <v>35.28</v>
+        <v>26.73</v>
       </c>
       <c r="AU27" s="31">
-        <v>82.88</v>
+        <v>84.7</v>
       </c>
       <c r="AV27" s="31">
-        <v>24.88</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="AW27" s="31">
-        <v>63.6</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AX27" s="31">
-        <v>41.6</v>
+        <v>40</v>
       </c>
       <c r="AY27" s="31">
-        <v>21.4</v>
+        <v>20.04</v>
       </c>
       <c r="AZ27" s="31">
-        <v>53.49</v>
+        <v>50.86</v>
       </c>
       <c r="BA27" s="31">
-        <v>43.14</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="BB27" s="31">
-        <v>53.17</v>
+        <v>62.27</v>
       </c>
       <c r="BC27" s="31">
-        <v>82.61</v>
+        <v>82.97</v>
       </c>
       <c r="BD27" s="31">
-        <v>26.01</v>
+        <v>21.81</v>
       </c>
       <c r="BE27" s="31">
-        <v>18.86</v>
+        <v>21.29</v>
       </c>
       <c r="BF27" s="31">
-        <v>76.349999999999994</v>
+        <v>76.77</v>
       </c>
       <c r="BG27" s="31">
-        <v>70.989999999999995</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="BH27" s="31">
-        <v>27.99</v>
+        <v>52.72</v>
       </c>
       <c r="BI27" s="31">
-        <v>24.38</v>
+        <v>50.65</v>
       </c>
       <c r="BL27" t="str">
         <f t="shared" si="7"/>
@@ -6098,184 +6072,184 @@
         <v>70</v>
       </c>
       <c r="C28" s="11">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="D28" s="11">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E28" s="11">
         <v>0.3</v>
       </c>
       <c r="F28" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G28" s="11">
         <v>-0.2</v>
       </c>
       <c r="H28" s="11">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="1"/>
-        <v>46.869729729729734</v>
+        <f>SUM(Y28:BI28)/COUNT(Y28:BI28)</f>
+        <v>47.638648648648648</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" si="22"/>
-        <v>46.836111111111123</v>
+        <v>47.951666666666668</v>
       </c>
       <c r="L28" s="14">
+        <f>(SUM(AD28:AH28)+SUM(AV28:BI28))/(COUNT(AD28:AH28)+COUNT(AV28:BI28))</f>
+        <v>47.342105263157897</v>
+      </c>
+      <c r="M28" s="19">
         <f t="shared" si="23"/>
-        <v>46.901578947368421</v>
-      </c>
-      <c r="M28" s="19">
-        <f t="shared" si="24"/>
-        <v>50.274000000000008</v>
+        <v>50.963000000000001</v>
       </c>
       <c r="N28" s="19">
         <f t="shared" si="2"/>
-        <v>46.43</v>
+        <v>47.72</v>
       </c>
       <c r="O28" s="19">
         <f t="shared" si="3"/>
-        <v>54.118000000000009</v>
+        <v>54.205999999999996</v>
       </c>
       <c r="P28" s="14">
-        <f t="shared" si="4"/>
-        <v>45.608888888888899</v>
+        <f>AVERAGE(AI28:BI28)</f>
+        <v>46.407407407407405</v>
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="5"/>
-        <v>46.992307692307705</v>
+        <v>48.040769230769229</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" si="6"/>
-        <v>44.324285714285715</v>
+        <f>(SUM(AV28:BI28))/(COUNT(AV28:BI28))</f>
+        <v>44.890714285714289</v>
       </c>
       <c r="T28">
-        <v>372</v>
+        <v>494</v>
       </c>
       <c r="U28" s="14">
-        <v>52185.41</v>
+        <v>52256.25</v>
       </c>
       <c r="V28" s="2">
-        <v>2667.09</v>
+        <v>2596.25</v>
       </c>
       <c r="W28" s="2">
-        <v>90.21</v>
+        <v>90.35</v>
       </c>
       <c r="X28" s="23">
-        <v>46.87</v>
+        <v>47.64</v>
       </c>
       <c r="Y28" s="19">
-        <v>82.04</v>
+        <v>90.22</v>
       </c>
       <c r="Z28" s="19">
-        <v>65.400000000000006</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="AA28" s="19">
-        <v>68.62</v>
+        <v>62.32</v>
       </c>
       <c r="AB28" s="19">
-        <v>15.27</v>
+        <v>12.6</v>
       </c>
       <c r="AC28" s="19">
-        <v>0.82</v>
+        <v>7.5</v>
       </c>
       <c r="AD28" s="19">
-        <v>48.33</v>
+        <v>46.09</v>
       </c>
       <c r="AE28" s="19">
-        <v>51.98</v>
+        <v>50.91</v>
       </c>
       <c r="AF28" s="19">
-        <v>58.24</v>
+        <v>59.56</v>
       </c>
       <c r="AG28" s="19">
-        <v>88.61</v>
+        <v>89.14</v>
       </c>
       <c r="AH28" s="19">
-        <v>23.43</v>
+        <v>25.33</v>
       </c>
       <c r="AI28" s="31">
-        <v>99.15</v>
+        <v>98.64</v>
       </c>
       <c r="AJ28" s="31">
-        <v>96.06</v>
+        <v>95.67</v>
       </c>
       <c r="AK28" s="31">
-        <v>24.3</v>
+        <v>14.37</v>
       </c>
       <c r="AL28" s="31">
         <v>99.2</v>
       </c>
       <c r="AM28" s="31">
-        <v>14.25</v>
+        <v>11.21</v>
       </c>
       <c r="AN28" s="31">
-        <v>15.05</v>
+        <v>17.79</v>
       </c>
       <c r="AO28" s="31">
-        <v>64.69</v>
+        <v>65.040000000000006</v>
       </c>
       <c r="AP28" s="31">
-        <v>6.99</v>
+        <v>9.51</v>
       </c>
       <c r="AQ28" s="31">
-        <v>59.1</v>
+        <v>60.47</v>
       </c>
       <c r="AR28" s="31">
-        <v>8.2200000000000006</v>
+        <v>10.31</v>
       </c>
       <c r="AS28" s="31">
-        <v>22.67</v>
+        <v>24.16</v>
       </c>
       <c r="AT28" s="31">
-        <v>20.27</v>
+        <v>35.28</v>
       </c>
       <c r="AU28" s="31">
-        <v>80.95</v>
+        <v>82.88</v>
       </c>
       <c r="AV28" s="31">
-        <v>24.95</v>
+        <v>24.88</v>
       </c>
       <c r="AW28" s="31">
-        <v>57.8</v>
+        <v>63.6</v>
       </c>
       <c r="AX28" s="31">
-        <v>41.08</v>
+        <v>41.6</v>
       </c>
       <c r="AY28" s="31">
-        <v>24.44</v>
+        <v>21.4</v>
       </c>
       <c r="AZ28" s="31">
-        <v>40.840000000000003</v>
+        <v>53.49</v>
       </c>
       <c r="BA28" s="31">
-        <v>44.32</v>
+        <v>43.14</v>
       </c>
       <c r="BB28" s="31">
-        <v>57.63</v>
+        <v>53.17</v>
       </c>
       <c r="BC28" s="31">
-        <v>82.68</v>
+        <v>82.61</v>
       </c>
       <c r="BD28" s="31">
-        <v>24.23</v>
+        <v>26.01</v>
       </c>
       <c r="BE28" s="31">
-        <v>19.559999999999999</v>
+        <v>18.86</v>
       </c>
       <c r="BF28" s="31">
-        <v>75.739999999999995</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="BG28" s="31">
-        <v>69.56</v>
+        <v>70.989999999999995</v>
       </c>
       <c r="BH28" s="31">
-        <v>27.66</v>
+        <v>27.99</v>
       </c>
       <c r="BI28" s="31">
-        <v>30.05</v>
+        <v>24.38</v>
       </c>
       <c r="BL28" t="str">
         <f t="shared" si="7"/>
@@ -6290,185 +6264,189 @@
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="11">
         <v>0.9</v>
       </c>
-      <c r="D29" s="3">
+      <c r="G29" s="11">
         <v>-0.2</v>
       </c>
-      <c r="E29" s="3">
-        <v>-0.18</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-0.25</v>
+      <c r="H29" s="11">
+        <v>0.1</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="1"/>
-        <v>50.017297297297297</v>
+        <f>SUM(Y29:BI29)/COUNT(Y29:BI29)</f>
+        <v>46.869729729729734</v>
       </c>
       <c r="K29" s="14">
         <f t="shared" si="22"/>
-        <v>49.720555555555556</v>
+        <v>46.836111111111123</v>
       </c>
       <c r="L29" s="14">
+        <f>(SUM(AD29:AH29)+SUM(AV29:BI29))/(COUNT(AD29:AH29)+COUNT(AV29:BI29))</f>
+        <v>46.901578947368421</v>
+      </c>
+      <c r="M29" s="19">
         <f t="shared" si="23"/>
-        <v>50.298421052631582</v>
-      </c>
-      <c r="M29" s="19">
-        <f t="shared" si="24"/>
-        <v>53.647000000000006</v>
+        <v>50.274000000000008</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" ref="N29" si="26">(SUM(Y29:AC29))/(COUNT(Y29:AC29))</f>
-        <v>48.843999999999994</v>
+        <f t="shared" si="2"/>
+        <v>46.43</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" ref="O29" si="27">(SUM(AD29:AH29))/(COUNT(AD29:AH29))</f>
-        <v>58.45</v>
+        <f t="shared" si="3"/>
+        <v>54.118000000000009</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" ref="P29" si="28">AVERAGE(AI29:BI29)</f>
-        <v>48.672962962962956</v>
+        <f>AVERAGE(AI29:BI29)</f>
+        <v>45.608888888888899</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" ref="Q29" si="29">(SUM(AI29:AU29))/(COUNT(AI29:AU29))</f>
-        <v>50.057692307692307</v>
+        <f t="shared" si="5"/>
+        <v>46.992307692307705</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" ref="R29" si="30">(SUM(AV29:BI29))/(COUNT(AV29:BI29))</f>
-        <v>47.387142857142862</v>
+        <f>(SUM(AV29:BI29))/(COUNT(AV29:BI29))</f>
+        <v>44.324285714285715</v>
       </c>
       <c r="T29">
-        <v>1000</v>
+        <v>372</v>
       </c>
       <c r="U29" s="14">
-        <v>52475.39</v>
+        <v>52185.41</v>
       </c>
       <c r="V29" s="2">
-        <v>2377.11</v>
+        <v>2667.09</v>
       </c>
       <c r="W29" s="2">
-        <v>91</v>
+        <v>90.21</v>
       </c>
       <c r="X29" s="23">
-        <v>50.02</v>
+        <v>46.87</v>
       </c>
       <c r="Y29" s="19">
-        <v>90.02</v>
+        <v>82.04</v>
       </c>
       <c r="Z29" s="19">
-        <v>68.69</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="AA29" s="19">
-        <v>69.81</v>
+        <v>68.62</v>
       </c>
       <c r="AB29" s="19">
-        <v>12.19</v>
+        <v>15.27</v>
       </c>
       <c r="AC29" s="19">
-        <v>3.51</v>
+        <v>0.82</v>
       </c>
       <c r="AD29" s="19">
-        <v>45.73</v>
+        <v>48.33</v>
       </c>
       <c r="AE29" s="19">
-        <v>54.13</v>
+        <v>51.98</v>
       </c>
       <c r="AF29" s="19">
-        <v>58.51</v>
+        <v>58.24</v>
       </c>
       <c r="AG29" s="19">
-        <v>88.03</v>
+        <v>88.61</v>
       </c>
       <c r="AH29" s="19">
-        <v>45.85</v>
+        <v>23.43</v>
       </c>
       <c r="AI29" s="31">
-        <v>98.92</v>
+        <v>99.15</v>
       </c>
       <c r="AJ29" s="31">
-        <v>97.22</v>
+        <v>96.06</v>
       </c>
       <c r="AK29" s="31">
-        <v>24.62</v>
+        <v>24.3</v>
       </c>
       <c r="AL29" s="31">
         <v>99.2</v>
       </c>
       <c r="AM29" s="31">
-        <v>15.14</v>
+        <v>14.25</v>
       </c>
       <c r="AN29" s="31">
-        <v>9.11</v>
+        <v>15.05</v>
       </c>
       <c r="AO29" s="31">
-        <v>66.48</v>
+        <v>64.69</v>
       </c>
       <c r="AP29" s="31">
-        <v>8.82</v>
+        <v>6.99</v>
       </c>
       <c r="AQ29" s="31">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AR29" s="31">
-        <v>13.23</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="AS29" s="31">
-        <v>31.37</v>
+        <v>22.67</v>
       </c>
       <c r="AT29" s="31">
-        <v>38.479999999999997</v>
+        <v>20.27</v>
       </c>
       <c r="AU29" s="31">
-        <v>89.16</v>
+        <v>80.95</v>
       </c>
       <c r="AV29" s="31">
-        <v>26.98</v>
+        <v>24.95</v>
       </c>
       <c r="AW29" s="31">
-        <v>55.4</v>
+        <v>57.8</v>
       </c>
       <c r="AX29" s="31">
-        <v>41.55</v>
+        <v>41.08</v>
       </c>
       <c r="AY29" s="31">
-        <v>19.77</v>
+        <v>24.44</v>
       </c>
       <c r="AZ29" s="31">
-        <v>49.52</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="BA29" s="31">
-        <v>43.62</v>
+        <v>44.32</v>
       </c>
       <c r="BB29" s="31">
-        <v>59.45</v>
+        <v>57.63</v>
       </c>
       <c r="BC29" s="31">
-        <v>82.77</v>
+        <v>82.68</v>
       </c>
       <c r="BD29" s="31">
-        <v>22.18</v>
+        <v>24.23</v>
       </c>
       <c r="BE29" s="31">
-        <v>22.41</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="BF29" s="31">
-        <v>78.55</v>
+        <v>75.739999999999995</v>
       </c>
       <c r="BG29" s="31">
-        <v>72.08</v>
+        <v>69.56</v>
       </c>
       <c r="BH29" s="31">
-        <v>47.58</v>
+        <v>27.66</v>
       </c>
       <c r="BI29" s="31">
-        <v>41.56</v>
+        <v>30.05</v>
+      </c>
+      <c r="BL29" t="str">
+        <f t="shared" si="7"/>
+        <v>UCBT linear C1 to C2, with linear approx 2 inputs</v>
       </c>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
@@ -6479,185 +6457,185 @@
       <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="11">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D30" s="11">
-        <v>-0.06</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1.06</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0.1</v>
+      <c r="C30" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>-0.25</v>
       </c>
       <c r="J30" s="14">
-        <f t="shared" si="1"/>
-        <v>46.140810810810819</v>
+        <f>SUM(Y30:BI30)/COUNT(Y30:BI30)</f>
+        <v>50.017297297297297</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" ref="K30:K33" si="31">(SUM(Y30:AC30)+SUM(AI30:AU30))/(COUNT(Y30:AC30)+COUNT(AI30:AU30))</f>
-        <v>43.094999999999999</v>
+        <f t="shared" si="22"/>
+        <v>49.720555555555556</v>
       </c>
       <c r="L30" s="14">
-        <f t="shared" ref="L30:L33" si="32">(SUM(AD30:AH30)+SUM(AV30:BI30))/(COUNT(AD30:AH30)+COUNT(AV30:BI30))</f>
-        <v>49.026315789473685</v>
+        <f>(SUM(AD30:AH30)+SUM(AV30:BI30))/(COUNT(AD30:AH30)+COUNT(AV30:BI30))</f>
+        <v>50.298421052631582</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" ref="M30:M33" si="33">AVERAGE(Y30:AH30)</f>
-        <v>50.387</v>
+        <f t="shared" si="23"/>
+        <v>53.647000000000006</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:N33" si="34">(SUM(Y30:AC30))/(COUNT(Y30:AC30))</f>
-        <v>44.15</v>
+        <f t="shared" ref="N30" si="25">(SUM(Y30:AC30))/(COUNT(Y30:AC30))</f>
+        <v>48.843999999999994</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" ref="O30:O33" si="35">(SUM(AD30:AH30))/(COUNT(AD30:AH30))</f>
-        <v>56.624000000000002</v>
+        <f t="shared" ref="O30" si="26">(SUM(AD30:AH30))/(COUNT(AD30:AH30))</f>
+        <v>58.45</v>
       </c>
       <c r="P30" s="14">
-        <f t="shared" ref="P30:P33" si="36">AVERAGE(AI30:BI30)</f>
-        <v>44.568148148148154</v>
+        <f>AVERAGE(AI30:BI30)</f>
+        <v>48.672962962962956</v>
       </c>
       <c r="Q30" s="14">
-        <f t="shared" ref="Q30:Q33" si="37">(SUM(AI30:AU30))/(COUNT(AI30:AU30))</f>
-        <v>42.689230769230775</v>
+        <f t="shared" ref="Q30" si="27">(SUM(AI30:AU30))/(COUNT(AI30:AU30))</f>
+        <v>50.057692307692307</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" ref="R30:R33" si="38">(SUM(AV30:BI30))/(COUNT(AV30:BI30))</f>
-        <v>46.312857142857141</v>
+        <f>(SUM(AV30:BI30))/(COUNT(AV30:BI30))</f>
+        <v>47.387142857142862</v>
       </c>
       <c r="T30">
-        <v>774</v>
+        <v>1000</v>
       </c>
       <c r="U30" s="14">
-        <v>52294.84</v>
+        <v>52475.39</v>
       </c>
       <c r="V30" s="2">
-        <v>2557.66</v>
+        <v>2377.11</v>
       </c>
       <c r="W30" s="2">
-        <v>90.4</v>
+        <v>91</v>
       </c>
       <c r="X30" s="23">
-        <v>46.14</v>
+        <v>50.02</v>
       </c>
       <c r="Y30" s="19">
-        <v>88.74</v>
+        <v>90.02</v>
       </c>
       <c r="Z30" s="19">
-        <v>60.25</v>
+        <v>68.69</v>
       </c>
       <c r="AA30" s="19">
-        <v>59.47</v>
+        <v>69.81</v>
       </c>
       <c r="AB30" s="19">
-        <v>9.7200000000000006</v>
+        <v>12.19</v>
       </c>
       <c r="AC30" s="19">
-        <v>2.57</v>
+        <v>3.51</v>
       </c>
       <c r="AD30" s="19">
-        <v>61.71</v>
+        <v>45.73</v>
       </c>
       <c r="AE30" s="19">
-        <v>54.21</v>
+        <v>54.13</v>
       </c>
       <c r="AF30" s="19">
-        <v>59.99</v>
+        <v>58.51</v>
       </c>
       <c r="AG30" s="19">
-        <v>87.86</v>
+        <v>88.03</v>
       </c>
       <c r="AH30" s="19">
-        <v>19.350000000000001</v>
+        <v>45.85</v>
       </c>
       <c r="AI30" s="31">
-        <v>99.26</v>
+        <v>98.92</v>
       </c>
       <c r="AJ30" s="31">
-        <v>95.1</v>
+        <v>97.22</v>
       </c>
       <c r="AK30" s="31">
-        <v>10.31</v>
+        <v>24.62</v>
       </c>
       <c r="AL30" s="31">
         <v>99.2</v>
       </c>
       <c r="AM30" s="31">
-        <v>11.06</v>
+        <v>15.14</v>
       </c>
       <c r="AN30" s="31">
-        <v>6.68</v>
+        <v>9.11</v>
       </c>
       <c r="AO30" s="31">
-        <v>61.56</v>
+        <v>66.48</v>
       </c>
       <c r="AP30" s="31">
-        <v>4.29</v>
+        <v>8.82</v>
       </c>
       <c r="AQ30" s="31">
-        <v>51.23</v>
+        <v>59</v>
       </c>
       <c r="AR30" s="31">
-        <v>11.25</v>
+        <v>13.23</v>
       </c>
       <c r="AS30" s="31">
-        <v>14.09</v>
+        <v>31.37</v>
       </c>
       <c r="AT30" s="31">
-        <v>15.57</v>
+        <v>38.479999999999997</v>
       </c>
       <c r="AU30" s="31">
-        <v>75.36</v>
+        <v>89.16</v>
       </c>
       <c r="AV30" s="31">
-        <v>22.54</v>
+        <v>26.98</v>
       </c>
       <c r="AW30" s="31">
-        <v>89.2</v>
+        <v>55.4</v>
       </c>
       <c r="AX30" s="31">
-        <v>40.9</v>
+        <v>41.55</v>
       </c>
       <c r="AY30" s="31">
-        <v>18.97</v>
+        <v>19.77</v>
       </c>
       <c r="AZ30" s="31">
-        <v>52.82</v>
+        <v>49.52</v>
       </c>
       <c r="BA30" s="31">
-        <v>39.64</v>
+        <v>43.62</v>
       </c>
       <c r="BB30" s="31">
-        <v>57.18</v>
+        <v>59.45</v>
       </c>
       <c r="BC30" s="31">
-        <v>82.64</v>
+        <v>82.77</v>
       </c>
       <c r="BD30" s="31">
-        <v>26.29</v>
+        <v>22.18</v>
       </c>
       <c r="BE30" s="31">
-        <v>18.34</v>
+        <v>22.41</v>
       </c>
       <c r="BF30" s="31">
-        <v>75.400000000000006</v>
+        <v>78.55</v>
       </c>
       <c r="BG30" s="31">
-        <v>69.36</v>
+        <v>72.08</v>
       </c>
       <c r="BH30" s="31">
-        <v>24.91</v>
+        <v>47.58</v>
       </c>
       <c r="BI30" s="31">
-        <v>30.19</v>
+        <v>41.56</v>
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
@@ -6669,184 +6647,184 @@
         <v>70</v>
       </c>
       <c r="C31" s="11">
-        <v>1.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D31" s="11">
-        <v>-0.13</v>
+        <v>-0.06</v>
       </c>
       <c r="E31" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="H31" s="11">
         <v>0.1</v>
       </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11">
-        <v>-0.1</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
       <c r="J31" s="14">
-        <f t="shared" si="1"/>
-        <v>47.639459459459459</v>
+        <f>SUM(Y31:BI31)/COUNT(Y31:BI31)</f>
+        <v>46.140810810810819</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="31"/>
-        <v>46.140555555555565</v>
+        <f t="shared" ref="K31:K34" si="28">(SUM(Y31:AC31)+SUM(AI31:AU31))/(COUNT(Y31:AC31)+COUNT(AI31:AU31))</f>
+        <v>43.094999999999999</v>
       </c>
       <c r="L31" s="14">
-        <f t="shared" si="32"/>
-        <v>49.059473684210523</v>
+        <f>(SUM(AD31:AH31)+SUM(AV31:BI31))/(COUNT(AD31:AH31)+COUNT(AV31:BI31))</f>
+        <v>49.026315789473685</v>
       </c>
       <c r="M31" s="19">
-        <f t="shared" si="33"/>
-        <v>51.637</v>
+        <f t="shared" ref="M31:M34" si="29">AVERAGE(Y31:AH31)</f>
+        <v>50.387</v>
       </c>
       <c r="N31" s="19">
-        <f t="shared" si="34"/>
-        <v>46.21</v>
+        <f t="shared" ref="N31:N34" si="30">(SUM(Y31:AC31))/(COUNT(Y31:AC31))</f>
+        <v>44.15</v>
       </c>
       <c r="O31" s="19">
-        <f t="shared" si="35"/>
-        <v>57.064</v>
+        <f t="shared" ref="O31:O34" si="31">(SUM(AD31:AH31))/(COUNT(AD31:AH31))</f>
+        <v>56.624000000000002</v>
       </c>
       <c r="P31" s="14">
-        <f t="shared" si="36"/>
-        <v>46.158888888888889</v>
+        <f>AVERAGE(AI31:BI31)</f>
+        <v>44.568148148148154</v>
       </c>
       <c r="Q31" s="14">
-        <f t="shared" si="37"/>
-        <v>46.113846153846161</v>
+        <f t="shared" ref="Q31:Q34" si="32">(SUM(AI31:AU31))/(COUNT(AI31:AU31))</f>
+        <v>42.689230769230775</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="38"/>
-        <v>46.200714285714284</v>
+        <f>(SUM(AV31:BI31))/(COUNT(AV31:BI31))</f>
+        <v>46.312857142857141</v>
       </c>
       <c r="T31">
-        <v>888</v>
+        <v>774</v>
       </c>
       <c r="U31" s="14">
-        <v>52333.39</v>
+        <v>52294.84</v>
       </c>
       <c r="V31" s="2">
-        <v>2519.11</v>
+        <v>2557.66</v>
       </c>
       <c r="W31" s="2">
-        <v>90.63</v>
+        <v>90.4</v>
       </c>
       <c r="X31" s="23">
-        <v>47.64</v>
+        <v>46.14</v>
       </c>
       <c r="Y31" s="19">
-        <v>89.78</v>
+        <v>88.74</v>
       </c>
       <c r="Z31" s="19">
-        <v>64.569999999999993</v>
+        <v>60.25</v>
       </c>
       <c r="AA31" s="19">
-        <v>63.66</v>
+        <v>59.47</v>
       </c>
       <c r="AB31" s="19">
-        <v>10.8</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="AC31" s="19">
-        <v>2.2400000000000002</v>
+        <v>2.57</v>
       </c>
       <c r="AD31" s="19">
-        <v>56.62</v>
+        <v>61.71</v>
       </c>
       <c r="AE31" s="19">
-        <v>54.94</v>
+        <v>54.21</v>
       </c>
       <c r="AF31" s="19">
-        <v>60.18</v>
+        <v>59.99</v>
       </c>
       <c r="AG31" s="19">
-        <v>89.26</v>
+        <v>87.86</v>
       </c>
       <c r="AH31" s="19">
-        <v>24.32</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="AI31" s="31">
-        <v>99.1</v>
+        <v>99.26</v>
       </c>
       <c r="AJ31" s="31">
-        <v>95.39</v>
+        <v>95.1</v>
       </c>
       <c r="AK31" s="31">
-        <v>20.41</v>
+        <v>10.31</v>
       </c>
       <c r="AL31" s="31">
         <v>99.2</v>
       </c>
       <c r="AM31" s="31">
-        <v>8.31</v>
+        <v>11.06</v>
       </c>
       <c r="AN31" s="31">
-        <v>10.35</v>
+        <v>6.68</v>
       </c>
       <c r="AO31" s="31">
-        <v>62.31</v>
+        <v>61.56</v>
       </c>
       <c r="AP31" s="31">
-        <v>10.43</v>
+        <v>4.29</v>
       </c>
       <c r="AQ31" s="31">
-        <v>59.15</v>
+        <v>51.23</v>
       </c>
       <c r="AR31" s="31">
-        <v>8.69</v>
+        <v>11.25</v>
       </c>
       <c r="AS31" s="31">
-        <v>26.79</v>
+        <v>14.09</v>
       </c>
       <c r="AT31" s="31">
-        <v>19.63</v>
+        <v>15.57</v>
       </c>
       <c r="AU31" s="31">
-        <v>79.72</v>
+        <v>75.36</v>
       </c>
       <c r="AV31" s="31">
-        <v>21.29</v>
+        <v>22.54</v>
       </c>
       <c r="AW31" s="31">
-        <v>78.2</v>
+        <v>89.2</v>
       </c>
       <c r="AX31" s="31">
-        <v>42.39</v>
+        <v>40.9</v>
       </c>
       <c r="AY31" s="31">
-        <v>20.28</v>
+        <v>18.97</v>
       </c>
       <c r="AZ31" s="31">
-        <v>52.8</v>
+        <v>52.82</v>
       </c>
       <c r="BA31" s="31">
-        <v>40.049999999999997</v>
+        <v>39.64</v>
       </c>
       <c r="BB31" s="31">
-        <v>57.51</v>
+        <v>57.18</v>
       </c>
       <c r="BC31" s="31">
-        <v>82.75</v>
+        <v>82.64</v>
       </c>
       <c r="BD31" s="31">
-        <v>23.2</v>
+        <v>26.29</v>
       </c>
       <c r="BE31" s="31">
-        <v>17.86</v>
+        <v>18.34</v>
       </c>
       <c r="BF31" s="31">
-        <v>76.78</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="BG31" s="31">
-        <v>69.72</v>
+        <v>69.36</v>
       </c>
       <c r="BH31" s="31">
-        <v>31.3</v>
+        <v>24.91</v>
       </c>
       <c r="BI31" s="31">
-        <v>32.68</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
@@ -6858,184 +6836,184 @@
         <v>70</v>
       </c>
       <c r="C32" s="11">
-        <v>0.59</v>
+        <v>1.08</v>
       </c>
       <c r="D32" s="11">
-        <v>-0.4</v>
+        <v>-0.13</v>
       </c>
       <c r="E32" s="11">
-        <v>-0.44</v>
+        <v>0.1</v>
       </c>
       <c r="F32" s="11">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G32" s="11">
-        <v>-0.27</v>
+        <v>-0.1</v>
       </c>
       <c r="H32" s="11">
-        <v>-0.47</v>
+        <v>0</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="1"/>
-        <v>45.733783783783785</v>
+        <f>SUM(Y32:BI32)/COUNT(Y32:BI32)</f>
+        <v>47.639459459459459</v>
       </c>
       <c r="K32" s="14">
+        <f t="shared" si="28"/>
+        <v>46.140555555555565</v>
+      </c>
+      <c r="L32" s="14">
+        <f>(SUM(AD32:AH32)+SUM(AV32:BI32))/(COUNT(AD32:AH32)+COUNT(AV32:BI32))</f>
+        <v>49.059473684210523</v>
+      </c>
+      <c r="M32" s="19">
+        <f t="shared" si="29"/>
+        <v>51.637</v>
+      </c>
+      <c r="N32" s="19">
+        <f t="shared" si="30"/>
+        <v>46.21</v>
+      </c>
+      <c r="O32" s="19">
         <f t="shared" si="31"/>
-        <v>56.609999999999992</v>
-      </c>
-      <c r="L32" s="14">
+        <v>57.064</v>
+      </c>
+      <c r="P32" s="14">
+        <f>AVERAGE(AI32:BI32)</f>
+        <v>46.158888888888889</v>
+      </c>
+      <c r="Q32" s="14">
         <f t="shared" si="32"/>
-        <v>35.430000000000007</v>
-      </c>
-      <c r="M32" s="19">
-        <f t="shared" si="33"/>
-        <v>46.840999999999994</v>
-      </c>
-      <c r="N32" s="19">
-        <f t="shared" si="34"/>
-        <v>54.837999999999987</v>
-      </c>
-      <c r="O32" s="19">
-        <f t="shared" si="35"/>
-        <v>38.844000000000008</v>
-      </c>
-      <c r="P32" s="14">
-        <f t="shared" si="36"/>
-        <v>45.323703703703707</v>
-      </c>
-      <c r="Q32" s="14">
-        <f t="shared" si="37"/>
-        <v>57.291538461538458</v>
+        <v>46.113846153846161</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="38"/>
-        <v>34.210714285714289</v>
+        <f>(SUM(AV32:BI32))/(COUNT(AV32:BI32))</f>
+        <v>46.200714285714284</v>
       </c>
       <c r="T32">
-        <v>825</v>
+        <v>888</v>
       </c>
       <c r="U32" s="14">
-        <v>51970.39</v>
+        <v>52333.39</v>
       </c>
       <c r="V32" s="2">
-        <v>2882.11</v>
+        <v>2519.11</v>
       </c>
       <c r="W32" s="2">
-        <v>89.31</v>
+        <v>90.63</v>
       </c>
       <c r="X32" s="23">
-        <v>45.73</v>
+        <v>47.64</v>
       </c>
       <c r="Y32" s="19">
-        <v>73.849999999999994</v>
+        <v>89.78</v>
       </c>
       <c r="Z32" s="19">
-        <v>85.67</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="AA32" s="19">
-        <v>76.709999999999994</v>
+        <v>63.66</v>
       </c>
       <c r="AB32" s="19">
-        <v>32.96</v>
+        <v>10.8</v>
       </c>
       <c r="AC32" s="19">
-        <v>5</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="AD32" s="19">
-        <v>15.23</v>
+        <v>56.62</v>
       </c>
       <c r="AE32" s="19">
-        <v>37.86</v>
+        <v>54.94</v>
       </c>
       <c r="AF32" s="19">
-        <v>39.44</v>
+        <v>60.18</v>
       </c>
       <c r="AG32" s="19">
-        <v>88.39</v>
+        <v>89.26</v>
       </c>
       <c r="AH32" s="19">
-        <v>13.3</v>
+        <v>24.32</v>
       </c>
       <c r="AI32" s="31">
-        <v>99.54</v>
+        <v>99.1</v>
       </c>
       <c r="AJ32" s="31">
-        <v>97.3</v>
+        <v>95.39</v>
       </c>
       <c r="AK32" s="31">
-        <v>7.85</v>
+        <v>20.41</v>
       </c>
       <c r="AL32" s="31">
-        <v>99.6</v>
+        <v>99.2</v>
       </c>
       <c r="AM32" s="31">
-        <v>29.62</v>
+        <v>8.31</v>
       </c>
       <c r="AN32" s="31">
-        <v>26.45</v>
+        <v>10.35</v>
       </c>
       <c r="AO32" s="31">
-        <v>57.09</v>
+        <v>62.31</v>
       </c>
       <c r="AP32" s="31">
-        <v>18.809999999999999</v>
+        <v>10.43</v>
       </c>
       <c r="AQ32" s="31">
-        <v>59.64</v>
+        <v>59.15</v>
       </c>
       <c r="AR32" s="31">
-        <v>17.64</v>
+        <v>8.69</v>
       </c>
       <c r="AS32" s="31">
-        <v>58.84</v>
+        <v>26.79</v>
       </c>
       <c r="AT32" s="31">
-        <v>95.5</v>
+        <v>19.63</v>
       </c>
       <c r="AU32" s="31">
-        <v>76.91</v>
+        <v>79.72</v>
       </c>
       <c r="AV32" s="31">
-        <v>22.91</v>
+        <v>21.29</v>
       </c>
       <c r="AW32" s="31">
-        <v>49.8</v>
+        <v>78.2</v>
       </c>
       <c r="AX32" s="31">
-        <v>29.51</v>
+        <v>42.39</v>
       </c>
       <c r="AY32" s="31">
-        <v>9.61</v>
+        <v>20.28</v>
       </c>
       <c r="AZ32" s="31">
-        <v>22.37</v>
+        <v>52.8</v>
       </c>
       <c r="BA32" s="31">
-        <v>20.239999999999998</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="BB32" s="31">
-        <v>44.21</v>
+        <v>57.51</v>
       </c>
       <c r="BC32" s="31">
-        <v>82.66</v>
+        <v>82.75</v>
       </c>
       <c r="BD32" s="31">
-        <v>19.809999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="BE32" s="31">
-        <v>24.85</v>
+        <v>17.86</v>
       </c>
       <c r="BF32" s="31">
-        <v>80.72</v>
+        <v>76.78</v>
       </c>
       <c r="BG32" s="31">
-        <v>73.239999999999995</v>
+        <v>69.72</v>
       </c>
       <c r="BH32" s="31">
-        <v>-1.37</v>
+        <v>31.3</v>
       </c>
       <c r="BI32" s="31">
-        <v>0.39</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
@@ -7047,184 +7025,184 @@
         <v>70</v>
       </c>
       <c r="C33" s="11">
-        <v>1.5</v>
+        <v>0.59</v>
       </c>
       <c r="D33" s="11">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="E33" s="11">
-        <v>0.41</v>
+        <v>-0.44</v>
       </c>
       <c r="F33" s="11">
-        <v>1.29</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G33" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H33">
-        <v>0.21</v>
+        <v>-0.27</v>
+      </c>
+      <c r="H33" s="11">
+        <v>-0.47</v>
       </c>
       <c r="J33" s="14">
         <f>SUM(Y33:BI33)/COUNT(Y33:BI33)</f>
-        <v>43.382432432432431</v>
+        <v>45.733783783783785</v>
       </c>
       <c r="K33" s="14">
+        <f t="shared" si="28"/>
+        <v>56.609999999999992</v>
+      </c>
+      <c r="L33" s="14">
+        <f>(SUM(AD33:AH33)+SUM(AV33:BI33))/(COUNT(AD33:AH33)+COUNT(AV33:BI33))</f>
+        <v>35.430000000000007</v>
+      </c>
+      <c r="M33" s="19">
+        <f t="shared" si="29"/>
+        <v>46.840999999999994</v>
+      </c>
+      <c r="N33" s="19">
+        <f t="shared" si="30"/>
+        <v>54.837999999999987</v>
+      </c>
+      <c r="O33" s="19">
         <f t="shared" si="31"/>
-        <v>39.777777777777779</v>
-      </c>
-      <c r="L33" s="14">
+        <v>38.844000000000008</v>
+      </c>
+      <c r="P33" s="14">
+        <f>AVERAGE(AI33:BI33)</f>
+        <v>45.323703703703707</v>
+      </c>
+      <c r="Q33" s="14">
         <f t="shared" si="32"/>
-        <v>46.797368421052639</v>
-      </c>
-      <c r="M33" s="19">
-        <f t="shared" si="33"/>
-        <v>47.493000000000002</v>
-      </c>
-      <c r="N33" s="19">
-        <f t="shared" si="34"/>
-        <v>40.051999999999992</v>
-      </c>
-      <c r="O33" s="19">
-        <f t="shared" si="35"/>
-        <v>54.934000000000005</v>
-      </c>
-      <c r="P33" s="14">
-        <f t="shared" si="36"/>
-        <v>41.860000000000007</v>
-      </c>
-      <c r="Q33" s="14">
-        <f t="shared" si="37"/>
-        <v>39.67230769230769</v>
+        <v>57.291538461538458</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="38"/>
-        <v>43.89142857142857</v>
+        <f>(SUM(AV33:BI33))/(COUNT(AV33:BI33))</f>
+        <v>34.210714285714289</v>
       </c>
       <c r="T33">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="U33" s="14">
-        <v>52099.18</v>
+        <v>51970.39</v>
       </c>
       <c r="V33" s="2">
-        <v>2753.32</v>
+        <v>2882.11</v>
       </c>
       <c r="W33" s="2">
-        <v>89.84</v>
+        <v>89.31</v>
       </c>
       <c r="X33" s="23">
-        <v>43.38</v>
+        <v>45.73</v>
       </c>
       <c r="Y33" s="19">
-        <v>83.43</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="Z33" s="19">
-        <v>52.51</v>
+        <v>85.67</v>
       </c>
       <c r="AA33" s="19">
-        <v>53.08</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="AB33" s="19">
-        <v>6.51</v>
+        <v>32.96</v>
       </c>
       <c r="AC33" s="19">
-        <v>4.7300000000000004</v>
+        <v>5</v>
       </c>
       <c r="AD33" s="19">
-        <v>65.25</v>
+        <v>15.23</v>
       </c>
       <c r="AE33" s="19">
-        <v>45.35</v>
+        <v>37.86</v>
       </c>
       <c r="AF33" s="19">
-        <v>60.48</v>
+        <v>39.44</v>
       </c>
       <c r="AG33" s="19">
-        <v>91.15</v>
+        <v>88.39</v>
       </c>
       <c r="AH33" s="19">
-        <v>12.44</v>
+        <v>13.3</v>
       </c>
       <c r="AI33" s="31">
-        <v>98.38</v>
+        <v>99.54</v>
       </c>
       <c r="AJ33" s="31">
-        <v>94.83</v>
+        <v>97.3</v>
       </c>
       <c r="AK33" s="31">
-        <v>-7.66</v>
+        <v>7.85</v>
       </c>
       <c r="AL33" s="31">
-        <v>98.8</v>
+        <v>99.6</v>
       </c>
       <c r="AM33" s="31">
-        <v>5.35</v>
+        <v>29.62</v>
       </c>
       <c r="AN33" s="31">
-        <v>4.24</v>
+        <v>26.45</v>
       </c>
       <c r="AO33" s="31">
-        <v>55.33</v>
+        <v>57.09</v>
       </c>
       <c r="AP33" s="31">
-        <v>6.12</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="AQ33" s="31">
-        <v>51.55</v>
+        <v>59.64</v>
       </c>
       <c r="AR33" s="31">
-        <v>9.7200000000000006</v>
+        <v>17.64</v>
       </c>
       <c r="AS33" s="31">
-        <v>22.96</v>
+        <v>58.84</v>
       </c>
       <c r="AT33" s="31">
-        <v>10.46</v>
+        <v>95.5</v>
       </c>
       <c r="AU33" s="31">
-        <v>65.66</v>
+        <v>76.91</v>
       </c>
       <c r="AV33" s="31">
-        <v>15.39</v>
+        <v>22.91</v>
       </c>
       <c r="AW33" s="31">
-        <v>95.4</v>
+        <v>49.8</v>
       </c>
       <c r="AX33" s="31">
-        <v>40.119999999999997</v>
+        <v>29.51</v>
       </c>
       <c r="AY33" s="31">
-        <v>17.420000000000002</v>
+        <v>9.61</v>
       </c>
       <c r="AZ33" s="31">
-        <v>59.58</v>
+        <v>22.37</v>
       </c>
       <c r="BA33" s="31">
-        <v>34.01</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="BB33" s="31">
-        <v>47.6</v>
+        <v>44.21</v>
       </c>
       <c r="BC33" s="31">
-        <v>82.47</v>
+        <v>82.66</v>
       </c>
       <c r="BD33" s="31">
-        <v>31.11</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="BE33" s="31">
-        <v>13.73</v>
+        <v>24.85</v>
       </c>
       <c r="BF33" s="31">
-        <v>70.73</v>
+        <v>80.72</v>
       </c>
       <c r="BG33" s="31">
-        <v>67.09</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="BH33" s="31">
-        <v>16.16</v>
+        <v>-1.37</v>
       </c>
       <c r="BI33" s="31">
-        <v>23.67</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
@@ -7232,244 +7210,244 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31"/>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31"/>
-      <c r="AU34" s="31"/>
-      <c r="AV34" s="31"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="31"/>
-      <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="31"/>
-      <c r="BC34" s="31"/>
-      <c r="BD34" s="31"/>
-      <c r="BE34" s="31"/>
-      <c r="BF34" s="31"/>
-      <c r="BG34" s="31"/>
-      <c r="BH34" s="31"/>
-      <c r="BI34" s="31"/>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H34">
+        <v>0.21</v>
+      </c>
+      <c r="J34" s="14">
+        <f>SUM(Y34:BI34)/COUNT(Y34:BI34)</f>
+        <v>43.382432432432431</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="28"/>
+        <v>39.777777777777779</v>
+      </c>
+      <c r="L34" s="14">
+        <f>(SUM(AD34:AH34)+SUM(AV34:BI34))/(COUNT(AD34:AH34)+COUNT(AV34:BI34))</f>
+        <v>46.797368421052639</v>
+      </c>
+      <c r="M34" s="19">
+        <f t="shared" si="29"/>
+        <v>47.493000000000002</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="30"/>
+        <v>40.051999999999992</v>
+      </c>
+      <c r="O34" s="19">
+        <f t="shared" si="31"/>
+        <v>54.934000000000005</v>
+      </c>
+      <c r="P34" s="14">
+        <f>AVERAGE(AI34:BI34)</f>
+        <v>41.860000000000007</v>
+      </c>
+      <c r="Q34" s="14">
+        <f t="shared" si="32"/>
+        <v>39.67230769230769</v>
+      </c>
+      <c r="R34" s="14">
+        <f>(SUM(AV34:BI34))/(COUNT(AV34:BI34))</f>
+        <v>43.89142857142857</v>
+      </c>
+      <c r="T34">
+        <v>830</v>
+      </c>
+      <c r="U34" s="14">
+        <v>52099.18</v>
+      </c>
+      <c r="V34" s="2">
+        <v>2753.32</v>
+      </c>
+      <c r="W34" s="2">
+        <v>89.84</v>
+      </c>
+      <c r="X34" s="23">
+        <v>43.38</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>83.43</v>
+      </c>
+      <c r="Z34" s="19">
+        <v>52.51</v>
+      </c>
+      <c r="AA34" s="19">
+        <v>53.08</v>
+      </c>
+      <c r="AB34" s="19">
+        <v>6.51</v>
+      </c>
+      <c r="AC34" s="19">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AD34" s="19">
+        <v>65.25</v>
+      </c>
+      <c r="AE34" s="19">
+        <v>45.35</v>
+      </c>
+      <c r="AF34" s="19">
+        <v>60.48</v>
+      </c>
+      <c r="AG34" s="19">
+        <v>91.15</v>
+      </c>
+      <c r="AH34" s="19">
+        <v>12.44</v>
+      </c>
+      <c r="AI34" s="31">
+        <v>98.38</v>
+      </c>
+      <c r="AJ34" s="31">
+        <v>94.83</v>
+      </c>
+      <c r="AK34" s="31">
+        <v>-7.66</v>
+      </c>
+      <c r="AL34" s="31">
+        <v>98.8</v>
+      </c>
+      <c r="AM34" s="31">
+        <v>5.35</v>
+      </c>
+      <c r="AN34" s="31">
+        <v>4.24</v>
+      </c>
+      <c r="AO34" s="31">
+        <v>55.33</v>
+      </c>
+      <c r="AP34" s="31">
+        <v>6.12</v>
+      </c>
+      <c r="AQ34" s="31">
+        <v>51.55</v>
+      </c>
+      <c r="AR34" s="31">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="AS34" s="31">
+        <v>22.96</v>
+      </c>
+      <c r="AT34" s="31">
+        <v>10.46</v>
+      </c>
+      <c r="AU34" s="31">
+        <v>65.66</v>
+      </c>
+      <c r="AV34" s="31">
+        <v>15.39</v>
+      </c>
+      <c r="AW34" s="31">
+        <v>95.4</v>
+      </c>
+      <c r="AX34" s="31">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="AY34" s="31">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="AZ34" s="31">
+        <v>59.58</v>
+      </c>
+      <c r="BA34" s="31">
+        <v>34.01</v>
+      </c>
+      <c r="BB34" s="31">
+        <v>47.6</v>
+      </c>
+      <c r="BC34" s="31">
+        <v>82.47</v>
+      </c>
+      <c r="BD34" s="31">
+        <v>31.11</v>
+      </c>
+      <c r="BE34" s="31">
+        <v>13.73</v>
+      </c>
+      <c r="BF34" s="31">
+        <v>70.73</v>
+      </c>
+      <c r="BG34" s="31">
+        <v>67.09</v>
+      </c>
+      <c r="BH34" s="31">
+        <v>16.16</v>
+      </c>
+      <c r="BI34" s="31">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D35" s="25">
-        <v>-0.2</v>
-      </c>
-      <c r="E35" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="F35" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="H35" s="25">
-        <v>-0.4</v>
-      </c>
-      <c r="J35" s="14">
-        <f t="shared" si="1"/>
-        <v>48.559459459459454</v>
-      </c>
-      <c r="K35" s="14">
-        <f t="shared" ref="K35:K41" si="39">(SUM(Y35:AC35)+SUM(AI35:AU35))/(COUNT(Y35:AC35)+COUNT(AI35:AU35))</f>
-        <v>54.311666666666667</v>
-      </c>
-      <c r="L35" s="14">
-        <f t="shared" ref="L35:L41" si="40">(SUM(AD35:AH35)+SUM(AV35:BI35))/(COUNT(AD35:AH35)+COUNT(AV35:BI35))</f>
-        <v>43.11</v>
-      </c>
-      <c r="M35" s="19">
-        <f t="shared" ref="M35:M41" si="41">AVERAGE(Y35:AH35)</f>
-        <v>49.814000000000007</v>
-      </c>
-      <c r="N35" s="19">
-        <f t="shared" ref="N35:N41" si="42">(SUM(Y35:AC35))/(COUNT(Y35:AC35))</f>
-        <v>55.114000000000011</v>
-      </c>
-      <c r="O35" s="19">
-        <f t="shared" ref="O35:O41" si="43">(SUM(AD35:AH35))/(COUNT(AD35:AH35))</f>
-        <v>44.514000000000003</v>
-      </c>
-      <c r="P35" s="14">
-        <f t="shared" ref="P35:P41" si="44">AVERAGE(AI35:BI35)</f>
-        <v>48.094814814814804</v>
-      </c>
-      <c r="Q35" s="14">
-        <f t="shared" ref="Q35:Q41" si="45">(SUM(AI35:AU35))/(COUNT(AI35:AU35))</f>
-        <v>54.003076923076918</v>
-      </c>
-      <c r="R35" s="14">
-        <f t="shared" ref="R35:R41" si="46">(SUM(AV35:BI35))/(COUNT(AV35:BI35))</f>
-        <v>42.60857142857143</v>
-      </c>
-      <c r="T35">
-        <v>1000</v>
-      </c>
-      <c r="U35" s="14">
-        <v>52181.73</v>
-      </c>
-      <c r="V35" s="2">
-        <v>2670.77</v>
-      </c>
-      <c r="W35" s="2">
-        <v>90.17</v>
-      </c>
-      <c r="X35" s="23">
-        <v>48.56</v>
-      </c>
-      <c r="Y35" s="19">
-        <v>91.78</v>
-      </c>
-      <c r="Z35" s="19">
-        <v>76.680000000000007</v>
-      </c>
-      <c r="AA35" s="19">
-        <v>73.78</v>
-      </c>
-      <c r="AB35" s="19">
-        <v>25.91</v>
-      </c>
-      <c r="AC35" s="19">
-        <v>7.42</v>
-      </c>
-      <c r="AD35" s="19">
-        <v>10.57</v>
-      </c>
-      <c r="AE35" s="19">
-        <v>46.88</v>
-      </c>
-      <c r="AF35" s="19">
-        <v>53.42</v>
-      </c>
-      <c r="AG35" s="19">
-        <v>88.4</v>
-      </c>
-      <c r="AH35" s="19">
-        <v>23.3</v>
-      </c>
-      <c r="AI35" s="31">
-        <v>99.01</v>
-      </c>
-      <c r="AJ35" s="31">
-        <v>97.81</v>
-      </c>
-      <c r="AK35" s="31">
-        <v>12.78</v>
-      </c>
-      <c r="AL35" s="31">
-        <v>99.6</v>
-      </c>
-      <c r="AM35" s="31">
-        <v>29.98</v>
-      </c>
-      <c r="AN35" s="31">
-        <v>20.25</v>
-      </c>
-      <c r="AO35" s="31">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="AP35" s="31">
-        <v>15.26</v>
-      </c>
-      <c r="AQ35" s="31">
-        <v>64.12</v>
-      </c>
-      <c r="AR35" s="31">
-        <v>11.9</v>
-      </c>
-      <c r="AS35" s="31">
-        <v>41.8</v>
-      </c>
-      <c r="AT35" s="31">
-        <v>51.21</v>
-      </c>
-      <c r="AU35" s="31">
-        <v>86.22</v>
-      </c>
-      <c r="AV35" s="31">
-        <v>33.25</v>
-      </c>
-      <c r="AW35" s="31">
-        <v>49.6</v>
-      </c>
-      <c r="AX35" s="31">
-        <v>41.97</v>
-      </c>
-      <c r="AY35" s="31">
-        <v>14.18</v>
-      </c>
-      <c r="AZ35" s="31">
-        <v>45.52</v>
-      </c>
-      <c r="BA35" s="31">
-        <v>43.55</v>
-      </c>
-      <c r="BB35" s="31">
-        <v>50.62</v>
-      </c>
-      <c r="BC35" s="31">
-        <v>82.66</v>
-      </c>
-      <c r="BD35" s="31">
-        <v>23.19</v>
-      </c>
-      <c r="BE35" s="31">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="BF35" s="31">
-        <v>76.709999999999994</v>
-      </c>
-      <c r="BG35" s="31">
-        <v>72.349999999999994</v>
-      </c>
-      <c r="BH35" s="31">
-        <v>25.31</v>
-      </c>
-      <c r="BI35" s="31">
-        <v>19.760000000000002</v>
-      </c>
+      <c r="B35" s="44"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31"/>
+      <c r="BB35" s="31"/>
+      <c r="BC35" s="31"/>
+      <c r="BD35" s="31"/>
+      <c r="BE35" s="31"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="31"/>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" t="e">
@@ -7480,184 +7458,184 @@
         <v>70</v>
       </c>
       <c r="C36" s="25">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D36" s="25">
+        <v>-0.2</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="F36" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="25">
         <v>-0.4</v>
       </c>
-      <c r="E36" s="25">
-        <v>-0.1</v>
-      </c>
-      <c r="F36" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="G36" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="H36" s="25">
-        <v>-0.5</v>
-      </c>
       <c r="J36" s="14">
-        <f t="shared" si="1"/>
-        <v>51.575945945945946</v>
+        <f>SUM(Y36:BI36)/COUNT(Y36:BI36)</f>
+        <v>48.559459459459454</v>
       </c>
       <c r="K36" s="14">
-        <f t="shared" si="39"/>
-        <v>55.984999999999999</v>
+        <f t="shared" ref="K36:K42" si="33">(SUM(Y36:AC36)+SUM(AI36:AU36))/(COUNT(Y36:AC36)+COUNT(AI36:AU36))</f>
+        <v>54.311666666666667</v>
       </c>
       <c r="L36" s="14">
-        <f t="shared" si="40"/>
-        <v>47.398947368421048</v>
+        <f>(SUM(AD36:AH36)+SUM(AV36:BI36))/(COUNT(AD36:AH36)+COUNT(AV36:BI36))</f>
+        <v>43.11</v>
       </c>
       <c r="M36" s="19">
-        <f t="shared" si="41"/>
-        <v>52.422000000000004</v>
+        <f t="shared" ref="M36:M42" si="34">AVERAGE(Y36:AH36)</f>
+        <v>49.814000000000007</v>
       </c>
       <c r="N36" s="19">
-        <f t="shared" si="42"/>
-        <v>52.852000000000011</v>
+        <f t="shared" ref="N36:N42" si="35">(SUM(Y36:AC36))/(COUNT(Y36:AC36))</f>
+        <v>55.114000000000011</v>
       </c>
       <c r="O36" s="19">
-        <f t="shared" si="43"/>
-        <v>51.991999999999997</v>
+        <f t="shared" ref="O36:O42" si="36">(SUM(AD36:AH36))/(COUNT(AD36:AH36))</f>
+        <v>44.514000000000003</v>
       </c>
       <c r="P36" s="14">
-        <f t="shared" si="44"/>
-        <v>51.26259259259259</v>
+        <f>AVERAGE(AI36:BI36)</f>
+        <v>48.094814814814804</v>
       </c>
       <c r="Q36" s="14">
-        <f t="shared" si="45"/>
-        <v>57.190000000000005</v>
+        <f t="shared" ref="Q36:Q42" si="37">(SUM(AI36:AU36))/(COUNT(AI36:AU36))</f>
+        <v>54.003076923076918</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="46"/>
-        <v>45.758571428571422</v>
+        <f>(SUM(AV36:BI36))/(COUNT(AV36:BI36))</f>
+        <v>42.60857142857143</v>
       </c>
       <c r="T36">
         <v>1000</v>
       </c>
       <c r="U36" s="14">
-        <v>52551.57</v>
+        <v>52181.73</v>
       </c>
       <c r="V36" s="2">
-        <v>2300.9299999999998</v>
+        <v>2670.77</v>
       </c>
       <c r="W36" s="2">
-        <v>91.23</v>
+        <v>90.17</v>
       </c>
       <c r="X36" s="23">
-        <v>51.58</v>
+        <v>48.56</v>
       </c>
       <c r="Y36" s="19">
-        <v>82.58</v>
+        <v>91.78</v>
       </c>
       <c r="Z36" s="19">
-        <v>78.36</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="AA36" s="19">
-        <v>75.290000000000006</v>
+        <v>73.78</v>
       </c>
       <c r="AB36" s="19">
-        <v>19.420000000000002</v>
+        <v>25.91</v>
       </c>
       <c r="AC36" s="19">
-        <v>8.61</v>
+        <v>7.42</v>
       </c>
       <c r="AD36" s="19">
-        <v>12.92</v>
+        <v>10.57</v>
       </c>
       <c r="AE36" s="19">
-        <v>49.7</v>
+        <v>46.88</v>
       </c>
       <c r="AF36" s="19">
-        <v>51.48</v>
+        <v>53.42</v>
       </c>
       <c r="AG36" s="19">
-        <v>87.84</v>
+        <v>88.4</v>
       </c>
       <c r="AH36" s="19">
-        <v>58.02</v>
+        <v>23.3</v>
       </c>
       <c r="AI36" s="31">
-        <v>99.34</v>
+        <v>99.01</v>
       </c>
       <c r="AJ36" s="31">
-        <v>97.17</v>
+        <v>97.81</v>
       </c>
       <c r="AK36" s="31">
-        <v>27.78</v>
+        <v>12.78</v>
       </c>
       <c r="AL36" s="31">
         <v>99.6</v>
       </c>
       <c r="AM36" s="31">
-        <v>29.22</v>
+        <v>29.98</v>
       </c>
       <c r="AN36" s="31">
-        <v>14.56</v>
+        <v>20.25</v>
       </c>
       <c r="AO36" s="31">
-        <v>67.2</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="AP36" s="31">
-        <v>16.559999999999999</v>
+        <v>15.26</v>
       </c>
       <c r="AQ36" s="31">
-        <v>67.59</v>
+        <v>64.12</v>
       </c>
       <c r="AR36" s="31">
-        <v>17.47</v>
+        <v>11.9</v>
       </c>
       <c r="AS36" s="31">
-        <v>42.78</v>
+        <v>41.8</v>
       </c>
       <c r="AT36" s="31">
-        <v>71.2</v>
+        <v>51.21</v>
       </c>
       <c r="AU36" s="31">
-        <v>93</v>
+        <v>86.22</v>
       </c>
       <c r="AV36" s="31">
-        <v>30.67</v>
+        <v>33.25</v>
       </c>
       <c r="AW36" s="31">
-        <v>55.6</v>
+        <v>49.6</v>
       </c>
       <c r="AX36" s="31">
-        <v>39.33</v>
+        <v>41.97</v>
       </c>
       <c r="AY36" s="31">
-        <v>8.51</v>
+        <v>14.18</v>
       </c>
       <c r="AZ36" s="31">
-        <v>36.549999999999997</v>
+        <v>45.52</v>
       </c>
       <c r="BA36" s="31">
-        <v>34.74</v>
+        <v>43.55</v>
       </c>
       <c r="BB36" s="31">
-        <v>56.54</v>
+        <v>50.62</v>
       </c>
       <c r="BC36" s="31">
-        <v>82.73</v>
+        <v>82.66</v>
       </c>
       <c r="BD36" s="31">
-        <v>20.34</v>
+        <v>23.19</v>
       </c>
       <c r="BE36" s="31">
-        <v>24.39</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="BF36" s="31">
-        <v>77.91</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="BG36" s="31">
-        <v>70.94</v>
+        <v>72.349999999999994</v>
       </c>
       <c r="BH36" s="31">
-        <v>54.31</v>
+        <v>25.31</v>
       </c>
       <c r="BI36" s="31">
-        <v>48.06</v>
+        <v>19.760000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
@@ -7665,188 +7643,188 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D37" s="43">
+      <c r="C37" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="25">
         <v>-0.4</v>
       </c>
-      <c r="E37" s="43">
-        <v>-0.4</v>
-      </c>
-      <c r="F37" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="G37" s="43">
-        <v>0</v>
-      </c>
-      <c r="H37" s="43">
-        <v>0</v>
+      <c r="E37" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G37" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="25">
+        <v>-0.5</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="1"/>
-        <v>52.075135135135142</v>
+        <f>SUM(Y37:BI37)/COUNT(Y37:BI37)</f>
+        <v>51.575945945945946</v>
       </c>
       <c r="K37" s="14">
-        <f t="shared" si="39"/>
-        <v>57.74166666666666</v>
+        <f t="shared" si="33"/>
+        <v>55.984999999999999</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" si="40"/>
-        <v>46.706842105263163</v>
+        <f>(SUM(AD37:AH37)+SUM(AV37:BI37))/(COUNT(AD37:AH37)+COUNT(AV37:BI37))</f>
+        <v>47.398947368421048</v>
       </c>
       <c r="M37" s="19">
-        <f t="shared" si="41"/>
-        <v>52.414000000000009</v>
+        <f t="shared" si="34"/>
+        <v>52.422000000000004</v>
       </c>
       <c r="N37" s="19">
-        <f t="shared" si="42"/>
-        <v>56.540000000000006</v>
+        <f t="shared" si="35"/>
+        <v>52.852000000000011</v>
       </c>
       <c r="O37" s="19">
-        <f t="shared" si="43"/>
-        <v>48.288000000000004</v>
+        <f t="shared" si="36"/>
+        <v>51.991999999999997</v>
       </c>
       <c r="P37" s="14">
-        <f t="shared" si="44"/>
-        <v>51.949629629629626</v>
+        <f>AVERAGE(AI37:BI37)</f>
+        <v>51.26259259259259</v>
       </c>
       <c r="Q37" s="14">
-        <f t="shared" si="45"/>
-        <v>58.203846153846143</v>
+        <f t="shared" si="37"/>
+        <v>57.190000000000005</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="46"/>
-        <v>46.142142857142858</v>
+        <f>(SUM(AV37:BI37))/(COUNT(AV37:BI37))</f>
+        <v>45.758571428571422</v>
       </c>
       <c r="T37">
         <v>1000</v>
       </c>
       <c r="U37" s="14">
-        <v>52552.49</v>
+        <v>52551.57</v>
       </c>
       <c r="V37" s="2">
-        <v>2300.0100000000002</v>
+        <v>2300.9299999999998</v>
       </c>
       <c r="W37" s="2">
-        <v>91.26</v>
+        <v>91.23</v>
       </c>
       <c r="X37" s="23">
-        <v>52.08</v>
+        <v>51.58</v>
       </c>
       <c r="Y37" s="19">
-        <v>88.87</v>
+        <v>82.58</v>
       </c>
       <c r="Z37" s="19">
-        <v>80.040000000000006</v>
+        <v>78.36</v>
       </c>
       <c r="AA37" s="19">
-        <v>76.61</v>
+        <v>75.290000000000006</v>
       </c>
       <c r="AB37" s="19">
-        <v>31.79</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="AC37" s="19">
-        <v>5.39</v>
+        <v>8.61</v>
       </c>
       <c r="AD37" s="19">
-        <v>4.97</v>
+        <v>12.92</v>
       </c>
       <c r="AE37" s="19">
-        <v>42.23</v>
+        <v>49.7</v>
       </c>
       <c r="AF37" s="19">
-        <v>47.64</v>
+        <v>51.48</v>
       </c>
       <c r="AG37" s="19">
-        <v>88.64</v>
+        <v>87.84</v>
       </c>
       <c r="AH37" s="19">
-        <v>57.96</v>
+        <v>58.02</v>
       </c>
       <c r="AI37" s="31">
-        <v>99.57</v>
+        <v>99.34</v>
       </c>
       <c r="AJ37" s="31">
-        <v>97.63</v>
+        <v>97.17</v>
       </c>
       <c r="AK37" s="31">
-        <v>18.04</v>
+        <v>27.78</v>
       </c>
       <c r="AL37" s="31">
         <v>99.6</v>
       </c>
       <c r="AM37" s="31">
-        <v>31.5</v>
+        <v>29.22</v>
       </c>
       <c r="AN37" s="31">
-        <v>22.2</v>
+        <v>14.56</v>
       </c>
       <c r="AO37" s="31">
-        <v>69.739999999999995</v>
+        <v>67.2</v>
       </c>
       <c r="AP37" s="31">
-        <v>24.14</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="AQ37" s="31">
-        <v>68.66</v>
+        <v>67.59</v>
       </c>
       <c r="AR37" s="31">
-        <v>20.16</v>
+        <v>17.47</v>
       </c>
       <c r="AS37" s="31">
-        <v>48.42</v>
+        <v>42.78</v>
       </c>
       <c r="AT37" s="31">
-        <v>64.69</v>
+        <v>71.2</v>
       </c>
       <c r="AU37" s="31">
-        <v>92.3</v>
+        <v>93</v>
       </c>
       <c r="AV37" s="31">
-        <v>34.590000000000003</v>
+        <v>30.67</v>
       </c>
       <c r="AW37" s="31">
-        <v>49.8</v>
+        <v>55.6</v>
       </c>
       <c r="AX37" s="31">
-        <v>40.380000000000003</v>
+        <v>39.33</v>
       </c>
       <c r="AY37" s="31">
-        <v>14.58</v>
+        <v>8.51</v>
       </c>
       <c r="AZ37" s="31">
-        <v>42.66</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="BA37" s="31">
-        <v>39.46</v>
+        <v>34.74</v>
       </c>
       <c r="BB37" s="31">
-        <v>44.13</v>
+        <v>56.54</v>
       </c>
       <c r="BC37" s="31">
-        <v>82.57</v>
+        <v>82.73</v>
       </c>
       <c r="BD37" s="31">
-        <v>20.190000000000001</v>
+        <v>20.34</v>
       </c>
       <c r="BE37" s="31">
-        <v>20.11</v>
+        <v>24.39</v>
       </c>
       <c r="BF37" s="31">
-        <v>80.41</v>
+        <v>77.91</v>
       </c>
       <c r="BG37" s="31">
-        <v>74.03</v>
+        <v>70.94</v>
       </c>
       <c r="BH37" s="31">
-        <v>54.49</v>
+        <v>54.31</v>
       </c>
       <c r="BI37" s="31">
-        <v>48.59</v>
+        <v>48.06</v>
       </c>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
@@ -7858,184 +7836,184 @@
         <v>70</v>
       </c>
       <c r="C38" s="43">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D38" s="43">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="E38" s="43">
         <v>-0.4</v>
       </c>
       <c r="F38" s="43">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="G38" s="43">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="43">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="1"/>
-        <v>51.814594594594602</v>
+        <f>SUM(Y38:BI38)/COUNT(Y38:BI38)</f>
+        <v>52.075135135135142</v>
       </c>
       <c r="K38" s="14">
-        <f t="shared" si="39"/>
-        <v>52.00555555555556</v>
+        <f t="shared" si="33"/>
+        <v>57.74166666666666</v>
       </c>
       <c r="L38" s="14">
-        <f t="shared" si="40"/>
-        <v>51.633684210526312</v>
+        <f>(SUM(AD38:AH38)+SUM(AV38:BI38))/(COUNT(AD38:AH38)+COUNT(AV38:BI38))</f>
+        <v>46.706842105263163</v>
       </c>
       <c r="M38" s="19">
-        <f t="shared" si="41"/>
-        <v>53.925000000000011</v>
+        <f t="shared" si="34"/>
+        <v>52.414000000000009</v>
       </c>
       <c r="N38" s="19">
-        <f t="shared" si="42"/>
-        <v>51.076000000000008</v>
+        <f t="shared" si="35"/>
+        <v>56.540000000000006</v>
       </c>
       <c r="O38" s="19">
-        <f t="shared" si="43"/>
-        <v>56.774000000000001</v>
+        <f t="shared" si="36"/>
+        <v>48.288000000000004</v>
       </c>
       <c r="P38" s="14">
-        <f t="shared" si="44"/>
-        <v>51.032962962962955</v>
+        <f>AVERAGE(AI38:BI38)</f>
+        <v>51.949629629629626</v>
       </c>
       <c r="Q38" s="14">
-        <f t="shared" si="45"/>
-        <v>52.363076923076925</v>
+        <f t="shared" si="37"/>
+        <v>58.203846153846143</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="46"/>
-        <v>49.79785714285714</v>
+        <f>(SUM(AV38:BI38))/(COUNT(AV38:BI38))</f>
+        <v>46.142142857142858</v>
       </c>
       <c r="T38">
         <v>1000</v>
       </c>
       <c r="U38" s="14">
-        <v>52708.91</v>
+        <v>52552.49</v>
       </c>
       <c r="V38" s="2">
-        <v>2143.59</v>
+        <v>2300.0100000000002</v>
       </c>
       <c r="W38" s="2">
-        <v>91.63</v>
+        <v>91.26</v>
       </c>
       <c r="X38" s="23">
-        <v>51.81</v>
+        <v>52.08</v>
       </c>
       <c r="Y38" s="19">
-        <v>88.88</v>
+        <v>88.87</v>
       </c>
       <c r="Z38" s="19">
-        <v>71.56</v>
+        <v>80.040000000000006</v>
       </c>
       <c r="AA38" s="19">
-        <v>72.36</v>
+        <v>76.61</v>
       </c>
       <c r="AB38" s="19">
-        <v>16.96</v>
+        <v>31.79</v>
       </c>
       <c r="AC38" s="19">
-        <v>5.62</v>
+        <v>5.39</v>
       </c>
       <c r="AD38" s="19">
-        <v>37.56</v>
+        <v>4.97</v>
       </c>
       <c r="AE38" s="19">
-        <v>53.02</v>
+        <v>42.23</v>
       </c>
       <c r="AF38" s="19">
-        <v>57.42</v>
+        <v>47.64</v>
       </c>
       <c r="AG38" s="19">
-        <v>88.49</v>
+        <v>88.64</v>
       </c>
       <c r="AH38" s="19">
-        <v>47.38</v>
+        <v>57.96</v>
       </c>
       <c r="AI38" s="31">
-        <v>99.12</v>
+        <v>99.57</v>
       </c>
       <c r="AJ38" s="31">
-        <v>97.22</v>
+        <v>97.63</v>
       </c>
       <c r="AK38" s="31">
-        <v>19.760000000000002</v>
+        <v>18.04</v>
       </c>
       <c r="AL38" s="31">
         <v>99.6</v>
       </c>
       <c r="AM38" s="31">
-        <v>18.02</v>
+        <v>31.5</v>
       </c>
       <c r="AN38" s="31">
-        <v>12.47</v>
+        <v>22.2</v>
       </c>
       <c r="AO38" s="31">
-        <v>68.86</v>
+        <v>69.739999999999995</v>
       </c>
       <c r="AP38" s="31">
-        <v>7.2</v>
+        <v>24.14</v>
       </c>
       <c r="AQ38" s="31">
-        <v>67.739999999999995</v>
+        <v>68.66</v>
       </c>
       <c r="AR38" s="31">
-        <v>11.23</v>
+        <v>20.16</v>
       </c>
       <c r="AS38" s="31">
-        <v>39.33</v>
+        <v>48.42</v>
       </c>
       <c r="AT38" s="31">
-        <v>49.41</v>
+        <v>64.69</v>
       </c>
       <c r="AU38" s="31">
-        <v>90.76</v>
+        <v>92.3</v>
       </c>
       <c r="AV38" s="31">
-        <v>28.23</v>
+        <v>34.590000000000003</v>
       </c>
       <c r="AW38" s="31">
-        <v>97</v>
+        <v>49.8</v>
       </c>
       <c r="AX38" s="31">
-        <v>40.96</v>
+        <v>40.380000000000003</v>
       </c>
       <c r="AY38" s="31">
-        <v>21.54</v>
+        <v>14.58</v>
       </c>
       <c r="AZ38" s="31">
-        <v>45.89</v>
+        <v>42.66</v>
       </c>
       <c r="BA38" s="31">
-        <v>41.08</v>
+        <v>39.46</v>
       </c>
       <c r="BB38" s="31">
-        <v>57.4</v>
+        <v>44.13</v>
       </c>
       <c r="BC38" s="31">
-        <v>82.64</v>
+        <v>82.57</v>
       </c>
       <c r="BD38" s="31">
-        <v>20.09</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="BE38" s="31">
-        <v>22.44</v>
+        <v>20.11</v>
       </c>
       <c r="BF38" s="31">
-        <v>78.88</v>
+        <v>80.41</v>
       </c>
       <c r="BG38" s="31">
-        <v>72.64</v>
+        <v>74.03</v>
       </c>
       <c r="BH38" s="31">
-        <v>46.81</v>
+        <v>54.49</v>
       </c>
       <c r="BI38" s="31">
-        <v>41.57</v>
+        <v>48.59</v>
       </c>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
@@ -8047,184 +8025,184 @@
         <v>70</v>
       </c>
       <c r="C39" s="43">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D39" s="43">
+        <v>-0.1</v>
+      </c>
+      <c r="E39" s="43">
         <v>-0.4</v>
       </c>
-      <c r="E39" s="43">
+      <c r="F39" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="G39" s="43">
+        <v>-0.1</v>
+      </c>
+      <c r="H39" s="43">
         <v>-0.3</v>
       </c>
-      <c r="F39" s="43">
-        <v>1</v>
-      </c>
-      <c r="G39" s="43">
-        <v>-0.2</v>
-      </c>
-      <c r="H39" s="43">
-        <v>-0.4</v>
-      </c>
       <c r="J39" s="14">
-        <f t="shared" si="1"/>
-        <v>50.233513513513508</v>
+        <f>SUM(Y39:BI39)/COUNT(Y39:BI39)</f>
+        <v>51.814594594594602</v>
       </c>
       <c r="K39" s="14">
-        <f t="shared" si="39"/>
-        <v>47.945555555555558</v>
+        <f t="shared" si="33"/>
+        <v>52.00555555555556</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="40"/>
-        <v>52.401052631578949</v>
+        <f>(SUM(AD39:AH39)+SUM(AV39:BI39))/(COUNT(AD39:AH39)+COUNT(AV39:BI39))</f>
+        <v>51.633684210526312</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" si="41"/>
-        <v>54.051000000000002</v>
+        <f t="shared" si="34"/>
+        <v>53.925000000000011</v>
       </c>
       <c r="N39" s="19">
-        <f t="shared" si="42"/>
-        <v>46.68</v>
+        <f t="shared" si="35"/>
+        <v>51.076000000000008</v>
       </c>
       <c r="O39" s="19">
-        <f t="shared" si="43"/>
-        <v>61.422000000000004</v>
+        <f t="shared" si="36"/>
+        <v>56.774000000000001</v>
       </c>
       <c r="P39" s="14">
-        <f t="shared" si="44"/>
-        <v>48.819629629629631</v>
+        <f>AVERAGE(AI39:BI39)</f>
+        <v>51.032962962962955</v>
       </c>
       <c r="Q39" s="14">
-        <f t="shared" si="45"/>
-        <v>48.432307692307695</v>
+        <f t="shared" si="37"/>
+        <v>52.363076923076925</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="46"/>
-        <v>49.179285714285712</v>
+        <f>(SUM(AV39:BI39))/(COUNT(AV39:BI39))</f>
+        <v>49.79785714285714</v>
       </c>
       <c r="T39">
         <v>1000</v>
       </c>
       <c r="U39" s="14">
-        <v>52642.93</v>
+        <v>52708.91</v>
       </c>
       <c r="V39" s="2">
-        <v>2209.5700000000002</v>
+        <v>2143.59</v>
       </c>
       <c r="W39" s="2">
-        <v>91.64</v>
+        <v>91.63</v>
       </c>
       <c r="X39" s="23">
-        <v>50.23</v>
+        <v>51.81</v>
       </c>
       <c r="Y39" s="19">
-        <v>84.58</v>
+        <v>88.88</v>
       </c>
       <c r="Z39" s="19">
-        <v>67.61</v>
+        <v>71.56</v>
       </c>
       <c r="AA39" s="19">
-        <v>69.08</v>
+        <v>72.36</v>
       </c>
       <c r="AB39" s="19">
-        <v>13.86</v>
+        <v>16.96</v>
       </c>
       <c r="AC39" s="19">
-        <v>-1.73</v>
+        <v>5.62</v>
       </c>
       <c r="AD39" s="19">
-        <v>46.91</v>
+        <v>37.56</v>
       </c>
       <c r="AE39" s="19">
-        <v>56.43</v>
+        <v>53.02</v>
       </c>
       <c r="AF39" s="19">
-        <v>56.55</v>
+        <v>57.42</v>
       </c>
       <c r="AG39" s="19">
-        <v>88.53</v>
+        <v>88.49</v>
       </c>
       <c r="AH39" s="19">
-        <v>58.69</v>
+        <v>47.38</v>
       </c>
       <c r="AI39" s="31">
-        <v>98.98</v>
+        <v>99.12</v>
       </c>
       <c r="AJ39" s="31">
-        <v>97.15</v>
+        <v>97.22</v>
       </c>
       <c r="AK39" s="31">
-        <v>-1.72</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="AL39" s="31">
-        <v>99.2</v>
+        <v>99.6</v>
       </c>
       <c r="AM39" s="31">
-        <v>12.5</v>
+        <v>18.02</v>
       </c>
       <c r="AN39" s="31">
-        <v>13.67</v>
+        <v>12.47</v>
       </c>
       <c r="AO39" s="31">
-        <v>64.7</v>
+        <v>68.86</v>
       </c>
       <c r="AP39" s="31">
-        <v>8.98</v>
+        <v>7.2</v>
       </c>
       <c r="AQ39" s="31">
-        <v>63.44</v>
+        <v>67.739999999999995</v>
       </c>
       <c r="AR39" s="31">
-        <v>12.08</v>
+        <v>11.23</v>
       </c>
       <c r="AS39" s="31">
-        <v>28.14</v>
+        <v>39.33</v>
       </c>
       <c r="AT39" s="31">
-        <v>42.65</v>
+        <v>49.41</v>
       </c>
       <c r="AU39" s="31">
-        <v>89.85</v>
+        <v>90.76</v>
       </c>
       <c r="AV39" s="31">
-        <v>19.079999999999998</v>
+        <v>28.23</v>
       </c>
       <c r="AW39" s="31">
-        <v>88.8</v>
+        <v>97</v>
       </c>
       <c r="AX39" s="31">
-        <v>39.6</v>
+        <v>40.96</v>
       </c>
       <c r="AY39" s="31">
-        <v>20.11</v>
+        <v>21.54</v>
       </c>
       <c r="AZ39" s="31">
-        <v>38.39</v>
+        <v>45.89</v>
       </c>
       <c r="BA39" s="31">
-        <v>36.5</v>
+        <v>41.08</v>
       </c>
       <c r="BB39" s="31">
-        <v>61.33</v>
+        <v>57.4</v>
       </c>
       <c r="BC39" s="31">
-        <v>82.82</v>
+        <v>82.64</v>
       </c>
       <c r="BD39" s="31">
-        <v>23.06</v>
+        <v>20.09</v>
       </c>
       <c r="BE39" s="31">
-        <v>26.65</v>
+        <v>22.44</v>
       </c>
       <c r="BF39" s="31">
-        <v>74.52</v>
+        <v>78.88</v>
       </c>
       <c r="BG39" s="31">
-        <v>66.38</v>
+        <v>72.64</v>
       </c>
       <c r="BH39" s="31">
-        <v>60.32</v>
+        <v>46.81</v>
       </c>
       <c r="BI39" s="31">
-        <v>50.95</v>
+        <v>41.57</v>
       </c>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
@@ -8232,188 +8210,188 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="D40" s="25">
-        <v>-0.5</v>
-      </c>
-      <c r="E40" s="25">
+      <c r="C40" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="D40" s="43">
+        <v>-0.4</v>
+      </c>
+      <c r="E40" s="43">
+        <v>-0.3</v>
+      </c>
+      <c r="F40" s="43">
+        <v>1</v>
+      </c>
+      <c r="G40" s="43">
         <v>-0.2</v>
       </c>
-      <c r="F40" s="25">
-        <v>1</v>
-      </c>
-      <c r="G40" s="25">
-        <v>0</v>
-      </c>
-      <c r="H40" s="25">
+      <c r="H40" s="43">
         <v>-0.4</v>
       </c>
       <c r="J40" s="14">
-        <f t="shared" si="1"/>
-        <v>50.147837837837841</v>
+        <f>SUM(Y40:BI40)/COUNT(Y40:BI40)</f>
+        <v>50.233513513513508</v>
       </c>
       <c r="K40" s="14">
-        <f t="shared" si="39"/>
-        <v>48.682777777777773</v>
+        <f t="shared" si="33"/>
+        <v>47.945555555555558</v>
       </c>
       <c r="L40" s="14">
-        <f t="shared" si="40"/>
-        <v>51.535789473684211</v>
+        <f>(SUM(AD40:AH40)+SUM(AV40:BI40))/(COUNT(AD40:AH40)+COUNT(AV40:BI40))</f>
+        <v>52.401052631578949</v>
       </c>
       <c r="M40" s="19">
-        <f t="shared" si="41"/>
-        <v>54.616999999999997</v>
+        <f t="shared" si="34"/>
+        <v>54.051000000000002</v>
       </c>
       <c r="N40" s="19">
-        <f t="shared" si="42"/>
-        <v>47.97</v>
+        <f t="shared" si="35"/>
+        <v>46.68</v>
       </c>
       <c r="O40" s="19">
-        <f t="shared" si="43"/>
-        <v>61.26400000000001</v>
+        <f t="shared" si="36"/>
+        <v>61.422000000000004</v>
       </c>
       <c r="P40" s="14">
-        <f t="shared" si="44"/>
-        <v>48.492592592592608</v>
+        <f>AVERAGE(AI40:BI40)</f>
+        <v>48.819629629629631</v>
       </c>
       <c r="Q40" s="14">
-        <f t="shared" si="45"/>
-        <v>48.956923076923076</v>
+        <f t="shared" si="37"/>
+        <v>48.432307692307695</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="46"/>
-        <v>48.061428571428571</v>
+        <f>(SUM(AV40:BI40))/(COUNT(AV40:BI40))</f>
+        <v>49.179285714285712</v>
       </c>
       <c r="T40">
         <v>1000</v>
       </c>
       <c r="U40" s="14">
-        <v>52537.24</v>
+        <v>52642.93</v>
       </c>
       <c r="V40" s="2">
-        <v>2315.2600000000002</v>
+        <v>2209.5700000000002</v>
       </c>
       <c r="W40" s="2">
-        <v>91.3</v>
+        <v>91.64</v>
       </c>
       <c r="X40" s="23">
-        <v>50.15</v>
+        <v>50.23</v>
       </c>
       <c r="Y40" s="19">
-        <v>89.66</v>
+        <v>84.58</v>
       </c>
       <c r="Z40" s="19">
-        <v>65.569999999999993</v>
+        <v>67.61</v>
       </c>
       <c r="AA40" s="19">
-        <v>67</v>
+        <v>69.08</v>
       </c>
       <c r="AB40" s="19">
-        <v>12.76</v>
+        <v>13.86</v>
       </c>
       <c r="AC40" s="19">
-        <v>4.8600000000000003</v>
+        <v>-1.73</v>
       </c>
       <c r="AD40" s="19">
-        <v>50.8</v>
+        <v>46.91</v>
       </c>
       <c r="AE40" s="19">
-        <v>56.68</v>
+        <v>56.43</v>
       </c>
       <c r="AF40" s="19">
-        <v>58.99</v>
+        <v>56.55</v>
       </c>
       <c r="AG40" s="19">
-        <v>87.76</v>
+        <v>88.53</v>
       </c>
       <c r="AH40" s="19">
-        <v>52.09</v>
+        <v>58.69</v>
       </c>
       <c r="AI40" s="31">
-        <v>99.11</v>
+        <v>98.98</v>
       </c>
       <c r="AJ40" s="31">
-        <v>97.07</v>
+        <v>97.15</v>
       </c>
       <c r="AK40" s="31">
-        <v>18.600000000000001</v>
+        <v>-1.72</v>
       </c>
       <c r="AL40" s="31">
         <v>99.2</v>
       </c>
       <c r="AM40" s="31">
-        <v>10.4</v>
+        <v>12.5</v>
       </c>
       <c r="AN40" s="31">
-        <v>10.85</v>
+        <v>13.67</v>
       </c>
       <c r="AO40" s="31">
-        <v>66.28</v>
+        <v>64.7</v>
       </c>
       <c r="AP40" s="31">
-        <v>14.62</v>
+        <v>8.98</v>
       </c>
       <c r="AQ40" s="31">
-        <v>63.02</v>
+        <v>63.44</v>
       </c>
       <c r="AR40" s="31">
-        <v>10.09</v>
+        <v>12.08</v>
       </c>
       <c r="AS40" s="31">
-        <v>20.85</v>
+        <v>28.14</v>
       </c>
       <c r="AT40" s="31">
-        <v>37.31</v>
+        <v>42.65</v>
       </c>
       <c r="AU40" s="31">
-        <v>89.04</v>
+        <v>89.85</v>
       </c>
       <c r="AV40" s="31">
-        <v>20.29</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="AW40" s="31">
-        <v>60.6</v>
+        <v>88.8</v>
       </c>
       <c r="AX40" s="31">
-        <v>41.88</v>
+        <v>39.6</v>
       </c>
       <c r="AY40" s="31">
-        <v>20.86</v>
+        <v>20.11</v>
       </c>
       <c r="AZ40" s="31">
-        <v>46.45</v>
+        <v>38.39</v>
       </c>
       <c r="BA40" s="31">
-        <v>39.53</v>
+        <v>36.5</v>
       </c>
       <c r="BB40" s="31">
-        <v>64.06</v>
+        <v>61.33</v>
       </c>
       <c r="BC40" s="31">
-        <v>82.89</v>
+        <v>82.82</v>
       </c>
       <c r="BD40" s="31">
-        <v>19.760000000000002</v>
+        <v>23.06</v>
       </c>
       <c r="BE40" s="31">
-        <v>22.88</v>
+        <v>26.65</v>
       </c>
       <c r="BF40" s="31">
-        <v>76.45</v>
+        <v>74.52</v>
       </c>
       <c r="BG40" s="31">
-        <v>69.88</v>
+        <v>66.38</v>
       </c>
       <c r="BH40" s="31">
-        <v>55.19</v>
+        <v>60.32</v>
       </c>
       <c r="BI40" s="31">
-        <v>52.14</v>
+        <v>50.95</v>
       </c>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
@@ -8428,181 +8406,181 @@
         <v>0.9</v>
       </c>
       <c r="D41" s="25">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E41" s="25">
         <v>-0.2</v>
       </c>
       <c r="F41" s="25">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G41" s="25">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H41" s="25">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="1"/>
-        <v>49.116216216216216</v>
+        <f>SUM(Y41:BI41)/COUNT(Y41:BI41)</f>
+        <v>50.147837837837841</v>
       </c>
       <c r="K41" s="14">
-        <f t="shared" si="39"/>
-        <v>49.754999999999995</v>
+        <f t="shared" si="33"/>
+        <v>48.682777777777773</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="40"/>
-        <v>48.511052631578949</v>
+        <f>(SUM(AD41:AH41)+SUM(AV41:BI41))/(COUNT(AD41:AH41)+COUNT(AV41:BI41))</f>
+        <v>51.535789473684211</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="41"/>
-        <v>50.487000000000002</v>
+        <f t="shared" si="34"/>
+        <v>54.616999999999997</v>
       </c>
       <c r="N41" s="19">
-        <f t="shared" si="42"/>
-        <v>49.534000000000006</v>
+        <f t="shared" si="35"/>
+        <v>47.97</v>
       </c>
       <c r="O41" s="19">
-        <f t="shared" si="43"/>
-        <v>51.44</v>
+        <f t="shared" si="36"/>
+        <v>61.26400000000001</v>
       </c>
       <c r="P41" s="14">
-        <f t="shared" si="44"/>
-        <v>48.608518518518522</v>
+        <f>AVERAGE(AI41:BI41)</f>
+        <v>48.492592592592608</v>
       </c>
       <c r="Q41" s="14">
-        <f t="shared" si="45"/>
-        <v>49.839999999999996</v>
+        <f t="shared" si="37"/>
+        <v>48.956923076923076</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="46"/>
-        <v>47.465000000000011</v>
+        <f>(SUM(AV41:BI41))/(COUNT(AV41:BI41))</f>
+        <v>48.061428571428571</v>
       </c>
       <c r="T41">
         <v>1000</v>
       </c>
       <c r="U41" s="14">
-        <v>52461.58</v>
+        <v>52537.24</v>
       </c>
       <c r="V41" s="2">
-        <v>2390.92</v>
+        <v>2315.2600000000002</v>
       </c>
       <c r="W41" s="2">
-        <v>91.04</v>
+        <v>91.3</v>
       </c>
       <c r="X41" s="23">
-        <v>49.12</v>
+        <v>50.15</v>
       </c>
       <c r="Y41" s="19">
-        <v>88.22</v>
+        <v>89.66</v>
       </c>
       <c r="Z41" s="19">
-        <v>72.83</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="AA41" s="19">
-        <v>72.52</v>
+        <v>67</v>
       </c>
       <c r="AB41" s="19">
-        <v>14.55</v>
+        <v>12.76</v>
       </c>
       <c r="AC41" s="19">
-        <v>-0.45</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="AD41" s="19">
-        <v>26.02</v>
+        <v>50.8</v>
       </c>
       <c r="AE41" s="19">
-        <v>53.59</v>
+        <v>56.68</v>
       </c>
       <c r="AF41" s="19">
-        <v>56.49</v>
+        <v>58.99</v>
       </c>
       <c r="AG41" s="19">
-        <v>87.98</v>
+        <v>87.76</v>
       </c>
       <c r="AH41" s="19">
-        <v>33.119999999999997</v>
+        <v>52.09</v>
       </c>
       <c r="AI41" s="31">
-        <v>99.42</v>
+        <v>99.11</v>
       </c>
       <c r="AJ41" s="31">
-        <v>97.46</v>
+        <v>97.07</v>
       </c>
       <c r="AK41" s="31">
-        <v>16.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AL41" s="31">
-        <v>99.6</v>
+        <v>99.2</v>
       </c>
       <c r="AM41" s="31">
-        <v>20.74</v>
+        <v>10.4</v>
       </c>
       <c r="AN41" s="31">
-        <v>14.56</v>
+        <v>10.85</v>
       </c>
       <c r="AO41" s="31">
-        <v>68.77</v>
+        <v>66.28</v>
       </c>
       <c r="AP41" s="31">
-        <v>12.32</v>
+        <v>14.62</v>
       </c>
       <c r="AQ41" s="31">
-        <v>68.92</v>
+        <v>63.02</v>
       </c>
       <c r="AR41" s="31">
-        <v>11.34</v>
+        <v>10.09</v>
       </c>
       <c r="AS41" s="31">
-        <v>26.64</v>
+        <v>20.85</v>
       </c>
       <c r="AT41" s="31">
-        <v>26.8</v>
+        <v>37.31</v>
       </c>
       <c r="AU41" s="31">
-        <v>84.75</v>
+        <v>89.04</v>
       </c>
       <c r="AV41" s="31">
-        <v>29.85</v>
+        <v>20.29</v>
       </c>
       <c r="AW41" s="31">
-        <v>78.8</v>
+        <v>60.6</v>
       </c>
       <c r="AX41" s="31">
-        <v>40.840000000000003</v>
+        <v>41.88</v>
       </c>
       <c r="AY41" s="31">
-        <v>16.11</v>
+        <v>20.86</v>
       </c>
       <c r="AZ41" s="31">
-        <v>42.26</v>
+        <v>46.45</v>
       </c>
       <c r="BA41" s="31">
-        <v>39.380000000000003</v>
+        <v>39.53</v>
       </c>
       <c r="BB41" s="31">
-        <v>58.63</v>
+        <v>64.06</v>
       </c>
       <c r="BC41" s="31">
-        <v>82.7</v>
+        <v>82.89</v>
       </c>
       <c r="BD41" s="31">
-        <v>20.66</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="BE41" s="31">
-        <v>23.18</v>
+        <v>22.88</v>
       </c>
       <c r="BF41" s="31">
-        <v>77.540000000000006</v>
+        <v>76.45</v>
       </c>
       <c r="BG41" s="31">
-        <v>71.34</v>
+        <v>69.88</v>
       </c>
       <c r="BH41" s="31">
-        <v>40.57</v>
+        <v>55.19</v>
       </c>
       <c r="BI41" s="31">
-        <v>42.65</v>
+        <v>52.14</v>
       </c>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
@@ -8610,54 +8588,189 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="31"/>
-      <c r="AO42" s="31"/>
-      <c r="AP42" s="31"/>
-      <c r="AQ42" s="31"/>
-      <c r="AR42" s="31"/>
-      <c r="AS42" s="31"/>
-      <c r="AT42" s="31"/>
-      <c r="AU42" s="31"/>
-      <c r="AV42" s="31"/>
-      <c r="AW42" s="31"/>
-      <c r="AX42" s="31"/>
-      <c r="AY42" s="31"/>
-      <c r="AZ42" s="31"/>
-      <c r="BA42" s="31"/>
-      <c r="BB42" s="31"/>
-      <c r="BC42" s="31"/>
-      <c r="BD42" s="31"/>
-      <c r="BE42" s="31"/>
-      <c r="BF42" s="31"/>
-      <c r="BG42" s="31"/>
-      <c r="BH42" s="31"/>
-      <c r="BI42" s="31"/>
+      <c r="B42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-0.3</v>
+      </c>
+      <c r="E42" s="25">
+        <v>-0.2</v>
+      </c>
+      <c r="F42" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G42" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H42" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="14">
+        <f>SUM(Y42:BI42)/COUNT(Y42:BI42)</f>
+        <v>49.116216216216216</v>
+      </c>
+      <c r="K42" s="14">
+        <f t="shared" si="33"/>
+        <v>49.754999999999995</v>
+      </c>
+      <c r="L42" s="14">
+        <f>(SUM(AD42:AH42)+SUM(AV42:BI42))/(COUNT(AD42:AH42)+COUNT(AV42:BI42))</f>
+        <v>48.511052631578949</v>
+      </c>
+      <c r="M42" s="19">
+        <f t="shared" si="34"/>
+        <v>50.487000000000002</v>
+      </c>
+      <c r="N42" s="19">
+        <f t="shared" si="35"/>
+        <v>49.534000000000006</v>
+      </c>
+      <c r="O42" s="19">
+        <f t="shared" si="36"/>
+        <v>51.44</v>
+      </c>
+      <c r="P42" s="14">
+        <f>AVERAGE(AI42:BI42)</f>
+        <v>48.608518518518522</v>
+      </c>
+      <c r="Q42" s="14">
+        <f t="shared" si="37"/>
+        <v>49.839999999999996</v>
+      </c>
+      <c r="R42" s="14">
+        <f>(SUM(AV42:BI42))/(COUNT(AV42:BI42))</f>
+        <v>47.465000000000011</v>
+      </c>
+      <c r="T42">
+        <v>1000</v>
+      </c>
+      <c r="U42" s="14">
+        <v>52461.58</v>
+      </c>
+      <c r="V42" s="2">
+        <v>2390.92</v>
+      </c>
+      <c r="W42" s="2">
+        <v>91.04</v>
+      </c>
+      <c r="X42" s="23">
+        <v>49.12</v>
+      </c>
+      <c r="Y42" s="19">
+        <v>88.22</v>
+      </c>
+      <c r="Z42" s="19">
+        <v>72.83</v>
+      </c>
+      <c r="AA42" s="19">
+        <v>72.52</v>
+      </c>
+      <c r="AB42" s="19">
+        <v>14.55</v>
+      </c>
+      <c r="AC42" s="19">
+        <v>-0.45</v>
+      </c>
+      <c r="AD42" s="19">
+        <v>26.02</v>
+      </c>
+      <c r="AE42" s="19">
+        <v>53.59</v>
+      </c>
+      <c r="AF42" s="19">
+        <v>56.49</v>
+      </c>
+      <c r="AG42" s="19">
+        <v>87.98</v>
+      </c>
+      <c r="AH42" s="19">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="AI42" s="31">
+        <v>99.42</v>
+      </c>
+      <c r="AJ42" s="31">
+        <v>97.46</v>
+      </c>
+      <c r="AK42" s="31">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AL42" s="31">
+        <v>99.6</v>
+      </c>
+      <c r="AM42" s="31">
+        <v>20.74</v>
+      </c>
+      <c r="AN42" s="31">
+        <v>14.56</v>
+      </c>
+      <c r="AO42" s="31">
+        <v>68.77</v>
+      </c>
+      <c r="AP42" s="31">
+        <v>12.32</v>
+      </c>
+      <c r="AQ42" s="31">
+        <v>68.92</v>
+      </c>
+      <c r="AR42" s="31">
+        <v>11.34</v>
+      </c>
+      <c r="AS42" s="31">
+        <v>26.64</v>
+      </c>
+      <c r="AT42" s="31">
+        <v>26.8</v>
+      </c>
+      <c r="AU42" s="31">
+        <v>84.75</v>
+      </c>
+      <c r="AV42" s="31">
+        <v>29.85</v>
+      </c>
+      <c r="AW42" s="31">
+        <v>78.8</v>
+      </c>
+      <c r="AX42" s="31">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="AY42" s="31">
+        <v>16.11</v>
+      </c>
+      <c r="AZ42" s="31">
+        <v>42.26</v>
+      </c>
+      <c r="BA42" s="31">
+        <v>39.380000000000003</v>
+      </c>
+      <c r="BB42" s="31">
+        <v>58.63</v>
+      </c>
+      <c r="BC42" s="31">
+        <v>82.7</v>
+      </c>
+      <c r="BD42" s="31">
+        <v>20.66</v>
+      </c>
+      <c r="BE42" s="31">
+        <v>23.18</v>
+      </c>
+      <c r="BF42" s="31">
+        <v>77.540000000000006</v>
+      </c>
+      <c r="BG42" s="31">
+        <v>71.34</v>
+      </c>
+      <c r="BH42" s="31">
+        <v>40.57</v>
+      </c>
+      <c r="BI42" s="31">
+        <v>42.65</v>
+      </c>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" t="e">
@@ -8934,46 +9047,60 @@
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="U48" s="12"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="17"/>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="17"/>
-      <c r="AG48" s="17"/>
-      <c r="AH48" s="17"/>
-      <c r="AI48" s="33"/>
-      <c r="AJ48" s="33"/>
-      <c r="AK48" s="33"/>
-      <c r="AL48" s="33"/>
-      <c r="AM48" s="33"/>
-      <c r="AN48" s="33"/>
-      <c r="AO48" s="33"/>
-      <c r="AP48" s="33"/>
-      <c r="AQ48" s="33"/>
-      <c r="AR48" s="33"/>
-      <c r="AS48" s="33"/>
-      <c r="AT48" s="33"/>
-      <c r="AU48" s="33"/>
-      <c r="AV48" s="33"/>
-      <c r="AW48" s="33"/>
-      <c r="AX48" s="33"/>
-      <c r="AY48" s="33"/>
-      <c r="AZ48" s="33"/>
-      <c r="BA48" s="33"/>
-      <c r="BB48" s="33"/>
-      <c r="BC48" s="33"/>
-      <c r="BD48" s="33"/>
-      <c r="BE48" s="33"/>
-      <c r="BF48" s="33"/>
-      <c r="BG48" s="33"/>
-      <c r="BH48" s="33"/>
-      <c r="BI48" s="33"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="31"/>
+      <c r="AM48" s="31"/>
+      <c r="AN48" s="31"/>
+      <c r="AO48" s="31"/>
+      <c r="AP48" s="31"/>
+      <c r="AQ48" s="31"/>
+      <c r="AR48" s="31"/>
+      <c r="AS48" s="31"/>
+      <c r="AT48" s="31"/>
+      <c r="AU48" s="31"/>
+      <c r="AV48" s="31"/>
+      <c r="AW48" s="31"/>
+      <c r="AX48" s="31"/>
+      <c r="AY48" s="31"/>
+      <c r="AZ48" s="31"/>
+      <c r="BA48" s="31"/>
+      <c r="BB48" s="31"/>
+      <c r="BC48" s="31"/>
+      <c r="BD48" s="31"/>
+      <c r="BE48" s="31"/>
+      <c r="BF48" s="31"/>
+      <c r="BG48" s="31"/>
+      <c r="BH48" s="31"/>
+      <c r="BI48" s="31"/>
     </row>
-    <row r="49" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A49" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
       <c r="U49" s="12"/>
       <c r="Y49" s="17"/>
       <c r="Z49" s="17"/>
@@ -9013,7 +9140,7 @@
       <c r="BH49" s="33"/>
       <c r="BI49" s="33"/>
     </row>
-    <row r="50" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U50" s="12"/>
       <c r="Y50" s="17"/>
       <c r="Z50" s="17"/>
@@ -9053,7 +9180,7 @@
       <c r="BH50" s="33"/>
       <c r="BI50" s="33"/>
     </row>
-    <row r="51" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U51" s="12"/>
       <c r="Y51" s="17"/>
       <c r="Z51" s="17"/>
@@ -9093,7 +9220,7 @@
       <c r="BH51" s="33"/>
       <c r="BI51" s="33"/>
     </row>
-    <row r="52" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U52" s="12"/>
       <c r="Y52" s="17"/>
       <c r="Z52" s="17"/>
@@ -9133,7 +9260,7 @@
       <c r="BH52" s="33"/>
       <c r="BI52" s="33"/>
     </row>
-    <row r="53" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U53" s="12"/>
       <c r="Y53" s="17"/>
       <c r="Z53" s="17"/>
@@ -9173,7 +9300,7 @@
       <c r="BH53" s="33"/>
       <c r="BI53" s="33"/>
     </row>
-    <row r="54" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U54" s="12"/>
       <c r="Y54" s="17"/>
       <c r="Z54" s="17"/>
@@ -9213,7 +9340,7 @@
       <c r="BH54" s="33"/>
       <c r="BI54" s="33"/>
     </row>
-    <row r="55" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U55" s="12"/>
       <c r="Y55" s="17"/>
       <c r="Z55" s="17"/>
@@ -9253,7 +9380,7 @@
       <c r="BH55" s="33"/>
       <c r="BI55" s="33"/>
     </row>
-    <row r="56" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U56" s="12"/>
       <c r="Y56" s="17"/>
       <c r="Z56" s="17"/>
@@ -9293,7 +9420,7 @@
       <c r="BH56" s="33"/>
       <c r="BI56" s="33"/>
     </row>
-    <row r="57" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U57" s="12"/>
       <c r="Y57" s="17"/>
       <c r="Z57" s="17"/>
@@ -9333,7 +9460,7 @@
       <c r="BH57" s="33"/>
       <c r="BI57" s="33"/>
     </row>
-    <row r="58" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U58" s="12"/>
       <c r="Y58" s="17"/>
       <c r="Z58" s="17"/>
@@ -9373,7 +9500,7 @@
       <c r="BH58" s="33"/>
       <c r="BI58" s="33"/>
     </row>
-    <row r="59" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U59" s="12"/>
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
@@ -9413,7 +9540,7 @@
       <c r="BH59" s="33"/>
       <c r="BI59" s="33"/>
     </row>
-    <row r="60" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U60" s="12"/>
       <c r="Y60" s="17"/>
       <c r="Z60" s="17"/>
@@ -9453,7 +9580,7 @@
       <c r="BH60" s="33"/>
       <c r="BI60" s="33"/>
     </row>
-    <row r="61" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U61" s="12"/>
       <c r="Y61" s="17"/>
       <c r="Z61" s="17"/>
@@ -9493,7 +9620,7 @@
       <c r="BH61" s="33"/>
       <c r="BI61" s="33"/>
     </row>
-    <row r="62" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U62" s="12"/>
       <c r="Y62" s="17"/>
       <c r="Z62" s="17"/>
@@ -9533,7 +9660,7 @@
       <c r="BH62" s="33"/>
       <c r="BI62" s="33"/>
     </row>
-    <row r="63" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U63" s="12"/>
       <c r="Y63" s="17"/>
       <c r="Z63" s="17"/>
@@ -9573,35 +9700,45 @@
       <c r="BH63" s="33"/>
       <c r="BI63" s="33"/>
     </row>
-    <row r="64" spans="21:61" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="U64" s="12"/>
-      <c r="AI64" s="5"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="5"/>
-      <c r="AL64" s="5"/>
-      <c r="AM64" s="5"/>
-      <c r="AN64" s="5"/>
-      <c r="AO64" s="5"/>
-      <c r="AP64" s="5"/>
-      <c r="AQ64" s="5"/>
-      <c r="AR64" s="5"/>
-      <c r="AS64" s="5"/>
-      <c r="AT64" s="5"/>
-      <c r="AU64" s="5"/>
-      <c r="AV64" s="5"/>
-      <c r="AW64" s="5"/>
-      <c r="AX64" s="5"/>
-      <c r="AY64" s="5"/>
-      <c r="AZ64" s="5"/>
-      <c r="BA64" s="5"/>
-      <c r="BB64" s="5"/>
-      <c r="BC64" s="5"/>
-      <c r="BD64" s="5"/>
-      <c r="BE64" s="5"/>
-      <c r="BF64" s="5"/>
-      <c r="BG64" s="5"/>
-      <c r="BH64" s="5"/>
-      <c r="BI64" s="5"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="17"/>
+      <c r="AF64" s="17"/>
+      <c r="AG64" s="17"/>
+      <c r="AH64" s="17"/>
+      <c r="AI64" s="33"/>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="33"/>
+      <c r="AL64" s="33"/>
+      <c r="AM64" s="33"/>
+      <c r="AN64" s="33"/>
+      <c r="AO64" s="33"/>
+      <c r="AP64" s="33"/>
+      <c r="AQ64" s="33"/>
+      <c r="AR64" s="33"/>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="33"/>
+      <c r="AU64" s="33"/>
+      <c r="AV64" s="33"/>
+      <c r="AW64" s="33"/>
+      <c r="AX64" s="33"/>
+      <c r="AY64" s="33"/>
+      <c r="AZ64" s="33"/>
+      <c r="BA64" s="33"/>
+      <c r="BB64" s="33"/>
+      <c r="BC64" s="33"/>
+      <c r="BD64" s="33"/>
+      <c r="BE64" s="33"/>
+      <c r="BF64" s="33"/>
+      <c r="BG64" s="33"/>
+      <c r="BH64" s="33"/>
+      <c r="BI64" s="33"/>
     </row>
     <row r="65" spans="21:61" x14ac:dyDescent="0.25">
       <c r="U65" s="12"/>
@@ -9694,6 +9831,7 @@
       <c r="BI67" s="5"/>
     </row>
     <row r="68" spans="21:61" x14ac:dyDescent="0.25">
+      <c r="U68" s="12"/>
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
       <c r="AK68" s="5"/>
@@ -9896,294 +10034,323 @@
       <c r="BH74" s="5"/>
       <c r="BI74" s="5"/>
     </row>
+    <row r="75" spans="21:61" x14ac:dyDescent="0.25">
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="5"/>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="5"/>
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="5"/>
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="5"/>
+      <c r="AZ75" s="5"/>
+      <c r="BA75" s="5"/>
+      <c r="BB75" s="5"/>
+      <c r="BC75" s="5"/>
+      <c r="BD75" s="5"/>
+      <c r="BE75" s="5"/>
+      <c r="BF75" s="5"/>
+      <c r="BG75" s="5"/>
+      <c r="BH75" s="5"/>
+      <c r="BI75" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="Y83:Y92">
+  <conditionalFormatting sqref="Y84:Y93">
     <cfRule type="top10" priority="252" rank="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J82">
-    <cfRule type="top10" dxfId="211" priority="160" rank="2"/>
+  <conditionalFormatting sqref="J65:J83">
+    <cfRule type="top10" dxfId="213" priority="160" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:K82">
-    <cfRule type="top10" dxfId="210" priority="159" rank="2"/>
+  <conditionalFormatting sqref="K65:K83">
+    <cfRule type="top10" dxfId="212" priority="159" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L64:L82">
-    <cfRule type="top10" dxfId="209" priority="158" rank="2"/>
+  <conditionalFormatting sqref="L65:L83">
+    <cfRule type="top10" dxfId="211" priority="158" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M64:M82">
-    <cfRule type="top10" dxfId="208" priority="157" rank="2"/>
+  <conditionalFormatting sqref="M65:M83">
+    <cfRule type="top10" dxfId="210" priority="157" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N64:N82">
-    <cfRule type="top10" dxfId="207" priority="156" rank="2"/>
+  <conditionalFormatting sqref="N65:N83">
+    <cfRule type="top10" dxfId="209" priority="156" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64:O82">
-    <cfRule type="top10" dxfId="206" priority="155" rank="2"/>
+  <conditionalFormatting sqref="O65:O83">
+    <cfRule type="top10" dxfId="208" priority="155" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P64:P82">
-    <cfRule type="top10" dxfId="205" priority="154" rank="2"/>
+  <conditionalFormatting sqref="P65:P83">
+    <cfRule type="top10" dxfId="207" priority="154" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q64:Q82">
-    <cfRule type="top10" dxfId="204" priority="153" rank="2"/>
+  <conditionalFormatting sqref="Q65:Q83">
+    <cfRule type="top10" dxfId="206" priority="153" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R64:R82">
-    <cfRule type="top10" dxfId="203" priority="152" rank="2"/>
+  <conditionalFormatting sqref="R65:R83">
+    <cfRule type="top10" dxfId="205" priority="152" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y64:Y82">
-    <cfRule type="top10" dxfId="202" priority="151" rank="2"/>
+  <conditionalFormatting sqref="Y65:Y83">
+    <cfRule type="top10" dxfId="204" priority="151" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X58:X82">
-    <cfRule type="top10" dxfId="201" priority="150" rank="2"/>
+  <conditionalFormatting sqref="X59:X83">
+    <cfRule type="top10" dxfId="203" priority="150" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z64:Z74">
-    <cfRule type="top10" dxfId="200" priority="149" rank="2"/>
+  <conditionalFormatting sqref="Z65:Z75">
+    <cfRule type="top10" dxfId="202" priority="149" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA64:AA74">
-    <cfRule type="top10" dxfId="199" priority="148" rank="2"/>
+  <conditionalFormatting sqref="AA65:AA75">
+    <cfRule type="top10" dxfId="201" priority="148" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB64:AB74">
-    <cfRule type="top10" dxfId="198" priority="147" rank="2"/>
+  <conditionalFormatting sqref="AB65:AB75">
+    <cfRule type="top10" dxfId="200" priority="147" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC64:AC74">
-    <cfRule type="top10" dxfId="197" priority="146" rank="2"/>
+  <conditionalFormatting sqref="AC65:AC75">
+    <cfRule type="top10" dxfId="199" priority="146" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD64:AD74">
-    <cfRule type="top10" dxfId="196" priority="145" rank="2"/>
+  <conditionalFormatting sqref="AD65:AD75">
+    <cfRule type="top10" dxfId="198" priority="145" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE64:AE74">
-    <cfRule type="top10" dxfId="195" priority="144" rank="2"/>
+  <conditionalFormatting sqref="AE65:AE75">
+    <cfRule type="top10" dxfId="197" priority="144" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF64:AF74">
-    <cfRule type="top10" dxfId="194" priority="143" rank="2"/>
+  <conditionalFormatting sqref="AF65:AF75">
+    <cfRule type="top10" dxfId="196" priority="143" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG64:AG74">
-    <cfRule type="top10" dxfId="193" priority="142" rank="2"/>
+  <conditionalFormatting sqref="AG65:AG75">
+    <cfRule type="top10" dxfId="195" priority="142" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH64:AH74">
-    <cfRule type="top10" dxfId="192" priority="141" rank="2"/>
+  <conditionalFormatting sqref="AH65:AH75">
+    <cfRule type="top10" dxfId="194" priority="141" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI64:AI74">
-    <cfRule type="top10" dxfId="191" priority="140" rank="2"/>
+  <conditionalFormatting sqref="AI65:AI75">
+    <cfRule type="top10" dxfId="193" priority="140" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ64:AJ74">
-    <cfRule type="top10" dxfId="190" priority="139" rank="2"/>
+  <conditionalFormatting sqref="AJ65:AJ75">
+    <cfRule type="top10" dxfId="192" priority="139" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK64:AK74">
-    <cfRule type="top10" dxfId="189" priority="138" rank="2"/>
+  <conditionalFormatting sqref="AK65:AK75">
+    <cfRule type="top10" dxfId="191" priority="138" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL64:AL74">
-    <cfRule type="top10" dxfId="188" priority="137" rank="2"/>
+  <conditionalFormatting sqref="AL65:AL75">
+    <cfRule type="top10" dxfId="190" priority="137" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM64:AM74">
-    <cfRule type="top10" dxfId="187" priority="136" rank="2"/>
+  <conditionalFormatting sqref="AM65:AM75">
+    <cfRule type="top10" dxfId="189" priority="136" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN64:AN74">
-    <cfRule type="top10" dxfId="186" priority="135" rank="2"/>
+  <conditionalFormatting sqref="AN65:AN75">
+    <cfRule type="top10" dxfId="188" priority="135" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO64:AO74">
-    <cfRule type="top10" dxfId="185" priority="134" rank="2"/>
+  <conditionalFormatting sqref="AO65:AO75">
+    <cfRule type="top10" dxfId="187" priority="134" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP64:AP74">
-    <cfRule type="top10" dxfId="184" priority="133" rank="2"/>
+  <conditionalFormatting sqref="AP65:AP75">
+    <cfRule type="top10" dxfId="186" priority="133" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ64:AQ74">
-    <cfRule type="top10" dxfId="183" priority="132" rank="2"/>
+  <conditionalFormatting sqref="AQ65:AQ75">
+    <cfRule type="top10" dxfId="185" priority="132" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR64:AR74">
-    <cfRule type="top10" dxfId="182" priority="131" rank="2"/>
+  <conditionalFormatting sqref="AR65:AR75">
+    <cfRule type="top10" dxfId="184" priority="131" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS64:AS74">
-    <cfRule type="top10" dxfId="181" priority="130" rank="2"/>
+  <conditionalFormatting sqref="AS65:AS75">
+    <cfRule type="top10" dxfId="183" priority="130" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT64:AT74">
-    <cfRule type="top10" dxfId="180" priority="129" rank="2"/>
+  <conditionalFormatting sqref="AT65:AT75">
+    <cfRule type="top10" dxfId="182" priority="129" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU64:AU74">
-    <cfRule type="top10" dxfId="179" priority="128" rank="2"/>
+  <conditionalFormatting sqref="AU65:AU75">
+    <cfRule type="top10" dxfId="181" priority="128" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV64:AV74">
-    <cfRule type="top10" dxfId="178" priority="127" rank="2"/>
+  <conditionalFormatting sqref="AV65:AV75">
+    <cfRule type="top10" dxfId="180" priority="127" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW64:AW74">
-    <cfRule type="top10" dxfId="177" priority="126" rank="2"/>
+  <conditionalFormatting sqref="AW65:AW75">
+    <cfRule type="top10" dxfId="179" priority="126" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX64:AX74">
-    <cfRule type="top10" dxfId="176" priority="125" rank="2"/>
+  <conditionalFormatting sqref="AX65:AX75">
+    <cfRule type="top10" dxfId="178" priority="125" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY64:AY74">
-    <cfRule type="top10" dxfId="175" priority="124" rank="2"/>
+  <conditionalFormatting sqref="AY65:AY75">
+    <cfRule type="top10" dxfId="177" priority="124" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ64:AZ74">
-    <cfRule type="top10" dxfId="174" priority="123" rank="2"/>
+  <conditionalFormatting sqref="AZ65:AZ75">
+    <cfRule type="top10" dxfId="176" priority="123" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA64:BA74">
-    <cfRule type="top10" dxfId="173" priority="122" rank="2"/>
+  <conditionalFormatting sqref="BA65:BA75">
+    <cfRule type="top10" dxfId="175" priority="122" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB64:BB74">
-    <cfRule type="top10" dxfId="172" priority="121" rank="2"/>
+  <conditionalFormatting sqref="BB65:BB75">
+    <cfRule type="top10" dxfId="174" priority="121" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC64:BC74">
-    <cfRule type="top10" dxfId="171" priority="120" rank="2"/>
+  <conditionalFormatting sqref="BC65:BC75">
+    <cfRule type="top10" dxfId="173" priority="120" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD64:BD74">
-    <cfRule type="top10" dxfId="170" priority="119" rank="2"/>
+  <conditionalFormatting sqref="BD65:BD75">
+    <cfRule type="top10" dxfId="172" priority="119" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE64:BE74">
-    <cfRule type="top10" dxfId="169" priority="118" rank="2"/>
+  <conditionalFormatting sqref="BE65:BE75">
+    <cfRule type="top10" dxfId="171" priority="118" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF64:BF74">
-    <cfRule type="top10" dxfId="168" priority="117" rank="2"/>
+  <conditionalFormatting sqref="BF65:BF75">
+    <cfRule type="top10" dxfId="170" priority="117" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG64:BG74">
-    <cfRule type="top10" dxfId="167" priority="116" rank="2"/>
+  <conditionalFormatting sqref="BG65:BG75">
+    <cfRule type="top10" dxfId="169" priority="116" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH64:BH74">
-    <cfRule type="top10" dxfId="166" priority="115" rank="2"/>
+  <conditionalFormatting sqref="BH65:BH75">
+    <cfRule type="top10" dxfId="168" priority="115" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI64:BI74">
-    <cfRule type="top10" dxfId="165" priority="114" rank="2"/>
+  <conditionalFormatting sqref="BI65:BI75">
+    <cfRule type="top10" dxfId="167" priority="114" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U64:U67">
-    <cfRule type="top10" dxfId="164" priority="113" rank="2"/>
+  <conditionalFormatting sqref="U65:U68">
+    <cfRule type="top10" dxfId="166" priority="113" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J63">
-    <cfRule type="top10" dxfId="46" priority="486" rank="2"/>
+  <conditionalFormatting sqref="J8:J64">
+    <cfRule type="top10" dxfId="165" priority="486" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K63">
-    <cfRule type="top10" dxfId="45" priority="488" rank="2"/>
+  <conditionalFormatting sqref="K8:K64">
+    <cfRule type="top10" dxfId="164" priority="488" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L63">
-    <cfRule type="top10" dxfId="44" priority="490" rank="2"/>
+  <conditionalFormatting sqref="P8:P64">
+    <cfRule type="top10" dxfId="163" priority="492" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P63">
-    <cfRule type="top10" dxfId="43" priority="492" rank="2"/>
+  <conditionalFormatting sqref="Q8:Q64">
+    <cfRule type="top10" dxfId="162" priority="494" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q63">
-    <cfRule type="top10" dxfId="42" priority="494" rank="2"/>
+  <conditionalFormatting sqref="R8:R64">
+    <cfRule type="top10" dxfId="161" priority="496" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R63">
-    <cfRule type="top10" dxfId="41" priority="496" rank="2"/>
+  <conditionalFormatting sqref="U8:U64">
+    <cfRule type="top10" dxfId="160" priority="498" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U63">
-    <cfRule type="top10" dxfId="40" priority="498" rank="2"/>
+  <conditionalFormatting sqref="M8:M64">
+    <cfRule type="top10" dxfId="159" priority="500" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M63">
-    <cfRule type="top10" dxfId="39" priority="500" rank="2"/>
+  <conditionalFormatting sqref="N8:N64">
+    <cfRule type="top10" dxfId="158" priority="502" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N63">
-    <cfRule type="top10" dxfId="38" priority="502" rank="2"/>
+  <conditionalFormatting sqref="O8:O64">
+    <cfRule type="top10" dxfId="157" priority="504" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O63">
-    <cfRule type="top10" dxfId="37" priority="504" rank="2"/>
+  <conditionalFormatting sqref="Y8:Y64">
+    <cfRule type="top10" dxfId="156" priority="506" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y63">
-    <cfRule type="top10" dxfId="36" priority="506" rank="2"/>
+  <conditionalFormatting sqref="Z8:Z64">
+    <cfRule type="top10" dxfId="155" priority="508" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:Z63">
-    <cfRule type="top10" dxfId="35" priority="508" rank="2"/>
+  <conditionalFormatting sqref="AA8:AA64">
+    <cfRule type="top10" dxfId="154" priority="510" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA8:AA63">
-    <cfRule type="top10" dxfId="34" priority="510" rank="2"/>
+  <conditionalFormatting sqref="AB8:AB64">
+    <cfRule type="top10" dxfId="153" priority="512" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8:AB63">
-    <cfRule type="top10" dxfId="33" priority="512" rank="2"/>
+  <conditionalFormatting sqref="AC8:AC64">
+    <cfRule type="top10" dxfId="152" priority="514" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC8:AC63">
-    <cfRule type="top10" dxfId="32" priority="514" rank="2"/>
+  <conditionalFormatting sqref="AD8:AD64">
+    <cfRule type="top10" dxfId="151" priority="516" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD8:AD63">
-    <cfRule type="top10" dxfId="31" priority="516" rank="2"/>
+  <conditionalFormatting sqref="AE8:AE64">
+    <cfRule type="top10" dxfId="150" priority="518" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8:AE63">
-    <cfRule type="top10" dxfId="30" priority="518" rank="2"/>
+  <conditionalFormatting sqref="AF8:AF64">
+    <cfRule type="top10" dxfId="149" priority="520" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF8:AF63">
-    <cfRule type="top10" dxfId="29" priority="520" rank="2"/>
+  <conditionalFormatting sqref="AG8:AG64">
+    <cfRule type="top10" dxfId="148" priority="522" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AG63">
-    <cfRule type="top10" dxfId="28" priority="522" rank="2"/>
+  <conditionalFormatting sqref="AH8:AH64">
+    <cfRule type="top10" dxfId="147" priority="524" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH8:AH63">
-    <cfRule type="top10" dxfId="27" priority="524" rank="2"/>
+  <conditionalFormatting sqref="AI8:AI64">
+    <cfRule type="top10" dxfId="146" priority="526" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI8:AI63">
-    <cfRule type="top10" dxfId="26" priority="526" rank="2"/>
+  <conditionalFormatting sqref="AJ8:AJ64">
+    <cfRule type="top10" dxfId="145" priority="528" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8:AJ63">
-    <cfRule type="top10" dxfId="25" priority="528" rank="2"/>
+  <conditionalFormatting sqref="AK8:AK64">
+    <cfRule type="top10" dxfId="144" priority="530" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK8:AK63">
-    <cfRule type="top10" dxfId="24" priority="530" rank="2"/>
+  <conditionalFormatting sqref="AL8:AL64">
+    <cfRule type="top10" dxfId="143" priority="532" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL8:AL63">
-    <cfRule type="top10" dxfId="23" priority="532" rank="2"/>
+  <conditionalFormatting sqref="AM8:AM64">
+    <cfRule type="top10" dxfId="142" priority="534" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM8:AM63">
-    <cfRule type="top10" dxfId="22" priority="534" rank="2"/>
+  <conditionalFormatting sqref="AN8:AN64">
+    <cfRule type="top10" dxfId="141" priority="536" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN8:AN63">
-    <cfRule type="top10" dxfId="21" priority="536" rank="2"/>
+  <conditionalFormatting sqref="AO8:AO64">
+    <cfRule type="top10" dxfId="140" priority="538" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO8:AO63">
-    <cfRule type="top10" dxfId="20" priority="538" rank="2"/>
+  <conditionalFormatting sqref="AP8:AP64">
+    <cfRule type="top10" dxfId="139" priority="540" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP8:AP63">
-    <cfRule type="top10" dxfId="19" priority="540" rank="2"/>
+  <conditionalFormatting sqref="AQ8:AQ64">
+    <cfRule type="top10" dxfId="138" priority="542" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ8:AQ63">
-    <cfRule type="top10" dxfId="18" priority="542" rank="2"/>
+  <conditionalFormatting sqref="AR8:AR64">
+    <cfRule type="top10" dxfId="137" priority="544" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR8:AR63">
-    <cfRule type="top10" dxfId="17" priority="544" rank="2"/>
+  <conditionalFormatting sqref="AS8:AS64">
+    <cfRule type="top10" dxfId="136" priority="546" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS8:AS63">
-    <cfRule type="top10" dxfId="16" priority="546" rank="2"/>
+  <conditionalFormatting sqref="AT8:AT64">
+    <cfRule type="top10" dxfId="135" priority="548" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT8:AT63">
-    <cfRule type="top10" dxfId="15" priority="548" rank="2"/>
+  <conditionalFormatting sqref="AU8:AU64">
+    <cfRule type="top10" dxfId="134" priority="550" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU8:AU63">
-    <cfRule type="top10" dxfId="14" priority="550" rank="2"/>
+  <conditionalFormatting sqref="AV8:AV64">
+    <cfRule type="top10" dxfId="133" priority="552" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV8:AV63">
-    <cfRule type="top10" dxfId="13" priority="552" rank="2"/>
+  <conditionalFormatting sqref="AW8:AW64">
+    <cfRule type="top10" dxfId="132" priority="554" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW8:AW63">
-    <cfRule type="top10" dxfId="12" priority="554" rank="2"/>
+  <conditionalFormatting sqref="AX8:AX64">
+    <cfRule type="top10" dxfId="131" priority="556" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX8:AX63">
-    <cfRule type="top10" dxfId="11" priority="556" rank="2"/>
+  <conditionalFormatting sqref="AY8:AY64">
+    <cfRule type="top10" dxfId="130" priority="558" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY8:AY63">
-    <cfRule type="top10" dxfId="10" priority="558" rank="2"/>
+  <conditionalFormatting sqref="AZ8:AZ64">
+    <cfRule type="top10" dxfId="129" priority="560" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ8:AZ63">
-    <cfRule type="top10" dxfId="9" priority="560" rank="2"/>
+  <conditionalFormatting sqref="BA8:BA64">
+    <cfRule type="top10" dxfId="128" priority="562" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA8:BA63">
-    <cfRule type="top10" dxfId="8" priority="562" rank="2"/>
+  <conditionalFormatting sqref="BB8:BB64">
+    <cfRule type="top10" dxfId="127" priority="564" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB8:BB63">
-    <cfRule type="top10" dxfId="7" priority="564" rank="2"/>
+  <conditionalFormatting sqref="BC8:BC64">
+    <cfRule type="top10" dxfId="126" priority="566" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC8:BC63">
-    <cfRule type="top10" dxfId="6" priority="566" rank="2"/>
+  <conditionalFormatting sqref="BD8:BD64">
+    <cfRule type="top10" dxfId="125" priority="568" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD8:BD63">
-    <cfRule type="top10" dxfId="5" priority="568" rank="2"/>
+  <conditionalFormatting sqref="BE8:BE64">
+    <cfRule type="top10" dxfId="124" priority="570" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE8:BE63">
-    <cfRule type="top10" dxfId="4" priority="570" rank="2"/>
+  <conditionalFormatting sqref="BF8:BF64">
+    <cfRule type="top10" dxfId="123" priority="572" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF8:BF63">
-    <cfRule type="top10" dxfId="3" priority="572" rank="2"/>
+  <conditionalFormatting sqref="BG8:BG64">
+    <cfRule type="top10" dxfId="122" priority="574" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG8:BG63">
-    <cfRule type="top10" dxfId="2" priority="574" rank="2"/>
+  <conditionalFormatting sqref="BH8:BH64">
+    <cfRule type="top10" dxfId="121" priority="576" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH8:BH63">
-    <cfRule type="top10" dxfId="1" priority="576" rank="2"/>
+  <conditionalFormatting sqref="BI8:BI64">
+    <cfRule type="top10" dxfId="120" priority="578" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI8:BI63">
-    <cfRule type="top10" dxfId="0" priority="578" rank="2"/>
+  <conditionalFormatting sqref="L8:L20 L22:L64">
+    <cfRule type="top10" dxfId="2" priority="579" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10191,6 +10358,565 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:AR6"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:AR6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>52808.22</v>
+      </c>
+      <c r="E3">
+        <v>2044.28</v>
+      </c>
+      <c r="F3">
+        <v>92.03</v>
+      </c>
+      <c r="G3">
+        <v>54.53</v>
+      </c>
+      <c r="H3">
+        <v>84.17</v>
+      </c>
+      <c r="I3">
+        <v>73.97</v>
+      </c>
+      <c r="J3">
+        <v>72.260000000000005</v>
+      </c>
+      <c r="K3">
+        <v>28.72</v>
+      </c>
+      <c r="L3">
+        <v>7.56</v>
+      </c>
+      <c r="M3">
+        <v>51.48</v>
+      </c>
+      <c r="N3">
+        <v>45.16</v>
+      </c>
+      <c r="O3">
+        <v>64.05</v>
+      </c>
+      <c r="P3">
+        <v>83.03</v>
+      </c>
+      <c r="Q3">
+        <v>56.29</v>
+      </c>
+      <c r="R3">
+        <v>99.03</v>
+      </c>
+      <c r="S3">
+        <v>96.05</v>
+      </c>
+      <c r="T3">
+        <v>22.63</v>
+      </c>
+      <c r="U3">
+        <v>99.16</v>
+      </c>
+      <c r="V3">
+        <v>30.72</v>
+      </c>
+      <c r="W3">
+        <v>30.7</v>
+      </c>
+      <c r="X3">
+        <v>66.56</v>
+      </c>
+      <c r="Y3">
+        <v>22.14</v>
+      </c>
+      <c r="Z3">
+        <v>58.2</v>
+      </c>
+      <c r="AA3">
+        <v>20.22</v>
+      </c>
+      <c r="AB3">
+        <v>52.3</v>
+      </c>
+      <c r="AC3">
+        <v>75.27</v>
+      </c>
+      <c r="AD3">
+        <v>89.99</v>
+      </c>
+      <c r="AE3">
+        <v>20.84</v>
+      </c>
+      <c r="AF3">
+        <v>91.14</v>
+      </c>
+      <c r="AG3">
+        <v>38.83</v>
+      </c>
+      <c r="AH3">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="AI3">
+        <v>43.12</v>
+      </c>
+      <c r="AJ3">
+        <v>41.61</v>
+      </c>
+      <c r="AK3">
+        <v>49.32</v>
+      </c>
+      <c r="AL3">
+        <v>84.77</v>
+      </c>
+      <c r="AM3">
+        <v>14.28</v>
+      </c>
+      <c r="AN3">
+        <v>26.96</v>
+      </c>
+      <c r="AO3">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="AP3">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AQ3">
+        <v>60.74</v>
+      </c>
+      <c r="AR3">
+        <v>49.89</v>
+      </c>
+    </row>
+    <row r="4" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>285</v>
+      </c>
+      <c r="D4">
+        <v>52800.65</v>
+      </c>
+      <c r="E4">
+        <v>2051.85</v>
+      </c>
+      <c r="F4">
+        <v>92.07</v>
+      </c>
+      <c r="G4">
+        <v>54.67</v>
+      </c>
+      <c r="H4">
+        <v>87.03</v>
+      </c>
+      <c r="I4">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="J4">
+        <v>76.72</v>
+      </c>
+      <c r="K4">
+        <v>29.36</v>
+      </c>
+      <c r="L4">
+        <v>10.29</v>
+      </c>
+      <c r="M4">
+        <v>50.83</v>
+      </c>
+      <c r="N4">
+        <v>43.38</v>
+      </c>
+      <c r="O4">
+        <v>63.72</v>
+      </c>
+      <c r="P4">
+        <v>82.47</v>
+      </c>
+      <c r="Q4">
+        <v>58.79</v>
+      </c>
+      <c r="R4">
+        <v>99.25</v>
+      </c>
+      <c r="S4">
+        <v>95.51</v>
+      </c>
+      <c r="T4">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="U4">
+        <v>99.15</v>
+      </c>
+      <c r="V4">
+        <v>31.02</v>
+      </c>
+      <c r="W4">
+        <v>26.74</v>
+      </c>
+      <c r="X4">
+        <v>68.72</v>
+      </c>
+      <c r="Y4">
+        <v>23.79</v>
+      </c>
+      <c r="Z4">
+        <v>67.28</v>
+      </c>
+      <c r="AA4">
+        <v>15.34</v>
+      </c>
+      <c r="AB4">
+        <v>53.77</v>
+      </c>
+      <c r="AC4">
+        <v>75.53</v>
+      </c>
+      <c r="AD4">
+        <v>90.19</v>
+      </c>
+      <c r="AE4">
+        <v>19.75</v>
+      </c>
+      <c r="AF4">
+        <v>91.06</v>
+      </c>
+      <c r="AG4">
+        <v>36.76</v>
+      </c>
+      <c r="AH4">
+        <v>13.37</v>
+      </c>
+      <c r="AI4">
+        <v>47.31</v>
+      </c>
+      <c r="AJ4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AK4">
+        <v>48.43</v>
+      </c>
+      <c r="AL4">
+        <v>84.52</v>
+      </c>
+      <c r="AM4">
+        <v>14.05</v>
+      </c>
+      <c r="AN4">
+        <v>31.08</v>
+      </c>
+      <c r="AO4">
+        <v>77.62</v>
+      </c>
+      <c r="AP4">
+        <v>70.930000000000007</v>
+      </c>
+      <c r="AQ4">
+        <v>59.24</v>
+      </c>
+      <c r="AR4">
+        <v>48.87</v>
+      </c>
+    </row>
+    <row r="5" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>52787.62</v>
+      </c>
+      <c r="E5">
+        <v>2064.88</v>
+      </c>
+      <c r="F5">
+        <v>92</v>
+      </c>
+      <c r="G5">
+        <v>54.79</v>
+      </c>
+      <c r="H5">
+        <v>85.66</v>
+      </c>
+      <c r="I5">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="J5">
+        <v>69.7</v>
+      </c>
+      <c r="K5">
+        <v>31.73</v>
+      </c>
+      <c r="L5">
+        <v>8.19</v>
+      </c>
+      <c r="M5">
+        <v>49.9</v>
+      </c>
+      <c r="N5">
+        <v>46.62</v>
+      </c>
+      <c r="O5">
+        <v>64.72</v>
+      </c>
+      <c r="P5">
+        <v>82.32</v>
+      </c>
+      <c r="Q5">
+        <v>56.57</v>
+      </c>
+      <c r="R5">
+        <v>99.07</v>
+      </c>
+      <c r="S5">
+        <v>95.54</v>
+      </c>
+      <c r="T5">
+        <v>34.46</v>
+      </c>
+      <c r="U5">
+        <v>99.15</v>
+      </c>
+      <c r="V5">
+        <v>34.39</v>
+      </c>
+      <c r="W5">
+        <v>26.22</v>
+      </c>
+      <c r="X5">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="Y5">
+        <v>21.26</v>
+      </c>
+      <c r="Z5">
+        <v>56.32</v>
+      </c>
+      <c r="AA5">
+        <v>15.09</v>
+      </c>
+      <c r="AB5">
+        <v>51.02</v>
+      </c>
+      <c r="AC5">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="AD5">
+        <v>90.18</v>
+      </c>
+      <c r="AE5">
+        <v>21.03</v>
+      </c>
+      <c r="AF5">
+        <v>91.06</v>
+      </c>
+      <c r="AG5">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="AH5">
+        <v>24.8</v>
+      </c>
+      <c r="AI5">
+        <v>38.85</v>
+      </c>
+      <c r="AJ5">
+        <v>39.57</v>
+      </c>
+      <c r="AK5">
+        <v>51.17</v>
+      </c>
+      <c r="AL5">
+        <v>84.12</v>
+      </c>
+      <c r="AM5">
+        <v>14.53</v>
+      </c>
+      <c r="AN5">
+        <v>32.19</v>
+      </c>
+      <c r="AO5">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="AP5">
+        <v>70.2</v>
+      </c>
+      <c r="AQ5">
+        <v>58.77</v>
+      </c>
+      <c r="AR5">
+        <v>49.81</v>
+      </c>
+    </row>
+    <row r="6" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>AVERAGE(D3:D5)</f>
+        <v>52798.829999999994</v>
+      </c>
+      <c r="E6" s="25">
+        <f>AVERAGE(E3:E5)</f>
+        <v>2053.67</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" ref="F6:AR6" si="0">AVERAGE(F3:F5)</f>
+        <v>92.033333333333346</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="0"/>
+        <v>54.663333333333334</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="0"/>
+        <v>85.62</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="0"/>
+        <v>73.943333333333342</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" si="0"/>
+        <v>72.893333333333331</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" si="0"/>
+        <v>29.936666666666667</v>
+      </c>
+      <c r="L6" s="25">
+        <f t="shared" si="0"/>
+        <v>8.68</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="shared" si="0"/>
+        <v>50.736666666666672</v>
+      </c>
+      <c r="N6" s="25">
+        <f t="shared" si="0"/>
+        <v>45.053333333333335</v>
+      </c>
+      <c r="O6" s="25">
+        <f t="shared" si="0"/>
+        <v>64.163333333333341</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" si="0"/>
+        <v>82.606666666666669</v>
+      </c>
+      <c r="Q6" s="25">
+        <f t="shared" si="0"/>
+        <v>57.216666666666669</v>
+      </c>
+      <c r="R6" s="25">
+        <f t="shared" si="0"/>
+        <v>99.116666666666674</v>
+      </c>
+      <c r="S6" s="25">
+        <f t="shared" si="0"/>
+        <v>95.7</v>
+      </c>
+      <c r="T6" s="25">
+        <f t="shared" si="0"/>
+        <v>24.55</v>
+      </c>
+      <c r="U6" s="25">
+        <f t="shared" si="0"/>
+        <v>99.15333333333335</v>
+      </c>
+      <c r="V6" s="25">
+        <f t="shared" si="0"/>
+        <v>32.043333333333329</v>
+      </c>
+      <c r="W6" s="25">
+        <f t="shared" si="0"/>
+        <v>27.886666666666667</v>
+      </c>
+      <c r="X6" s="25">
+        <f t="shared" si="0"/>
+        <v>67.56</v>
+      </c>
+      <c r="Y6" s="25">
+        <f t="shared" si="0"/>
+        <v>22.396666666666665</v>
+      </c>
+      <c r="Z6" s="25">
+        <f t="shared" si="0"/>
+        <v>60.6</v>
+      </c>
+      <c r="AA6" s="25">
+        <f t="shared" si="0"/>
+        <v>16.883333333333336</v>
+      </c>
+      <c r="AB6" s="25">
+        <f t="shared" si="0"/>
+        <v>52.363333333333337</v>
+      </c>
+      <c r="AC6" s="25">
+        <f t="shared" si="0"/>
+        <v>75.206666666666663</v>
+      </c>
+      <c r="AD6" s="25">
+        <f t="shared" si="0"/>
+        <v>90.12</v>
+      </c>
+      <c r="AE6" s="25">
+        <f t="shared" si="0"/>
+        <v>20.540000000000003</v>
+      </c>
+      <c r="AF6" s="25">
+        <f t="shared" si="0"/>
+        <v>91.086666666666659</v>
+      </c>
+      <c r="AG6" s="25">
+        <f t="shared" si="0"/>
+        <v>38.49</v>
+      </c>
+      <c r="AH6" s="25">
+        <f t="shared" si="0"/>
+        <v>18.84</v>
+      </c>
+      <c r="AI6" s="25">
+        <f t="shared" si="0"/>
+        <v>43.093333333333334</v>
+      </c>
+      <c r="AJ6" s="25">
+        <f t="shared" si="0"/>
+        <v>40.493333333333332</v>
+      </c>
+      <c r="AK6" s="25">
+        <f t="shared" si="0"/>
+        <v>49.640000000000008</v>
+      </c>
+      <c r="AL6" s="25">
+        <f t="shared" si="0"/>
+        <v>84.47</v>
+      </c>
+      <c r="AM6" s="25">
+        <f t="shared" si="0"/>
+        <v>14.286666666666667</v>
+      </c>
+      <c r="AN6" s="25">
+        <f t="shared" si="0"/>
+        <v>30.076666666666664</v>
+      </c>
+      <c r="AO6" s="25">
+        <f t="shared" si="0"/>
+        <v>77.273333333333326</v>
+      </c>
+      <c r="AP6" s="25">
+        <f t="shared" si="0"/>
+        <v>70.790000000000006</v>
+      </c>
+      <c r="AQ6" s="25">
+        <f t="shared" si="0"/>
+        <v>59.583333333333336</v>
+      </c>
+      <c r="AR6" s="25">
+        <f t="shared" si="0"/>
+        <v>49.523333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA71"/>
   <sheetViews>
@@ -22544,218 +23270,218 @@
     <cfRule type="top10" priority="143" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:M79">
-    <cfRule type="top10" dxfId="163" priority="142" rank="2"/>
+    <cfRule type="top10" dxfId="119" priority="142" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72:P79">
-    <cfRule type="top10" dxfId="162" priority="141" rank="2"/>
+    <cfRule type="top10" dxfId="118" priority="141" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:S79">
-    <cfRule type="top10" dxfId="161" priority="140" rank="2"/>
+    <cfRule type="top10" dxfId="117" priority="140" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T72:V79">
-    <cfRule type="top10" dxfId="160" priority="139" rank="2"/>
+    <cfRule type="top10" dxfId="116" priority="139" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W72:X79">
-    <cfRule type="top10" dxfId="159" priority="138" rank="2"/>
+    <cfRule type="top10" dxfId="115" priority="138" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y72:Z79">
-    <cfRule type="top10" dxfId="158" priority="137" rank="2"/>
+    <cfRule type="top10" dxfId="114" priority="137" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA72:AC79">
-    <cfRule type="top10" dxfId="157" priority="136" rank="2"/>
+    <cfRule type="top10" dxfId="113" priority="136" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD72:AE79">
-    <cfRule type="top10" dxfId="156" priority="135" rank="2"/>
+    <cfRule type="top10" dxfId="112" priority="135" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF72:AG79">
-    <cfRule type="top10" dxfId="155" priority="134" rank="2"/>
+    <cfRule type="top10" dxfId="111" priority="134" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN72:AN79">
-    <cfRule type="top10" dxfId="154" priority="133" rank="2"/>
+    <cfRule type="top10" dxfId="110" priority="133" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM72:AM79">
-    <cfRule type="top10" dxfId="153" priority="132" rank="2"/>
+    <cfRule type="top10" dxfId="109" priority="132" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:M40 J43:M43">
-    <cfRule type="top10" dxfId="152" priority="393" rank="2"/>
+    <cfRule type="top10" dxfId="108" priority="393" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:P40 N43:P43">
-    <cfRule type="top10" dxfId="151" priority="395" rank="2"/>
+    <cfRule type="top10" dxfId="107" priority="395" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:S40 Q43:S43">
-    <cfRule type="top10" dxfId="150" priority="397" rank="2"/>
+    <cfRule type="top10" dxfId="106" priority="397" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AC40 AA43:AC43">
-    <cfRule type="top10" dxfId="149" priority="399" rank="2"/>
+    <cfRule type="top10" dxfId="105" priority="399" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AE40 AD43:AE43">
-    <cfRule type="top10" dxfId="148" priority="401" rank="2"/>
+    <cfRule type="top10" dxfId="104" priority="401" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AG40 AF43:AG43">
-    <cfRule type="top10" dxfId="147" priority="403" rank="2"/>
+    <cfRule type="top10" dxfId="103" priority="403" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ43">
-    <cfRule type="top10" dxfId="146" priority="405" rank="2"/>
+    <cfRule type="top10" dxfId="102" priority="405" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:V40 T43:V43">
-    <cfRule type="top10" dxfId="145" priority="407" rank="2"/>
+    <cfRule type="top10" dxfId="101" priority="407" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:X40 W43:X43">
-    <cfRule type="top10" dxfId="144" priority="409" rank="2"/>
+    <cfRule type="top10" dxfId="100" priority="409" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Z40 Y43:Z43">
-    <cfRule type="top10" dxfId="143" priority="411" rank="2"/>
+    <cfRule type="top10" dxfId="99" priority="411" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN43 AO40:BX40">
-    <cfRule type="top10" dxfId="142" priority="413" rank="2"/>
+    <cfRule type="top10" dxfId="98" priority="413" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO39 AO41:AO43">
-    <cfRule type="top10" dxfId="141" priority="415" rank="2"/>
+    <cfRule type="top10" dxfId="97" priority="415" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP39 AP41:AP43">
-    <cfRule type="top10" dxfId="140" priority="417" rank="2"/>
+    <cfRule type="top10" dxfId="96" priority="417" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ39 AQ41:AQ43">
-    <cfRule type="top10" dxfId="139" priority="419" rank="2"/>
+    <cfRule type="top10" dxfId="95" priority="419" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR39 AR41:AR43">
-    <cfRule type="top10" dxfId="138" priority="421" rank="2"/>
+    <cfRule type="top10" dxfId="94" priority="421" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS39 AS41:AS43">
-    <cfRule type="top10" dxfId="137" priority="423" rank="2"/>
+    <cfRule type="top10" dxfId="93" priority="423" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT39 AT41:AT43">
-    <cfRule type="top10" dxfId="136" priority="425" rank="2"/>
+    <cfRule type="top10" dxfId="92" priority="425" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU39 AU41:AU43">
-    <cfRule type="top10" dxfId="135" priority="427" rank="2"/>
+    <cfRule type="top10" dxfId="91" priority="427" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV39 AV41:AV43">
-    <cfRule type="top10" dxfId="134" priority="429" rank="2"/>
+    <cfRule type="top10" dxfId="90" priority="429" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW39 AW41:AW43">
-    <cfRule type="top10" dxfId="133" priority="431" rank="2"/>
+    <cfRule type="top10" dxfId="89" priority="431" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX39 AX41:AX43">
-    <cfRule type="top10" dxfId="132" priority="433" rank="2"/>
+    <cfRule type="top10" dxfId="88" priority="433" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY39 AY41:AY43">
-    <cfRule type="top10" dxfId="131" priority="435" rank="2"/>
+    <cfRule type="top10" dxfId="87" priority="435" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ39 AZ41:AZ43">
-    <cfRule type="top10" dxfId="130" priority="437" rank="2"/>
+    <cfRule type="top10" dxfId="86" priority="437" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA39 BA41:BA43">
-    <cfRule type="top10" dxfId="129" priority="439" rank="2"/>
+    <cfRule type="top10" dxfId="85" priority="439" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB39 BB41:BB43">
-    <cfRule type="top10" dxfId="128" priority="441" rank="2"/>
+    <cfRule type="top10" dxfId="84" priority="441" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC39 BC41:BC43">
-    <cfRule type="top10" dxfId="127" priority="443" rank="2"/>
+    <cfRule type="top10" dxfId="83" priority="443" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD39 BD41:BD43">
-    <cfRule type="top10" dxfId="126" priority="445" rank="2"/>
+    <cfRule type="top10" dxfId="82" priority="445" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE39 BE41:BE43">
-    <cfRule type="top10" dxfId="125" priority="447" rank="2"/>
+    <cfRule type="top10" dxfId="81" priority="447" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF39 BF41:BF43">
-    <cfRule type="top10" dxfId="124" priority="449" rank="2"/>
+    <cfRule type="top10" dxfId="80" priority="449" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG39 BG41:BG43">
-    <cfRule type="top10" dxfId="123" priority="451" rank="2"/>
+    <cfRule type="top10" dxfId="79" priority="451" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH39 BH41:BH43">
-    <cfRule type="top10" dxfId="122" priority="453" rank="2"/>
+    <cfRule type="top10" dxfId="78" priority="453" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI39 BI41:BI43">
-    <cfRule type="top10" dxfId="121" priority="455" rank="2"/>
+    <cfRule type="top10" dxfId="77" priority="455" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ8:BJ39 BJ41:BJ43">
-    <cfRule type="top10" dxfId="120" priority="457" rank="2"/>
+    <cfRule type="top10" dxfId="76" priority="457" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK8:BK39 BK41:BK43">
-    <cfRule type="top10" dxfId="119" priority="459" rank="2"/>
+    <cfRule type="top10" dxfId="75" priority="459" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL8:BL39 BL41:BL43">
-    <cfRule type="top10" dxfId="118" priority="461" rank="2"/>
+    <cfRule type="top10" dxfId="74" priority="461" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM8:BM39 BM41:BM43">
-    <cfRule type="top10" dxfId="117" priority="463" rank="2"/>
+    <cfRule type="top10" dxfId="73" priority="463" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN8:BN39 BN41:BN43">
-    <cfRule type="top10" dxfId="116" priority="465" rank="2"/>
+    <cfRule type="top10" dxfId="72" priority="465" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO8:BO39 BO41:BO43">
-    <cfRule type="top10" dxfId="115" priority="467" rank="2"/>
+    <cfRule type="top10" dxfId="71" priority="467" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP8:BP39 BP41:BP43">
-    <cfRule type="top10" dxfId="114" priority="469" rank="2"/>
+    <cfRule type="top10" dxfId="70" priority="469" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ8:BQ39 BQ41:BQ43">
-    <cfRule type="top10" dxfId="113" priority="471" rank="2"/>
+    <cfRule type="top10" dxfId="69" priority="471" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR8:BR39 BR41:BR43">
-    <cfRule type="top10" dxfId="112" priority="473" rank="2"/>
+    <cfRule type="top10" dxfId="68" priority="473" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS8:BS39 BS41:BS43">
-    <cfRule type="top10" dxfId="111" priority="475" rank="2"/>
+    <cfRule type="top10" dxfId="67" priority="475" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT8:BT39 BT41:BT43">
-    <cfRule type="top10" dxfId="110" priority="477" rank="2"/>
+    <cfRule type="top10" dxfId="66" priority="477" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU8:BU39 BU41:BU43">
-    <cfRule type="top10" dxfId="109" priority="479" rank="2"/>
+    <cfRule type="top10" dxfId="65" priority="479" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV8:BV39 BV41:BV43">
-    <cfRule type="top10" dxfId="108" priority="481" rank="2"/>
+    <cfRule type="top10" dxfId="64" priority="481" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW8:BW39 BW41:BW43">
-    <cfRule type="top10" dxfId="107" priority="483" rank="2"/>
+    <cfRule type="top10" dxfId="63" priority="483" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX8:BX39 BX41:BX43">
-    <cfRule type="top10" dxfId="106" priority="485" rank="2"/>
+    <cfRule type="top10" dxfId="62" priority="485" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:M71">
-    <cfRule type="top10" dxfId="105" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="61" priority="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:P71">
-    <cfRule type="top10" dxfId="104" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="60" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:S71">
-    <cfRule type="top10" dxfId="103" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="59" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AC71">
-    <cfRule type="top10" dxfId="102" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="58" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD44:AE71">
-    <cfRule type="top10" dxfId="101" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="57" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF44:AG71">
-    <cfRule type="top10" dxfId="100" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="56" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ44:AJ71">
-    <cfRule type="top10" dxfId="99" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="55" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:V71">
-    <cfRule type="top10" dxfId="98" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="54" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:X71">
-    <cfRule type="top10" dxfId="97" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="53" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y44:Z71">
-    <cfRule type="top10" dxfId="96" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="52" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN44:BX71">
-    <cfRule type="top10" dxfId="95" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="51" priority="11" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI41"/>
   <sheetViews>
@@ -29764,154 +30490,154 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J8:J41">
-    <cfRule type="top10" dxfId="94" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="50" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K41">
-    <cfRule type="top10" dxfId="93" priority="47" rank="2"/>
+    <cfRule type="top10" dxfId="49" priority="47" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L41">
-    <cfRule type="top10" dxfId="92" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="48" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M41">
-    <cfRule type="top10" dxfId="91" priority="45" rank="2"/>
+    <cfRule type="top10" dxfId="47" priority="45" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C33 N8:N41">
-    <cfRule type="top10" dxfId="90" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="46" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D33 O8:O41">
-    <cfRule type="top10" dxfId="89" priority="43" rank="2"/>
+    <cfRule type="top10" dxfId="45" priority="43" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E33 P8:P41">
-    <cfRule type="top10" dxfId="88" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="44" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F33 Q8:Q41">
-    <cfRule type="top10" dxfId="87" priority="41" rank="2"/>
+    <cfRule type="top10" dxfId="43" priority="41" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G33 R8:R41">
-    <cfRule type="top10" dxfId="86" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="42" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y41">
-    <cfRule type="top10" dxfId="85" priority="39" rank="2"/>
+    <cfRule type="top10" dxfId="41" priority="39" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X41">
-    <cfRule type="top10" dxfId="84" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="40" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z41">
-    <cfRule type="top10" dxfId="83" priority="37" rank="2"/>
+    <cfRule type="top10" dxfId="39" priority="37" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA41">
-    <cfRule type="top10" dxfId="82" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="38" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB41">
-    <cfRule type="top10" dxfId="81" priority="35" rank="2"/>
+    <cfRule type="top10" dxfId="37" priority="35" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC41">
-    <cfRule type="top10" dxfId="80" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="36" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD41">
-    <cfRule type="top10" dxfId="79" priority="33" rank="2"/>
+    <cfRule type="top10" dxfId="35" priority="33" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE41">
-    <cfRule type="top10" dxfId="78" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="34" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF41">
-    <cfRule type="top10" dxfId="77" priority="31" rank="2"/>
+    <cfRule type="top10" dxfId="33" priority="31" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG41">
-    <cfRule type="top10" dxfId="76" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="32" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AH41">
-    <cfRule type="top10" dxfId="75" priority="29" rank="2"/>
+    <cfRule type="top10" dxfId="31" priority="29" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI41">
-    <cfRule type="top10" dxfId="74" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="30" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ41">
-    <cfRule type="top10" dxfId="73" priority="27" rank="2"/>
+    <cfRule type="top10" dxfId="29" priority="27" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK41">
-    <cfRule type="top10" dxfId="72" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="28" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AL41">
-    <cfRule type="top10" dxfId="71" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="27" priority="25" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM41">
-    <cfRule type="top10" dxfId="70" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="26" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN41">
-    <cfRule type="top10" dxfId="69" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="25" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO41">
-    <cfRule type="top10" dxfId="68" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="24" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP41">
-    <cfRule type="top10" dxfId="67" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="23" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ41">
-    <cfRule type="top10" dxfId="66" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="22" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR41">
-    <cfRule type="top10" dxfId="65" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="21" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS41">
-    <cfRule type="top10" dxfId="64" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="20" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT41">
-    <cfRule type="top10" dxfId="63" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="19" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU41">
-    <cfRule type="top10" dxfId="62" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="18" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV41">
-    <cfRule type="top10" dxfId="61" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="17" priority="15" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW41">
-    <cfRule type="top10" dxfId="60" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="16" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX41">
-    <cfRule type="top10" dxfId="59" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="15" priority="13" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY41">
-    <cfRule type="top10" dxfId="58" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ41">
-    <cfRule type="top10" dxfId="57" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="11" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA41">
-    <cfRule type="top10" dxfId="56" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB41">
-    <cfRule type="top10" dxfId="55" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="11" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC41">
-    <cfRule type="top10" dxfId="54" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD41">
-    <cfRule type="top10" dxfId="53" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="9" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE41">
-    <cfRule type="top10" dxfId="52" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF41">
-    <cfRule type="top10" dxfId="51" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="7" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG41">
-    <cfRule type="top10" dxfId="50" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH41">
-    <cfRule type="top10" dxfId="49" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="5" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI41">
-    <cfRule type="top10" dxfId="48" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="4" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U41">
-    <cfRule type="top10" dxfId="47" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="3" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC42"/>
   <sheetViews>

--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary (stddev)" sheetId="6" r:id="rId2"/>
-    <sheet name="UCBT_lin2C_6par" sheetId="3" r:id="rId3"/>
-    <sheet name="6par_calc" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Summary (stddev)" sheetId="6" r:id="rId3"/>
+    <sheet name="UCBT_lin2C_6par" sheetId="3" r:id="rId4"/>
+    <sheet name="6par_calc" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="124">
   <si>
     <t>repeat</t>
   </si>
@@ -387,6 +388,9 @@
   <si>
     <t>UCBT_C=0.77</t>
   </si>
+  <si>
+    <t>FINAL EVAL: sum of rewards</t>
+  </si>
 </sst>
 </file>
 
@@ -655,7 +659,742 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="344">
+  <dxfs count="449">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3366,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,7 +4156,7 @@
       </c>
       <c r="V3">
         <f>MATCH(MIN(V8:V134),V8:V134,0)</f>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:BI3" si="0">MATCH(MAX(W8:W134),W8:W134,0)</f>
@@ -3425,47 +4164,47 @@
       </c>
       <c r="X3" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
@@ -7328,7 +8067,9 @@
         <v>49.156190476190474</v>
       </c>
       <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
+      <c r="T29" s="25">
+        <v>1000</v>
+      </c>
       <c r="U29" s="14">
         <v>52798.829999999994</v>
       </c>
@@ -11094,6 +11835,9 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
+      <c r="B54" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
@@ -11148,27 +11892,82 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
+      <c r="B55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
+      <c r="M55" s="19">
+        <f>AVERAGE(Y55:AH55)</f>
+        <v>350.9375</v>
+      </c>
+      <c r="N55" s="19">
+        <f>(SUM(Y55:AC55))/(COUNT(Y55:AC55))</f>
+        <v>217.34699999999998</v>
+      </c>
+      <c r="O55" s="19">
+        <f>(SUM(AD55:AH55))/(COUNT(AD55:AH55))</f>
+        <v>484.52800000000008</v>
+      </c>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
       <c r="R55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="19"/>
-      <c r="AG55" s="19"/>
-      <c r="AH55" s="19"/>
+      <c r="T55">
+        <v>3118</v>
+      </c>
+      <c r="U55" s="14">
+        <v>3509.375</v>
+      </c>
+      <c r="V55" s="2">
+        <v>409.625</v>
+      </c>
+      <c r="W55" s="2">
+        <v>90.164999999999992</v>
+      </c>
+      <c r="X55" s="23">
+        <v>57.06</v>
+      </c>
+      <c r="Y55" s="19">
+        <v>292.70999999999998</v>
+      </c>
+      <c r="Z55" s="19">
+        <v>280.48500000000001</v>
+      </c>
+      <c r="AA55" s="19">
+        <v>185.94</v>
+      </c>
+      <c r="AB55" s="19">
+        <v>223.82</v>
+      </c>
+      <c r="AC55" s="19">
+        <v>103.78</v>
+      </c>
+      <c r="AD55" s="19">
+        <v>549.82749999999999</v>
+      </c>
+      <c r="AE55" s="19">
+        <v>452.09249999999997</v>
+      </c>
+      <c r="AF55" s="19">
+        <v>573.8325000000001</v>
+      </c>
+      <c r="AG55" s="19">
+        <v>375.9375</v>
+      </c>
+      <c r="AH55" s="19">
+        <v>470.95000000000005</v>
+      </c>
       <c r="AI55" s="31"/>
       <c r="AJ55" s="31"/>
       <c r="AK55" s="31"/>
@@ -11201,6 +12000,19 @@
       <c r="A56" s="50">
         <f t="shared" si="1"/>
         <v>49</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="U56" s="12"/>
       <c r="Y56" s="17"/>
@@ -12166,292 +12978,292 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Y91:Y100">
-    <cfRule type="top10" priority="252" rank="20"/>
+    <cfRule type="top10" priority="255" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:J90">
-    <cfRule type="top10" dxfId="343" priority="160" rank="2"/>
+    <cfRule type="top10" dxfId="293" priority="163" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:K90">
-    <cfRule type="top10" dxfId="342" priority="159" rank="2"/>
+    <cfRule type="top10" dxfId="292" priority="162" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L72:L90">
-    <cfRule type="top10" dxfId="341" priority="158" rank="2"/>
+    <cfRule type="top10" dxfId="291" priority="161" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:M90">
-    <cfRule type="top10" dxfId="340" priority="157" rank="2"/>
+    <cfRule type="top10" dxfId="290" priority="160" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72:N90">
-    <cfRule type="top10" dxfId="339" priority="156" rank="2"/>
+    <cfRule type="top10" dxfId="289" priority="159" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:O90">
-    <cfRule type="top10" dxfId="338" priority="155" rank="2"/>
+    <cfRule type="top10" dxfId="288" priority="158" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P72:P90">
-    <cfRule type="top10" dxfId="337" priority="154" rank="2"/>
+    <cfRule type="top10" dxfId="287" priority="157" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:Q90">
-    <cfRule type="top10" dxfId="336" priority="153" rank="2"/>
+    <cfRule type="top10" dxfId="286" priority="156" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R72:R90">
-    <cfRule type="top10" dxfId="335" priority="152" rank="2"/>
+    <cfRule type="top10" dxfId="285" priority="155" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y72:Y90">
-    <cfRule type="top10" dxfId="334" priority="151" rank="2"/>
+    <cfRule type="top10" dxfId="284" priority="154" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X66:X90">
-    <cfRule type="top10" dxfId="333" priority="150" rank="2"/>
+    <cfRule type="top10" dxfId="283" priority="153" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72:Z82">
-    <cfRule type="top10" dxfId="332" priority="149" rank="2"/>
+    <cfRule type="top10" dxfId="282" priority="152" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA72:AA82">
-    <cfRule type="top10" dxfId="331" priority="148" rank="2"/>
+    <cfRule type="top10" dxfId="281" priority="151" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB72:AB82">
-    <cfRule type="top10" dxfId="330" priority="147" rank="2"/>
+    <cfRule type="top10" dxfId="280" priority="150" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC72:AC82">
-    <cfRule type="top10" dxfId="329" priority="146" rank="2"/>
+    <cfRule type="top10" dxfId="279" priority="149" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD72:AD82">
-    <cfRule type="top10" dxfId="328" priority="145" rank="2"/>
+    <cfRule type="top10" dxfId="278" priority="148" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE72:AE82">
-    <cfRule type="top10" dxfId="327" priority="144" rank="2"/>
+    <cfRule type="top10" dxfId="277" priority="147" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF72:AF82">
-    <cfRule type="top10" dxfId="326" priority="143" rank="2"/>
+    <cfRule type="top10" dxfId="276" priority="146" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG72:AG82">
-    <cfRule type="top10" dxfId="325" priority="142" rank="2"/>
+    <cfRule type="top10" dxfId="275" priority="145" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH72:AH82">
-    <cfRule type="top10" dxfId="324" priority="141" rank="2"/>
+    <cfRule type="top10" dxfId="274" priority="144" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI72:AI82">
-    <cfRule type="top10" dxfId="323" priority="140" rank="2"/>
+    <cfRule type="top10" dxfId="273" priority="143" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ72:AJ82">
-    <cfRule type="top10" dxfId="322" priority="139" rank="2"/>
+    <cfRule type="top10" dxfId="272" priority="142" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK72:AK82">
-    <cfRule type="top10" dxfId="321" priority="138" rank="2"/>
+    <cfRule type="top10" dxfId="271" priority="141" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL72:AL82">
-    <cfRule type="top10" dxfId="320" priority="137" rank="2"/>
+    <cfRule type="top10" dxfId="270" priority="140" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM72:AM82">
-    <cfRule type="top10" dxfId="319" priority="136" rank="2"/>
+    <cfRule type="top10" dxfId="269" priority="139" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN72:AN82">
-    <cfRule type="top10" dxfId="318" priority="135" rank="2"/>
+    <cfRule type="top10" dxfId="268" priority="138" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO72:AO82">
-    <cfRule type="top10" dxfId="317" priority="134" rank="2"/>
+    <cfRule type="top10" dxfId="267" priority="137" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP72:AP82">
-    <cfRule type="top10" dxfId="316" priority="133" rank="2"/>
+    <cfRule type="top10" dxfId="266" priority="136" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ72:AQ82">
-    <cfRule type="top10" dxfId="315" priority="132" rank="2"/>
+    <cfRule type="top10" dxfId="265" priority="135" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR72:AR82">
-    <cfRule type="top10" dxfId="314" priority="131" rank="2"/>
+    <cfRule type="top10" dxfId="264" priority="134" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS72:AS82">
-    <cfRule type="top10" dxfId="313" priority="130" rank="2"/>
+    <cfRule type="top10" dxfId="263" priority="133" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT72:AT82">
-    <cfRule type="top10" dxfId="312" priority="129" rank="2"/>
+    <cfRule type="top10" dxfId="262" priority="132" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU72:AU82">
-    <cfRule type="top10" dxfId="311" priority="128" rank="2"/>
+    <cfRule type="top10" dxfId="261" priority="131" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV72:AV82">
-    <cfRule type="top10" dxfId="310" priority="127" rank="2"/>
+    <cfRule type="top10" dxfId="260" priority="130" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW72:AW82">
-    <cfRule type="top10" dxfId="309" priority="126" rank="2"/>
+    <cfRule type="top10" dxfId="259" priority="129" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX72:AX82">
-    <cfRule type="top10" dxfId="308" priority="125" rank="2"/>
+    <cfRule type="top10" dxfId="258" priority="128" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY72:AY82">
-    <cfRule type="top10" dxfId="307" priority="124" rank="2"/>
+    <cfRule type="top10" dxfId="257" priority="127" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ72:AZ82">
-    <cfRule type="top10" dxfId="306" priority="123" rank="2"/>
+    <cfRule type="top10" dxfId="256" priority="126" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA72:BA82">
-    <cfRule type="top10" dxfId="305" priority="122" rank="2"/>
+    <cfRule type="top10" dxfId="255" priority="125" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB72:BB82">
-    <cfRule type="top10" dxfId="304" priority="121" rank="2"/>
+    <cfRule type="top10" dxfId="254" priority="124" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC72:BC82">
-    <cfRule type="top10" dxfId="303" priority="120" rank="2"/>
+    <cfRule type="top10" dxfId="253" priority="123" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD72:BD82">
-    <cfRule type="top10" dxfId="302" priority="119" rank="2"/>
+    <cfRule type="top10" dxfId="252" priority="122" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE72:BE82">
-    <cfRule type="top10" dxfId="301" priority="118" rank="2"/>
+    <cfRule type="top10" dxfId="251" priority="121" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF72:BF82">
-    <cfRule type="top10" dxfId="300" priority="117" rank="2"/>
+    <cfRule type="top10" dxfId="250" priority="120" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG72:BG82">
-    <cfRule type="top10" dxfId="299" priority="116" rank="2"/>
+    <cfRule type="top10" dxfId="249" priority="119" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH72:BH82">
-    <cfRule type="top10" dxfId="298" priority="115" rank="2"/>
+    <cfRule type="top10" dxfId="248" priority="118" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI72:BI82">
-    <cfRule type="top10" dxfId="297" priority="114" rank="2"/>
+    <cfRule type="top10" dxfId="247" priority="117" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72:U75">
-    <cfRule type="top10" dxfId="296" priority="113" rank="2"/>
+    <cfRule type="top10" dxfId="246" priority="116" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J71">
-    <cfRule type="top10" dxfId="295" priority="672" rank="2"/>
+    <cfRule type="top10" dxfId="245" priority="675" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K71">
-    <cfRule type="top10" dxfId="294" priority="674" rank="2"/>
+    <cfRule type="top10" dxfId="244" priority="677" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L71">
-    <cfRule type="top10" dxfId="293" priority="676" rank="2"/>
+    <cfRule type="top10" dxfId="243" priority="679" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P71">
-    <cfRule type="top10" dxfId="292" priority="678" rank="2"/>
+    <cfRule type="top10" dxfId="242" priority="681" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q71">
-    <cfRule type="top10" dxfId="291" priority="680" rank="2"/>
+    <cfRule type="top10" dxfId="241" priority="683" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R71">
-    <cfRule type="top10" dxfId="290" priority="682" rank="2"/>
+    <cfRule type="top10" dxfId="240" priority="685" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U71">
-    <cfRule type="top10" dxfId="289" priority="684" rank="2"/>
+  <conditionalFormatting sqref="U8:U54 U57:U71">
+    <cfRule type="top10" dxfId="239" priority="687" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M71">
-    <cfRule type="top10" dxfId="288" priority="686" rank="2"/>
+  <conditionalFormatting sqref="M8:M54 M57:M71">
+    <cfRule type="top10" dxfId="238" priority="689" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N71">
-    <cfRule type="top10" dxfId="287" priority="688" rank="2"/>
+  <conditionalFormatting sqref="N8:N54 N57:N71">
+    <cfRule type="top10" dxfId="237" priority="691" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O71">
-    <cfRule type="top10" dxfId="286" priority="690" rank="2"/>
+  <conditionalFormatting sqref="O8:O54 O57:O71">
+    <cfRule type="top10" dxfId="236" priority="693" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y71">
-    <cfRule type="top10" dxfId="285" priority="692" rank="2"/>
+  <conditionalFormatting sqref="Y8:Y54 Y57:Y71">
+    <cfRule type="top10" dxfId="235" priority="695" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:Z71">
-    <cfRule type="top10" dxfId="284" priority="694" rank="2"/>
+  <conditionalFormatting sqref="Z8:Z54 Z57:Z71">
+    <cfRule type="top10" dxfId="234" priority="697" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA8:AA71">
-    <cfRule type="top10" dxfId="283" priority="696" rank="2"/>
+  <conditionalFormatting sqref="AA8:AA54 AA57:AA71">
+    <cfRule type="top10" dxfId="233" priority="699" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8:AB71">
-    <cfRule type="top10" dxfId="282" priority="698" rank="2"/>
+  <conditionalFormatting sqref="AB8:AB54 AB57:AB71">
+    <cfRule type="top10" dxfId="232" priority="701" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC8:AC71">
-    <cfRule type="top10" dxfId="281" priority="700" rank="2"/>
+  <conditionalFormatting sqref="AC8:AC54 AC57:AC71">
+    <cfRule type="top10" dxfId="231" priority="703" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD8:AD71">
-    <cfRule type="top10" dxfId="280" priority="702" rank="2"/>
+  <conditionalFormatting sqref="AD8:AD54 AD57:AD71">
+    <cfRule type="top10" dxfId="230" priority="705" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8:AE71">
-    <cfRule type="top10" dxfId="279" priority="704" rank="2"/>
+  <conditionalFormatting sqref="AE8:AE54 AE57:AE71">
+    <cfRule type="top10" dxfId="229" priority="707" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF8:AF71">
-    <cfRule type="top10" dxfId="278" priority="706" rank="2"/>
+  <conditionalFormatting sqref="AF8:AF54 AF57:AF71">
+    <cfRule type="top10" dxfId="228" priority="709" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AG71">
-    <cfRule type="top10" dxfId="277" priority="708" rank="2"/>
+  <conditionalFormatting sqref="AG8:AG54 AG57:AG71">
+    <cfRule type="top10" dxfId="227" priority="711" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH8:AH71">
-    <cfRule type="top10" dxfId="276" priority="710" rank="2"/>
+  <conditionalFormatting sqref="AH8:AH54 AH57:AH71">
+    <cfRule type="top10" dxfId="226" priority="713" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI71">
-    <cfRule type="top10" dxfId="275" priority="712" rank="2"/>
+    <cfRule type="top10" dxfId="225" priority="715" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ71">
-    <cfRule type="top10" dxfId="274" priority="714" rank="2"/>
+    <cfRule type="top10" dxfId="224" priority="717" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK71">
-    <cfRule type="top10" dxfId="273" priority="716" rank="2"/>
+    <cfRule type="top10" dxfId="223" priority="719" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AL71">
-    <cfRule type="top10" dxfId="272" priority="718" rank="2"/>
+    <cfRule type="top10" dxfId="222" priority="721" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM71">
-    <cfRule type="top10" dxfId="271" priority="720" rank="2"/>
+    <cfRule type="top10" dxfId="221" priority="723" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN71">
-    <cfRule type="top10" dxfId="270" priority="722" rank="2"/>
+    <cfRule type="top10" dxfId="220" priority="725" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO71">
-    <cfRule type="top10" dxfId="269" priority="724" rank="2"/>
+    <cfRule type="top10" dxfId="219" priority="727" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP71">
-    <cfRule type="top10" dxfId="268" priority="726" rank="2"/>
+    <cfRule type="top10" dxfId="218" priority="729" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ71">
-    <cfRule type="top10" dxfId="267" priority="728" rank="2"/>
+    <cfRule type="top10" dxfId="217" priority="731" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR71">
-    <cfRule type="top10" dxfId="266" priority="730" rank="2"/>
+    <cfRule type="top10" dxfId="216" priority="733" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS71">
-    <cfRule type="top10" dxfId="265" priority="732" rank="2"/>
+    <cfRule type="top10" dxfId="215" priority="735" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT71">
-    <cfRule type="top10" dxfId="264" priority="734" rank="2"/>
+    <cfRule type="top10" dxfId="214" priority="737" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU71">
-    <cfRule type="top10" dxfId="263" priority="736" rank="2"/>
+    <cfRule type="top10" dxfId="213" priority="739" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV71">
-    <cfRule type="top10" dxfId="262" priority="738" rank="2"/>
+    <cfRule type="top10" dxfId="212" priority="741" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW71">
-    <cfRule type="top10" dxfId="261" priority="740" rank="2"/>
+    <cfRule type="top10" dxfId="211" priority="743" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX71">
-    <cfRule type="top10" dxfId="260" priority="742" rank="2"/>
+    <cfRule type="top10" dxfId="210" priority="745" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY71">
-    <cfRule type="top10" dxfId="259" priority="744" rank="2"/>
+    <cfRule type="top10" dxfId="209" priority="747" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ71">
-    <cfRule type="top10" dxfId="258" priority="746" rank="2"/>
+    <cfRule type="top10" dxfId="208" priority="749" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA71">
-    <cfRule type="top10" dxfId="257" priority="748" rank="2"/>
+    <cfRule type="top10" dxfId="207" priority="751" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB71">
-    <cfRule type="top10" dxfId="256" priority="750" rank="2"/>
+    <cfRule type="top10" dxfId="206" priority="753" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC71">
-    <cfRule type="top10" dxfId="255" priority="752" rank="2"/>
+    <cfRule type="top10" dxfId="205" priority="755" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD71">
-    <cfRule type="top10" dxfId="254" priority="754" rank="2"/>
+    <cfRule type="top10" dxfId="204" priority="757" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE71">
-    <cfRule type="top10" dxfId="253" priority="756" rank="2"/>
+    <cfRule type="top10" dxfId="203" priority="759" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF71">
-    <cfRule type="top10" dxfId="252" priority="758" rank="2"/>
+    <cfRule type="top10" dxfId="202" priority="761" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG71">
-    <cfRule type="top10" dxfId="251" priority="760" rank="2"/>
+    <cfRule type="top10" dxfId="201" priority="763" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH71">
-    <cfRule type="top10" dxfId="250" priority="762" rank="2"/>
+    <cfRule type="top10" dxfId="200" priority="765" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI71">
-    <cfRule type="top10" dxfId="249" priority="764" rank="2"/>
+    <cfRule type="top10" dxfId="199" priority="767" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12459,6 +13271,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>779</v>
+      </c>
+      <c r="C4">
+        <v>3510.29</v>
+      </c>
+      <c r="D4">
+        <v>408.71</v>
+      </c>
+      <c r="E4">
+        <v>90.22</v>
+      </c>
+      <c r="F4">
+        <v>57.34</v>
+      </c>
+      <c r="G4">
+        <v>293.45999999999998</v>
+      </c>
+      <c r="H4">
+        <v>280.89</v>
+      </c>
+      <c r="I4">
+        <v>186.74</v>
+      </c>
+      <c r="J4">
+        <v>224.17</v>
+      </c>
+      <c r="K4">
+        <v>103.63</v>
+      </c>
+      <c r="L4">
+        <v>548.5</v>
+      </c>
+      <c r="M4">
+        <v>452.66</v>
+      </c>
+      <c r="N4">
+        <v>573.70000000000005</v>
+      </c>
+      <c r="O4">
+        <v>374.66</v>
+      </c>
+      <c r="P4">
+        <v>471.88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>780</v>
+      </c>
+      <c r="C5">
+        <v>3509.06</v>
+      </c>
+      <c r="D5">
+        <v>409.94</v>
+      </c>
+      <c r="E5">
+        <v>90.16</v>
+      </c>
+      <c r="F5">
+        <v>57.09</v>
+      </c>
+      <c r="G5">
+        <v>292.85000000000002</v>
+      </c>
+      <c r="H5">
+        <v>280.13</v>
+      </c>
+      <c r="I5">
+        <v>185.73</v>
+      </c>
+      <c r="J5">
+        <v>223.86</v>
+      </c>
+      <c r="K5">
+        <v>104.09</v>
+      </c>
+      <c r="L5">
+        <v>548.69000000000005</v>
+      </c>
+      <c r="M5">
+        <v>452.46</v>
+      </c>
+      <c r="N5">
+        <v>576.22</v>
+      </c>
+      <c r="O5">
+        <v>374.94</v>
+      </c>
+      <c r="P5">
+        <v>470.11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>780</v>
+      </c>
+      <c r="C6">
+        <v>3510.14</v>
+      </c>
+      <c r="D6">
+        <v>408.86</v>
+      </c>
+      <c r="E6">
+        <v>90.16</v>
+      </c>
+      <c r="F6">
+        <v>56.99</v>
+      </c>
+      <c r="G6">
+        <v>292.74</v>
+      </c>
+      <c r="H6">
+        <v>280.39</v>
+      </c>
+      <c r="I6">
+        <v>186.35</v>
+      </c>
+      <c r="J6">
+        <v>223.29</v>
+      </c>
+      <c r="K6">
+        <v>103.51</v>
+      </c>
+      <c r="L6">
+        <v>551.96</v>
+      </c>
+      <c r="M6">
+        <v>450.71</v>
+      </c>
+      <c r="N6">
+        <v>573.07000000000005</v>
+      </c>
+      <c r="O6">
+        <v>376.19</v>
+      </c>
+      <c r="P6">
+        <v>471.92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>779</v>
+      </c>
+      <c r="C7">
+        <v>3508.01</v>
+      </c>
+      <c r="D7">
+        <v>410.99</v>
+      </c>
+      <c r="E7">
+        <v>90.12</v>
+      </c>
+      <c r="F7">
+        <v>56.82</v>
+      </c>
+      <c r="G7">
+        <v>291.79000000000002</v>
+      </c>
+      <c r="H7">
+        <v>280.52999999999997</v>
+      </c>
+      <c r="I7">
+        <v>184.94</v>
+      </c>
+      <c r="J7">
+        <v>223.96</v>
+      </c>
+      <c r="K7">
+        <v>103.89</v>
+      </c>
+      <c r="L7">
+        <v>550.16</v>
+      </c>
+      <c r="M7">
+        <v>452.54</v>
+      </c>
+      <c r="N7">
+        <v>572.34</v>
+      </c>
+      <c r="O7">
+        <v>377.96</v>
+      </c>
+      <c r="P7">
+        <v>469.89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>AVERAGE(C4:C7)</f>
+        <v>3509.375</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" ref="D9:P9" si="0">AVERAGE(D4:D7)</f>
+        <v>409.625</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="0"/>
+        <v>90.164999999999992</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="0"/>
+        <v>57.06</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="0"/>
+        <v>292.70999999999998</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>280.48500000000001</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="0"/>
+        <v>185.94</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="0"/>
+        <v>223.82</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="0"/>
+        <v>103.78</v>
+      </c>
+      <c r="L9" s="25">
+        <f t="shared" si="0"/>
+        <v>549.82749999999999</v>
+      </c>
+      <c r="M9" s="25">
+        <f t="shared" si="0"/>
+        <v>452.09249999999997</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" si="0"/>
+        <v>573.8325000000001</v>
+      </c>
+      <c r="O9" s="25">
+        <f t="shared" si="0"/>
+        <v>375.9375</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" si="0"/>
+        <v>470.95000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA85"/>
   <sheetViews>
@@ -29450,332 +30523,332 @@
     <cfRule type="top10" priority="181" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86:M93">
-    <cfRule type="top10" dxfId="248" priority="180" rank="2"/>
+    <cfRule type="top10" dxfId="448" priority="180" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N86:P93">
-    <cfRule type="top10" dxfId="247" priority="179" rank="2"/>
+    <cfRule type="top10" dxfId="447" priority="179" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q86:S93">
-    <cfRule type="top10" dxfId="246" priority="178" rank="2"/>
+    <cfRule type="top10" dxfId="446" priority="178" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T86:V93">
-    <cfRule type="top10" dxfId="245" priority="177" rank="2"/>
+    <cfRule type="top10" dxfId="445" priority="177" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W86:X93">
-    <cfRule type="top10" dxfId="244" priority="176" rank="2"/>
+    <cfRule type="top10" dxfId="444" priority="176" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y86:Z93">
-    <cfRule type="top10" dxfId="243" priority="175" rank="2"/>
+    <cfRule type="top10" dxfId="443" priority="175" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA86:AC93">
-    <cfRule type="top10" dxfId="242" priority="174" rank="2"/>
+    <cfRule type="top10" dxfId="442" priority="174" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD86:AE93">
-    <cfRule type="top10" dxfId="241" priority="173" rank="2"/>
+    <cfRule type="top10" dxfId="441" priority="173" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF86:AG93">
-    <cfRule type="top10" dxfId="240" priority="172" rank="2"/>
+    <cfRule type="top10" dxfId="440" priority="172" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN86:AN93">
-    <cfRule type="top10" dxfId="239" priority="171" rank="2"/>
+    <cfRule type="top10" dxfId="439" priority="171" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM86:AM93">
-    <cfRule type="top10" dxfId="238" priority="170" rank="2"/>
+    <cfRule type="top10" dxfId="438" priority="170" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:M50 J8:M47">
-    <cfRule type="top10" dxfId="237" priority="431" rank="2"/>
+    <cfRule type="top10" dxfId="437" priority="431" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:P50 N8:P47">
-    <cfRule type="top10" dxfId="236" priority="433" rank="2"/>
+    <cfRule type="top10" dxfId="436" priority="433" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50:S50 Q8:S47">
-    <cfRule type="top10" dxfId="235" priority="435" rank="2"/>
+    <cfRule type="top10" dxfId="435" priority="435" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA50:AC50 AA8:AC47">
-    <cfRule type="top10" dxfId="234" priority="437" rank="2"/>
+    <cfRule type="top10" dxfId="434" priority="437" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD50:AE50 AD8:AE47">
-    <cfRule type="top10" dxfId="233" priority="439" rank="2"/>
+    <cfRule type="top10" dxfId="433" priority="439" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF50:AG50 AF8:AG47">
-    <cfRule type="top10" dxfId="232" priority="441" rank="2"/>
+    <cfRule type="top10" dxfId="432" priority="441" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:V50 T8:V47">
-    <cfRule type="top10" dxfId="231" priority="445" rank="2"/>
+    <cfRule type="top10" dxfId="431" priority="445" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:X50 W8:X47">
-    <cfRule type="top10" dxfId="230" priority="447" rank="2"/>
+    <cfRule type="top10" dxfId="430" priority="447" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y50:Z50 Y8:Z47">
-    <cfRule type="top10" dxfId="229" priority="449" rank="2"/>
+    <cfRule type="top10" dxfId="429" priority="449" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO47:BX47 AN8:AN18 AN30:AN50">
-    <cfRule type="top10" dxfId="228" priority="451" rank="2"/>
+    <cfRule type="top10" dxfId="428" priority="451" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO48:AO50 AO8:AO18 AO30:AO46">
-    <cfRule type="top10" dxfId="227" priority="453" rank="2"/>
+    <cfRule type="top10" dxfId="427" priority="453" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP48:AP50 AP8:AP18 AP30:AP46">
-    <cfRule type="top10" dxfId="226" priority="455" rank="2"/>
+    <cfRule type="top10" dxfId="426" priority="455" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ48:AQ50 AQ8:AQ18 AQ30:AQ46">
-    <cfRule type="top10" dxfId="225" priority="457" rank="2"/>
+    <cfRule type="top10" dxfId="425" priority="457" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR48:AR50 AR8:AR18 AR30:AR46">
-    <cfRule type="top10" dxfId="224" priority="459" rank="2"/>
+    <cfRule type="top10" dxfId="424" priority="459" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS48:AS50 AS8:AS18 AS30:AS46">
-    <cfRule type="top10" dxfId="223" priority="461" rank="2"/>
+    <cfRule type="top10" dxfId="423" priority="461" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT48:AT50 AT8:AT18 AT30:AT46">
-    <cfRule type="top10" dxfId="222" priority="463" rank="2"/>
+    <cfRule type="top10" dxfId="422" priority="463" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU48:AU50 AU8:AU18 AU30:AU46">
-    <cfRule type="top10" dxfId="221" priority="465" rank="2"/>
+    <cfRule type="top10" dxfId="421" priority="465" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV48:AV50 AV8:AV18 AV30:AV46">
-    <cfRule type="top10" dxfId="220" priority="467" rank="2"/>
+    <cfRule type="top10" dxfId="420" priority="467" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW48:AW50 AW8:AW18 AW30:AW46">
-    <cfRule type="top10" dxfId="219" priority="469" rank="2"/>
+    <cfRule type="top10" dxfId="419" priority="469" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX48:AX50 AX8:AX18 AX30:AX46">
-    <cfRule type="top10" dxfId="218" priority="471" rank="2"/>
+    <cfRule type="top10" dxfId="418" priority="471" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY48:AY50 AY8:AY18 AY30:AY46">
-    <cfRule type="top10" dxfId="217" priority="473" rank="2"/>
+    <cfRule type="top10" dxfId="417" priority="473" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ48:AZ50 AZ8:AZ18 AZ30:AZ46">
-    <cfRule type="top10" dxfId="216" priority="475" rank="2"/>
+    <cfRule type="top10" dxfId="416" priority="475" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA48:BA50 BA8:BA18 BA30:BA46">
-    <cfRule type="top10" dxfId="215" priority="477" rank="2"/>
+    <cfRule type="top10" dxfId="415" priority="477" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB48:BB50 BB8:BB18 BB30:BB46">
-    <cfRule type="top10" dxfId="214" priority="479" rank="2"/>
+    <cfRule type="top10" dxfId="414" priority="479" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC48:BC50 BC8:BC18 BC30:BC46">
-    <cfRule type="top10" dxfId="213" priority="481" rank="2"/>
+    <cfRule type="top10" dxfId="413" priority="481" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD48:BD50 BD8:BD18 BD30:BD46">
-    <cfRule type="top10" dxfId="212" priority="483" rank="2"/>
+    <cfRule type="top10" dxfId="412" priority="483" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE48:BE50 BE8:BE18 BE30:BE46">
-    <cfRule type="top10" dxfId="211" priority="485" rank="2"/>
+    <cfRule type="top10" dxfId="411" priority="485" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF48:BF50 BF8:BF18 BF30:BF46">
-    <cfRule type="top10" dxfId="210" priority="487" rank="2"/>
+    <cfRule type="top10" dxfId="410" priority="487" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG48:BG50 BG8:BG18 BG30:BG46">
-    <cfRule type="top10" dxfId="209" priority="489" rank="2"/>
+    <cfRule type="top10" dxfId="409" priority="489" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH48:BH50 BH8:BH18 BH30:BH46">
-    <cfRule type="top10" dxfId="208" priority="491" rank="2"/>
+    <cfRule type="top10" dxfId="408" priority="491" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI48:BI50 BI8:BI18 BI30:BI46">
-    <cfRule type="top10" dxfId="207" priority="493" rank="2"/>
+    <cfRule type="top10" dxfId="407" priority="493" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ48:BJ50 BJ8:BJ18 BJ30:BJ46">
-    <cfRule type="top10" dxfId="206" priority="495" rank="2"/>
+    <cfRule type="top10" dxfId="406" priority="495" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK48:BK50 BK8:BK18 BK30:BK46">
-    <cfRule type="top10" dxfId="205" priority="497" rank="2"/>
+    <cfRule type="top10" dxfId="405" priority="497" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL48:BL50 BL8:BL18 BL30:BL46">
-    <cfRule type="top10" dxfId="204" priority="499" rank="2"/>
+    <cfRule type="top10" dxfId="404" priority="499" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM48:BM50 BM8:BM18 BM30:BM46">
-    <cfRule type="top10" dxfId="203" priority="501" rank="2"/>
+    <cfRule type="top10" dxfId="403" priority="501" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN48:BN50 BN8:BN18 BN30:BN46">
-    <cfRule type="top10" dxfId="202" priority="503" rank="2"/>
+    <cfRule type="top10" dxfId="402" priority="503" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO48:BO50 BO8:BO18 BO30:BO46">
-    <cfRule type="top10" dxfId="201" priority="505" rank="2"/>
+    <cfRule type="top10" dxfId="401" priority="505" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP48:BP50 BP8:BP18 BP30:BP46">
-    <cfRule type="top10" dxfId="200" priority="507" rank="2"/>
+    <cfRule type="top10" dxfId="400" priority="507" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ48:BQ50 BQ8:BQ18 BQ30:BQ46">
-    <cfRule type="top10" dxfId="199" priority="509" rank="2"/>
+    <cfRule type="top10" dxfId="399" priority="509" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR48:BR50 BR8:BR18 BR30:BR46">
-    <cfRule type="top10" dxfId="198" priority="511" rank="2"/>
+    <cfRule type="top10" dxfId="398" priority="511" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS48:BS50 BS8:BS18 BS30:BS46">
-    <cfRule type="top10" dxfId="197" priority="513" rank="2"/>
+    <cfRule type="top10" dxfId="397" priority="513" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT48:BT50 BT8:BT18 BT30:BT46">
-    <cfRule type="top10" dxfId="196" priority="515" rank="2"/>
+    <cfRule type="top10" dxfId="396" priority="515" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU48:BU50 BU8:BU18 BU30:BU46">
-    <cfRule type="top10" dxfId="195" priority="517" rank="2"/>
+    <cfRule type="top10" dxfId="395" priority="517" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV48:BV50 BV8:BV18 BV30:BV46">
-    <cfRule type="top10" dxfId="194" priority="519" rank="2"/>
+    <cfRule type="top10" dxfId="394" priority="519" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW48:BW50 BW8:BW18 BW30:BW46">
-    <cfRule type="top10" dxfId="193" priority="521" rank="2"/>
+    <cfRule type="top10" dxfId="393" priority="521" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX48:BX50 BX8:BX18 BX30:BX46">
-    <cfRule type="top10" dxfId="192" priority="523" rank="2"/>
+    <cfRule type="top10" dxfId="392" priority="523" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ18 AJ30:AJ50">
-    <cfRule type="top10" dxfId="191" priority="815" rank="2"/>
+    <cfRule type="top10" dxfId="391" priority="815" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19:AJ29">
-    <cfRule type="top10" dxfId="190" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="390" priority="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN19:AN29">
-    <cfRule type="top10" dxfId="189" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="389" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AO29">
-    <cfRule type="top10" dxfId="188" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="388" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP19:AP29">
-    <cfRule type="top10" dxfId="187" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="387" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:AQ29">
-    <cfRule type="top10" dxfId="186" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="386" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19:AR29">
-    <cfRule type="top10" dxfId="185" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="385" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19:AS29">
-    <cfRule type="top10" dxfId="184" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="384" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT19:AT29">
-    <cfRule type="top10" dxfId="183" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="383" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU19:AU29">
-    <cfRule type="top10" dxfId="182" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="382" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV19:AV29">
-    <cfRule type="top10" dxfId="181" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="381" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW19:AW29">
-    <cfRule type="top10" dxfId="180" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="380" priority="11" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX19:AX29">
-    <cfRule type="top10" dxfId="179" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="379" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19:AY29">
-    <cfRule type="top10" dxfId="178" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="378" priority="13" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19:AZ29">
-    <cfRule type="top10" dxfId="177" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="377" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA19:BA29">
-    <cfRule type="top10" dxfId="176" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="376" priority="15" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB19:BB29">
-    <cfRule type="top10" dxfId="175" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="375" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC19:BC29">
-    <cfRule type="top10" dxfId="174" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="374" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD19:BD29">
-    <cfRule type="top10" dxfId="173" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="373" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE19:BE29">
-    <cfRule type="top10" dxfId="172" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="372" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF19:BF29">
-    <cfRule type="top10" dxfId="171" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="371" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG19:BG29">
-    <cfRule type="top10" dxfId="170" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="370" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH19:BH29">
-    <cfRule type="top10" dxfId="169" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="369" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI19:BI29">
-    <cfRule type="top10" dxfId="168" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="368" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ19:BJ29">
-    <cfRule type="top10" dxfId="167" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="367" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK19:BK29">
-    <cfRule type="top10" dxfId="166" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="366" priority="25" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL19:BL29">
-    <cfRule type="top10" dxfId="165" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="365" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM19:BM29">
-    <cfRule type="top10" dxfId="164" priority="27" rank="2"/>
+    <cfRule type="top10" dxfId="364" priority="27" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN19:BN29">
-    <cfRule type="top10" dxfId="163" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="363" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO19:BO29">
-    <cfRule type="top10" dxfId="162" priority="29" rank="2"/>
+    <cfRule type="top10" dxfId="362" priority="29" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP19:BP29">
-    <cfRule type="top10" dxfId="161" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="361" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ19:BQ29">
-    <cfRule type="top10" dxfId="160" priority="31" rank="2"/>
+    <cfRule type="top10" dxfId="360" priority="31" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR19:BR29">
-    <cfRule type="top10" dxfId="159" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="359" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS19:BS29">
-    <cfRule type="top10" dxfId="158" priority="33" rank="2"/>
+    <cfRule type="top10" dxfId="358" priority="33" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT19:BT29">
-    <cfRule type="top10" dxfId="157" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="357" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU19:BU29">
-    <cfRule type="top10" dxfId="156" priority="35" rank="2"/>
+    <cfRule type="top10" dxfId="356" priority="35" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV19:BV29">
-    <cfRule type="top10" dxfId="155" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="355" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW19:BW29">
-    <cfRule type="top10" dxfId="154" priority="37" rank="2"/>
+    <cfRule type="top10" dxfId="354" priority="37" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX19:BX29">
-    <cfRule type="top10" dxfId="153" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="353" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:M85">
-    <cfRule type="top10" dxfId="152" priority="816" rank="2"/>
+    <cfRule type="top10" dxfId="352" priority="816" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51:P85">
-    <cfRule type="top10" dxfId="151" priority="818" rank="2"/>
+    <cfRule type="top10" dxfId="351" priority="818" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:S85">
-    <cfRule type="top10" dxfId="150" priority="820" rank="2"/>
+    <cfRule type="top10" dxfId="350" priority="820" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:AC85">
-    <cfRule type="top10" dxfId="149" priority="822" rank="2"/>
+    <cfRule type="top10" dxfId="349" priority="822" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD51:AE85">
-    <cfRule type="top10" dxfId="148" priority="824" rank="2"/>
+    <cfRule type="top10" dxfId="348" priority="824" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF51:AG85">
-    <cfRule type="top10" dxfId="147" priority="826" rank="2"/>
+    <cfRule type="top10" dxfId="347" priority="826" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ51:AJ85">
-    <cfRule type="top10" dxfId="146" priority="828" rank="2"/>
+    <cfRule type="top10" dxfId="346" priority="828" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:V85">
-    <cfRule type="top10" dxfId="145" priority="830" rank="2"/>
+    <cfRule type="top10" dxfId="345" priority="830" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:X85">
-    <cfRule type="top10" dxfId="144" priority="832" rank="2"/>
+    <cfRule type="top10" dxfId="344" priority="832" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y51:Z85">
-    <cfRule type="top10" dxfId="143" priority="834" rank="2"/>
+    <cfRule type="top10" dxfId="343" priority="834" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN51:BX85">
-    <cfRule type="top10" dxfId="142" priority="836" rank="2"/>
+    <cfRule type="top10" dxfId="342" priority="836" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI41"/>
   <sheetViews>
@@ -36784,154 +37857,154 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J8:J41">
-    <cfRule type="top10" dxfId="141" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="341" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K41">
-    <cfRule type="top10" dxfId="140" priority="47" rank="2"/>
+    <cfRule type="top10" dxfId="340" priority="47" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L41">
-    <cfRule type="top10" dxfId="139" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="339" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M41">
-    <cfRule type="top10" dxfId="138" priority="45" rank="2"/>
+    <cfRule type="top10" dxfId="338" priority="45" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C33 N8:N41">
-    <cfRule type="top10" dxfId="137" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="337" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D33 O8:O41">
-    <cfRule type="top10" dxfId="136" priority="43" rank="2"/>
+    <cfRule type="top10" dxfId="336" priority="43" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E33 P8:P41">
-    <cfRule type="top10" dxfId="135" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="335" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F33 Q8:Q41">
-    <cfRule type="top10" dxfId="134" priority="41" rank="2"/>
+    <cfRule type="top10" dxfId="334" priority="41" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G33 R8:R41">
-    <cfRule type="top10" dxfId="133" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="333" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y41">
-    <cfRule type="top10" dxfId="132" priority="39" rank="2"/>
+    <cfRule type="top10" dxfId="332" priority="39" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X41">
-    <cfRule type="top10" dxfId="131" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="331" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z41">
-    <cfRule type="top10" dxfId="130" priority="37" rank="2"/>
+    <cfRule type="top10" dxfId="330" priority="37" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA41">
-    <cfRule type="top10" dxfId="129" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="329" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB41">
-    <cfRule type="top10" dxfId="128" priority="35" rank="2"/>
+    <cfRule type="top10" dxfId="328" priority="35" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC41">
-    <cfRule type="top10" dxfId="127" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="327" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD41">
-    <cfRule type="top10" dxfId="126" priority="33" rank="2"/>
+    <cfRule type="top10" dxfId="326" priority="33" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE41">
-    <cfRule type="top10" dxfId="125" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="325" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF41">
-    <cfRule type="top10" dxfId="124" priority="31" rank="2"/>
+    <cfRule type="top10" dxfId="324" priority="31" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG41">
-    <cfRule type="top10" dxfId="123" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="323" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AH41">
-    <cfRule type="top10" dxfId="122" priority="29" rank="2"/>
+    <cfRule type="top10" dxfId="322" priority="29" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI41">
-    <cfRule type="top10" dxfId="121" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="321" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ41">
-    <cfRule type="top10" dxfId="120" priority="27" rank="2"/>
+    <cfRule type="top10" dxfId="320" priority="27" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK41">
-    <cfRule type="top10" dxfId="119" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="319" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AL41">
-    <cfRule type="top10" dxfId="118" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="318" priority="25" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM41">
-    <cfRule type="top10" dxfId="117" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="317" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN41">
-    <cfRule type="top10" dxfId="116" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="316" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO41">
-    <cfRule type="top10" dxfId="115" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="315" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP41">
-    <cfRule type="top10" dxfId="114" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="314" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ41">
-    <cfRule type="top10" dxfId="113" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="313" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR41">
-    <cfRule type="top10" dxfId="112" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="312" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS41">
-    <cfRule type="top10" dxfId="111" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="311" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT41">
-    <cfRule type="top10" dxfId="110" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="310" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU41">
-    <cfRule type="top10" dxfId="109" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="309" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV41">
-    <cfRule type="top10" dxfId="108" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="308" priority="15" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW41">
-    <cfRule type="top10" dxfId="107" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="307" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX41">
-    <cfRule type="top10" dxfId="106" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="306" priority="13" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY41">
-    <cfRule type="top10" dxfId="105" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="305" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ41">
-    <cfRule type="top10" dxfId="104" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="304" priority="11" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA41">
-    <cfRule type="top10" dxfId="103" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="303" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB41">
-    <cfRule type="top10" dxfId="102" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="302" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC41">
-    <cfRule type="top10" dxfId="101" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="301" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD41">
-    <cfRule type="top10" dxfId="100" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="300" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE41">
-    <cfRule type="top10" dxfId="99" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="299" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF41">
-    <cfRule type="top10" dxfId="98" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="298" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG41">
-    <cfRule type="top10" dxfId="97" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="297" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH41">
-    <cfRule type="top10" dxfId="96" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="296" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI41">
-    <cfRule type="top10" dxfId="95" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="295" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U41">
-    <cfRule type="top10" dxfId="94" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="294" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC42"/>
   <sheetViews>

--- a/evaluations_fixed_parameters/Results_fixed.xlsx
+++ b/evaluations_fixed_parameters/Results_fixed.xlsx
@@ -659,1400 +659,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="449">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="250">
     <dxf>
       <fill>
         <patternFill>
@@ -4105,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,7 +2763,7 @@
       </c>
       <c r="V3">
         <f>MATCH(MIN(V8:V134),V8:V134,0)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:BI3" si="0">MATCH(MAX(W8:W134),W8:W134,0)</f>
@@ -4164,11 +2771,11 @@
       </c>
       <c r="X3" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
@@ -4188,15 +2795,15 @@
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
@@ -12014,17 +10621,63 @@
       <c r="G56" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="U56" s="12"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="17"/>
-      <c r="AC56" s="17"/>
-      <c r="AD56" s="17"/>
-      <c r="AE56" s="17"/>
-      <c r="AF56" s="17"/>
-      <c r="AG56" s="17"/>
-      <c r="AH56" s="17"/>
+      <c r="M56" s="19">
+        <f>AVERAGE(Y56:AH56)</f>
+        <v>355.58299999999997</v>
+      </c>
+      <c r="N56" s="19">
+        <f>(SUM(Y56:AC56))/(COUNT(Y56:AC56))</f>
+        <v>215.73599999999996</v>
+      </c>
+      <c r="O56" s="19">
+        <f>(SUM(AD56:AH56))/(COUNT(AD56:AH56))</f>
+        <v>495.43</v>
+      </c>
+      <c r="T56">
+        <v>680</v>
+      </c>
+      <c r="U56" s="12">
+        <v>3555.83</v>
+      </c>
+      <c r="V56" s="2">
+        <v>363.17</v>
+      </c>
+      <c r="W56" s="2">
+        <v>90.7</v>
+      </c>
+      <c r="X56" s="1">
+        <v>59.19</v>
+      </c>
+      <c r="Y56" s="17">
+        <v>292.77999999999997</v>
+      </c>
+      <c r="Z56" s="17">
+        <v>276.8</v>
+      </c>
+      <c r="AA56" s="17">
+        <v>183.81</v>
+      </c>
+      <c r="AB56" s="17">
+        <v>222.02</v>
+      </c>
+      <c r="AC56" s="17">
+        <v>103.27</v>
+      </c>
+      <c r="AD56" s="17">
+        <v>569.77</v>
+      </c>
+      <c r="AE56" s="17">
+        <v>469.25</v>
+      </c>
+      <c r="AF56" s="17">
+        <v>600.16999999999996</v>
+      </c>
+      <c r="AG56" s="17">
+        <v>374.43</v>
+      </c>
+      <c r="AH56" s="17">
+        <v>463.53</v>
+      </c>
       <c r="AI56" s="33"/>
       <c r="AJ56" s="33"/>
       <c r="AK56" s="33"/>
@@ -12981,289 +11634,289 @@
     <cfRule type="top10" priority="255" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:J90">
-    <cfRule type="top10" dxfId="293" priority="163" rank="2"/>
+    <cfRule type="top10" dxfId="249" priority="163" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:K90">
-    <cfRule type="top10" dxfId="292" priority="162" rank="2"/>
+    <cfRule type="top10" dxfId="248" priority="162" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L72:L90">
-    <cfRule type="top10" dxfId="291" priority="161" rank="2"/>
+    <cfRule type="top10" dxfId="247" priority="161" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:M90">
-    <cfRule type="top10" dxfId="290" priority="160" rank="2"/>
+    <cfRule type="top10" dxfId="246" priority="160" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72:N90">
-    <cfRule type="top10" dxfId="289" priority="159" rank="2"/>
+    <cfRule type="top10" dxfId="245" priority="159" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:O90">
-    <cfRule type="top10" dxfId="288" priority="158" rank="2"/>
+    <cfRule type="top10" dxfId="244" priority="158" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P72:P90">
-    <cfRule type="top10" dxfId="287" priority="157" rank="2"/>
+    <cfRule type="top10" dxfId="243" priority="157" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:Q90">
-    <cfRule type="top10" dxfId="286" priority="156" rank="2"/>
+    <cfRule type="top10" dxfId="242" priority="156" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R72:R90">
-    <cfRule type="top10" dxfId="285" priority="155" rank="2"/>
+    <cfRule type="top10" dxfId="241" priority="155" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y72:Y90">
-    <cfRule type="top10" dxfId="284" priority="154" rank="2"/>
+    <cfRule type="top10" dxfId="240" priority="154" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X66:X90">
-    <cfRule type="top10" dxfId="283" priority="153" rank="2"/>
+    <cfRule type="top10" dxfId="239" priority="153" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72:Z82">
-    <cfRule type="top10" dxfId="282" priority="152" rank="2"/>
+    <cfRule type="top10" dxfId="238" priority="152" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA72:AA82">
-    <cfRule type="top10" dxfId="281" priority="151" rank="2"/>
+    <cfRule type="top10" dxfId="237" priority="151" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB72:AB82">
-    <cfRule type="top10" dxfId="280" priority="150" rank="2"/>
+    <cfRule type="top10" dxfId="236" priority="150" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC72:AC82">
-    <cfRule type="top10" dxfId="279" priority="149" rank="2"/>
+    <cfRule type="top10" dxfId="235" priority="149" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD72:AD82">
-    <cfRule type="top10" dxfId="278" priority="148" rank="2"/>
+    <cfRule type="top10" dxfId="234" priority="148" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE72:AE82">
-    <cfRule type="top10" dxfId="277" priority="147" rank="2"/>
+    <cfRule type="top10" dxfId="233" priority="147" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF72:AF82">
-    <cfRule type="top10" dxfId="276" priority="146" rank="2"/>
+    <cfRule type="top10" dxfId="232" priority="146" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG72:AG82">
-    <cfRule type="top10" dxfId="275" priority="145" rank="2"/>
+    <cfRule type="top10" dxfId="231" priority="145" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH72:AH82">
-    <cfRule type="top10" dxfId="274" priority="144" rank="2"/>
+    <cfRule type="top10" dxfId="230" priority="144" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI72:AI82">
-    <cfRule type="top10" dxfId="273" priority="143" rank="2"/>
+    <cfRule type="top10" dxfId="229" priority="143" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ72:AJ82">
-    <cfRule type="top10" dxfId="272" priority="142" rank="2"/>
+    <cfRule type="top10" dxfId="228" priority="142" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK72:AK82">
-    <cfRule type="top10" dxfId="271" priority="141" rank="2"/>
+    <cfRule type="top10" dxfId="227" priority="141" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL72:AL82">
-    <cfRule type="top10" dxfId="270" priority="140" rank="2"/>
+    <cfRule type="top10" dxfId="226" priority="140" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM72:AM82">
-    <cfRule type="top10" dxfId="269" priority="139" rank="2"/>
+    <cfRule type="top10" dxfId="225" priority="139" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN72:AN82">
-    <cfRule type="top10" dxfId="268" priority="138" rank="2"/>
+    <cfRule type="top10" dxfId="224" priority="138" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO72:AO82">
-    <cfRule type="top10" dxfId="267" priority="137" rank="2"/>
+    <cfRule type="top10" dxfId="223" priority="137" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP72:AP82">
-    <cfRule type="top10" dxfId="266" priority="136" rank="2"/>
+    <cfRule type="top10" dxfId="222" priority="136" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ72:AQ82">
-    <cfRule type="top10" dxfId="265" priority="135" rank="2"/>
+    <cfRule type="top10" dxfId="221" priority="135" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR72:AR82">
-    <cfRule type="top10" dxfId="264" priority="134" rank="2"/>
+    <cfRule type="top10" dxfId="220" priority="134" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS72:AS82">
-    <cfRule type="top10" dxfId="263" priority="133" rank="2"/>
+    <cfRule type="top10" dxfId="219" priority="133" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT72:AT82">
-    <cfRule type="top10" dxfId="262" priority="132" rank="2"/>
+    <cfRule type="top10" dxfId="218" priority="132" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU72:AU82">
-    <cfRule type="top10" dxfId="261" priority="131" rank="2"/>
+    <cfRule type="top10" dxfId="217" priority="131" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV72:AV82">
-    <cfRule type="top10" dxfId="260" priority="130" rank="2"/>
+    <cfRule type="top10" dxfId="216" priority="130" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW72:AW82">
-    <cfRule type="top10" dxfId="259" priority="129" rank="2"/>
+    <cfRule type="top10" dxfId="215" priority="129" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX72:AX82">
-    <cfRule type="top10" dxfId="258" priority="128" rank="2"/>
+    <cfRule type="top10" dxfId="214" priority="128" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY72:AY82">
-    <cfRule type="top10" dxfId="257" priority="127" rank="2"/>
+    <cfRule type="top10" dxfId="213" priority="127" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ72:AZ82">
-    <cfRule type="top10" dxfId="256" priority="126" rank="2"/>
+    <cfRule type="top10" dxfId="212" priority="126" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA72:BA82">
-    <cfRule type="top10" dxfId="255" priority="125" rank="2"/>
+    <cfRule type="top10" dxfId="211" priority="125" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB72:BB82">
-    <cfRule type="top10" dxfId="254" priority="124" rank="2"/>
+    <cfRule type="top10" dxfId="210" priority="124" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC72:BC82">
-    <cfRule type="top10" dxfId="253" priority="123" rank="2"/>
+    <cfRule type="top10" dxfId="209" priority="123" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD72:BD82">
-    <cfRule type="top10" dxfId="252" priority="122" rank="2"/>
+    <cfRule type="top10" dxfId="208" priority="122" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE72:BE82">
-    <cfRule type="top10" dxfId="251" priority="121" rank="2"/>
+    <cfRule type="top10" dxfId="207" priority="121" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF72:BF82">
-    <cfRule type="top10" dxfId="250" priority="120" rank="2"/>
+    <cfRule type="top10" dxfId="206" priority="120" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG72:BG82">
-    <cfRule type="top10" dxfId="249" priority="119" rank="2"/>
+    <cfRule type="top10" dxfId="205" priority="119" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH72:BH82">
-    <cfRule type="top10" dxfId="248" priority="118" rank="2"/>
+    <cfRule type="top10" dxfId="204" priority="118" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI72:BI82">
-    <cfRule type="top10" dxfId="247" priority="117" rank="2"/>
+    <cfRule type="top10" dxfId="203" priority="117" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72:U75">
-    <cfRule type="top10" dxfId="246" priority="116" rank="2"/>
+    <cfRule type="top10" dxfId="202" priority="116" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J71">
-    <cfRule type="top10" dxfId="245" priority="675" rank="2"/>
+    <cfRule type="top10" dxfId="201" priority="675" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K71">
-    <cfRule type="top10" dxfId="244" priority="677" rank="2"/>
+    <cfRule type="top10" dxfId="200" priority="677" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L71">
-    <cfRule type="top10" dxfId="243" priority="679" rank="2"/>
+    <cfRule type="top10" dxfId="199" priority="679" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P71">
-    <cfRule type="top10" dxfId="242" priority="681" rank="2"/>
+    <cfRule type="top10" dxfId="198" priority="681" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q71">
-    <cfRule type="top10" dxfId="241" priority="683" rank="2"/>
+    <cfRule type="top10" dxfId="197" priority="683" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R71">
-    <cfRule type="top10" dxfId="240" priority="685" rank="2"/>
+    <cfRule type="top10" dxfId="196" priority="685" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U54 U57:U71">
-    <cfRule type="top10" dxfId="239" priority="687" rank="2"/>
+    <cfRule type="top10" dxfId="195" priority="687" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M54 M57:M71">
-    <cfRule type="top10" dxfId="238" priority="689" rank="2"/>
+    <cfRule type="top10" dxfId="194" priority="689" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N54 N57:N71">
-    <cfRule type="top10" dxfId="237" priority="691" rank="2"/>
+    <cfRule type="top10" dxfId="193" priority="691" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O54 O57:O71">
-    <cfRule type="top10" dxfId="236" priority="693" rank="2"/>
+    <cfRule type="top10" dxfId="192" priority="693" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y54 Y57:Y71">
-    <cfRule type="top10" dxfId="235" priority="695" rank="2"/>
+    <cfRule type="top10" dxfId="191" priority="695" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z54 Z57:Z71">
-    <cfRule type="top10" dxfId="234" priority="697" rank="2"/>
+    <cfRule type="top10" dxfId="190" priority="697" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA54 AA57:AA71">
-    <cfRule type="top10" dxfId="233" priority="699" rank="2"/>
+    <cfRule type="top10" dxfId="189" priority="699" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB54 AB57:AB71">
-    <cfRule type="top10" dxfId="232" priority="701" rank="2"/>
+    <cfRule type="top10" dxfId="188" priority="701" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC54 AC57:AC71">
-    <cfRule type="top10" dxfId="231" priority="703" rank="2"/>
+    <cfRule type="top10" dxfId="187" priority="703" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD54 AD57:AD71">
-    <cfRule type="top10" dxfId="230" priority="705" rank="2"/>
+    <cfRule type="top10" dxfId="186" priority="705" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE54 AE57:AE71">
-    <cfRule type="top10" dxfId="229" priority="707" rank="2"/>
+    <cfRule type="top10" dxfId="185" priority="707" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF54 AF57:AF71">
-    <cfRule type="top10" dxfId="228" priority="709" rank="2"/>
+    <cfRule type="top10" dxfId="184" priority="709" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG54 AG57:AG71">
-    <cfRule type="top10" dxfId="227" priority="711" rank="2"/>
+    <cfRule type="top10" dxfId="183" priority="711" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AH54 AH57:AH71">
-    <cfRule type="top10" dxfId="226" priority="713" rank="2"/>
+    <cfRule type="top10" dxfId="182" priority="713" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI71">
-    <cfRule type="top10" dxfId="225" priority="715" rank="2"/>
+    <cfRule type="top10" dxfId="181" priority="715" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ71">
-    <cfRule type="top10" dxfId="224" priority="717" rank="2"/>
+    <cfRule type="top10" dxfId="180" priority="717" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK71">
-    <cfRule type="top10" dxfId="223" priority="719" rank="2"/>
+    <cfRule type="top10" dxfId="179" priority="719" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AL71">
-    <cfRule type="top10" dxfId="222" priority="721" rank="2"/>
+    <cfRule type="top10" dxfId="178" priority="721" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM71">
-    <cfRule type="top10" dxfId="221" priority="723" rank="2"/>
+    <cfRule type="top10" dxfId="177" priority="723" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN71">
-    <cfRule type="top10" dxfId="220" priority="725" rank="2"/>
+    <cfRule type="top10" dxfId="176" priority="725" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO71">
-    <cfRule type="top10" dxfId="219" priority="727" rank="2"/>
+    <cfRule type="top10" dxfId="175" priority="727" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP71">
-    <cfRule type="top10" dxfId="218" priority="729" rank="2"/>
+    <cfRule type="top10" dxfId="174" priority="729" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ71">
-    <cfRule type="top10" dxfId="217" priority="731" rank="2"/>
+    <cfRule type="top10" dxfId="173" priority="731" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR71">
-    <cfRule type="top10" dxfId="216" priority="733" rank="2"/>
+    <cfRule type="top10" dxfId="172" priority="733" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS71">
-    <cfRule type="top10" dxfId="215" priority="735" rank="2"/>
+    <cfRule type="top10" dxfId="171" priority="735" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT71">
-    <cfRule type="top10" dxfId="214" priority="737" rank="2"/>
+    <cfRule type="top10" dxfId="170" priority="737" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU71">
-    <cfRule type="top10" dxfId="213" priority="739" rank="2"/>
+    <cfRule type="top10" dxfId="169" priority="739" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV71">
-    <cfRule type="top10" dxfId="212" priority="741" rank="2"/>
+    <cfRule type="top10" dxfId="168" priority="741" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW71">
-    <cfRule type="top10" dxfId="211" priority="743" rank="2"/>
+    <cfRule type="top10" dxfId="167" priority="743" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX71">
-    <cfRule type="top10" dxfId="210" priority="745" rank="2"/>
+    <cfRule type="top10" dxfId="166" priority="745" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY71">
-    <cfRule type="top10" dxfId="209" priority="747" rank="2"/>
+    <cfRule type="top10" dxfId="165" priority="747" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ71">
-    <cfRule type="top10" dxfId="208" priority="749" rank="2"/>
+    <cfRule type="top10" dxfId="164" priority="749" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA71">
-    <cfRule type="top10" dxfId="207" priority="751" rank="2"/>
+    <cfRule type="top10" dxfId="163" priority="751" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB71">
-    <cfRule type="top10" dxfId="206" priority="753" rank="2"/>
+    <cfRule type="top10" dxfId="162" priority="753" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC71">
-    <cfRule type="top10" dxfId="205" priority="755" rank="2"/>
+    <cfRule type="top10" dxfId="161" priority="755" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD71">
-    <cfRule type="top10" dxfId="204" priority="757" rank="2"/>
+    <cfRule type="top10" dxfId="160" priority="757" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE71">
-    <cfRule type="top10" dxfId="203" priority="759" rank="2"/>
+    <cfRule type="top10" dxfId="159" priority="759" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF71">
-    <cfRule type="top10" dxfId="202" priority="761" rank="2"/>
+    <cfRule type="top10" dxfId="158" priority="761" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG71">
-    <cfRule type="top10" dxfId="201" priority="763" rank="2"/>
+    <cfRule type="top10" dxfId="157" priority="763" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH71">
-    <cfRule type="top10" dxfId="200" priority="765" rank="2"/>
+    <cfRule type="top10" dxfId="156" priority="765" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI71">
-    <cfRule type="top10" dxfId="199" priority="767" rank="2"/>
+    <cfRule type="top10" dxfId="155" priority="767" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -30523,325 +29176,325 @@
     <cfRule type="top10" priority="181" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86:M93">
-    <cfRule type="top10" dxfId="448" priority="180" rank="2"/>
+    <cfRule type="top10" dxfId="154" priority="180" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N86:P93">
-    <cfRule type="top10" dxfId="447" priority="179" rank="2"/>
+    <cfRule type="top10" dxfId="153" priority="179" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q86:S93">
-    <cfRule type="top10" dxfId="446" priority="178" rank="2"/>
+    <cfRule type="top10" dxfId="152" priority="178" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T86:V93">
-    <cfRule type="top10" dxfId="445" priority="177" rank="2"/>
+    <cfRule type="top10" dxfId="151" priority="177" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W86:X93">
-    <cfRule type="top10" dxfId="444" priority="176" rank="2"/>
+    <cfRule type="top10" dxfId="150" priority="176" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y86:Z93">
-    <cfRule type="top10" dxfId="443" priority="175" rank="2"/>
+    <cfRule type="top10" dxfId="149" priority="175" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA86:AC93">
-    <cfRule type="top10" dxfId="442" priority="174" rank="2"/>
+    <cfRule type="top10" dxfId="148" priority="174" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD86:AE93">
-    <cfRule type="top10" dxfId="441" priority="173" rank="2"/>
+    <cfRule type="top10" dxfId="147" priority="173" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF86:AG93">
-    <cfRule type="top10" dxfId="440" priority="172" rank="2"/>
+    <cfRule type="top10" dxfId="146" priority="172" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN86:AN93">
-    <cfRule type="top10" dxfId="439" priority="171" rank="2"/>
+    <cfRule type="top10" dxfId="145" priority="171" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM86:AM93">
-    <cfRule type="top10" dxfId="438" priority="170" rank="2"/>
+    <cfRule type="top10" dxfId="144" priority="170" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:M50 J8:M47">
-    <cfRule type="top10" dxfId="437" priority="431" rank="2"/>
+    <cfRule type="top10" dxfId="143" priority="431" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:P50 N8:P47">
-    <cfRule type="top10" dxfId="436" priority="433" rank="2"/>
+    <cfRule type="top10" dxfId="142" priority="433" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50:S50 Q8:S47">
-    <cfRule type="top10" dxfId="435" priority="435" rank="2"/>
+    <cfRule type="top10" dxfId="141" priority="435" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA50:AC50 AA8:AC47">
-    <cfRule type="top10" dxfId="434" priority="437" rank="2"/>
+    <cfRule type="top10" dxfId="140" priority="437" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD50:AE50 AD8:AE47">
-    <cfRule type="top10" dxfId="433" priority="439" rank="2"/>
+    <cfRule type="top10" dxfId="139" priority="439" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF50:AG50 AF8:AG47">
-    <cfRule type="top10" dxfId="432" priority="441" rank="2"/>
+    <cfRule type="top10" dxfId="138" priority="441" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:V50 T8:V47">
-    <cfRule type="top10" dxfId="431" priority="445" rank="2"/>
+    <cfRule type="top10" dxfId="137" priority="445" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:X50 W8:X47">
-    <cfRule type="top10" dxfId="430" priority="447" rank="2"/>
+    <cfRule type="top10" dxfId="136" priority="447" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y50:Z50 Y8:Z47">
-    <cfRule type="top10" dxfId="429" priority="449" rank="2"/>
+    <cfRule type="top10" dxfId="135" priority="449" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO47:BX47 AN8:AN18 AN30:AN50">
-    <cfRule type="top10" dxfId="428" priority="451" rank="2"/>
+    <cfRule type="top10" dxfId="134" priority="451" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO48:AO50 AO8:AO18 AO30:AO46">
-    <cfRule type="top10" dxfId="427" priority="453" rank="2"/>
+    <cfRule type="top10" dxfId="133" priority="453" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP48:AP50 AP8:AP18 AP30:AP46">
-    <cfRule type="top10" dxfId="426" priority="455" rank="2"/>
+    <cfRule type="top10" dxfId="132" priority="455" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ48:AQ50 AQ8:AQ18 AQ30:AQ46">
-    <cfRule type="top10" dxfId="425" priority="457" rank="2"/>
+    <cfRule type="top10" dxfId="131" priority="457" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR48:AR50 AR8:AR18 AR30:AR46">
-    <cfRule type="top10" dxfId="424" priority="459" rank="2"/>
+    <cfRule type="top10" dxfId="130" priority="459" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS48:AS50 AS8:AS18 AS30:AS46">
-    <cfRule type="top10" dxfId="423" priority="461" rank="2"/>
+    <cfRule type="top10" dxfId="129" priority="461" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT48:AT50 AT8:AT18 AT30:AT46">
-    <cfRule type="top10" dxfId="422" priority="463" rank="2"/>
+    <cfRule type="top10" dxfId="128" priority="463" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU48:AU50 AU8:AU18 AU30:AU46">
-    <cfRule type="top10" dxfId="421" priority="465" rank="2"/>
+    <cfRule type="top10" dxfId="127" priority="465" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV48:AV50 AV8:AV18 AV30:AV46">
-    <cfRule type="top10" dxfId="420" priority="467" rank="2"/>
+    <cfRule type="top10" dxfId="126" priority="467" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW48:AW50 AW8:AW18 AW30:AW46">
-    <cfRule type="top10" dxfId="419" priority="469" rank="2"/>
+    <cfRule type="top10" dxfId="125" priority="469" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX48:AX50 AX8:AX18 AX30:AX46">
-    <cfRule type="top10" dxfId="418" priority="471" rank="2"/>
+    <cfRule type="top10" dxfId="124" priority="471" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY48:AY50 AY8:AY18 AY30:AY46">
-    <cfRule type="top10" dxfId="417" priority="473" rank="2"/>
+    <cfRule type="top10" dxfId="123" priority="473" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ48:AZ50 AZ8:AZ18 AZ30:AZ46">
-    <cfRule type="top10" dxfId="416" priority="475" rank="2"/>
+    <cfRule type="top10" dxfId="122" priority="475" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA48:BA50 BA8:BA18 BA30:BA46">
-    <cfRule type="top10" dxfId="415" priority="477" rank="2"/>
+    <cfRule type="top10" dxfId="121" priority="477" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB48:BB50 BB8:BB18 BB30:BB46">
-    <cfRule type="top10" dxfId="414" priority="479" rank="2"/>
+    <cfRule type="top10" dxfId="120" priority="479" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC48:BC50 BC8:BC18 BC30:BC46">
-    <cfRule type="top10" dxfId="413" priority="481" rank="2"/>
+    <cfRule type="top10" dxfId="119" priority="481" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD48:BD50 BD8:BD18 BD30:BD46">
-    <cfRule type="top10" dxfId="412" priority="483" rank="2"/>
+    <cfRule type="top10" dxfId="118" priority="483" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE48:BE50 BE8:BE18 BE30:BE46">
-    <cfRule type="top10" dxfId="411" priority="485" rank="2"/>
+    <cfRule type="top10" dxfId="117" priority="485" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF48:BF50 BF8:BF18 BF30:BF46">
-    <cfRule type="top10" dxfId="410" priority="487" rank="2"/>
+    <cfRule type="top10" dxfId="116" priority="487" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG48:BG50 BG8:BG18 BG30:BG46">
-    <cfRule type="top10" dxfId="409" priority="489" rank="2"/>
+    <cfRule type="top10" dxfId="115" priority="489" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH48:BH50 BH8:BH18 BH30:BH46">
-    <cfRule type="top10" dxfId="408" priority="491" rank="2"/>
+    <cfRule type="top10" dxfId="114" priority="491" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI48:BI50 BI8:BI18 BI30:BI46">
-    <cfRule type="top10" dxfId="407" priority="493" rank="2"/>
+    <cfRule type="top10" dxfId="113" priority="493" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ48:BJ50 BJ8:BJ18 BJ30:BJ46">
-    <cfRule type="top10" dxfId="406" priority="495" rank="2"/>
+    <cfRule type="top10" dxfId="112" priority="495" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK48:BK50 BK8:BK18 BK30:BK46">
-    <cfRule type="top10" dxfId="405" priority="497" rank="2"/>
+    <cfRule type="top10" dxfId="111" priority="497" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL48:BL50 BL8:BL18 BL30:BL46">
-    <cfRule type="top10" dxfId="404" priority="499" rank="2"/>
+    <cfRule type="top10" dxfId="110" priority="499" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM48:BM50 BM8:BM18 BM30:BM46">
-    <cfRule type="top10" dxfId="403" priority="501" rank="2"/>
+    <cfRule type="top10" dxfId="109" priority="501" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN48:BN50 BN8:BN18 BN30:BN46">
-    <cfRule type="top10" dxfId="402" priority="503" rank="2"/>
+    <cfRule type="top10" dxfId="108" priority="503" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO48:BO50 BO8:BO18 BO30:BO46">
-    <cfRule type="top10" dxfId="401" priority="505" rank="2"/>
+    <cfRule type="top10" dxfId="107" priority="505" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP48:BP50 BP8:BP18 BP30:BP46">
-    <cfRule type="top10" dxfId="400" priority="507" rank="2"/>
+    <cfRule type="top10" dxfId="106" priority="507" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ48:BQ50 BQ8:BQ18 BQ30:BQ46">
-    <cfRule type="top10" dxfId="399" priority="509" rank="2"/>
+    <cfRule type="top10" dxfId="105" priority="509" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR48:BR50 BR8:BR18 BR30:BR46">
-    <cfRule type="top10" dxfId="398" priority="511" rank="2"/>
+    <cfRule type="top10" dxfId="104" priority="511" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS48:BS50 BS8:BS18 BS30:BS46">
-    <cfRule type="top10" dxfId="397" priority="513" rank="2"/>
+    <cfRule type="top10" dxfId="103" priority="513" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT48:BT50 BT8:BT18 BT30:BT46">
-    <cfRule type="top10" dxfId="396" priority="515" rank="2"/>
+    <cfRule type="top10" dxfId="102" priority="515" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU48:BU50 BU8:BU18 BU30:BU46">
-    <cfRule type="top10" dxfId="395" priority="517" rank="2"/>
+    <cfRule type="top10" dxfId="101" priority="517" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV48:BV50 BV8:BV18 BV30:BV46">
-    <cfRule type="top10" dxfId="394" priority="519" rank="2"/>
+    <cfRule type="top10" dxfId="100" priority="519" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW48:BW50 BW8:BW18 BW30:BW46">
-    <cfRule type="top10" dxfId="393" priority="521" rank="2"/>
+    <cfRule type="top10" dxfId="99" priority="521" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX48:BX50 BX8:BX18 BX30:BX46">
-    <cfRule type="top10" dxfId="392" priority="523" rank="2"/>
+    <cfRule type="top10" dxfId="98" priority="523" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ18 AJ30:AJ50">
-    <cfRule type="top10" dxfId="391" priority="815" rank="2"/>
+    <cfRule type="top10" dxfId="97" priority="815" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19:AJ29">
-    <cfRule type="top10" dxfId="390" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="96" priority="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN19:AN29">
-    <cfRule type="top10" dxfId="389" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="95" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AO29">
-    <cfRule type="top10" dxfId="388" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="94" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP19:AP29">
-    <cfRule type="top10" dxfId="387" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="93" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:AQ29">
-    <cfRule type="top10" dxfId="386" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="92" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19:AR29">
-    <cfRule type="top10" dxfId="385" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="91" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19:AS29">
-    <cfRule type="top10" dxfId="384" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="90" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT19:AT29">
-    <cfRule type="top10" dxfId="383" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="89" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU19:AU29">
-    <cfRule type="top10" dxfId="382" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="88" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV19:AV29">
-    <cfRule type="top10" dxfId="381" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="87" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW19:AW29">
-    <cfRule type="top10" dxfId="380" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="86" priority="11" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX19:AX29">
-    <cfRule type="top10" dxfId="379" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="85" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19:AY29">
-    <cfRule type="top10" dxfId="378" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="84" priority="13" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19:AZ29">
-    <cfRule type="top10" dxfId="377" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="83" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA19:BA29">
-    <cfRule type="top10" dxfId="376" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="82" priority="15" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB19:BB29">
-    <cfRule type="top10" dxfId="375" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="81" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC19:BC29">
-    <cfRule type="top10" dxfId="374" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="80" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD19:BD29">
-    <cfRule type="top10" dxfId="373" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="79" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE19:BE29">
-    <cfRule type="top10" dxfId="372" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="78" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF19:BF29">
-    <cfRule type="top10" dxfId="371" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="77" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG19:BG29">
-    <cfRule type="top10" dxfId="370" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="76" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH19:BH29">
-    <cfRule type="top10" dxfId="369" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="75" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI19:BI29">
-    <cfRule type="top10" dxfId="368" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="74" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ19:BJ29">
-    <cfRule type="top10" dxfId="367" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="73" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK19:BK29">
-    <cfRule type="top10" dxfId="366" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="72" priority="25" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL19:BL29">
-    <cfRule type="top10" dxfId="365" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="71" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM19:BM29">
-    <cfRule type="top10" dxfId="364" priority="27" rank="2"/>
+    <cfRule type="top10" dxfId="70" priority="27" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN19:BN29">
-    <cfRule type="top10" dxfId="363" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="69" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO19:BO29">
-    <cfRule type="top10" dxfId="362" priority="29" rank="2"/>
+    <cfRule type="top10" dxfId="68" priority="29" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP19:BP29">
-    <cfRule type="top10" dxfId="361" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="67" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ19:BQ29">
-    <cfRule type="top10" dxfId="360" priority="31" rank="2"/>
+    <cfRule type="top10" dxfId="66" priority="31" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR19:BR29">
-    <cfRule type="top10" dxfId="359" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="65" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS19:BS29">
-    <cfRule type="top10" dxfId="358" priority="33" rank="2"/>
+    <cfRule type="top10" dxfId="64" priority="33" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT19:BT29">
-    <cfRule type="top10" dxfId="357" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="63" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU19:BU29">
-    <cfRule type="top10" dxfId="356" priority="35" rank="2"/>
+    <cfRule type="top10" dxfId="62" priority="35" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV19:BV29">
-    <cfRule type="top10" dxfId="355" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="61" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW19:BW29">
-    <cfRule type="top10" dxfId="354" priority="37" rank="2"/>
+    <cfRule type="top10" dxfId="60" priority="37" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX19:BX29">
-    <cfRule type="top10" dxfId="353" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="59" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:M85">
-    <cfRule type="top10" dxfId="352" priority="816" rank="2"/>
+    <cfRule type="top10" dxfId="58" priority="816" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51:P85">
-    <cfRule type="top10" dxfId="351" priority="818" rank="2"/>
+    <cfRule type="top10" dxfId="57" priority="818" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:S85">
-    <cfRule type="top10" dxfId="350" priority="820" rank="2"/>
+    <cfRule type="top10" dxfId="56" priority="820" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:AC85">
-    <cfRule type="top10" dxfId="349" priority="822" rank="2"/>
+    <cfRule type="top10" dxfId="55" priority="822" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD51:AE85">
-    <cfRule type="top10" dxfId="348" priority="824" rank="2"/>
+    <cfRule type="top10" dxfId="54" priority="824" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF51:AG85">
-    <cfRule type="top10" dxfId="347" priority="826" rank="2"/>
+    <cfRule type="top10" dxfId="53" priority="826" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ51:AJ85">
-    <cfRule type="top10" dxfId="346" priority="828" rank="2"/>
+    <cfRule type="top10" dxfId="52" priority="828" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:V85">
-    <cfRule type="top10" dxfId="345" priority="830" rank="2"/>
+    <cfRule type="top10" dxfId="51" priority="830" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:X85">
-    <cfRule type="top10" dxfId="344" priority="832" rank="2"/>
+    <cfRule type="top10" dxfId="50" priority="832" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y51:Z85">
-    <cfRule type="top10" dxfId="343" priority="834" rank="2"/>
+    <cfRule type="top10" dxfId="49" priority="834" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN51:BX85">
-    <cfRule type="top10" dxfId="342" priority="836" rank="2"/>
+    <cfRule type="top10" dxfId="48" priority="836" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -37857,148 +36510,148 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J8:J41">
-    <cfRule type="top10" dxfId="341" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="47" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K41">
-    <cfRule type="top10" dxfId="340" priority="47" rank="2"/>
+    <cfRule type="top10" dxfId="46" priority="47" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L41">
-    <cfRule type="top10" dxfId="339" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="45" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M41">
-    <cfRule type="top10" dxfId="338" priority="45" rank="2"/>
+    <cfRule type="top10" dxfId="44" priority="45" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C33 N8:N41">
-    <cfRule type="top10" dxfId="337" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="43" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D33 O8:O41">
-    <cfRule type="top10" dxfId="336" priority="43" rank="2"/>
+    <cfRule type="top10" dxfId="42" priority="43" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E33 P8:P41">
-    <cfRule type="top10" dxfId="335" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="41" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F33 Q8:Q41">
-    <cfRule type="top10" dxfId="334" priority="41" rank="2"/>
+    <cfRule type="top10" dxfId="40" priority="41" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G33 R8:R41">
-    <cfRule type="top10" dxfId="333" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="39" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y41">
-    <cfRule type="top10" dxfId="332" priority="39" rank="2"/>
+    <cfRule type="top10" dxfId="38" priority="39" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X41">
-    <cfRule type="top10" dxfId="331" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="37" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z41">
-    <cfRule type="top10" dxfId="330" priority="37" rank="2"/>
+    <cfRule type="top10" dxfId="36" priority="37" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA41">
-    <cfRule type="top10" dxfId="329" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="35" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB41">
-    <cfRule type="top10" dxfId="328" priority="35" rank="2"/>
+    <cfRule type="top10" dxfId="34" priority="35" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC41">
-    <cfRule type="top10" dxfId="327" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="33" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD41">
-    <cfRule type="top10" dxfId="326" priority="33" rank="2"/>
+    <cfRule type="top10" dxfId="32" priority="33" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE41">
-    <cfRule type="top10" dxfId="325" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="31" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF41">
-    <cfRule type="top10" dxfId="324" priority="31" rank="2"/>
+    <cfRule type="top10" dxfId="30" priority="31" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG41">
-    <cfRule type="top10" dxfId="323" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="29" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH8:AH41">
-    <cfRule type="top10" dxfId="322" priority="29" rank="2"/>
+    <cfRule type="top10" dxfId="28" priority="29" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI41">
-    <cfRule type="top10" dxfId="321" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="27" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ41">
-    <cfRule type="top10" dxfId="320" priority="27" rank="2"/>
+    <cfRule type="top10" dxfId="26" priority="27" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK41">
-    <cfRule type="top10" dxfId="319" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="25" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AL41">
-    <cfRule type="top10" dxfId="318" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="24" priority="25" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM41">
-    <cfRule type="top10" dxfId="317" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="23" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN8:AN41">
-    <cfRule type="top10" dxfId="316" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="22" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8:AO41">
-    <cfRule type="top10" dxfId="315" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="21" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8:AP41">
-    <cfRule type="top10" dxfId="314" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="20" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ41">
-    <cfRule type="top10" dxfId="313" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="19" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AR41">
-    <cfRule type="top10" dxfId="312" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="18" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AS41">
-    <cfRule type="top10" dxfId="311" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="17" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8:AT41">
-    <cfRule type="top10" dxfId="310" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="16" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:AU41">
-    <cfRule type="top10" dxfId="309" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="15" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV8:AV41">
-    <cfRule type="top10" dxfId="308" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="15" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW8:AW41">
-    <cfRule type="top10" dxfId="307" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:AX41">
-    <cfRule type="top10" dxfId="306" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="13" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY41">
-    <cfRule type="top10" dxfId="305" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="11" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ41">
-    <cfRule type="top10" dxfId="304" priority="11" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="11" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BA41">
-    <cfRule type="top10" dxfId="303" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="9" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB8:BB41">
-    <cfRule type="top10" dxfId="302" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC8:BC41">
-    <cfRule type="top10" dxfId="301" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="7" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BD41">
-    <cfRule type="top10" dxfId="300" priority="7" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="7" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE8:BE41">
-    <cfRule type="top10" dxfId="299" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF8:BF41">
-    <cfRule type="top10" dxfId="298" priority="5" rank="2"/>
+    <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG8:BG41">
-    <cfRule type="top10" dxfId="297" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH8:BH41">
-    <cfRule type="top10" dxfId="296" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI8:BI41">
-    <cfRule type="top10" dxfId="295" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U41">
-    <cfRule type="top10" dxfId="294" priority="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
